--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="372">
   <si>
     <t>Fecha</t>
   </si>
@@ -1118,6 +1118,15 @@
   </si>
   <si>
     <t>11/6/2020 4:45:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:15:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:30:00 PM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1478,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M357"/>
+  <dimension ref="A1:M360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,7 +1566,7 @@
         <v>24.22</v>
       </c>
       <c r="M2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1595,7 +1604,7 @@
         <v>27.64</v>
       </c>
       <c r="M3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1633,7 +1642,7 @@
         <v>24.68</v>
       </c>
       <c r="M4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1671,7 +1680,7 @@
         <v>26.76</v>
       </c>
       <c r="M5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1709,7 +1718,7 @@
         <v>23.02</v>
       </c>
       <c r="M6" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1747,7 +1756,7 @@
         <v>22.08</v>
       </c>
       <c r="M7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1788,7 +1797,7 @@
         <v>20.56</v>
       </c>
       <c r="M8" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1826,7 +1835,7 @@
         <v>21.14</v>
       </c>
       <c r="M9" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1864,7 +1873,7 @@
         <v>24.1</v>
       </c>
       <c r="M10" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1902,7 +1911,7 @@
         <v>24.32</v>
       </c>
       <c r="M11" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1940,7 +1949,7 @@
         <v>23.99</v>
       </c>
       <c r="M12" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1978,7 +1987,7 @@
         <v>25.26</v>
       </c>
       <c r="M13" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2016,7 +2025,7 @@
         <v>23.81</v>
       </c>
       <c r="M14" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2054,7 +2063,7 @@
         <v>27.4</v>
       </c>
       <c r="M15" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2095,7 +2104,7 @@
         <v>29.91</v>
       </c>
       <c r="M16" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2133,7 +2142,7 @@
         <v>32.46</v>
       </c>
       <c r="M17" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2171,7 +2180,7 @@
         <v>29.45</v>
       </c>
       <c r="M18" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2209,7 +2218,7 @@
         <v>26.99</v>
       </c>
       <c r="M19" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2247,7 +2256,7 @@
         <v>28.5</v>
       </c>
       <c r="M20" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2288,7 +2297,7 @@
         <v>27.38</v>
       </c>
       <c r="M21" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2326,7 +2335,7 @@
         <v>26.59</v>
       </c>
       <c r="M22" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2364,7 +2373,7 @@
         <v>26.66</v>
       </c>
       <c r="M23" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2402,7 +2411,7 @@
         <v>26.54</v>
       </c>
       <c r="M24" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2443,7 +2452,7 @@
         <v>24.75</v>
       </c>
       <c r="M25" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2484,7 +2493,7 @@
         <v>24.76</v>
       </c>
       <c r="M26" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2522,7 +2531,7 @@
         <v>25.95</v>
       </c>
       <c r="M27" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2560,7 +2569,7 @@
         <v>30.26</v>
       </c>
       <c r="M28" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2598,7 +2607,7 @@
         <v>30.55</v>
       </c>
       <c r="M29" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2636,7 +2645,7 @@
         <v>29.03</v>
       </c>
       <c r="M30" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2674,7 +2683,7 @@
         <v>27.79</v>
       </c>
       <c r="M31" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2712,7 +2721,7 @@
         <v>27.53</v>
       </c>
       <c r="M32" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2750,7 +2759,7 @@
         <v>29.95</v>
       </c>
       <c r="M33" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2788,7 +2797,7 @@
         <v>33.83</v>
       </c>
       <c r="M34" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2826,7 +2835,7 @@
         <v>31.65</v>
       </c>
       <c r="M35" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2864,7 +2873,7 @@
         <v>31.29</v>
       </c>
       <c r="M36" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2902,7 +2911,7 @@
         <v>35.05</v>
       </c>
       <c r="M37" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2940,7 +2949,7 @@
         <v>36.86</v>
       </c>
       <c r="M38" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2978,7 +2987,7 @@
         <v>36.65</v>
       </c>
       <c r="M39" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3016,7 +3025,7 @@
         <v>36.55</v>
       </c>
       <c r="M40" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3054,7 +3063,7 @@
         <v>39.7</v>
       </c>
       <c r="M41" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3092,7 +3101,7 @@
         <v>41</v>
       </c>
       <c r="M42" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3130,7 +3139,7 @@
         <v>43.21</v>
       </c>
       <c r="M43" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3168,7 +3177,7 @@
         <v>41.48</v>
       </c>
       <c r="M44" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3206,7 +3215,7 @@
         <v>39.21</v>
       </c>
       <c r="M45" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3244,7 +3253,7 @@
         <v>42.08</v>
       </c>
       <c r="M46" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3282,7 +3291,7 @@
         <v>39.41</v>
       </c>
       <c r="M47" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3320,7 +3329,7 @@
         <v>37.76</v>
       </c>
       <c r="M48" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3358,7 +3367,7 @@
         <v>39.93</v>
       </c>
       <c r="M49" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3396,7 +3405,7 @@
         <v>39.54</v>
       </c>
       <c r="M50" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3434,7 +3443,7 @@
         <v>38.05</v>
       </c>
       <c r="M51" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3472,7 +3481,7 @@
         <v>38.25</v>
       </c>
       <c r="M52" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3510,7 +3519,7 @@
         <v>39.13</v>
       </c>
       <c r="M53" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3548,7 +3557,7 @@
         <v>35.27</v>
       </c>
       <c r="M54" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3586,7 +3595,7 @@
         <v>32.57</v>
       </c>
       <c r="M55" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3624,7 +3633,7 @@
         <v>31.78</v>
       </c>
       <c r="M56" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3662,7 +3671,7 @@
         <v>29.82</v>
       </c>
       <c r="M57" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3700,7 +3709,7 @@
         <v>30.82</v>
       </c>
       <c r="M58" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3738,7 +3747,7 @@
         <v>29.07</v>
       </c>
       <c r="M59" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3776,7 +3785,7 @@
         <v>35.48</v>
       </c>
       <c r="M60" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3814,7 +3823,7 @@
         <v>31.4</v>
       </c>
       <c r="M61" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3852,7 +3861,7 @@
         <v>33.27</v>
       </c>
       <c r="M62" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3890,7 +3899,7 @@
         <v>34.66</v>
       </c>
       <c r="M63" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3928,7 +3937,7 @@
         <v>35.65</v>
       </c>
       <c r="M64" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3966,7 +3975,7 @@
         <v>35.39</v>
       </c>
       <c r="M65" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4004,7 +4013,7 @@
         <v>32.81</v>
       </c>
       <c r="M66" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4042,7 +4051,7 @@
         <v>32.71</v>
       </c>
       <c r="M67" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4080,7 +4089,7 @@
         <v>31.65</v>
       </c>
       <c r="M68" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4118,7 +4127,7 @@
         <v>32.47</v>
       </c>
       <c r="M69" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4156,7 +4165,7 @@
         <v>33.63</v>
       </c>
       <c r="M70" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4194,7 +4203,7 @@
         <v>31.13</v>
       </c>
       <c r="M71" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4232,7 +4241,7 @@
         <v>31.24</v>
       </c>
       <c r="M72" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4270,7 +4279,7 @@
         <v>32.87</v>
       </c>
       <c r="M73" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4308,7 +4317,7 @@
         <v>28.53</v>
       </c>
       <c r="M74" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4346,7 +4355,7 @@
         <v>30.24</v>
       </c>
       <c r="M75" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4384,7 +4393,7 @@
         <v>31.3</v>
       </c>
       <c r="M76" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4422,7 +4431,7 @@
         <v>30.96</v>
       </c>
       <c r="M77" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4460,7 +4469,7 @@
         <v>31.62</v>
       </c>
       <c r="M78" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4498,7 +4507,7 @@
         <v>31.56</v>
       </c>
       <c r="M79" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4536,7 +4545,7 @@
         <v>30.3</v>
       </c>
       <c r="M80" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4574,7 +4583,7 @@
         <v>29.24</v>
       </c>
       <c r="M81" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4612,7 +4621,7 @@
         <v>28.03</v>
       </c>
       <c r="M82" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4650,7 +4659,7 @@
         <v>28.99</v>
       </c>
       <c r="M83" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4688,7 +4697,7 @@
         <v>20.62</v>
       </c>
       <c r="M84" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4726,7 +4735,7 @@
         <v>23.71</v>
       </c>
       <c r="M85" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4764,7 +4773,7 @@
         <v>22.79</v>
       </c>
       <c r="M86" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4802,7 +4811,7 @@
         <v>19.52</v>
       </c>
       <c r="M87" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4840,7 +4849,7 @@
         <v>20.19</v>
       </c>
       <c r="M88" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4878,7 +4887,7 @@
         <v>24.75</v>
       </c>
       <c r="M89" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4916,7 +4925,7 @@
         <v>20.96</v>
       </c>
       <c r="M90" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4954,7 +4963,7 @@
         <v>19.67</v>
       </c>
       <c r="M91" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4992,7 +5001,7 @@
         <v>20.08</v>
       </c>
       <c r="M92" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -5030,7 +5039,7 @@
         <v>24.39</v>
       </c>
       <c r="M93" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -5068,7 +5077,7 @@
         <v>22.93</v>
       </c>
       <c r="M94" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -5106,7 +5115,7 @@
         <v>24.24</v>
       </c>
       <c r="M95" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5144,7 +5153,7 @@
         <v>25.26</v>
       </c>
       <c r="M96" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5182,7 +5191,7 @@
         <v>25.76</v>
       </c>
       <c r="M97" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5220,7 +5229,7 @@
         <v>27.25</v>
       </c>
       <c r="M98" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5258,7 +5267,7 @@
         <v>27.58</v>
       </c>
       <c r="M99" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5296,7 +5305,7 @@
         <v>29.23</v>
       </c>
       <c r="M100" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5334,7 +5343,7 @@
         <v>30.96</v>
       </c>
       <c r="M101" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5372,7 +5381,7 @@
         <v>32.77</v>
       </c>
       <c r="M102" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5410,7 +5419,7 @@
         <v>33.73</v>
       </c>
       <c r="M103" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5448,7 +5457,7 @@
         <v>31.11</v>
       </c>
       <c r="M104" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5486,7 +5495,7 @@
         <v>30.99</v>
       </c>
       <c r="M105" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5524,7 +5533,7 @@
         <v>35.08</v>
       </c>
       <c r="M106" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5562,7 +5571,7 @@
         <v>36.34</v>
       </c>
       <c r="M107" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5600,7 +5609,7 @@
         <v>35.58</v>
       </c>
       <c r="M108" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5638,7 +5647,7 @@
         <v>32.08</v>
       </c>
       <c r="M109" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5676,7 +5685,7 @@
         <v>35</v>
       </c>
       <c r="M110" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5714,7 +5723,7 @@
         <v>33.57</v>
       </c>
       <c r="M111" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5755,7 +5764,7 @@
         <v>30.58</v>
       </c>
       <c r="M112" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5793,7 +5802,7 @@
         <v>36.08</v>
       </c>
       <c r="M113" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5831,7 +5840,7 @@
         <v>40.23</v>
       </c>
       <c r="M114" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5869,7 +5878,7 @@
         <v>36.22</v>
       </c>
       <c r="M115" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5907,7 +5916,7 @@
         <v>30.27</v>
       </c>
       <c r="M116" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5945,7 +5954,7 @@
         <v>29.82</v>
       </c>
       <c r="M117" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5983,7 +5992,7 @@
         <v>30.31</v>
       </c>
       <c r="M118" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -6021,7 +6030,7 @@
         <v>30.79</v>
       </c>
       <c r="M119" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -6059,7 +6068,7 @@
         <v>31.17</v>
       </c>
       <c r="M120" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -6097,7 +6106,7 @@
         <v>31.76</v>
       </c>
       <c r="M121" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6135,7 +6144,7 @@
         <v>29.36</v>
       </c>
       <c r="M122" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6176,7 +6185,7 @@
         <v>26.38</v>
       </c>
       <c r="M123" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6214,7 +6223,7 @@
         <v>23.96</v>
       </c>
       <c r="M124" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6252,7 +6261,7 @@
         <v>24.54</v>
       </c>
       <c r="M125" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6290,7 +6299,7 @@
         <v>25.64</v>
       </c>
       <c r="M126" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6328,7 +6337,7 @@
         <v>25.81</v>
       </c>
       <c r="M127" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6366,7 +6375,7 @@
         <v>27.59</v>
       </c>
       <c r="M128" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6404,7 +6413,7 @@
         <v>29.08</v>
       </c>
       <c r="M129" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6442,7 +6451,7 @@
         <v>29.58</v>
       </c>
       <c r="M130" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6480,7 +6489,7 @@
         <v>28</v>
       </c>
       <c r="M131" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6518,7 +6527,7 @@
         <v>32.3</v>
       </c>
       <c r="M132" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6556,7 +6565,7 @@
         <v>33.85</v>
       </c>
       <c r="M133" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6594,7 +6603,7 @@
         <v>36.95</v>
       </c>
       <c r="M134" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6632,7 +6641,7 @@
         <v>38.77</v>
       </c>
       <c r="M135" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6670,7 +6679,7 @@
         <v>37.08</v>
       </c>
       <c r="M136" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6708,7 +6717,7 @@
         <v>37.38</v>
       </c>
       <c r="M137" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6746,7 +6755,7 @@
         <v>38</v>
       </c>
       <c r="M138" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6784,7 +6793,7 @@
         <v>45.17</v>
       </c>
       <c r="M139" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6822,7 +6831,7 @@
         <v>44.28</v>
       </c>
       <c r="M140" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6860,7 +6869,7 @@
         <v>36.92</v>
       </c>
       <c r="M141" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6898,7 +6907,7 @@
         <v>36.9</v>
       </c>
       <c r="M142" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6936,7 +6945,7 @@
         <v>39.34</v>
       </c>
       <c r="M143" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6974,7 +6983,7 @@
         <v>43.32</v>
       </c>
       <c r="M144" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -7012,7 +7021,7 @@
         <v>37.36</v>
       </c>
       <c r="M145" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -7050,7 +7059,7 @@
         <v>38.32</v>
       </c>
       <c r="M146" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -7088,7 +7097,7 @@
         <v>36.03</v>
       </c>
       <c r="M147" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7126,7 +7135,7 @@
         <v>33.12</v>
       </c>
       <c r="M148" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7164,7 +7173,7 @@
         <v>30.01</v>
       </c>
       <c r="M149" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7202,7 +7211,7 @@
         <v>27.63</v>
       </c>
       <c r="M150" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7240,7 +7249,7 @@
         <v>29.81</v>
       </c>
       <c r="M151" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7278,7 +7287,7 @@
         <v>26.09</v>
       </c>
       <c r="M152" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7316,7 +7325,7 @@
         <v>26.18</v>
       </c>
       <c r="M153" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7354,7 +7363,7 @@
         <v>26.03</v>
       </c>
       <c r="M154" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7392,7 +7401,7 @@
         <v>29.17</v>
       </c>
       <c r="M155" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7430,7 +7439,7 @@
         <v>25.62</v>
       </c>
       <c r="M156" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7468,7 +7477,7 @@
         <v>23.9</v>
       </c>
       <c r="M157" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7506,7 +7515,7 @@
         <v>23.17</v>
       </c>
       <c r="M158" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7544,7 +7553,7 @@
         <v>21.4</v>
       </c>
       <c r="M159" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7582,7 +7591,7 @@
         <v>26.19</v>
       </c>
       <c r="M160" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7620,7 +7629,7 @@
         <v>24.6</v>
       </c>
       <c r="M161" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7658,7 +7667,7 @@
         <v>28.73</v>
       </c>
       <c r="M162" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7696,7 +7705,7 @@
         <v>33.26</v>
       </c>
       <c r="M163" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7734,7 +7743,7 @@
         <v>30.24</v>
       </c>
       <c r="M164" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7772,7 +7781,7 @@
         <v>28.86</v>
       </c>
       <c r="M165" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7810,7 +7819,7 @@
         <v>30.01</v>
       </c>
       <c r="M166" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7848,7 +7857,7 @@
         <v>26.64</v>
       </c>
       <c r="M167" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7886,7 +7895,7 @@
         <v>25.35</v>
       </c>
       <c r="M168" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7924,7 +7933,7 @@
         <v>26.18</v>
       </c>
       <c r="M169" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7962,7 +7971,7 @@
         <v>25.23</v>
       </c>
       <c r="M170" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -8000,7 +8009,7 @@
         <v>23.82</v>
       </c>
       <c r="M171" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -8038,7 +8047,7 @@
         <v>21.09</v>
       </c>
       <c r="M172" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -8076,7 +8085,7 @@
         <v>18.12</v>
       </c>
       <c r="M173" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8114,7 +8123,7 @@
         <v>17.7</v>
       </c>
       <c r="M174" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8152,7 +8161,7 @@
         <v>16.45</v>
       </c>
       <c r="M175" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8190,7 +8199,7 @@
         <v>18.4</v>
       </c>
       <c r="M176" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8228,7 +8237,7 @@
         <v>18.42</v>
       </c>
       <c r="M177" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8266,7 +8275,7 @@
         <v>19.33</v>
       </c>
       <c r="M178" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8304,7 +8313,7 @@
         <v>19.88</v>
       </c>
       <c r="M179" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8342,7 +8351,7 @@
         <v>23.34</v>
       </c>
       <c r="M180" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8380,7 +8389,7 @@
         <v>22.26</v>
       </c>
       <c r="M181" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8418,7 +8427,7 @@
         <v>23.84</v>
       </c>
       <c r="M182" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8456,7 +8465,7 @@
         <v>23.76</v>
       </c>
       <c r="M183" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8494,7 +8503,7 @@
         <v>26.78</v>
       </c>
       <c r="M184" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8532,7 +8541,7 @@
         <v>25.78</v>
       </c>
       <c r="M185" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8570,7 +8579,7 @@
         <v>28.48</v>
       </c>
       <c r="M186" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8608,7 +8617,7 @@
         <v>26.82</v>
       </c>
       <c r="M187" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8646,7 +8655,7 @@
         <v>27.39</v>
       </c>
       <c r="M188" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8684,7 +8693,7 @@
         <v>27.56</v>
       </c>
       <c r="M189" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8722,7 +8731,7 @@
         <v>21.49</v>
       </c>
       <c r="M190" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8760,7 +8769,7 @@
         <v>20</v>
       </c>
       <c r="M191" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8798,7 +8807,7 @@
         <v>18.95</v>
       </c>
       <c r="M192" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8836,7 +8845,7 @@
         <v>17.5</v>
       </c>
       <c r="M193" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8874,7 +8883,7 @@
         <v>18.78</v>
       </c>
       <c r="M194" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8912,7 +8921,7 @@
         <v>20.88</v>
       </c>
       <c r="M195" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8950,7 +8959,7 @@
         <v>19.91</v>
       </c>
       <c r="M196" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8988,7 +8997,7 @@
         <v>19.94</v>
       </c>
       <c r="M197" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -9026,7 +9035,7 @@
         <v>20.01</v>
       </c>
       <c r="M198" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -9064,7 +9073,7 @@
         <v>21.37</v>
       </c>
       <c r="M199" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -9102,7 +9111,7 @@
         <v>20.76</v>
       </c>
       <c r="M200" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -9143,7 +9152,7 @@
         <v>22.33</v>
       </c>
       <c r="M201" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9181,7 +9190,7 @@
         <v>22.11</v>
       </c>
       <c r="M202" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9222,7 +9231,7 @@
         <v>22.76</v>
       </c>
       <c r="M203" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9260,7 +9269,7 @@
         <v>20.02</v>
       </c>
       <c r="M204" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9298,7 +9307,7 @@
         <v>19.48</v>
       </c>
       <c r="M205" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9336,7 +9345,7 @@
         <v>18.43</v>
       </c>
       <c r="M206" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9374,7 +9383,7 @@
         <v>19.89</v>
       </c>
       <c r="M207" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9415,7 +9424,7 @@
         <v>21.06</v>
       </c>
       <c r="M208" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9453,7 +9462,7 @@
         <v>18</v>
       </c>
       <c r="M209" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9491,7 +9500,7 @@
         <v>19.46</v>
       </c>
       <c r="M210" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9529,7 +9538,7 @@
         <v>20.73</v>
       </c>
       <c r="M211" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9567,7 +9576,7 @@
         <v>19.68</v>
       </c>
       <c r="M212" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9608,7 +9617,7 @@
         <v>18.83</v>
       </c>
       <c r="M213" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9646,7 +9655,7 @@
         <v>18.63</v>
       </c>
       <c r="M214" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9687,7 +9696,7 @@
         <v>17.44</v>
       </c>
       <c r="M215" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9728,7 +9737,7 @@
         <v>19.62</v>
       </c>
       <c r="M216" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9769,7 +9778,7 @@
         <v>17.25</v>
       </c>
       <c r="M217" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9810,7 +9819,7 @@
         <v>17</v>
       </c>
       <c r="M218" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9851,7 +9860,7 @@
         <v>15.7</v>
       </c>
       <c r="M219" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9892,7 +9901,7 @@
         <v>15.75</v>
       </c>
       <c r="M220" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9933,7 +9942,7 @@
         <v>17.72</v>
       </c>
       <c r="M221" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9974,7 +9983,7 @@
         <v>17.85</v>
       </c>
       <c r="M222" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -10015,7 +10024,7 @@
         <v>20.48</v>
       </c>
       <c r="M223" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -10056,7 +10065,7 @@
         <v>22.53</v>
       </c>
       <c r="M224" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -10097,7 +10106,7 @@
         <v>24.81</v>
       </c>
       <c r="M225" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -10138,7 +10147,7 @@
         <v>26.52</v>
       </c>
       <c r="M226" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10179,7 +10188,7 @@
         <v>23.77</v>
       </c>
       <c r="M227" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10220,7 +10229,7 @@
         <v>23.01</v>
       </c>
       <c r="M228" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10261,7 +10270,7 @@
         <v>21.61</v>
       </c>
       <c r="M229" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10299,7 +10308,7 @@
         <v>21.51</v>
       </c>
       <c r="M230" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10337,7 +10346,7 @@
         <v>20.65</v>
       </c>
       <c r="M231" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10375,7 +10384,7 @@
         <v>19.52</v>
       </c>
       <c r="M232" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10413,7 +10422,7 @@
         <v>18.28</v>
       </c>
       <c r="M233" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10451,7 +10460,7 @@
         <v>19.69</v>
       </c>
       <c r="M234" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10489,7 +10498,7 @@
         <v>19.77</v>
       </c>
       <c r="M235" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10527,7 +10536,7 @@
         <v>21.67</v>
       </c>
       <c r="M236" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10565,7 +10574,7 @@
         <v>24.42</v>
       </c>
       <c r="M237" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10603,7 +10612,7 @@
         <v>19.73</v>
       </c>
       <c r="M238" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10641,7 +10650,7 @@
         <v>18.9</v>
       </c>
       <c r="M239" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10679,7 +10688,7 @@
         <v>18.77</v>
       </c>
       <c r="M240" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10717,7 +10726,7 @@
         <v>20.96</v>
       </c>
       <c r="M241" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10755,7 +10764,7 @@
         <v>20.48</v>
       </c>
       <c r="M242" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10793,7 +10802,7 @@
         <v>20.51</v>
       </c>
       <c r="M243" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10831,7 +10840,7 @@
         <v>21.62</v>
       </c>
       <c r="M244" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10869,7 +10878,7 @@
         <v>17.92</v>
       </c>
       <c r="M245" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10907,7 +10916,7 @@
         <v>14.38</v>
       </c>
       <c r="M246" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10945,7 +10954,7 @@
         <v>12.67</v>
       </c>
       <c r="M247" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10983,7 +10992,7 @@
         <v>16.91</v>
       </c>
       <c r="M248" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -11021,7 +11030,7 @@
         <v>17.45</v>
       </c>
       <c r="M249" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -11059,7 +11068,7 @@
         <v>16.12</v>
       </c>
       <c r="M250" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -11097,7 +11106,7 @@
         <v>15.12</v>
       </c>
       <c r="M251" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -11135,7 +11144,7 @@
         <v>12.87</v>
       </c>
       <c r="M252" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11173,7 +11182,7 @@
         <v>11.68</v>
       </c>
       <c r="M253" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11211,7 +11220,7 @@
         <v>11.33</v>
       </c>
       <c r="M254" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11249,7 +11258,7 @@
         <v>10.88</v>
       </c>
       <c r="M255" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11287,7 +11296,7 @@
         <v>10.58</v>
       </c>
       <c r="M256" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11325,7 +11334,7 @@
         <v>11.63</v>
       </c>
       <c r="M257" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11363,7 +11372,7 @@
         <v>10.75</v>
       </c>
       <c r="M258" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11401,7 +11410,7 @@
         <v>10.56</v>
       </c>
       <c r="M259" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11439,7 +11448,7 @@
         <v>10.59</v>
       </c>
       <c r="M260" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11477,7 +11486,7 @@
         <v>11.46</v>
       </c>
       <c r="M261" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11515,7 +11524,7 @@
         <v>10.16</v>
       </c>
       <c r="M262" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11553,7 +11562,7 @@
         <v>9.26</v>
       </c>
       <c r="M263" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11591,7 +11600,7 @@
         <v>9.35</v>
       </c>
       <c r="M264" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11629,7 +11638,7 @@
         <v>8.68</v>
       </c>
       <c r="M265" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11667,7 +11676,7 @@
         <v>9.15</v>
       </c>
       <c r="M266" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11705,7 +11714,7 @@
         <v>8.140000000000001</v>
       </c>
       <c r="M267" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11743,7 +11752,7 @@
         <v>5.51</v>
       </c>
       <c r="M268" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11781,7 +11790,7 @@
         <v>6.24</v>
       </c>
       <c r="M269" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11819,7 +11828,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="M270" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11857,7 +11866,7 @@
         <v>9.48</v>
       </c>
       <c r="M271" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11895,7 +11904,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="M272" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11933,7 +11942,7 @@
         <v>6.36</v>
       </c>
       <c r="M273" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11971,7 +11980,7 @@
         <v>2</v>
       </c>
       <c r="M274" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -12009,7 +12018,7 @@
         <v>0.98</v>
       </c>
       <c r="M275" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -12047,7 +12056,7 @@
         <v>1.01</v>
       </c>
       <c r="M276" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -12085,7 +12094,7 @@
         <v>4.29</v>
       </c>
       <c r="M277" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -12123,7 +12132,7 @@
         <v>7.41</v>
       </c>
       <c r="M278" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -12161,7 +12170,7 @@
         <v>8.720000000000001</v>
       </c>
       <c r="M279" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -12199,7 +12208,7 @@
         <v>9.9</v>
       </c>
       <c r="M280" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12237,7 +12246,7 @@
         <v>11.28</v>
       </c>
       <c r="M281" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12278,7 +12287,7 @@
         <v>10.7</v>
       </c>
       <c r="M282" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12319,7 +12328,7 @@
         <v>10.72</v>
       </c>
       <c r="M283" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12360,7 +12369,7 @@
         <v>9.84</v>
       </c>
       <c r="M284" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12401,7 +12410,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="M285" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12442,7 +12451,7 @@
         <v>8.82</v>
       </c>
       <c r="M286" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12483,7 +12492,7 @@
         <v>7.84</v>
       </c>
       <c r="M287" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12524,7 +12533,7 @@
         <v>8.73</v>
       </c>
       <c r="M288" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12565,7 +12574,7 @@
         <v>7.98</v>
       </c>
       <c r="M289" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12606,7 +12615,7 @@
         <v>8.77</v>
       </c>
       <c r="M290" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12647,7 +12656,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="M291" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12688,7 +12697,7 @@
         <v>7.13</v>
       </c>
       <c r="M292" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12729,7 +12738,7 @@
         <v>4.17</v>
       </c>
       <c r="M293" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12770,7 +12779,7 @@
         <v>2.88</v>
       </c>
       <c r="M294" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12811,7 +12820,7 @@
         <v>3.58</v>
       </c>
       <c r="M295" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12852,7 +12861,7 @@
         <v>2.6</v>
       </c>
       <c r="M296" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12893,7 +12902,7 @@
         <v>3.58</v>
       </c>
       <c r="M297" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12934,7 +12943,7 @@
         <v>4.42</v>
       </c>
       <c r="M298" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12975,7 +12984,7 @@
         <v>2.73</v>
       </c>
       <c r="M299" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -13016,7 +13025,7 @@
         <v>3.65</v>
       </c>
       <c r="M300" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -13057,7 +13066,7 @@
         <v>2.51</v>
       </c>
       <c r="M301" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -13098,7 +13107,7 @@
         <v>4.05</v>
       </c>
       <c r="M302" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -13139,7 +13148,7 @@
         <v>3.9</v>
       </c>
       <c r="M303" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -13180,7 +13189,7 @@
         <v>2.11</v>
       </c>
       <c r="M304" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -13221,7 +13230,7 @@
         <v>2.31</v>
       </c>
       <c r="M305" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -13262,7 +13271,7 @@
         <v>4.49</v>
       </c>
       <c r="M306" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -13303,7 +13312,7 @@
         <v>4.15</v>
       </c>
       <c r="M307" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -13344,7 +13353,7 @@
         <v>2.28</v>
       </c>
       <c r="M308" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -13385,7 +13394,7 @@
         <v>3.02</v>
       </c>
       <c r="M309" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -13426,7 +13435,7 @@
         <v>2.46</v>
       </c>
       <c r="M310" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -13464,7 +13473,7 @@
         <v>1.82</v>
       </c>
       <c r="M311" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -13505,7 +13514,7 @@
         <v>5.56</v>
       </c>
       <c r="M312" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -13543,7 +13552,7 @@
         <v>6.98</v>
       </c>
       <c r="M313" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -13581,7 +13590,7 @@
         <v>9.31</v>
       </c>
       <c r="M314" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -13622,7 +13631,7 @@
         <v>5.73</v>
       </c>
       <c r="M315" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -13660,7 +13669,7 @@
         <v>3.69</v>
       </c>
       <c r="M316" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -13698,7 +13707,7 @@
         <v>3.27</v>
       </c>
       <c r="M317" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -13736,7 +13745,7 @@
         <v>5.62</v>
       </c>
       <c r="M318" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -13774,7 +13783,7 @@
         <v>7.55</v>
       </c>
       <c r="M319" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -13812,7 +13821,7 @@
         <v>9.52</v>
       </c>
       <c r="M320" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="321" spans="1:13">
@@ -13850,7 +13859,7 @@
         <v>7.88</v>
       </c>
       <c r="M321" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -13888,7 +13897,7 @@
         <v>8.01</v>
       </c>
       <c r="M322" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="323" spans="1:13">
@@ -13926,7 +13935,7 @@
         <v>8.74</v>
       </c>
       <c r="M323" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -13964,7 +13973,7 @@
         <v>9.76</v>
       </c>
       <c r="M324" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="325" spans="1:13">
@@ -14002,7 +14011,7 @@
         <v>15.26</v>
       </c>
       <c r="M325" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="326" spans="1:13">
@@ -14040,7 +14049,7 @@
         <v>17.68</v>
       </c>
       <c r="M326" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="327" spans="1:13">
@@ -14078,7 +14087,7 @@
         <v>15.95</v>
       </c>
       <c r="M327" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -14116,7 +14125,7 @@
         <v>17.28</v>
       </c>
       <c r="M328" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -14154,7 +14163,7 @@
         <v>17.27</v>
       </c>
       <c r="M329" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -14192,7 +14201,7 @@
         <v>15.2</v>
       </c>
       <c r="M330" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="331" spans="1:13">
@@ -14230,7 +14239,7 @@
         <v>16.27</v>
       </c>
       <c r="M331" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="332" spans="1:13">
@@ -14268,7 +14277,7 @@
         <v>17.15</v>
       </c>
       <c r="M332" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -14306,7 +14315,7 @@
         <v>17</v>
       </c>
       <c r="M333" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -14344,7 +14353,7 @@
         <v>21.18</v>
       </c>
       <c r="M334" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="335" spans="1:13">
@@ -14382,7 +14391,7 @@
         <v>19.03</v>
       </c>
       <c r="M335" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="336" spans="1:13">
@@ -14420,7 +14429,7 @@
         <v>18.57</v>
       </c>
       <c r="M336" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="337" spans="1:13">
@@ -14458,7 +14467,7 @@
         <v>21.15</v>
       </c>
       <c r="M337" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -14496,7 +14505,7 @@
         <v>18.54</v>
       </c>
       <c r="M338" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -14534,7 +14543,7 @@
         <v>18.7</v>
       </c>
       <c r="M339" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="340" spans="1:13">
@@ -14572,7 +14581,7 @@
         <v>17.39</v>
       </c>
       <c r="M340" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="341" spans="1:13">
@@ -14610,7 +14619,7 @@
         <v>16.37</v>
       </c>
       <c r="M341" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="342" spans="1:13">
@@ -14648,7 +14657,7 @@
         <v>15.89</v>
       </c>
       <c r="M342" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="343" spans="1:13">
@@ -14686,7 +14695,7 @@
         <v>17.35</v>
       </c>
       <c r="M343" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="344" spans="1:13">
@@ -14724,7 +14733,7 @@
         <v>15.33</v>
       </c>
       <c r="M344" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="345" spans="1:13">
@@ -14762,7 +14771,7 @@
         <v>13.97</v>
       </c>
       <c r="M345" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="346" spans="1:13">
@@ -14800,7 +14809,7 @@
         <v>19.23</v>
       </c>
       <c r="M346" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="347" spans="1:13">
@@ -14838,7 +14847,7 @@
         <v>16.43</v>
       </c>
       <c r="M347" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="348" spans="1:13">
@@ -14876,7 +14885,7 @@
         <v>17.54</v>
       </c>
       <c r="M348" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="349" spans="1:13">
@@ -14914,7 +14923,7 @@
         <v>18.1</v>
       </c>
       <c r="M349" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="350" spans="1:13">
@@ -14952,7 +14961,7 @@
         <v>17.67</v>
       </c>
       <c r="M350" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="351" spans="1:13">
@@ -14990,7 +14999,7 @@
         <v>14.99</v>
       </c>
       <c r="M351" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="352" spans="1:13">
@@ -15028,7 +15037,7 @@
         <v>17.31</v>
       </c>
       <c r="M352" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="353" spans="1:13">
@@ -15066,7 +15075,7 @@
         <v>19.12</v>
       </c>
       <c r="M353" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="354" spans="1:13">
@@ -15104,7 +15113,7 @@
         <v>15.23</v>
       </c>
       <c r="M354" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="355" spans="1:13">
@@ -15142,7 +15151,7 @@
         <v>13.71</v>
       </c>
       <c r="M355" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="356" spans="1:13">
@@ -15180,7 +15189,7 @@
         <v>16.9</v>
       </c>
       <c r="M356" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="357" spans="1:13">
@@ -15218,7 +15227,121 @@
         <v>18.84</v>
       </c>
       <c r="M357" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
         <v>368</v>
+      </c>
+      <c r="C358">
+        <v>11.99</v>
+      </c>
+      <c r="D358">
+        <v>71.03</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>23.99</v>
+      </c>
+      <c r="G358">
+        <v>25.24</v>
+      </c>
+      <c r="H358">
+        <v>850.1900000000001</v>
+      </c>
+      <c r="I358">
+        <v>18.39</v>
+      </c>
+      <c r="J358">
+        <v>47.11</v>
+      </c>
+      <c r="L358">
+        <v>16.48</v>
+      </c>
+      <c r="M358" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>369</v>
+      </c>
+      <c r="C359">
+        <v>11.65</v>
+      </c>
+      <c r="D359">
+        <v>72.52</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>23.86</v>
+      </c>
+      <c r="G359">
+        <v>33.72</v>
+      </c>
+      <c r="H359">
+        <v>850.39</v>
+      </c>
+      <c r="I359">
+        <v>18.6</v>
+      </c>
+      <c r="J359">
+        <v>19.51</v>
+      </c>
+      <c r="L359">
+        <v>13.14</v>
+      </c>
+      <c r="M359" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>370</v>
+      </c>
+      <c r="C360">
+        <v>11.46</v>
+      </c>
+      <c r="D360">
+        <v>74.51000000000001</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>23.72</v>
+      </c>
+      <c r="G360">
+        <v>30.78</v>
+      </c>
+      <c r="H360">
+        <v>850.5599999999999</v>
+      </c>
+      <c r="I360">
+        <v>18.9</v>
+      </c>
+      <c r="J360">
+        <v>4.43</v>
+      </c>
+      <c r="L360">
+        <v>14.3</v>
+      </c>
+      <c r="M360" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="301">
   <si>
     <t>Fecha</t>
   </si>
@@ -896,6 +896,24 @@
   </si>
   <si>
     <t>11/8/2020 10:15:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:45:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:15:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:45:00 PM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1256,7 +1274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M283"/>
+  <dimension ref="A1:M289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1338,7 +1356,7 @@
         <v>8.77</v>
       </c>
       <c r="M2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1379,7 +1397,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="M3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1420,7 +1438,7 @@
         <v>7.13</v>
       </c>
       <c r="M4" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1461,7 +1479,7 @@
         <v>4.17</v>
       </c>
       <c r="M5" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1502,7 +1520,7 @@
         <v>2.88</v>
       </c>
       <c r="M6" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1543,7 +1561,7 @@
         <v>3.58</v>
       </c>
       <c r="M7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1584,7 +1602,7 @@
         <v>2.6</v>
       </c>
       <c r="M8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1625,7 +1643,7 @@
         <v>3.58</v>
       </c>
       <c r="M9" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1666,7 +1684,7 @@
         <v>4.42</v>
       </c>
       <c r="M10" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1707,7 +1725,7 @@
         <v>2.73</v>
       </c>
       <c r="M11" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1748,7 +1766,7 @@
         <v>3.65</v>
       </c>
       <c r="M12" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1789,7 +1807,7 @@
         <v>2.51</v>
       </c>
       <c r="M13" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1830,7 +1848,7 @@
         <v>4.05</v>
       </c>
       <c r="M14" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1871,7 +1889,7 @@
         <v>3.9</v>
       </c>
       <c r="M15" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1912,7 +1930,7 @@
         <v>2.11</v>
       </c>
       <c r="M16" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1953,7 +1971,7 @@
         <v>2.31</v>
       </c>
       <c r="M17" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1994,7 +2012,7 @@
         <v>4.49</v>
       </c>
       <c r="M18" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2035,7 +2053,7 @@
         <v>4.15</v>
       </c>
       <c r="M19" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2076,7 +2094,7 @@
         <v>2.28</v>
       </c>
       <c r="M20" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2117,7 +2135,7 @@
         <v>3.02</v>
       </c>
       <c r="M21" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2158,7 +2176,7 @@
         <v>2.46</v>
       </c>
       <c r="M22" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2196,7 +2214,7 @@
         <v>1.82</v>
       </c>
       <c r="M23" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2237,7 +2255,7 @@
         <v>5.56</v>
       </c>
       <c r="M24" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2275,7 +2293,7 @@
         <v>6.98</v>
       </c>
       <c r="M25" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2313,7 +2331,7 @@
         <v>9.31</v>
       </c>
       <c r="M26" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2354,7 +2372,7 @@
         <v>5.73</v>
       </c>
       <c r="M27" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2392,7 +2410,7 @@
         <v>3.69</v>
       </c>
       <c r="M28" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2430,7 +2448,7 @@
         <v>3.27</v>
       </c>
       <c r="M29" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2468,7 +2486,7 @@
         <v>5.62</v>
       </c>
       <c r="M30" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2506,7 +2524,7 @@
         <v>7.55</v>
       </c>
       <c r="M31" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2544,7 +2562,7 @@
         <v>9.52</v>
       </c>
       <c r="M32" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2582,7 +2600,7 @@
         <v>7.88</v>
       </c>
       <c r="M33" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2620,7 +2638,7 @@
         <v>8.01</v>
       </c>
       <c r="M34" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2658,7 +2676,7 @@
         <v>8.74</v>
       </c>
       <c r="M35" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2696,7 +2714,7 @@
         <v>9.76</v>
       </c>
       <c r="M36" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2734,7 +2752,7 @@
         <v>15.26</v>
       </c>
       <c r="M37" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2772,7 +2790,7 @@
         <v>17.68</v>
       </c>
       <c r="M38" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2810,7 +2828,7 @@
         <v>15.95</v>
       </c>
       <c r="M39" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2848,7 +2866,7 @@
         <v>17.28</v>
       </c>
       <c r="M40" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2886,7 +2904,7 @@
         <v>17.27</v>
       </c>
       <c r="M41" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2924,7 +2942,7 @@
         <v>15.2</v>
       </c>
       <c r="M42" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2962,7 +2980,7 @@
         <v>16.27</v>
       </c>
       <c r="M43" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3000,7 +3018,7 @@
         <v>17.15</v>
       </c>
       <c r="M44" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3038,7 +3056,7 @@
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3076,7 +3094,7 @@
         <v>21.18</v>
       </c>
       <c r="M46" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3114,7 +3132,7 @@
         <v>19.03</v>
       </c>
       <c r="M47" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3152,7 +3170,7 @@
         <v>18.57</v>
       </c>
       <c r="M48" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3190,7 +3208,7 @@
         <v>21.15</v>
       </c>
       <c r="M49" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3228,7 +3246,7 @@
         <v>18.54</v>
       </c>
       <c r="M50" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3266,7 +3284,7 @@
         <v>18.7</v>
       </c>
       <c r="M51" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3304,7 +3322,7 @@
         <v>17.39</v>
       </c>
       <c r="M52" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3342,7 +3360,7 @@
         <v>16.37</v>
       </c>
       <c r="M53" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3380,7 +3398,7 @@
         <v>15.89</v>
       </c>
       <c r="M54" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3418,7 +3436,7 @@
         <v>17.35</v>
       </c>
       <c r="M55" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3456,7 +3474,7 @@
         <v>15.33</v>
       </c>
       <c r="M56" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3494,7 +3512,7 @@
         <v>13.97</v>
       </c>
       <c r="M57" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3532,7 +3550,7 @@
         <v>19.23</v>
       </c>
       <c r="M58" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3570,7 +3588,7 @@
         <v>16.43</v>
       </c>
       <c r="M59" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3608,7 +3626,7 @@
         <v>17.54</v>
       </c>
       <c r="M60" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3646,7 +3664,7 @@
         <v>18.1</v>
       </c>
       <c r="M61" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3684,7 +3702,7 @@
         <v>17.67</v>
       </c>
       <c r="M62" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3722,7 +3740,7 @@
         <v>14.99</v>
       </c>
       <c r="M63" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3760,7 +3778,7 @@
         <v>17.31</v>
       </c>
       <c r="M64" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3798,7 +3816,7 @@
         <v>19.12</v>
       </c>
       <c r="M65" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3836,7 +3854,7 @@
         <v>15.23</v>
       </c>
       <c r="M66" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3874,7 +3892,7 @@
         <v>13.71</v>
       </c>
       <c r="M67" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3912,7 +3930,7 @@
         <v>16.9</v>
       </c>
       <c r="M68" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3950,7 +3968,7 @@
         <v>18.84</v>
       </c>
       <c r="M69" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3988,7 +4006,7 @@
         <v>16.48</v>
       </c>
       <c r="M70" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4026,7 +4044,7 @@
         <v>13.14</v>
       </c>
       <c r="M71" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4064,7 +4082,7 @@
         <v>14.3</v>
       </c>
       <c r="M72" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4102,7 +4120,7 @@
         <v>11.4</v>
       </c>
       <c r="M73" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4140,7 +4158,7 @@
         <v>12.74</v>
       </c>
       <c r="M74" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4178,7 +4196,7 @@
         <v>12.52</v>
       </c>
       <c r="M75" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4216,7 +4234,7 @@
         <v>9.6</v>
       </c>
       <c r="M76" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4254,7 +4272,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M77" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4292,7 +4310,7 @@
         <v>6.73</v>
       </c>
       <c r="M78" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4330,7 +4348,7 @@
         <v>6.96</v>
       </c>
       <c r="M79" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4368,7 +4386,7 @@
         <v>7.33</v>
       </c>
       <c r="M80" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4406,7 +4424,7 @@
         <v>6.53</v>
       </c>
       <c r="M81" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4444,7 +4462,7 @@
         <v>7.43</v>
       </c>
       <c r="M82" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4482,7 +4500,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="M83" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4520,7 +4538,7 @@
         <v>11.35</v>
       </c>
       <c r="M84" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4558,7 +4576,7 @@
         <v>11.74</v>
       </c>
       <c r="M85" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4596,7 +4614,7 @@
         <v>11.87</v>
       </c>
       <c r="M86" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4634,7 +4652,7 @@
         <v>8.75</v>
       </c>
       <c r="M87" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4672,7 +4690,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M88" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4710,7 +4728,7 @@
         <v>7.68</v>
       </c>
       <c r="M89" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4748,7 +4766,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="M90" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4786,7 +4804,7 @@
         <v>11.39</v>
       </c>
       <c r="M91" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4824,7 +4842,7 @@
         <v>11.45</v>
       </c>
       <c r="M92" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4862,7 +4880,7 @@
         <v>15.19</v>
       </c>
       <c r="M93" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4900,7 +4918,7 @@
         <v>14.09</v>
       </c>
       <c r="M94" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4938,7 +4956,7 @@
         <v>11.47</v>
       </c>
       <c r="M95" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4976,7 +4994,7 @@
         <v>10.17</v>
       </c>
       <c r="M96" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5014,7 +5032,7 @@
         <v>10.46</v>
       </c>
       <c r="M97" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5052,7 +5070,7 @@
         <v>9.82</v>
       </c>
       <c r="M98" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5090,7 +5108,7 @@
         <v>9.99</v>
       </c>
       <c r="M99" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5128,7 +5146,7 @@
         <v>11.7</v>
       </c>
       <c r="M100" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5166,7 +5184,7 @@
         <v>11.51</v>
       </c>
       <c r="M101" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5204,7 +5222,7 @@
         <v>11.35</v>
       </c>
       <c r="M102" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5242,7 +5260,7 @@
         <v>11.37</v>
       </c>
       <c r="M103" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5280,7 +5298,7 @@
         <v>12.25</v>
       </c>
       <c r="M104" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5318,7 +5336,7 @@
         <v>12.5</v>
       </c>
       <c r="M105" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5356,7 +5374,7 @@
         <v>10.24</v>
       </c>
       <c r="M106" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5394,7 +5412,7 @@
         <v>12.09</v>
       </c>
       <c r="M107" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5435,7 +5453,7 @@
         <v>12.37</v>
       </c>
       <c r="M108" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5473,7 +5491,7 @@
         <v>11.1</v>
       </c>
       <c r="M109" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5511,7 +5529,7 @@
         <v>11.22</v>
       </c>
       <c r="M110" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5549,7 +5567,7 @@
         <v>11.94</v>
       </c>
       <c r="M111" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5587,7 +5605,7 @@
         <v>11.61</v>
       </c>
       <c r="M112" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5625,7 +5643,7 @@
         <v>11.98</v>
       </c>
       <c r="M113" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5663,7 +5681,7 @@
         <v>11.61</v>
       </c>
       <c r="M114" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5701,7 +5719,7 @@
         <v>13.44</v>
       </c>
       <c r="M115" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5739,7 +5757,7 @@
         <v>12.07</v>
       </c>
       <c r="M116" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5777,7 +5795,7 @@
         <v>12.13</v>
       </c>
       <c r="M117" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5815,7 +5833,7 @@
         <v>13.82</v>
       </c>
       <c r="M118" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5853,7 +5871,7 @@
         <v>15.09</v>
       </c>
       <c r="M119" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5891,7 +5909,7 @@
         <v>14.97</v>
       </c>
       <c r="M120" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5929,7 +5947,7 @@
         <v>15.22</v>
       </c>
       <c r="M121" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5967,7 +5985,7 @@
         <v>16.21</v>
       </c>
       <c r="M122" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6005,7 +6023,7 @@
         <v>15.85</v>
       </c>
       <c r="M123" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6043,7 +6061,7 @@
         <v>13.56</v>
       </c>
       <c r="M124" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6081,7 +6099,7 @@
         <v>12.19</v>
       </c>
       <c r="M125" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6119,7 +6137,7 @@
         <v>12.7</v>
       </c>
       <c r="M126" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6157,7 +6175,7 @@
         <v>13.54</v>
       </c>
       <c r="M127" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6195,7 +6213,7 @@
         <v>13.51</v>
       </c>
       <c r="M128" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6233,7 +6251,7 @@
         <v>14.09</v>
       </c>
       <c r="M129" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6271,7 +6289,7 @@
         <v>17.15</v>
       </c>
       <c r="M130" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6309,7 +6327,7 @@
         <v>17.77</v>
       </c>
       <c r="M131" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6347,7 +6365,7 @@
         <v>19.98</v>
       </c>
       <c r="M132" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6385,7 +6403,7 @@
         <v>23</v>
       </c>
       <c r="M133" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6423,7 +6441,7 @@
         <v>24.42</v>
       </c>
       <c r="M134" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6461,7 +6479,7 @@
         <v>26.56</v>
       </c>
       <c r="M135" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6499,7 +6517,7 @@
         <v>25.33</v>
       </c>
       <c r="M136" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6537,7 +6555,7 @@
         <v>25.03</v>
       </c>
       <c r="M137" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6575,7 +6593,7 @@
         <v>25.72</v>
       </c>
       <c r="M138" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6613,7 +6631,7 @@
         <v>27.06</v>
       </c>
       <c r="M139" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6651,7 +6669,7 @@
         <v>26.1</v>
       </c>
       <c r="M140" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6689,7 +6707,7 @@
         <v>26.46</v>
       </c>
       <c r="M141" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6727,7 +6745,7 @@
         <v>27.69</v>
       </c>
       <c r="M142" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6765,7 +6783,7 @@
         <v>26.86</v>
       </c>
       <c r="M143" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6803,7 +6821,7 @@
         <v>23.44</v>
       </c>
       <c r="M144" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6841,7 +6859,7 @@
         <v>25.35</v>
       </c>
       <c r="M145" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6879,7 +6897,7 @@
         <v>22.88</v>
       </c>
       <c r="M146" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6917,7 +6935,7 @@
         <v>20.1</v>
       </c>
       <c r="M147" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6955,7 +6973,7 @@
         <v>20.24</v>
       </c>
       <c r="M148" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6993,7 +7011,7 @@
         <v>21.87</v>
       </c>
       <c r="M149" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7031,7 +7049,7 @@
         <v>23.59</v>
       </c>
       <c r="M150" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7069,7 +7087,7 @@
         <v>23.43</v>
       </c>
       <c r="M151" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7107,7 +7125,7 @@
         <v>23.74</v>
       </c>
       <c r="M152" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7145,7 +7163,7 @@
         <v>21.77</v>
       </c>
       <c r="M153" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7183,7 +7201,7 @@
         <v>23.42</v>
       </c>
       <c r="M154" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7221,7 +7239,7 @@
         <v>20.39</v>
       </c>
       <c r="M155" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7259,7 +7277,7 @@
         <v>19.13</v>
       </c>
       <c r="M156" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7297,7 +7315,7 @@
         <v>20.75</v>
       </c>
       <c r="M157" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7335,7 +7353,7 @@
         <v>19.58</v>
       </c>
       <c r="M158" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7373,7 +7391,7 @@
         <v>18.9</v>
       </c>
       <c r="M159" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7411,7 +7429,7 @@
         <v>21</v>
       </c>
       <c r="M160" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7449,7 +7467,7 @@
         <v>19.41</v>
       </c>
       <c r="M161" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7487,7 +7505,7 @@
         <v>20.69</v>
       </c>
       <c r="M162" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7525,7 +7543,7 @@
         <v>21.27</v>
       </c>
       <c r="M163" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7563,7 +7581,7 @@
         <v>19.51</v>
       </c>
       <c r="M164" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7601,7 +7619,7 @@
         <v>20.33</v>
       </c>
       <c r="M165" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7639,7 +7657,7 @@
         <v>17.72</v>
       </c>
       <c r="M166" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7677,7 +7695,7 @@
         <v>12.78</v>
       </c>
       <c r="M167" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7715,7 +7733,7 @@
         <v>13.5</v>
       </c>
       <c r="M168" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7753,7 +7771,7 @@
         <v>13.49</v>
       </c>
       <c r="M169" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7791,7 +7809,7 @@
         <v>14.7</v>
       </c>
       <c r="M170" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7829,7 +7847,7 @@
         <v>14.64</v>
       </c>
       <c r="M171" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7867,7 +7885,7 @@
         <v>15.31</v>
       </c>
       <c r="M172" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7905,7 +7923,7 @@
         <v>16.97</v>
       </c>
       <c r="M173" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7943,7 +7961,7 @@
         <v>15.28</v>
       </c>
       <c r="M174" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7981,7 +7999,7 @@
         <v>13.02</v>
       </c>
       <c r="M175" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8019,7 +8037,7 @@
         <v>14.76</v>
       </c>
       <c r="M176" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8057,7 +8075,7 @@
         <v>14.52</v>
       </c>
       <c r="M177" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8095,7 +8113,7 @@
         <v>17.7</v>
       </c>
       <c r="M178" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8133,7 +8151,7 @@
         <v>16.52</v>
       </c>
       <c r="M179" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8171,7 +8189,7 @@
         <v>15</v>
       </c>
       <c r="M180" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8209,7 +8227,7 @@
         <v>16.97</v>
       </c>
       <c r="M181" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8247,7 +8265,7 @@
         <v>17.58</v>
       </c>
       <c r="M182" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8285,7 +8303,7 @@
         <v>16.69</v>
       </c>
       <c r="M183" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8323,7 +8341,7 @@
         <v>15.06</v>
       </c>
       <c r="M184" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8361,7 +8379,7 @@
         <v>15.19</v>
       </c>
       <c r="M185" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8399,7 +8417,7 @@
         <v>13.82</v>
       </c>
       <c r="M186" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8437,7 +8455,7 @@
         <v>13.7</v>
       </c>
       <c r="M187" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8475,7 +8493,7 @@
         <v>13.59</v>
       </c>
       <c r="M188" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8513,7 +8531,7 @@
         <v>13.54</v>
       </c>
       <c r="M189" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8551,7 +8569,7 @@
         <v>13.04</v>
       </c>
       <c r="M190" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8589,7 +8607,7 @@
         <v>11.36</v>
       </c>
       <c r="M191" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8627,7 +8645,7 @@
         <v>13.98</v>
       </c>
       <c r="M192" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8665,7 +8683,7 @@
         <v>14.01</v>
       </c>
       <c r="M193" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8703,7 +8721,7 @@
         <v>12.03</v>
       </c>
       <c r="M194" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8744,7 +8762,7 @@
         <v>12.94</v>
       </c>
       <c r="M195" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8782,7 +8800,7 @@
         <v>12.34</v>
       </c>
       <c r="M196" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8820,7 +8838,7 @@
         <v>11.72</v>
       </c>
       <c r="M197" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8861,7 +8879,7 @@
         <v>11.59</v>
       </c>
       <c r="M198" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8899,7 +8917,7 @@
         <v>11.57</v>
       </c>
       <c r="M199" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8937,7 +8955,7 @@
         <v>12.27</v>
       </c>
       <c r="M200" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8975,7 +8993,7 @@
         <v>12.5</v>
       </c>
       <c r="M201" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9013,7 +9031,7 @@
         <v>12.93</v>
       </c>
       <c r="M202" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9051,7 +9069,7 @@
         <v>12.87</v>
       </c>
       <c r="M203" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9089,7 +9107,7 @@
         <v>12.03</v>
       </c>
       <c r="M204" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9127,7 +9145,7 @@
         <v>10.3</v>
       </c>
       <c r="M205" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9165,7 +9183,7 @@
         <v>12.12</v>
       </c>
       <c r="M206" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9203,7 +9221,7 @@
         <v>12.2</v>
       </c>
       <c r="M207" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9244,7 +9262,7 @@
         <v>11.37</v>
       </c>
       <c r="M208" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9285,7 +9303,7 @@
         <v>11.01</v>
       </c>
       <c r="M209" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9323,7 +9341,7 @@
         <v>10.88</v>
       </c>
       <c r="M210" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9361,7 +9379,7 @@
         <v>10.46</v>
       </c>
       <c r="M211" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9399,7 +9417,7 @@
         <v>10.35</v>
       </c>
       <c r="M212" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9437,7 +9455,7 @@
         <v>10.56</v>
       </c>
       <c r="M213" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9478,7 +9496,7 @@
         <v>11.16</v>
       </c>
       <c r="M214" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9516,7 +9534,7 @@
         <v>12.25</v>
       </c>
       <c r="M215" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9554,7 +9572,7 @@
         <v>11.5</v>
       </c>
       <c r="M216" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9592,7 +9610,7 @@
         <v>10.44</v>
       </c>
       <c r="M217" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9630,7 +9648,7 @@
         <v>9.9</v>
       </c>
       <c r="M218" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9668,7 +9686,7 @@
         <v>10.6</v>
       </c>
       <c r="M219" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9706,7 +9724,7 @@
         <v>11.42</v>
       </c>
       <c r="M220" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9744,7 +9762,7 @@
         <v>10.98</v>
       </c>
       <c r="M221" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9782,7 +9800,7 @@
         <v>12.21</v>
       </c>
       <c r="M222" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9820,7 +9838,7 @@
         <v>11.61</v>
       </c>
       <c r="M223" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9858,7 +9876,7 @@
         <v>12.36</v>
       </c>
       <c r="M224" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9896,7 +9914,7 @@
         <v>15.85</v>
       </c>
       <c r="M225" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9934,7 +9952,7 @@
         <v>16.77</v>
       </c>
       <c r="M226" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9972,7 +9990,7 @@
         <v>16.58</v>
       </c>
       <c r="M227" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10010,7 +10028,7 @@
         <v>13.55</v>
       </c>
       <c r="M228" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10048,7 +10066,7 @@
         <v>13.84</v>
       </c>
       <c r="M229" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10086,7 +10104,7 @@
         <v>16.53</v>
       </c>
       <c r="M230" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10124,7 +10142,7 @@
         <v>16.39</v>
       </c>
       <c r="M231" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10162,7 +10180,7 @@
         <v>15.24</v>
       </c>
       <c r="M232" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10200,7 +10218,7 @@
         <v>13.89</v>
       </c>
       <c r="M233" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10238,7 +10256,7 @@
         <v>11.87</v>
       </c>
       <c r="M234" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10276,7 +10294,7 @@
         <v>12.06</v>
       </c>
       <c r="M235" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10314,7 +10332,7 @@
         <v>12.7</v>
       </c>
       <c r="M236" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10352,7 +10370,7 @@
         <v>12.69</v>
       </c>
       <c r="M237" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10390,7 +10408,7 @@
         <v>11.23</v>
       </c>
       <c r="M238" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10428,7 +10446,7 @@
         <v>10.31</v>
       </c>
       <c r="M239" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10466,7 +10484,7 @@
         <v>7.02</v>
       </c>
       <c r="M240" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10504,7 +10522,7 @@
         <v>7.15</v>
       </c>
       <c r="M241" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10542,7 +10560,7 @@
         <v>12.57</v>
       </c>
       <c r="M242" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10580,7 +10598,7 @@
         <v>9.27</v>
       </c>
       <c r="M243" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10618,7 +10636,7 @@
         <v>8.19</v>
       </c>
       <c r="M244" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10656,7 +10674,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="M245" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10694,7 +10712,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="M246" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10732,7 +10750,7 @@
         <v>10.35</v>
       </c>
       <c r="M247" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10770,7 +10788,7 @@
         <v>16.13</v>
       </c>
       <c r="M248" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10808,7 +10826,7 @@
         <v>16.43</v>
       </c>
       <c r="M249" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10846,7 +10864,7 @@
         <v>15.96</v>
       </c>
       <c r="M250" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10884,7 +10902,7 @@
         <v>9.83</v>
       </c>
       <c r="M251" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10922,7 +10940,7 @@
         <v>6.63</v>
       </c>
       <c r="M252" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -10960,7 +10978,7 @@
         <v>6.15</v>
       </c>
       <c r="M253" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -10998,7 +11016,7 @@
         <v>8.66</v>
       </c>
       <c r="M254" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11036,7 +11054,7 @@
         <v>10.09</v>
       </c>
       <c r="M255" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11074,7 +11092,7 @@
         <v>9.73</v>
       </c>
       <c r="M256" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11112,7 +11130,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="M257" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11150,7 +11168,7 @@
         <v>9.25</v>
       </c>
       <c r="M258" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11188,7 +11206,7 @@
         <v>10.64</v>
       </c>
       <c r="M259" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11226,7 +11244,7 @@
         <v>13.53</v>
       </c>
       <c r="M260" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11264,7 +11282,7 @@
         <v>12.66</v>
       </c>
       <c r="M261" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11302,7 +11320,7 @@
         <v>12.04</v>
       </c>
       <c r="M262" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11340,7 +11358,7 @@
         <v>12.75</v>
       </c>
       <c r="M263" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11378,7 +11396,7 @@
         <v>11.91</v>
       </c>
       <c r="M264" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11416,7 +11434,7 @@
         <v>10.03</v>
       </c>
       <c r="M265" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11454,7 +11472,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="M266" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11492,7 +11510,7 @@
         <v>7.36</v>
       </c>
       <c r="M267" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11530,7 +11548,7 @@
         <v>6.97</v>
       </c>
       <c r="M268" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11568,7 +11586,7 @@
         <v>11.24</v>
       </c>
       <c r="M269" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11606,7 +11624,7 @@
         <v>9</v>
       </c>
       <c r="M270" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11644,7 +11662,7 @@
         <v>6.82</v>
       </c>
       <c r="M271" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11682,7 +11700,7 @@
         <v>4.15</v>
       </c>
       <c r="M272" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11720,7 +11738,7 @@
         <v>5.17</v>
       </c>
       <c r="M273" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11758,7 +11776,7 @@
         <v>6.37</v>
       </c>
       <c r="M274" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11796,7 +11814,7 @@
         <v>6.42</v>
       </c>
       <c r="M275" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11834,7 +11852,7 @@
         <v>7.41</v>
       </c>
       <c r="M276" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11872,7 +11890,7 @@
         <v>5.77</v>
       </c>
       <c r="M277" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -11910,7 +11928,7 @@
         <v>5.61</v>
       </c>
       <c r="M278" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -11948,7 +11966,7 @@
         <v>3.76</v>
       </c>
       <c r="M279" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -11989,7 +12007,7 @@
         <v>4.26</v>
       </c>
       <c r="M280" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12027,7 +12045,7 @@
         <v>6.7</v>
       </c>
       <c r="M281" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12065,7 +12083,7 @@
         <v>12.48</v>
       </c>
       <c r="M282" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12103,7 +12121,235 @@
         <v>13.05</v>
       </c>
       <c r="M283" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
         <v>294</v>
+      </c>
+      <c r="C284">
+        <v>11.27</v>
+      </c>
+      <c r="D284">
+        <v>89.65000000000001</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>22.37</v>
+      </c>
+      <c r="G284">
+        <v>39.23</v>
+      </c>
+      <c r="H284">
+        <v>855.78</v>
+      </c>
+      <c r="I284">
+        <v>20.58</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>10.29</v>
+      </c>
+      <c r="M284" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>295</v>
+      </c>
+      <c r="C285">
+        <v>11.25</v>
+      </c>
+      <c r="D285">
+        <v>90.45999999999999</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>22.34</v>
+      </c>
+      <c r="G285">
+        <v>29.35</v>
+      </c>
+      <c r="H285">
+        <v>855.77</v>
+      </c>
+      <c r="I285">
+        <v>20.69</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>10.61</v>
+      </c>
+      <c r="M285" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>296</v>
+      </c>
+      <c r="C286">
+        <v>11.37</v>
+      </c>
+      <c r="D286">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>22.27</v>
+      </c>
+      <c r="G286">
+        <v>28.97</v>
+      </c>
+      <c r="H286">
+        <v>855.6</v>
+      </c>
+      <c r="I286">
+        <v>20.74</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>10.14</v>
+      </c>
+      <c r="M286" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>297</v>
+      </c>
+      <c r="C287">
+        <v>11.3</v>
+      </c>
+      <c r="D287">
+        <v>91.56999999999999</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>22.22</v>
+      </c>
+      <c r="G287">
+        <v>23.22</v>
+      </c>
+      <c r="H287">
+        <v>855.5599999999999</v>
+      </c>
+      <c r="I287">
+        <v>20.78</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>13.1</v>
+      </c>
+      <c r="M287" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>298</v>
+      </c>
+      <c r="C288">
+        <v>11.44</v>
+      </c>
+      <c r="D288">
+        <v>91.8</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>22.2</v>
+      </c>
+      <c r="G288">
+        <v>34.14</v>
+      </c>
+      <c r="H288">
+        <v>855.4400000000001</v>
+      </c>
+      <c r="I288">
+        <v>20.8</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>11.08</v>
+      </c>
+      <c r="M288" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>299</v>
+      </c>
+      <c r="C289">
+        <v>11.37</v>
+      </c>
+      <c r="D289">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>22.2</v>
+      </c>
+      <c r="G289">
+        <v>31.47</v>
+      </c>
+      <c r="H289">
+        <v>855.48</v>
+      </c>
+      <c r="I289">
+        <v>20.76</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>10.21</v>
+      </c>
+      <c r="M289" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="308">
   <si>
     <t>Fecha</t>
   </si>
@@ -914,6 +914,27 @@
   </si>
   <si>
     <t>11/8/2020 11:45:00 PM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:30:00 AM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1274,7 +1295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M289"/>
+  <dimension ref="A1:M296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1356,7 +1377,7 @@
         <v>8.77</v>
       </c>
       <c r="M2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1397,7 +1418,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="M3" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1438,7 +1459,7 @@
         <v>7.13</v>
       </c>
       <c r="M4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1479,7 +1500,7 @@
         <v>4.17</v>
       </c>
       <c r="M5" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1520,7 +1541,7 @@
         <v>2.88</v>
       </c>
       <c r="M6" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1561,7 +1582,7 @@
         <v>3.58</v>
       </c>
       <c r="M7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1602,7 +1623,7 @@
         <v>2.6</v>
       </c>
       <c r="M8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1643,7 +1664,7 @@
         <v>3.58</v>
       </c>
       <c r="M9" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1684,7 +1705,7 @@
         <v>4.42</v>
       </c>
       <c r="M10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1725,7 +1746,7 @@
         <v>2.73</v>
       </c>
       <c r="M11" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1766,7 +1787,7 @@
         <v>3.65</v>
       </c>
       <c r="M12" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1807,7 +1828,7 @@
         <v>2.51</v>
       </c>
       <c r="M13" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1848,7 +1869,7 @@
         <v>4.05</v>
       </c>
       <c r="M14" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1889,7 +1910,7 @@
         <v>3.9</v>
       </c>
       <c r="M15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1930,7 +1951,7 @@
         <v>2.11</v>
       </c>
       <c r="M16" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1971,7 +1992,7 @@
         <v>2.31</v>
       </c>
       <c r="M17" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2012,7 +2033,7 @@
         <v>4.49</v>
       </c>
       <c r="M18" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2053,7 +2074,7 @@
         <v>4.15</v>
       </c>
       <c r="M19" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2094,7 +2115,7 @@
         <v>2.28</v>
       </c>
       <c r="M20" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2135,7 +2156,7 @@
         <v>3.02</v>
       </c>
       <c r="M21" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2176,7 +2197,7 @@
         <v>2.46</v>
       </c>
       <c r="M22" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2214,7 +2235,7 @@
         <v>1.82</v>
       </c>
       <c r="M23" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2255,7 +2276,7 @@
         <v>5.56</v>
       </c>
       <c r="M24" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2293,7 +2314,7 @@
         <v>6.98</v>
       </c>
       <c r="M25" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2331,7 +2352,7 @@
         <v>9.31</v>
       </c>
       <c r="M26" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2372,7 +2393,7 @@
         <v>5.73</v>
       </c>
       <c r="M27" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2410,7 +2431,7 @@
         <v>3.69</v>
       </c>
       <c r="M28" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2448,7 +2469,7 @@
         <v>3.27</v>
       </c>
       <c r="M29" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2486,7 +2507,7 @@
         <v>5.62</v>
       </c>
       <c r="M30" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2524,7 +2545,7 @@
         <v>7.55</v>
       </c>
       <c r="M31" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2562,7 +2583,7 @@
         <v>9.52</v>
       </c>
       <c r="M32" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2600,7 +2621,7 @@
         <v>7.88</v>
       </c>
       <c r="M33" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2638,7 +2659,7 @@
         <v>8.01</v>
       </c>
       <c r="M34" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2676,7 +2697,7 @@
         <v>8.74</v>
       </c>
       <c r="M35" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2714,7 +2735,7 @@
         <v>9.76</v>
       </c>
       <c r="M36" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2752,7 +2773,7 @@
         <v>15.26</v>
       </c>
       <c r="M37" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2790,7 +2811,7 @@
         <v>17.68</v>
       </c>
       <c r="M38" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2828,7 +2849,7 @@
         <v>15.95</v>
       </c>
       <c r="M39" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2866,7 +2887,7 @@
         <v>17.28</v>
       </c>
       <c r="M40" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2904,7 +2925,7 @@
         <v>17.27</v>
       </c>
       <c r="M41" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2942,7 +2963,7 @@
         <v>15.2</v>
       </c>
       <c r="M42" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2980,7 +3001,7 @@
         <v>16.27</v>
       </c>
       <c r="M43" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3018,7 +3039,7 @@
         <v>17.15</v>
       </c>
       <c r="M44" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3056,7 +3077,7 @@
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3094,7 +3115,7 @@
         <v>21.18</v>
       </c>
       <c r="M46" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3132,7 +3153,7 @@
         <v>19.03</v>
       </c>
       <c r="M47" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3170,7 +3191,7 @@
         <v>18.57</v>
       </c>
       <c r="M48" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3208,7 +3229,7 @@
         <v>21.15</v>
       </c>
       <c r="M49" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3246,7 +3267,7 @@
         <v>18.54</v>
       </c>
       <c r="M50" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3284,7 +3305,7 @@
         <v>18.7</v>
       </c>
       <c r="M51" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3322,7 +3343,7 @@
         <v>17.39</v>
       </c>
       <c r="M52" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3360,7 +3381,7 @@
         <v>16.37</v>
       </c>
       <c r="M53" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3398,7 +3419,7 @@
         <v>15.89</v>
       </c>
       <c r="M54" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3436,7 +3457,7 @@
         <v>17.35</v>
       </c>
       <c r="M55" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3474,7 +3495,7 @@
         <v>15.33</v>
       </c>
       <c r="M56" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3512,7 +3533,7 @@
         <v>13.97</v>
       </c>
       <c r="M57" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3550,7 +3571,7 @@
         <v>19.23</v>
       </c>
       <c r="M58" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3588,7 +3609,7 @@
         <v>16.43</v>
       </c>
       <c r="M59" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3626,7 +3647,7 @@
         <v>17.54</v>
       </c>
       <c r="M60" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3664,7 +3685,7 @@
         <v>18.1</v>
       </c>
       <c r="M61" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3702,7 +3723,7 @@
         <v>17.67</v>
       </c>
       <c r="M62" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3740,7 +3761,7 @@
         <v>14.99</v>
       </c>
       <c r="M63" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3778,7 +3799,7 @@
         <v>17.31</v>
       </c>
       <c r="M64" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3816,7 +3837,7 @@
         <v>19.12</v>
       </c>
       <c r="M65" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3854,7 +3875,7 @@
         <v>15.23</v>
       </c>
       <c r="M66" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3892,7 +3913,7 @@
         <v>13.71</v>
       </c>
       <c r="M67" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3930,7 +3951,7 @@
         <v>16.9</v>
       </c>
       <c r="M68" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3968,7 +3989,7 @@
         <v>18.84</v>
       </c>
       <c r="M69" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4006,7 +4027,7 @@
         <v>16.48</v>
       </c>
       <c r="M70" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4044,7 +4065,7 @@
         <v>13.14</v>
       </c>
       <c r="M71" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4082,7 +4103,7 @@
         <v>14.3</v>
       </c>
       <c r="M72" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4120,7 +4141,7 @@
         <v>11.4</v>
       </c>
       <c r="M73" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4158,7 +4179,7 @@
         <v>12.74</v>
       </c>
       <c r="M74" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4196,7 +4217,7 @@
         <v>12.52</v>
       </c>
       <c r="M75" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4234,7 +4255,7 @@
         <v>9.6</v>
       </c>
       <c r="M76" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4272,7 +4293,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M77" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4310,7 +4331,7 @@
         <v>6.73</v>
       </c>
       <c r="M78" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4348,7 +4369,7 @@
         <v>6.96</v>
       </c>
       <c r="M79" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4386,7 +4407,7 @@
         <v>7.33</v>
       </c>
       <c r="M80" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4424,7 +4445,7 @@
         <v>6.53</v>
       </c>
       <c r="M81" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4462,7 +4483,7 @@
         <v>7.43</v>
       </c>
       <c r="M82" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4500,7 +4521,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="M83" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4538,7 +4559,7 @@
         <v>11.35</v>
       </c>
       <c r="M84" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4576,7 +4597,7 @@
         <v>11.74</v>
       </c>
       <c r="M85" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4614,7 +4635,7 @@
         <v>11.87</v>
       </c>
       <c r="M86" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4652,7 +4673,7 @@
         <v>8.75</v>
       </c>
       <c r="M87" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4690,7 +4711,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M88" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4728,7 +4749,7 @@
         <v>7.68</v>
       </c>
       <c r="M89" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4766,7 +4787,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="M90" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4804,7 +4825,7 @@
         <v>11.39</v>
       </c>
       <c r="M91" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4842,7 +4863,7 @@
         <v>11.45</v>
       </c>
       <c r="M92" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4880,7 +4901,7 @@
         <v>15.19</v>
       </c>
       <c r="M93" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4918,7 +4939,7 @@
         <v>14.09</v>
       </c>
       <c r="M94" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4956,7 +4977,7 @@
         <v>11.47</v>
       </c>
       <c r="M95" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4994,7 +5015,7 @@
         <v>10.17</v>
       </c>
       <c r="M96" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5032,7 +5053,7 @@
         <v>10.46</v>
       </c>
       <c r="M97" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5070,7 +5091,7 @@
         <v>9.82</v>
       </c>
       <c r="M98" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5108,7 +5129,7 @@
         <v>9.99</v>
       </c>
       <c r="M99" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5146,7 +5167,7 @@
         <v>11.7</v>
       </c>
       <c r="M100" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5184,7 +5205,7 @@
         <v>11.51</v>
       </c>
       <c r="M101" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5222,7 +5243,7 @@
         <v>11.35</v>
       </c>
       <c r="M102" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5260,7 +5281,7 @@
         <v>11.37</v>
       </c>
       <c r="M103" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5298,7 +5319,7 @@
         <v>12.25</v>
       </c>
       <c r="M104" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5336,7 +5357,7 @@
         <v>12.5</v>
       </c>
       <c r="M105" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5374,7 +5395,7 @@
         <v>10.24</v>
       </c>
       <c r="M106" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5412,7 +5433,7 @@
         <v>12.09</v>
       </c>
       <c r="M107" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5453,7 +5474,7 @@
         <v>12.37</v>
       </c>
       <c r="M108" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5491,7 +5512,7 @@
         <v>11.1</v>
       </c>
       <c r="M109" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5529,7 +5550,7 @@
         <v>11.22</v>
       </c>
       <c r="M110" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5567,7 +5588,7 @@
         <v>11.94</v>
       </c>
       <c r="M111" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5605,7 +5626,7 @@
         <v>11.61</v>
       </c>
       <c r="M112" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5643,7 +5664,7 @@
         <v>11.98</v>
       </c>
       <c r="M113" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5681,7 +5702,7 @@
         <v>11.61</v>
       </c>
       <c r="M114" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5719,7 +5740,7 @@
         <v>13.44</v>
       </c>
       <c r="M115" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5757,7 +5778,7 @@
         <v>12.07</v>
       </c>
       <c r="M116" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5795,7 +5816,7 @@
         <v>12.13</v>
       </c>
       <c r="M117" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5833,7 +5854,7 @@
         <v>13.82</v>
       </c>
       <c r="M118" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5871,7 +5892,7 @@
         <v>15.09</v>
       </c>
       <c r="M119" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5909,7 +5930,7 @@
         <v>14.97</v>
       </c>
       <c r="M120" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5947,7 +5968,7 @@
         <v>15.22</v>
       </c>
       <c r="M121" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5985,7 +6006,7 @@
         <v>16.21</v>
       </c>
       <c r="M122" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6023,7 +6044,7 @@
         <v>15.85</v>
       </c>
       <c r="M123" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6061,7 +6082,7 @@
         <v>13.56</v>
       </c>
       <c r="M124" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6099,7 +6120,7 @@
         <v>12.19</v>
       </c>
       <c r="M125" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6137,7 +6158,7 @@
         <v>12.7</v>
       </c>
       <c r="M126" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6175,7 +6196,7 @@
         <v>13.54</v>
       </c>
       <c r="M127" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6213,7 +6234,7 @@
         <v>13.51</v>
       </c>
       <c r="M128" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6251,7 +6272,7 @@
         <v>14.09</v>
       </c>
       <c r="M129" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6289,7 +6310,7 @@
         <v>17.15</v>
       </c>
       <c r="M130" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6327,7 +6348,7 @@
         <v>17.77</v>
       </c>
       <c r="M131" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6365,7 +6386,7 @@
         <v>19.98</v>
       </c>
       <c r="M132" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6403,7 +6424,7 @@
         <v>23</v>
       </c>
       <c r="M133" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6441,7 +6462,7 @@
         <v>24.42</v>
       </c>
       <c r="M134" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6479,7 +6500,7 @@
         <v>26.56</v>
       </c>
       <c r="M135" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6517,7 +6538,7 @@
         <v>25.33</v>
       </c>
       <c r="M136" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6555,7 +6576,7 @@
         <v>25.03</v>
       </c>
       <c r="M137" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6593,7 +6614,7 @@
         <v>25.72</v>
       </c>
       <c r="M138" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6631,7 +6652,7 @@
         <v>27.06</v>
       </c>
       <c r="M139" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6669,7 +6690,7 @@
         <v>26.1</v>
       </c>
       <c r="M140" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6707,7 +6728,7 @@
         <v>26.46</v>
       </c>
       <c r="M141" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6745,7 +6766,7 @@
         <v>27.69</v>
       </c>
       <c r="M142" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6783,7 +6804,7 @@
         <v>26.86</v>
       </c>
       <c r="M143" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6821,7 +6842,7 @@
         <v>23.44</v>
       </c>
       <c r="M144" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6859,7 +6880,7 @@
         <v>25.35</v>
       </c>
       <c r="M145" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6897,7 +6918,7 @@
         <v>22.88</v>
       </c>
       <c r="M146" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6935,7 +6956,7 @@
         <v>20.1</v>
       </c>
       <c r="M147" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6973,7 +6994,7 @@
         <v>20.24</v>
       </c>
       <c r="M148" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7011,7 +7032,7 @@
         <v>21.87</v>
       </c>
       <c r="M149" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7049,7 +7070,7 @@
         <v>23.59</v>
       </c>
       <c r="M150" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7087,7 +7108,7 @@
         <v>23.43</v>
       </c>
       <c r="M151" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7125,7 +7146,7 @@
         <v>23.74</v>
       </c>
       <c r="M152" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7163,7 +7184,7 @@
         <v>21.77</v>
       </c>
       <c r="M153" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7201,7 +7222,7 @@
         <v>23.42</v>
       </c>
       <c r="M154" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7239,7 +7260,7 @@
         <v>20.39</v>
       </c>
       <c r="M155" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7277,7 +7298,7 @@
         <v>19.13</v>
       </c>
       <c r="M156" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7315,7 +7336,7 @@
         <v>20.75</v>
       </c>
       <c r="M157" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7353,7 +7374,7 @@
         <v>19.58</v>
       </c>
       <c r="M158" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7391,7 +7412,7 @@
         <v>18.9</v>
       </c>
       <c r="M159" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7429,7 +7450,7 @@
         <v>21</v>
       </c>
       <c r="M160" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7467,7 +7488,7 @@
         <v>19.41</v>
       </c>
       <c r="M161" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7505,7 +7526,7 @@
         <v>20.69</v>
       </c>
       <c r="M162" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7543,7 +7564,7 @@
         <v>21.27</v>
       </c>
       <c r="M163" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7581,7 +7602,7 @@
         <v>19.51</v>
       </c>
       <c r="M164" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7619,7 +7640,7 @@
         <v>20.33</v>
       </c>
       <c r="M165" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7657,7 +7678,7 @@
         <v>17.72</v>
       </c>
       <c r="M166" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7695,7 +7716,7 @@
         <v>12.78</v>
       </c>
       <c r="M167" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7733,7 +7754,7 @@
         <v>13.5</v>
       </c>
       <c r="M168" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7771,7 +7792,7 @@
         <v>13.49</v>
       </c>
       <c r="M169" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7809,7 +7830,7 @@
         <v>14.7</v>
       </c>
       <c r="M170" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7847,7 +7868,7 @@
         <v>14.64</v>
       </c>
       <c r="M171" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7885,7 +7906,7 @@
         <v>15.31</v>
       </c>
       <c r="M172" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7923,7 +7944,7 @@
         <v>16.97</v>
       </c>
       <c r="M173" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7961,7 +7982,7 @@
         <v>15.28</v>
       </c>
       <c r="M174" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7999,7 +8020,7 @@
         <v>13.02</v>
       </c>
       <c r="M175" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8037,7 +8058,7 @@
         <v>14.76</v>
       </c>
       <c r="M176" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8075,7 +8096,7 @@
         <v>14.52</v>
       </c>
       <c r="M177" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8113,7 +8134,7 @@
         <v>17.7</v>
       </c>
       <c r="M178" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8151,7 +8172,7 @@
         <v>16.52</v>
       </c>
       <c r="M179" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8189,7 +8210,7 @@
         <v>15</v>
       </c>
       <c r="M180" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8227,7 +8248,7 @@
         <v>16.97</v>
       </c>
       <c r="M181" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8265,7 +8286,7 @@
         <v>17.58</v>
       </c>
       <c r="M182" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8303,7 +8324,7 @@
         <v>16.69</v>
       </c>
       <c r="M183" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8341,7 +8362,7 @@
         <v>15.06</v>
       </c>
       <c r="M184" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8379,7 +8400,7 @@
         <v>15.19</v>
       </c>
       <c r="M185" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8417,7 +8438,7 @@
         <v>13.82</v>
       </c>
       <c r="M186" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8455,7 +8476,7 @@
         <v>13.7</v>
       </c>
       <c r="M187" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8493,7 +8514,7 @@
         <v>13.59</v>
       </c>
       <c r="M188" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8531,7 +8552,7 @@
         <v>13.54</v>
       </c>
       <c r="M189" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8569,7 +8590,7 @@
         <v>13.04</v>
       </c>
       <c r="M190" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8607,7 +8628,7 @@
         <v>11.36</v>
       </c>
       <c r="M191" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8645,7 +8666,7 @@
         <v>13.98</v>
       </c>
       <c r="M192" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8683,7 +8704,7 @@
         <v>14.01</v>
       </c>
       <c r="M193" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8721,7 +8742,7 @@
         <v>12.03</v>
       </c>
       <c r="M194" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8762,7 +8783,7 @@
         <v>12.94</v>
       </c>
       <c r="M195" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8800,7 +8821,7 @@
         <v>12.34</v>
       </c>
       <c r="M196" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8838,7 +8859,7 @@
         <v>11.72</v>
       </c>
       <c r="M197" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8879,7 +8900,7 @@
         <v>11.59</v>
       </c>
       <c r="M198" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8917,7 +8938,7 @@
         <v>11.57</v>
       </c>
       <c r="M199" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8955,7 +8976,7 @@
         <v>12.27</v>
       </c>
       <c r="M200" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8993,7 +9014,7 @@
         <v>12.5</v>
       </c>
       <c r="M201" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9031,7 +9052,7 @@
         <v>12.93</v>
       </c>
       <c r="M202" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9069,7 +9090,7 @@
         <v>12.87</v>
       </c>
       <c r="M203" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9107,7 +9128,7 @@
         <v>12.03</v>
       </c>
       <c r="M204" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9145,7 +9166,7 @@
         <v>10.3</v>
       </c>
       <c r="M205" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9183,7 +9204,7 @@
         <v>12.12</v>
       </c>
       <c r="M206" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9221,7 +9242,7 @@
         <v>12.2</v>
       </c>
       <c r="M207" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9262,7 +9283,7 @@
         <v>11.37</v>
       </c>
       <c r="M208" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9303,7 +9324,7 @@
         <v>11.01</v>
       </c>
       <c r="M209" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9341,7 +9362,7 @@
         <v>10.88</v>
       </c>
       <c r="M210" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9379,7 +9400,7 @@
         <v>10.46</v>
       </c>
       <c r="M211" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9417,7 +9438,7 @@
         <v>10.35</v>
       </c>
       <c r="M212" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9455,7 +9476,7 @@
         <v>10.56</v>
       </c>
       <c r="M213" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9496,7 +9517,7 @@
         <v>11.16</v>
       </c>
       <c r="M214" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9534,7 +9555,7 @@
         <v>12.25</v>
       </c>
       <c r="M215" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9572,7 +9593,7 @@
         <v>11.5</v>
       </c>
       <c r="M216" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9610,7 +9631,7 @@
         <v>10.44</v>
       </c>
       <c r="M217" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9648,7 +9669,7 @@
         <v>9.9</v>
       </c>
       <c r="M218" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9686,7 +9707,7 @@
         <v>10.6</v>
       </c>
       <c r="M219" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9724,7 +9745,7 @@
         <v>11.42</v>
       </c>
       <c r="M220" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9762,7 +9783,7 @@
         <v>10.98</v>
       </c>
       <c r="M221" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9800,7 +9821,7 @@
         <v>12.21</v>
       </c>
       <c r="M222" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9838,7 +9859,7 @@
         <v>11.61</v>
       </c>
       <c r="M223" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9876,7 +9897,7 @@
         <v>12.36</v>
       </c>
       <c r="M224" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9914,7 +9935,7 @@
         <v>15.85</v>
       </c>
       <c r="M225" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9952,7 +9973,7 @@
         <v>16.77</v>
       </c>
       <c r="M226" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9990,7 +10011,7 @@
         <v>16.58</v>
       </c>
       <c r="M227" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10028,7 +10049,7 @@
         <v>13.55</v>
       </c>
       <c r="M228" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10066,7 +10087,7 @@
         <v>13.84</v>
       </c>
       <c r="M229" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10104,7 +10125,7 @@
         <v>16.53</v>
       </c>
       <c r="M230" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10142,7 +10163,7 @@
         <v>16.39</v>
       </c>
       <c r="M231" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10180,7 +10201,7 @@
         <v>15.24</v>
       </c>
       <c r="M232" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10218,7 +10239,7 @@
         <v>13.89</v>
       </c>
       <c r="M233" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10256,7 +10277,7 @@
         <v>11.87</v>
       </c>
       <c r="M234" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10294,7 +10315,7 @@
         <v>12.06</v>
       </c>
       <c r="M235" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10332,7 +10353,7 @@
         <v>12.7</v>
       </c>
       <c r="M236" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10370,7 +10391,7 @@
         <v>12.69</v>
       </c>
       <c r="M237" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10408,7 +10429,7 @@
         <v>11.23</v>
       </c>
       <c r="M238" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10446,7 +10467,7 @@
         <v>10.31</v>
       </c>
       <c r="M239" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10484,7 +10505,7 @@
         <v>7.02</v>
       </c>
       <c r="M240" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10522,7 +10543,7 @@
         <v>7.15</v>
       </c>
       <c r="M241" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10560,7 +10581,7 @@
         <v>12.57</v>
       </c>
       <c r="M242" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10598,7 +10619,7 @@
         <v>9.27</v>
       </c>
       <c r="M243" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10636,7 +10657,7 @@
         <v>8.19</v>
       </c>
       <c r="M244" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10674,7 +10695,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="M245" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10712,7 +10733,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="M246" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10750,7 +10771,7 @@
         <v>10.35</v>
       </c>
       <c r="M247" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10788,7 +10809,7 @@
         <v>16.13</v>
       </c>
       <c r="M248" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10826,7 +10847,7 @@
         <v>16.43</v>
       </c>
       <c r="M249" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10864,7 +10885,7 @@
         <v>15.96</v>
       </c>
       <c r="M250" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10902,7 +10923,7 @@
         <v>9.83</v>
       </c>
       <c r="M251" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10940,7 +10961,7 @@
         <v>6.63</v>
       </c>
       <c r="M252" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -10978,7 +10999,7 @@
         <v>6.15</v>
       </c>
       <c r="M253" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11016,7 +11037,7 @@
         <v>8.66</v>
       </c>
       <c r="M254" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11054,7 +11075,7 @@
         <v>10.09</v>
       </c>
       <c r="M255" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11092,7 +11113,7 @@
         <v>9.73</v>
       </c>
       <c r="M256" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11130,7 +11151,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="M257" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11168,7 +11189,7 @@
         <v>9.25</v>
       </c>
       <c r="M258" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11206,7 +11227,7 @@
         <v>10.64</v>
       </c>
       <c r="M259" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11244,7 +11265,7 @@
         <v>13.53</v>
       </c>
       <c r="M260" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11282,7 +11303,7 @@
         <v>12.66</v>
       </c>
       <c r="M261" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11320,7 +11341,7 @@
         <v>12.04</v>
       </c>
       <c r="M262" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11358,7 +11379,7 @@
         <v>12.75</v>
       </c>
       <c r="M263" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11396,7 +11417,7 @@
         <v>11.91</v>
       </c>
       <c r="M264" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11434,7 +11455,7 @@
         <v>10.03</v>
       </c>
       <c r="M265" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11472,7 +11493,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="M266" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11510,7 +11531,7 @@
         <v>7.36</v>
       </c>
       <c r="M267" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11548,7 +11569,7 @@
         <v>6.97</v>
       </c>
       <c r="M268" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11586,7 +11607,7 @@
         <v>11.24</v>
       </c>
       <c r="M269" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11624,7 +11645,7 @@
         <v>9</v>
       </c>
       <c r="M270" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11662,7 +11683,7 @@
         <v>6.82</v>
       </c>
       <c r="M271" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11700,7 +11721,7 @@
         <v>4.15</v>
       </c>
       <c r="M272" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11738,7 +11759,7 @@
         <v>5.17</v>
       </c>
       <c r="M273" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11776,7 +11797,7 @@
         <v>6.37</v>
       </c>
       <c r="M274" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11814,7 +11835,7 @@
         <v>6.42</v>
       </c>
       <c r="M275" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11852,7 +11873,7 @@
         <v>7.41</v>
       </c>
       <c r="M276" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11890,7 +11911,7 @@
         <v>5.77</v>
       </c>
       <c r="M277" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -11928,7 +11949,7 @@
         <v>5.61</v>
       </c>
       <c r="M278" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -11966,7 +11987,7 @@
         <v>3.76</v>
       </c>
       <c r="M279" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -12007,7 +12028,7 @@
         <v>4.26</v>
       </c>
       <c r="M280" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12045,7 +12066,7 @@
         <v>6.7</v>
       </c>
       <c r="M281" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12083,7 +12104,7 @@
         <v>12.48</v>
       </c>
       <c r="M282" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12121,7 +12142,7 @@
         <v>13.05</v>
       </c>
       <c r="M283" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12159,7 +12180,7 @@
         <v>10.29</v>
       </c>
       <c r="M284" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12197,7 +12218,7 @@
         <v>10.61</v>
       </c>
       <c r="M285" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12235,7 +12256,7 @@
         <v>10.14</v>
       </c>
       <c r="M286" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12273,7 +12294,7 @@
         <v>13.1</v>
       </c>
       <c r="M287" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12311,7 +12332,7 @@
         <v>11.08</v>
       </c>
       <c r="M288" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12349,7 +12370,273 @@
         <v>10.21</v>
       </c>
       <c r="M289" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
         <v>300</v>
+      </c>
+      <c r="C290">
+        <v>11.36</v>
+      </c>
+      <c r="D290">
+        <v>91.37</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>22.2</v>
+      </c>
+      <c r="G290">
+        <v>13.26</v>
+      </c>
+      <c r="H290">
+        <v>855.37</v>
+      </c>
+      <c r="I290">
+        <v>20.72</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>10.59</v>
+      </c>
+      <c r="M290" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>301</v>
+      </c>
+      <c r="C291">
+        <v>11.36</v>
+      </c>
+      <c r="D291">
+        <v>91</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>22.24</v>
+      </c>
+      <c r="G291">
+        <v>17.7</v>
+      </c>
+      <c r="H291">
+        <v>855.37</v>
+      </c>
+      <c r="I291">
+        <v>20.7</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>10.13</v>
+      </c>
+      <c r="M291" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>302</v>
+      </c>
+      <c r="C292">
+        <v>11.28</v>
+      </c>
+      <c r="D292">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>22.25</v>
+      </c>
+      <c r="G292">
+        <v>21.53</v>
+      </c>
+      <c r="H292">
+        <v>855.25</v>
+      </c>
+      <c r="I292">
+        <v>20.67</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>9.18</v>
+      </c>
+      <c r="M292" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>303</v>
+      </c>
+      <c r="C293">
+        <v>11.37</v>
+      </c>
+      <c r="D293">
+        <v>90.70999999999999</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>22.26</v>
+      </c>
+      <c r="G293">
+        <v>28.77</v>
+      </c>
+      <c r="H293">
+        <v>855.12</v>
+      </c>
+      <c r="I293">
+        <v>20.66</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>8.92</v>
+      </c>
+      <c r="M293" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>304</v>
+      </c>
+      <c r="C294">
+        <v>11.35</v>
+      </c>
+      <c r="D294">
+        <v>90.59</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>22.26</v>
+      </c>
+      <c r="G294">
+        <v>22.91</v>
+      </c>
+      <c r="H294">
+        <v>854.92</v>
+      </c>
+      <c r="I294">
+        <v>20.63</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>8.16</v>
+      </c>
+      <c r="M294" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>305</v>
+      </c>
+      <c r="C295">
+        <v>11.38</v>
+      </c>
+      <c r="D295">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>22.23</v>
+      </c>
+      <c r="G295">
+        <v>16.42</v>
+      </c>
+      <c r="H295">
+        <v>854.67</v>
+      </c>
+      <c r="I295">
+        <v>20.61</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>9.41</v>
+      </c>
+      <c r="M295" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>306</v>
+      </c>
+      <c r="C296">
+        <v>11.42</v>
+      </c>
+      <c r="D296">
+        <v>90.73</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>22.21</v>
+      </c>
+      <c r="G296">
+        <v>44.82</v>
+      </c>
+      <c r="H296">
+        <v>854.49</v>
+      </c>
+      <c r="I296">
+        <v>20.61</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>9.02</v>
+      </c>
+      <c r="M296" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="315">
   <si>
     <t>Fecha</t>
   </si>
@@ -935,6 +935,27 @@
   </si>
   <si>
     <t>11/9/2020 1:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:15:00 AM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1295,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M296"/>
+  <dimension ref="A1:M303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,7 +1398,7 @@
         <v>8.77</v>
       </c>
       <c r="M2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1418,7 +1439,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="M3" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1459,7 +1480,7 @@
         <v>7.13</v>
       </c>
       <c r="M4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1500,7 +1521,7 @@
         <v>4.17</v>
       </c>
       <c r="M5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1541,7 +1562,7 @@
         <v>2.88</v>
       </c>
       <c r="M6" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1582,7 +1603,7 @@
         <v>3.58</v>
       </c>
       <c r="M7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1623,7 +1644,7 @@
         <v>2.6</v>
       </c>
       <c r="M8" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1664,7 +1685,7 @@
         <v>3.58</v>
       </c>
       <c r="M9" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1705,7 +1726,7 @@
         <v>4.42</v>
       </c>
       <c r="M10" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1746,7 +1767,7 @@
         <v>2.73</v>
       </c>
       <c r="M11" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1787,7 +1808,7 @@
         <v>3.65</v>
       </c>
       <c r="M12" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1828,7 +1849,7 @@
         <v>2.51</v>
       </c>
       <c r="M13" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1869,7 +1890,7 @@
         <v>4.05</v>
       </c>
       <c r="M14" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1910,7 +1931,7 @@
         <v>3.9</v>
       </c>
       <c r="M15" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1951,7 +1972,7 @@
         <v>2.11</v>
       </c>
       <c r="M16" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1992,7 +2013,7 @@
         <v>2.31</v>
       </c>
       <c r="M17" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2033,7 +2054,7 @@
         <v>4.49</v>
       </c>
       <c r="M18" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2074,7 +2095,7 @@
         <v>4.15</v>
       </c>
       <c r="M19" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2115,7 +2136,7 @@
         <v>2.28</v>
       </c>
       <c r="M20" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2156,7 +2177,7 @@
         <v>3.02</v>
       </c>
       <c r="M21" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2197,7 +2218,7 @@
         <v>2.46</v>
       </c>
       <c r="M22" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2235,7 +2256,7 @@
         <v>1.82</v>
       </c>
       <c r="M23" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2276,7 +2297,7 @@
         <v>5.56</v>
       </c>
       <c r="M24" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2314,7 +2335,7 @@
         <v>6.98</v>
       </c>
       <c r="M25" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2352,7 +2373,7 @@
         <v>9.31</v>
       </c>
       <c r="M26" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2393,7 +2414,7 @@
         <v>5.73</v>
       </c>
       <c r="M27" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2431,7 +2452,7 @@
         <v>3.69</v>
       </c>
       <c r="M28" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2469,7 +2490,7 @@
         <v>3.27</v>
       </c>
       <c r="M29" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2507,7 +2528,7 @@
         <v>5.62</v>
       </c>
       <c r="M30" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2545,7 +2566,7 @@
         <v>7.55</v>
       </c>
       <c r="M31" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2583,7 +2604,7 @@
         <v>9.52</v>
       </c>
       <c r="M32" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2621,7 +2642,7 @@
         <v>7.88</v>
       </c>
       <c r="M33" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2659,7 +2680,7 @@
         <v>8.01</v>
       </c>
       <c r="M34" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2697,7 +2718,7 @@
         <v>8.74</v>
       </c>
       <c r="M35" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2735,7 +2756,7 @@
         <v>9.76</v>
       </c>
       <c r="M36" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2773,7 +2794,7 @@
         <v>15.26</v>
       </c>
       <c r="M37" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2811,7 +2832,7 @@
         <v>17.68</v>
       </c>
       <c r="M38" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2849,7 +2870,7 @@
         <v>15.95</v>
       </c>
       <c r="M39" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2887,7 +2908,7 @@
         <v>17.28</v>
       </c>
       <c r="M40" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2925,7 +2946,7 @@
         <v>17.27</v>
       </c>
       <c r="M41" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2963,7 +2984,7 @@
         <v>15.2</v>
       </c>
       <c r="M42" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3001,7 +3022,7 @@
         <v>16.27</v>
       </c>
       <c r="M43" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3039,7 +3060,7 @@
         <v>17.15</v>
       </c>
       <c r="M44" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3077,7 +3098,7 @@
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3115,7 +3136,7 @@
         <v>21.18</v>
       </c>
       <c r="M46" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3153,7 +3174,7 @@
         <v>19.03</v>
       </c>
       <c r="M47" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3191,7 +3212,7 @@
         <v>18.57</v>
       </c>
       <c r="M48" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3229,7 +3250,7 @@
         <v>21.15</v>
       </c>
       <c r="M49" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3267,7 +3288,7 @@
         <v>18.54</v>
       </c>
       <c r="M50" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3305,7 +3326,7 @@
         <v>18.7</v>
       </c>
       <c r="M51" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3343,7 +3364,7 @@
         <v>17.39</v>
       </c>
       <c r="M52" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3381,7 +3402,7 @@
         <v>16.37</v>
       </c>
       <c r="M53" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3419,7 +3440,7 @@
         <v>15.89</v>
       </c>
       <c r="M54" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3457,7 +3478,7 @@
         <v>17.35</v>
       </c>
       <c r="M55" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3495,7 +3516,7 @@
         <v>15.33</v>
       </c>
       <c r="M56" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3533,7 +3554,7 @@
         <v>13.97</v>
       </c>
       <c r="M57" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3571,7 +3592,7 @@
         <v>19.23</v>
       </c>
       <c r="M58" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3609,7 +3630,7 @@
         <v>16.43</v>
       </c>
       <c r="M59" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3647,7 +3668,7 @@
         <v>17.54</v>
       </c>
       <c r="M60" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3685,7 +3706,7 @@
         <v>18.1</v>
       </c>
       <c r="M61" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3723,7 +3744,7 @@
         <v>17.67</v>
       </c>
       <c r="M62" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3761,7 +3782,7 @@
         <v>14.99</v>
       </c>
       <c r="M63" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3799,7 +3820,7 @@
         <v>17.31</v>
       </c>
       <c r="M64" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3837,7 +3858,7 @@
         <v>19.12</v>
       </c>
       <c r="M65" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3875,7 +3896,7 @@
         <v>15.23</v>
       </c>
       <c r="M66" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3913,7 +3934,7 @@
         <v>13.71</v>
       </c>
       <c r="M67" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3951,7 +3972,7 @@
         <v>16.9</v>
       </c>
       <c r="M68" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3989,7 +4010,7 @@
         <v>18.84</v>
       </c>
       <c r="M69" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4027,7 +4048,7 @@
         <v>16.48</v>
       </c>
       <c r="M70" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4065,7 +4086,7 @@
         <v>13.14</v>
       </c>
       <c r="M71" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4103,7 +4124,7 @@
         <v>14.3</v>
       </c>
       <c r="M72" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4141,7 +4162,7 @@
         <v>11.4</v>
       </c>
       <c r="M73" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4179,7 +4200,7 @@
         <v>12.74</v>
       </c>
       <c r="M74" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4217,7 +4238,7 @@
         <v>12.52</v>
       </c>
       <c r="M75" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4255,7 +4276,7 @@
         <v>9.6</v>
       </c>
       <c r="M76" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4293,7 +4314,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4331,7 +4352,7 @@
         <v>6.73</v>
       </c>
       <c r="M78" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4369,7 +4390,7 @@
         <v>6.96</v>
       </c>
       <c r="M79" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4407,7 +4428,7 @@
         <v>7.33</v>
       </c>
       <c r="M80" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4445,7 +4466,7 @@
         <v>6.53</v>
       </c>
       <c r="M81" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4483,7 +4504,7 @@
         <v>7.43</v>
       </c>
       <c r="M82" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4521,7 +4542,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="M83" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4559,7 +4580,7 @@
         <v>11.35</v>
       </c>
       <c r="M84" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4597,7 +4618,7 @@
         <v>11.74</v>
       </c>
       <c r="M85" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4635,7 +4656,7 @@
         <v>11.87</v>
       </c>
       <c r="M86" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4673,7 +4694,7 @@
         <v>8.75</v>
       </c>
       <c r="M87" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4711,7 +4732,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M88" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4749,7 +4770,7 @@
         <v>7.68</v>
       </c>
       <c r="M89" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4787,7 +4808,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="M90" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4825,7 +4846,7 @@
         <v>11.39</v>
       </c>
       <c r="M91" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4863,7 +4884,7 @@
         <v>11.45</v>
       </c>
       <c r="M92" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4901,7 +4922,7 @@
         <v>15.19</v>
       </c>
       <c r="M93" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4939,7 +4960,7 @@
         <v>14.09</v>
       </c>
       <c r="M94" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4977,7 +4998,7 @@
         <v>11.47</v>
       </c>
       <c r="M95" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5015,7 +5036,7 @@
         <v>10.17</v>
       </c>
       <c r="M96" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5053,7 +5074,7 @@
         <v>10.46</v>
       </c>
       <c r="M97" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5091,7 +5112,7 @@
         <v>9.82</v>
       </c>
       <c r="M98" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5129,7 +5150,7 @@
         <v>9.99</v>
       </c>
       <c r="M99" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5167,7 +5188,7 @@
         <v>11.7</v>
       </c>
       <c r="M100" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5205,7 +5226,7 @@
         <v>11.51</v>
       </c>
       <c r="M101" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5243,7 +5264,7 @@
         <v>11.35</v>
       </c>
       <c r="M102" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5281,7 +5302,7 @@
         <v>11.37</v>
       </c>
       <c r="M103" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5319,7 +5340,7 @@
         <v>12.25</v>
       </c>
       <c r="M104" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5357,7 +5378,7 @@
         <v>12.5</v>
       </c>
       <c r="M105" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5395,7 +5416,7 @@
         <v>10.24</v>
       </c>
       <c r="M106" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5433,7 +5454,7 @@
         <v>12.09</v>
       </c>
       <c r="M107" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5474,7 +5495,7 @@
         <v>12.37</v>
       </c>
       <c r="M108" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5512,7 +5533,7 @@
         <v>11.1</v>
       </c>
       <c r="M109" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5550,7 +5571,7 @@
         <v>11.22</v>
       </c>
       <c r="M110" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5588,7 +5609,7 @@
         <v>11.94</v>
       </c>
       <c r="M111" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5626,7 +5647,7 @@
         <v>11.61</v>
       </c>
       <c r="M112" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5664,7 +5685,7 @@
         <v>11.98</v>
       </c>
       <c r="M113" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5702,7 +5723,7 @@
         <v>11.61</v>
       </c>
       <c r="M114" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5740,7 +5761,7 @@
         <v>13.44</v>
       </c>
       <c r="M115" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5778,7 +5799,7 @@
         <v>12.07</v>
       </c>
       <c r="M116" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5816,7 +5837,7 @@
         <v>12.13</v>
       </c>
       <c r="M117" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5854,7 +5875,7 @@
         <v>13.82</v>
       </c>
       <c r="M118" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5892,7 +5913,7 @@
         <v>15.09</v>
       </c>
       <c r="M119" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5930,7 +5951,7 @@
         <v>14.97</v>
       </c>
       <c r="M120" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5968,7 +5989,7 @@
         <v>15.22</v>
       </c>
       <c r="M121" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6006,7 +6027,7 @@
         <v>16.21</v>
       </c>
       <c r="M122" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6044,7 +6065,7 @@
         <v>15.85</v>
       </c>
       <c r="M123" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6082,7 +6103,7 @@
         <v>13.56</v>
       </c>
       <c r="M124" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6120,7 +6141,7 @@
         <v>12.19</v>
       </c>
       <c r="M125" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6158,7 +6179,7 @@
         <v>12.7</v>
       </c>
       <c r="M126" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6196,7 +6217,7 @@
         <v>13.54</v>
       </c>
       <c r="M127" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6234,7 +6255,7 @@
         <v>13.51</v>
       </c>
       <c r="M128" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6272,7 +6293,7 @@
         <v>14.09</v>
       </c>
       <c r="M129" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6310,7 +6331,7 @@
         <v>17.15</v>
       </c>
       <c r="M130" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6348,7 +6369,7 @@
         <v>17.77</v>
       </c>
       <c r="M131" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6386,7 +6407,7 @@
         <v>19.98</v>
       </c>
       <c r="M132" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6424,7 +6445,7 @@
         <v>23</v>
       </c>
       <c r="M133" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6462,7 +6483,7 @@
         <v>24.42</v>
       </c>
       <c r="M134" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6500,7 +6521,7 @@
         <v>26.56</v>
       </c>
       <c r="M135" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6538,7 +6559,7 @@
         <v>25.33</v>
       </c>
       <c r="M136" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6576,7 +6597,7 @@
         <v>25.03</v>
       </c>
       <c r="M137" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6614,7 +6635,7 @@
         <v>25.72</v>
       </c>
       <c r="M138" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6652,7 +6673,7 @@
         <v>27.06</v>
       </c>
       <c r="M139" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6690,7 +6711,7 @@
         <v>26.1</v>
       </c>
       <c r="M140" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6728,7 +6749,7 @@
         <v>26.46</v>
       </c>
       <c r="M141" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6766,7 +6787,7 @@
         <v>27.69</v>
       </c>
       <c r="M142" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6804,7 +6825,7 @@
         <v>26.86</v>
       </c>
       <c r="M143" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6842,7 +6863,7 @@
         <v>23.44</v>
       </c>
       <c r="M144" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6880,7 +6901,7 @@
         <v>25.35</v>
       </c>
       <c r="M145" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6918,7 +6939,7 @@
         <v>22.88</v>
       </c>
       <c r="M146" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6956,7 +6977,7 @@
         <v>20.1</v>
       </c>
       <c r="M147" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6994,7 +7015,7 @@
         <v>20.24</v>
       </c>
       <c r="M148" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7032,7 +7053,7 @@
         <v>21.87</v>
       </c>
       <c r="M149" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7070,7 +7091,7 @@
         <v>23.59</v>
       </c>
       <c r="M150" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7108,7 +7129,7 @@
         <v>23.43</v>
       </c>
       <c r="M151" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7146,7 +7167,7 @@
         <v>23.74</v>
       </c>
       <c r="M152" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7184,7 +7205,7 @@
         <v>21.77</v>
       </c>
       <c r="M153" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7222,7 +7243,7 @@
         <v>23.42</v>
       </c>
       <c r="M154" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7260,7 +7281,7 @@
         <v>20.39</v>
       </c>
       <c r="M155" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7298,7 +7319,7 @@
         <v>19.13</v>
       </c>
       <c r="M156" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7336,7 +7357,7 @@
         <v>20.75</v>
       </c>
       <c r="M157" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7374,7 +7395,7 @@
         <v>19.58</v>
       </c>
       <c r="M158" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7412,7 +7433,7 @@
         <v>18.9</v>
       </c>
       <c r="M159" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7450,7 +7471,7 @@
         <v>21</v>
       </c>
       <c r="M160" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7488,7 +7509,7 @@
         <v>19.41</v>
       </c>
       <c r="M161" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7526,7 +7547,7 @@
         <v>20.69</v>
       </c>
       <c r="M162" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7564,7 +7585,7 @@
         <v>21.27</v>
       </c>
       <c r="M163" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7602,7 +7623,7 @@
         <v>19.51</v>
       </c>
       <c r="M164" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7640,7 +7661,7 @@
         <v>20.33</v>
       </c>
       <c r="M165" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7678,7 +7699,7 @@
         <v>17.72</v>
       </c>
       <c r="M166" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7716,7 +7737,7 @@
         <v>12.78</v>
       </c>
       <c r="M167" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7754,7 +7775,7 @@
         <v>13.5</v>
       </c>
       <c r="M168" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7792,7 +7813,7 @@
         <v>13.49</v>
       </c>
       <c r="M169" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7830,7 +7851,7 @@
         <v>14.7</v>
       </c>
       <c r="M170" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7868,7 +7889,7 @@
         <v>14.64</v>
       </c>
       <c r="M171" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7906,7 +7927,7 @@
         <v>15.31</v>
       </c>
       <c r="M172" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7944,7 +7965,7 @@
         <v>16.97</v>
       </c>
       <c r="M173" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7982,7 +8003,7 @@
         <v>15.28</v>
       </c>
       <c r="M174" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8020,7 +8041,7 @@
         <v>13.02</v>
       </c>
       <c r="M175" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8058,7 +8079,7 @@
         <v>14.76</v>
       </c>
       <c r="M176" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8096,7 +8117,7 @@
         <v>14.52</v>
       </c>
       <c r="M177" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8134,7 +8155,7 @@
         <v>17.7</v>
       </c>
       <c r="M178" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8172,7 +8193,7 @@
         <v>16.52</v>
       </c>
       <c r="M179" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8210,7 +8231,7 @@
         <v>15</v>
       </c>
       <c r="M180" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8248,7 +8269,7 @@
         <v>16.97</v>
       </c>
       <c r="M181" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8286,7 +8307,7 @@
         <v>17.58</v>
       </c>
       <c r="M182" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8324,7 +8345,7 @@
         <v>16.69</v>
       </c>
       <c r="M183" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8362,7 +8383,7 @@
         <v>15.06</v>
       </c>
       <c r="M184" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8400,7 +8421,7 @@
         <v>15.19</v>
       </c>
       <c r="M185" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8438,7 +8459,7 @@
         <v>13.82</v>
       </c>
       <c r="M186" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8476,7 +8497,7 @@
         <v>13.7</v>
       </c>
       <c r="M187" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8514,7 +8535,7 @@
         <v>13.59</v>
       </c>
       <c r="M188" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8552,7 +8573,7 @@
         <v>13.54</v>
       </c>
       <c r="M189" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8590,7 +8611,7 @@
         <v>13.04</v>
       </c>
       <c r="M190" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8628,7 +8649,7 @@
         <v>11.36</v>
       </c>
       <c r="M191" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8666,7 +8687,7 @@
         <v>13.98</v>
       </c>
       <c r="M192" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8704,7 +8725,7 @@
         <v>14.01</v>
       </c>
       <c r="M193" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8742,7 +8763,7 @@
         <v>12.03</v>
       </c>
       <c r="M194" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8783,7 +8804,7 @@
         <v>12.94</v>
       </c>
       <c r="M195" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8821,7 +8842,7 @@
         <v>12.34</v>
       </c>
       <c r="M196" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8859,7 +8880,7 @@
         <v>11.72</v>
       </c>
       <c r="M197" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8900,7 +8921,7 @@
         <v>11.59</v>
       </c>
       <c r="M198" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8938,7 +8959,7 @@
         <v>11.57</v>
       </c>
       <c r="M199" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8976,7 +8997,7 @@
         <v>12.27</v>
       </c>
       <c r="M200" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -9014,7 +9035,7 @@
         <v>12.5</v>
       </c>
       <c r="M201" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9052,7 +9073,7 @@
         <v>12.93</v>
       </c>
       <c r="M202" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9090,7 +9111,7 @@
         <v>12.87</v>
       </c>
       <c r="M203" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9128,7 +9149,7 @@
         <v>12.03</v>
       </c>
       <c r="M204" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9166,7 +9187,7 @@
         <v>10.3</v>
       </c>
       <c r="M205" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9204,7 +9225,7 @@
         <v>12.12</v>
       </c>
       <c r="M206" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9242,7 +9263,7 @@
         <v>12.2</v>
       </c>
       <c r="M207" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9283,7 +9304,7 @@
         <v>11.37</v>
       </c>
       <c r="M208" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9324,7 +9345,7 @@
         <v>11.01</v>
       </c>
       <c r="M209" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9362,7 +9383,7 @@
         <v>10.88</v>
       </c>
       <c r="M210" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9400,7 +9421,7 @@
         <v>10.46</v>
       </c>
       <c r="M211" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9438,7 +9459,7 @@
         <v>10.35</v>
       </c>
       <c r="M212" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9476,7 +9497,7 @@
         <v>10.56</v>
       </c>
       <c r="M213" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9517,7 +9538,7 @@
         <v>11.16</v>
       </c>
       <c r="M214" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9555,7 +9576,7 @@
         <v>12.25</v>
       </c>
       <c r="M215" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9593,7 +9614,7 @@
         <v>11.5</v>
       </c>
       <c r="M216" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9631,7 +9652,7 @@
         <v>10.44</v>
       </c>
       <c r="M217" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9669,7 +9690,7 @@
         <v>9.9</v>
       </c>
       <c r="M218" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9707,7 +9728,7 @@
         <v>10.6</v>
       </c>
       <c r="M219" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9745,7 +9766,7 @@
         <v>11.42</v>
       </c>
       <c r="M220" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9783,7 +9804,7 @@
         <v>10.98</v>
       </c>
       <c r="M221" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9821,7 +9842,7 @@
         <v>12.21</v>
       </c>
       <c r="M222" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9859,7 +9880,7 @@
         <v>11.61</v>
       </c>
       <c r="M223" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9897,7 +9918,7 @@
         <v>12.36</v>
       </c>
       <c r="M224" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9935,7 +9956,7 @@
         <v>15.85</v>
       </c>
       <c r="M225" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9973,7 +9994,7 @@
         <v>16.77</v>
       </c>
       <c r="M226" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10011,7 +10032,7 @@
         <v>16.58</v>
       </c>
       <c r="M227" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10049,7 +10070,7 @@
         <v>13.55</v>
       </c>
       <c r="M228" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10087,7 +10108,7 @@
         <v>13.84</v>
       </c>
       <c r="M229" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10125,7 +10146,7 @@
         <v>16.53</v>
       </c>
       <c r="M230" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10163,7 +10184,7 @@
         <v>16.39</v>
       </c>
       <c r="M231" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10201,7 +10222,7 @@
         <v>15.24</v>
       </c>
       <c r="M232" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10239,7 +10260,7 @@
         <v>13.89</v>
       </c>
       <c r="M233" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10277,7 +10298,7 @@
         <v>11.87</v>
       </c>
       <c r="M234" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10315,7 +10336,7 @@
         <v>12.06</v>
       </c>
       <c r="M235" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10353,7 +10374,7 @@
         <v>12.7</v>
       </c>
       <c r="M236" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10391,7 +10412,7 @@
         <v>12.69</v>
       </c>
       <c r="M237" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10429,7 +10450,7 @@
         <v>11.23</v>
       </c>
       <c r="M238" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10467,7 +10488,7 @@
         <v>10.31</v>
       </c>
       <c r="M239" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10505,7 +10526,7 @@
         <v>7.02</v>
       </c>
       <c r="M240" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10543,7 +10564,7 @@
         <v>7.15</v>
       </c>
       <c r="M241" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10581,7 +10602,7 @@
         <v>12.57</v>
       </c>
       <c r="M242" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10619,7 +10640,7 @@
         <v>9.27</v>
       </c>
       <c r="M243" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10657,7 +10678,7 @@
         <v>8.19</v>
       </c>
       <c r="M244" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10695,7 +10716,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="M245" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10733,7 +10754,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="M246" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10771,7 +10792,7 @@
         <v>10.35</v>
       </c>
       <c r="M247" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10809,7 +10830,7 @@
         <v>16.13</v>
       </c>
       <c r="M248" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10847,7 +10868,7 @@
         <v>16.43</v>
       </c>
       <c r="M249" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10885,7 +10906,7 @@
         <v>15.96</v>
       </c>
       <c r="M250" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10923,7 +10944,7 @@
         <v>9.83</v>
       </c>
       <c r="M251" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10961,7 +10982,7 @@
         <v>6.63</v>
       </c>
       <c r="M252" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -10999,7 +11020,7 @@
         <v>6.15</v>
       </c>
       <c r="M253" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11037,7 +11058,7 @@
         <v>8.66</v>
       </c>
       <c r="M254" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11075,7 +11096,7 @@
         <v>10.09</v>
       </c>
       <c r="M255" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11113,7 +11134,7 @@
         <v>9.73</v>
       </c>
       <c r="M256" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11151,7 +11172,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="M257" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11189,7 +11210,7 @@
         <v>9.25</v>
       </c>
       <c r="M258" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11227,7 +11248,7 @@
         <v>10.64</v>
       </c>
       <c r="M259" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11265,7 +11286,7 @@
         <v>13.53</v>
       </c>
       <c r="M260" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11303,7 +11324,7 @@
         <v>12.66</v>
       </c>
       <c r="M261" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11341,7 +11362,7 @@
         <v>12.04</v>
       </c>
       <c r="M262" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11379,7 +11400,7 @@
         <v>12.75</v>
       </c>
       <c r="M263" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11417,7 +11438,7 @@
         <v>11.91</v>
       </c>
       <c r="M264" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11455,7 +11476,7 @@
         <v>10.03</v>
       </c>
       <c r="M265" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11493,7 +11514,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="M266" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11531,7 +11552,7 @@
         <v>7.36</v>
       </c>
       <c r="M267" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11569,7 +11590,7 @@
         <v>6.97</v>
       </c>
       <c r="M268" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11607,7 +11628,7 @@
         <v>11.24</v>
       </c>
       <c r="M269" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11645,7 +11666,7 @@
         <v>9</v>
       </c>
       <c r="M270" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11683,7 +11704,7 @@
         <v>6.82</v>
       </c>
       <c r="M271" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11721,7 +11742,7 @@
         <v>4.15</v>
       </c>
       <c r="M272" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11759,7 +11780,7 @@
         <v>5.17</v>
       </c>
       <c r="M273" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11797,7 +11818,7 @@
         <v>6.37</v>
       </c>
       <c r="M274" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11835,7 +11856,7 @@
         <v>6.42</v>
       </c>
       <c r="M275" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11873,7 +11894,7 @@
         <v>7.41</v>
       </c>
       <c r="M276" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11911,7 +11932,7 @@
         <v>5.77</v>
       </c>
       <c r="M277" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -11949,7 +11970,7 @@
         <v>5.61</v>
       </c>
       <c r="M278" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -11987,7 +12008,7 @@
         <v>3.76</v>
       </c>
       <c r="M279" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -12028,7 +12049,7 @@
         <v>4.26</v>
       </c>
       <c r="M280" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12066,7 +12087,7 @@
         <v>6.7</v>
       </c>
       <c r="M281" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12104,7 +12125,7 @@
         <v>12.48</v>
       </c>
       <c r="M282" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12142,7 +12163,7 @@
         <v>13.05</v>
       </c>
       <c r="M283" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12180,7 +12201,7 @@
         <v>10.29</v>
       </c>
       <c r="M284" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12218,7 +12239,7 @@
         <v>10.61</v>
       </c>
       <c r="M285" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12256,7 +12277,7 @@
         <v>10.14</v>
       </c>
       <c r="M286" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12294,7 +12315,7 @@
         <v>13.1</v>
       </c>
       <c r="M287" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12332,7 +12353,7 @@
         <v>11.08</v>
       </c>
       <c r="M288" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12370,7 +12391,7 @@
         <v>10.21</v>
       </c>
       <c r="M289" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12408,7 +12429,7 @@
         <v>10.59</v>
       </c>
       <c r="M290" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12446,7 +12467,7 @@
         <v>10.13</v>
       </c>
       <c r="M291" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12484,7 +12505,7 @@
         <v>9.18</v>
       </c>
       <c r="M292" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12522,7 +12543,7 @@
         <v>8.92</v>
       </c>
       <c r="M293" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12560,7 +12581,7 @@
         <v>8.16</v>
       </c>
       <c r="M294" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12598,7 +12619,7 @@
         <v>9.41</v>
       </c>
       <c r="M295" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12636,7 +12657,273 @@
         <v>9.02</v>
       </c>
       <c r="M296" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
         <v>307</v>
+      </c>
+      <c r="C297">
+        <v>11.41</v>
+      </c>
+      <c r="D297">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>22.12</v>
+      </c>
+      <c r="G297">
+        <v>33.49</v>
+      </c>
+      <c r="H297">
+        <v>854.38</v>
+      </c>
+      <c r="I297">
+        <v>20.54</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>8.68</v>
+      </c>
+      <c r="M297" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>308</v>
+      </c>
+      <c r="C298">
+        <v>11.4</v>
+      </c>
+      <c r="D298">
+        <v>91.34</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>22.07</v>
+      </c>
+      <c r="G298">
+        <v>19.6</v>
+      </c>
+      <c r="H298">
+        <v>854.24</v>
+      </c>
+      <c r="I298">
+        <v>20.59</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>10.54</v>
+      </c>
+      <c r="M298" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>309</v>
+      </c>
+      <c r="C299">
+        <v>11.36</v>
+      </c>
+      <c r="D299">
+        <v>91.58</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>22.08</v>
+      </c>
+      <c r="G299">
+        <v>21.29</v>
+      </c>
+      <c r="H299">
+        <v>854.1799999999999</v>
+      </c>
+      <c r="I299">
+        <v>20.64</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>8.23</v>
+      </c>
+      <c r="M299" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>310</v>
+      </c>
+      <c r="C300">
+        <v>11.3</v>
+      </c>
+      <c r="D300">
+        <v>91.34</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>22.09</v>
+      </c>
+      <c r="G300">
+        <v>36.65</v>
+      </c>
+      <c r="H300">
+        <v>853.96</v>
+      </c>
+      <c r="I300">
+        <v>20.6</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="M300" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>311</v>
+      </c>
+      <c r="C301">
+        <v>11.38</v>
+      </c>
+      <c r="D301">
+        <v>90.81999999999999</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>22.08</v>
+      </c>
+      <c r="G301">
+        <v>29.43</v>
+      </c>
+      <c r="H301">
+        <v>853.96</v>
+      </c>
+      <c r="I301">
+        <v>20.5</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>11.75</v>
+      </c>
+      <c r="M301" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>312</v>
+      </c>
+      <c r="C302">
+        <v>11.41</v>
+      </c>
+      <c r="D302">
+        <v>90.47</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>22.09</v>
+      </c>
+      <c r="G302">
+        <v>37.04</v>
+      </c>
+      <c r="H302">
+        <v>853.96</v>
+      </c>
+      <c r="I302">
+        <v>20.45</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>8.94</v>
+      </c>
+      <c r="M302" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>313</v>
+      </c>
+      <c r="C303">
+        <v>11.33</v>
+      </c>
+      <c r="D303">
+        <v>90.03</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>22.13</v>
+      </c>
+      <c r="G303">
+        <v>23.3</v>
+      </c>
+      <c r="H303">
+        <v>853.96</v>
+      </c>
+      <c r="I303">
+        <v>20.4</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>9</v>
+      </c>
+      <c r="M303" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="319">
   <si>
     <t>Fecha</t>
   </si>
@@ -956,6 +956,18 @@
   </si>
   <si>
     <t>11/9/2020 3:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:15:00 AM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1316,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M303"/>
+  <dimension ref="A1:M307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1398,7 +1410,7 @@
         <v>8.77</v>
       </c>
       <c r="M2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1439,7 +1451,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="M3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1480,7 +1492,7 @@
         <v>7.13</v>
       </c>
       <c r="M4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1521,7 +1533,7 @@
         <v>4.17</v>
       </c>
       <c r="M5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1562,7 +1574,7 @@
         <v>2.88</v>
       </c>
       <c r="M6" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1603,7 +1615,7 @@
         <v>3.58</v>
       </c>
       <c r="M7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1644,7 +1656,7 @@
         <v>2.6</v>
       </c>
       <c r="M8" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1685,7 +1697,7 @@
         <v>3.58</v>
       </c>
       <c r="M9" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1726,7 +1738,7 @@
         <v>4.42</v>
       </c>
       <c r="M10" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1767,7 +1779,7 @@
         <v>2.73</v>
       </c>
       <c r="M11" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1808,7 +1820,7 @@
         <v>3.65</v>
       </c>
       <c r="M12" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1849,7 +1861,7 @@
         <v>2.51</v>
       </c>
       <c r="M13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1890,7 +1902,7 @@
         <v>4.05</v>
       </c>
       <c r="M14" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1931,7 +1943,7 @@
         <v>3.9</v>
       </c>
       <c r="M15" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1972,7 +1984,7 @@
         <v>2.11</v>
       </c>
       <c r="M16" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2013,7 +2025,7 @@
         <v>2.31</v>
       </c>
       <c r="M17" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2054,7 +2066,7 @@
         <v>4.49</v>
       </c>
       <c r="M18" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2095,7 +2107,7 @@
         <v>4.15</v>
       </c>
       <c r="M19" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2136,7 +2148,7 @@
         <v>2.28</v>
       </c>
       <c r="M20" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2177,7 +2189,7 @@
         <v>3.02</v>
       </c>
       <c r="M21" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2218,7 +2230,7 @@
         <v>2.46</v>
       </c>
       <c r="M22" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2256,7 +2268,7 @@
         <v>1.82</v>
       </c>
       <c r="M23" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2297,7 +2309,7 @@
         <v>5.56</v>
       </c>
       <c r="M24" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2335,7 +2347,7 @@
         <v>6.98</v>
       </c>
       <c r="M25" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2373,7 +2385,7 @@
         <v>9.31</v>
       </c>
       <c r="M26" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2414,7 +2426,7 @@
         <v>5.73</v>
       </c>
       <c r="M27" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2452,7 +2464,7 @@
         <v>3.69</v>
       </c>
       <c r="M28" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2490,7 +2502,7 @@
         <v>3.27</v>
       </c>
       <c r="M29" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2528,7 +2540,7 @@
         <v>5.62</v>
       </c>
       <c r="M30" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2566,7 +2578,7 @@
         <v>7.55</v>
       </c>
       <c r="M31" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2604,7 +2616,7 @@
         <v>9.52</v>
       </c>
       <c r="M32" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2642,7 +2654,7 @@
         <v>7.88</v>
       </c>
       <c r="M33" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2680,7 +2692,7 @@
         <v>8.01</v>
       </c>
       <c r="M34" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2718,7 +2730,7 @@
         <v>8.74</v>
       </c>
       <c r="M35" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2756,7 +2768,7 @@
         <v>9.76</v>
       </c>
       <c r="M36" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2794,7 +2806,7 @@
         <v>15.26</v>
       </c>
       <c r="M37" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2832,7 +2844,7 @@
         <v>17.68</v>
       </c>
       <c r="M38" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2870,7 +2882,7 @@
         <v>15.95</v>
       </c>
       <c r="M39" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2908,7 +2920,7 @@
         <v>17.28</v>
       </c>
       <c r="M40" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2946,7 +2958,7 @@
         <v>17.27</v>
       </c>
       <c r="M41" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2984,7 +2996,7 @@
         <v>15.2</v>
       </c>
       <c r="M42" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3022,7 +3034,7 @@
         <v>16.27</v>
       </c>
       <c r="M43" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3060,7 +3072,7 @@
         <v>17.15</v>
       </c>
       <c r="M44" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3098,7 +3110,7 @@
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3136,7 +3148,7 @@
         <v>21.18</v>
       </c>
       <c r="M46" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3174,7 +3186,7 @@
         <v>19.03</v>
       </c>
       <c r="M47" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3212,7 +3224,7 @@
         <v>18.57</v>
       </c>
       <c r="M48" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3250,7 +3262,7 @@
         <v>21.15</v>
       </c>
       <c r="M49" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3288,7 +3300,7 @@
         <v>18.54</v>
       </c>
       <c r="M50" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3326,7 +3338,7 @@
         <v>18.7</v>
       </c>
       <c r="M51" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3364,7 +3376,7 @@
         <v>17.39</v>
       </c>
       <c r="M52" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3402,7 +3414,7 @@
         <v>16.37</v>
       </c>
       <c r="M53" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3440,7 +3452,7 @@
         <v>15.89</v>
       </c>
       <c r="M54" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3478,7 +3490,7 @@
         <v>17.35</v>
       </c>
       <c r="M55" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3516,7 +3528,7 @@
         <v>15.33</v>
       </c>
       <c r="M56" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3554,7 +3566,7 @@
         <v>13.97</v>
       </c>
       <c r="M57" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3592,7 +3604,7 @@
         <v>19.23</v>
       </c>
       <c r="M58" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3630,7 +3642,7 @@
         <v>16.43</v>
       </c>
       <c r="M59" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3668,7 +3680,7 @@
         <v>17.54</v>
       </c>
       <c r="M60" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3706,7 +3718,7 @@
         <v>18.1</v>
       </c>
       <c r="M61" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3744,7 +3756,7 @@
         <v>17.67</v>
       </c>
       <c r="M62" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3782,7 +3794,7 @@
         <v>14.99</v>
       </c>
       <c r="M63" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3820,7 +3832,7 @@
         <v>17.31</v>
       </c>
       <c r="M64" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3858,7 +3870,7 @@
         <v>19.12</v>
       </c>
       <c r="M65" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3896,7 +3908,7 @@
         <v>15.23</v>
       </c>
       <c r="M66" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3934,7 +3946,7 @@
         <v>13.71</v>
       </c>
       <c r="M67" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3972,7 +3984,7 @@
         <v>16.9</v>
       </c>
       <c r="M68" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4010,7 +4022,7 @@
         <v>18.84</v>
       </c>
       <c r="M69" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4048,7 +4060,7 @@
         <v>16.48</v>
       </c>
       <c r="M70" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4086,7 +4098,7 @@
         <v>13.14</v>
       </c>
       <c r="M71" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4124,7 +4136,7 @@
         <v>14.3</v>
       </c>
       <c r="M72" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4162,7 +4174,7 @@
         <v>11.4</v>
       </c>
       <c r="M73" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4200,7 +4212,7 @@
         <v>12.74</v>
       </c>
       <c r="M74" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4238,7 +4250,7 @@
         <v>12.52</v>
       </c>
       <c r="M75" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4276,7 +4288,7 @@
         <v>9.6</v>
       </c>
       <c r="M76" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4314,7 +4326,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M77" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4352,7 +4364,7 @@
         <v>6.73</v>
       </c>
       <c r="M78" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4390,7 +4402,7 @@
         <v>6.96</v>
       </c>
       <c r="M79" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4428,7 +4440,7 @@
         <v>7.33</v>
       </c>
       <c r="M80" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4466,7 +4478,7 @@
         <v>6.53</v>
       </c>
       <c r="M81" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4504,7 +4516,7 @@
         <v>7.43</v>
       </c>
       <c r="M82" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4542,7 +4554,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="M83" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4580,7 +4592,7 @@
         <v>11.35</v>
       </c>
       <c r="M84" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4618,7 +4630,7 @@
         <v>11.74</v>
       </c>
       <c r="M85" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4656,7 +4668,7 @@
         <v>11.87</v>
       </c>
       <c r="M86" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4694,7 +4706,7 @@
         <v>8.75</v>
       </c>
       <c r="M87" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4732,7 +4744,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M88" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4770,7 +4782,7 @@
         <v>7.68</v>
       </c>
       <c r="M89" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4808,7 +4820,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="M90" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4846,7 +4858,7 @@
         <v>11.39</v>
       </c>
       <c r="M91" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4884,7 +4896,7 @@
         <v>11.45</v>
       </c>
       <c r="M92" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4922,7 +4934,7 @@
         <v>15.19</v>
       </c>
       <c r="M93" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4960,7 +4972,7 @@
         <v>14.09</v>
       </c>
       <c r="M94" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4998,7 +5010,7 @@
         <v>11.47</v>
       </c>
       <c r="M95" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5036,7 +5048,7 @@
         <v>10.17</v>
       </c>
       <c r="M96" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5074,7 +5086,7 @@
         <v>10.46</v>
       </c>
       <c r="M97" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5112,7 +5124,7 @@
         <v>9.82</v>
       </c>
       <c r="M98" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5150,7 +5162,7 @@
         <v>9.99</v>
       </c>
       <c r="M99" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5188,7 +5200,7 @@
         <v>11.7</v>
       </c>
       <c r="M100" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5226,7 +5238,7 @@
         <v>11.51</v>
       </c>
       <c r="M101" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5264,7 +5276,7 @@
         <v>11.35</v>
       </c>
       <c r="M102" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5302,7 +5314,7 @@
         <v>11.37</v>
       </c>
       <c r="M103" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5340,7 +5352,7 @@
         <v>12.25</v>
       </c>
       <c r="M104" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5378,7 +5390,7 @@
         <v>12.5</v>
       </c>
       <c r="M105" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5416,7 +5428,7 @@
         <v>10.24</v>
       </c>
       <c r="M106" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5454,7 +5466,7 @@
         <v>12.09</v>
       </c>
       <c r="M107" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5495,7 +5507,7 @@
         <v>12.37</v>
       </c>
       <c r="M108" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5533,7 +5545,7 @@
         <v>11.1</v>
       </c>
       <c r="M109" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5571,7 +5583,7 @@
         <v>11.22</v>
       </c>
       <c r="M110" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5609,7 +5621,7 @@
         <v>11.94</v>
       </c>
       <c r="M111" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5647,7 +5659,7 @@
         <v>11.61</v>
       </c>
       <c r="M112" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5685,7 +5697,7 @@
         <v>11.98</v>
       </c>
       <c r="M113" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5723,7 +5735,7 @@
         <v>11.61</v>
       </c>
       <c r="M114" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5761,7 +5773,7 @@
         <v>13.44</v>
       </c>
       <c r="M115" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5799,7 +5811,7 @@
         <v>12.07</v>
       </c>
       <c r="M116" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5837,7 +5849,7 @@
         <v>12.13</v>
       </c>
       <c r="M117" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5875,7 +5887,7 @@
         <v>13.82</v>
       </c>
       <c r="M118" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5913,7 +5925,7 @@
         <v>15.09</v>
       </c>
       <c r="M119" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5951,7 +5963,7 @@
         <v>14.97</v>
       </c>
       <c r="M120" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5989,7 +6001,7 @@
         <v>15.22</v>
       </c>
       <c r="M121" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6027,7 +6039,7 @@
         <v>16.21</v>
       </c>
       <c r="M122" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6065,7 +6077,7 @@
         <v>15.85</v>
       </c>
       <c r="M123" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6103,7 +6115,7 @@
         <v>13.56</v>
       </c>
       <c r="M124" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6141,7 +6153,7 @@
         <v>12.19</v>
       </c>
       <c r="M125" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6179,7 +6191,7 @@
         <v>12.7</v>
       </c>
       <c r="M126" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6217,7 +6229,7 @@
         <v>13.54</v>
       </c>
       <c r="M127" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6255,7 +6267,7 @@
         <v>13.51</v>
       </c>
       <c r="M128" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6293,7 +6305,7 @@
         <v>14.09</v>
       </c>
       <c r="M129" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6331,7 +6343,7 @@
         <v>17.15</v>
       </c>
       <c r="M130" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6369,7 +6381,7 @@
         <v>17.77</v>
       </c>
       <c r="M131" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6407,7 +6419,7 @@
         <v>19.98</v>
       </c>
       <c r="M132" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6445,7 +6457,7 @@
         <v>23</v>
       </c>
       <c r="M133" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6483,7 +6495,7 @@
         <v>24.42</v>
       </c>
       <c r="M134" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6521,7 +6533,7 @@
         <v>26.56</v>
       </c>
       <c r="M135" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6559,7 +6571,7 @@
         <v>25.33</v>
       </c>
       <c r="M136" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6597,7 +6609,7 @@
         <v>25.03</v>
       </c>
       <c r="M137" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6635,7 +6647,7 @@
         <v>25.72</v>
       </c>
       <c r="M138" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6673,7 +6685,7 @@
         <v>27.06</v>
       </c>
       <c r="M139" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6711,7 +6723,7 @@
         <v>26.1</v>
       </c>
       <c r="M140" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6749,7 +6761,7 @@
         <v>26.46</v>
       </c>
       <c r="M141" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6787,7 +6799,7 @@
         <v>27.69</v>
       </c>
       <c r="M142" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6825,7 +6837,7 @@
         <v>26.86</v>
       </c>
       <c r="M143" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6863,7 +6875,7 @@
         <v>23.44</v>
       </c>
       <c r="M144" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6901,7 +6913,7 @@
         <v>25.35</v>
       </c>
       <c r="M145" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6939,7 +6951,7 @@
         <v>22.88</v>
       </c>
       <c r="M146" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6977,7 +6989,7 @@
         <v>20.1</v>
       </c>
       <c r="M147" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7015,7 +7027,7 @@
         <v>20.24</v>
       </c>
       <c r="M148" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7053,7 +7065,7 @@
         <v>21.87</v>
       </c>
       <c r="M149" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7091,7 +7103,7 @@
         <v>23.59</v>
       </c>
       <c r="M150" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7129,7 +7141,7 @@
         <v>23.43</v>
       </c>
       <c r="M151" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7167,7 +7179,7 @@
         <v>23.74</v>
       </c>
       <c r="M152" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7205,7 +7217,7 @@
         <v>21.77</v>
       </c>
       <c r="M153" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7243,7 +7255,7 @@
         <v>23.42</v>
       </c>
       <c r="M154" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7281,7 +7293,7 @@
         <v>20.39</v>
       </c>
       <c r="M155" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7319,7 +7331,7 @@
         <v>19.13</v>
       </c>
       <c r="M156" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7357,7 +7369,7 @@
         <v>20.75</v>
       </c>
       <c r="M157" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7395,7 +7407,7 @@
         <v>19.58</v>
       </c>
       <c r="M158" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7433,7 +7445,7 @@
         <v>18.9</v>
       </c>
       <c r="M159" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7471,7 +7483,7 @@
         <v>21</v>
       </c>
       <c r="M160" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7509,7 +7521,7 @@
         <v>19.41</v>
       </c>
       <c r="M161" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7547,7 +7559,7 @@
         <v>20.69</v>
       </c>
       <c r="M162" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7585,7 +7597,7 @@
         <v>21.27</v>
       </c>
       <c r="M163" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7623,7 +7635,7 @@
         <v>19.51</v>
       </c>
       <c r="M164" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7661,7 +7673,7 @@
         <v>20.33</v>
       </c>
       <c r="M165" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7699,7 +7711,7 @@
         <v>17.72</v>
       </c>
       <c r="M166" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7737,7 +7749,7 @@
         <v>12.78</v>
       </c>
       <c r="M167" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7775,7 +7787,7 @@
         <v>13.5</v>
       </c>
       <c r="M168" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7813,7 +7825,7 @@
         <v>13.49</v>
       </c>
       <c r="M169" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7851,7 +7863,7 @@
         <v>14.7</v>
       </c>
       <c r="M170" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7889,7 +7901,7 @@
         <v>14.64</v>
       </c>
       <c r="M171" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7927,7 +7939,7 @@
         <v>15.31</v>
       </c>
       <c r="M172" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7965,7 +7977,7 @@
         <v>16.97</v>
       </c>
       <c r="M173" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8003,7 +8015,7 @@
         <v>15.28</v>
       </c>
       <c r="M174" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8041,7 +8053,7 @@
         <v>13.02</v>
       </c>
       <c r="M175" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8079,7 +8091,7 @@
         <v>14.76</v>
       </c>
       <c r="M176" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8117,7 +8129,7 @@
         <v>14.52</v>
       </c>
       <c r="M177" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8155,7 +8167,7 @@
         <v>17.7</v>
       </c>
       <c r="M178" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8193,7 +8205,7 @@
         <v>16.52</v>
       </c>
       <c r="M179" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8231,7 +8243,7 @@
         <v>15</v>
       </c>
       <c r="M180" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8269,7 +8281,7 @@
         <v>16.97</v>
       </c>
       <c r="M181" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8307,7 +8319,7 @@
         <v>17.58</v>
       </c>
       <c r="M182" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8345,7 +8357,7 @@
         <v>16.69</v>
       </c>
       <c r="M183" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8383,7 +8395,7 @@
         <v>15.06</v>
       </c>
       <c r="M184" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8421,7 +8433,7 @@
         <v>15.19</v>
       </c>
       <c r="M185" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8459,7 +8471,7 @@
         <v>13.82</v>
       </c>
       <c r="M186" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8497,7 +8509,7 @@
         <v>13.7</v>
       </c>
       <c r="M187" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8535,7 +8547,7 @@
         <v>13.59</v>
       </c>
       <c r="M188" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8573,7 +8585,7 @@
         <v>13.54</v>
       </c>
       <c r="M189" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8611,7 +8623,7 @@
         <v>13.04</v>
       </c>
       <c r="M190" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8649,7 +8661,7 @@
         <v>11.36</v>
       </c>
       <c r="M191" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8687,7 +8699,7 @@
         <v>13.98</v>
       </c>
       <c r="M192" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8725,7 +8737,7 @@
         <v>14.01</v>
       </c>
       <c r="M193" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8763,7 +8775,7 @@
         <v>12.03</v>
       </c>
       <c r="M194" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8804,7 +8816,7 @@
         <v>12.94</v>
       </c>
       <c r="M195" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8842,7 +8854,7 @@
         <v>12.34</v>
       </c>
       <c r="M196" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8880,7 +8892,7 @@
         <v>11.72</v>
       </c>
       <c r="M197" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8921,7 +8933,7 @@
         <v>11.59</v>
       </c>
       <c r="M198" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8959,7 +8971,7 @@
         <v>11.57</v>
       </c>
       <c r="M199" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8997,7 +9009,7 @@
         <v>12.27</v>
       </c>
       <c r="M200" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -9035,7 +9047,7 @@
         <v>12.5</v>
       </c>
       <c r="M201" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9073,7 +9085,7 @@
         <v>12.93</v>
       </c>
       <c r="M202" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9111,7 +9123,7 @@
         <v>12.87</v>
       </c>
       <c r="M203" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9149,7 +9161,7 @@
         <v>12.03</v>
       </c>
       <c r="M204" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9187,7 +9199,7 @@
         <v>10.3</v>
       </c>
       <c r="M205" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9225,7 +9237,7 @@
         <v>12.12</v>
       </c>
       <c r="M206" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9263,7 +9275,7 @@
         <v>12.2</v>
       </c>
       <c r="M207" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9304,7 +9316,7 @@
         <v>11.37</v>
       </c>
       <c r="M208" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9345,7 +9357,7 @@
         <v>11.01</v>
       </c>
       <c r="M209" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9383,7 +9395,7 @@
         <v>10.88</v>
       </c>
       <c r="M210" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9421,7 +9433,7 @@
         <v>10.46</v>
       </c>
       <c r="M211" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9459,7 +9471,7 @@
         <v>10.35</v>
       </c>
       <c r="M212" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9497,7 +9509,7 @@
         <v>10.56</v>
       </c>
       <c r="M213" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9538,7 +9550,7 @@
         <v>11.16</v>
       </c>
       <c r="M214" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9576,7 +9588,7 @@
         <v>12.25</v>
       </c>
       <c r="M215" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9614,7 +9626,7 @@
         <v>11.5</v>
       </c>
       <c r="M216" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9652,7 +9664,7 @@
         <v>10.44</v>
       </c>
       <c r="M217" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9690,7 +9702,7 @@
         <v>9.9</v>
       </c>
       <c r="M218" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9728,7 +9740,7 @@
         <v>10.6</v>
       </c>
       <c r="M219" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9766,7 +9778,7 @@
         <v>11.42</v>
       </c>
       <c r="M220" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9804,7 +9816,7 @@
         <v>10.98</v>
       </c>
       <c r="M221" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9842,7 +9854,7 @@
         <v>12.21</v>
       </c>
       <c r="M222" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9880,7 +9892,7 @@
         <v>11.61</v>
       </c>
       <c r="M223" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9918,7 +9930,7 @@
         <v>12.36</v>
       </c>
       <c r="M224" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9956,7 +9968,7 @@
         <v>15.85</v>
       </c>
       <c r="M225" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9994,7 +10006,7 @@
         <v>16.77</v>
       </c>
       <c r="M226" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10032,7 +10044,7 @@
         <v>16.58</v>
       </c>
       <c r="M227" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10070,7 +10082,7 @@
         <v>13.55</v>
       </c>
       <c r="M228" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10108,7 +10120,7 @@
         <v>13.84</v>
       </c>
       <c r="M229" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10146,7 +10158,7 @@
         <v>16.53</v>
       </c>
       <c r="M230" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10184,7 +10196,7 @@
         <v>16.39</v>
       </c>
       <c r="M231" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10222,7 +10234,7 @@
         <v>15.24</v>
       </c>
       <c r="M232" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10260,7 +10272,7 @@
         <v>13.89</v>
       </c>
       <c r="M233" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10298,7 +10310,7 @@
         <v>11.87</v>
       </c>
       <c r="M234" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10336,7 +10348,7 @@
         <v>12.06</v>
       </c>
       <c r="M235" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10374,7 +10386,7 @@
         <v>12.7</v>
       </c>
       <c r="M236" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10412,7 +10424,7 @@
         <v>12.69</v>
       </c>
       <c r="M237" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10450,7 +10462,7 @@
         <v>11.23</v>
       </c>
       <c r="M238" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10488,7 +10500,7 @@
         <v>10.31</v>
       </c>
       <c r="M239" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10526,7 +10538,7 @@
         <v>7.02</v>
       </c>
       <c r="M240" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10564,7 +10576,7 @@
         <v>7.15</v>
       </c>
       <c r="M241" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10602,7 +10614,7 @@
         <v>12.57</v>
       </c>
       <c r="M242" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10640,7 +10652,7 @@
         <v>9.27</v>
       </c>
       <c r="M243" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10678,7 +10690,7 @@
         <v>8.19</v>
       </c>
       <c r="M244" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10716,7 +10728,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="M245" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10754,7 +10766,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="M246" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10792,7 +10804,7 @@
         <v>10.35</v>
       </c>
       <c r="M247" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10830,7 +10842,7 @@
         <v>16.13</v>
       </c>
       <c r="M248" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10868,7 +10880,7 @@
         <v>16.43</v>
       </c>
       <c r="M249" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10906,7 +10918,7 @@
         <v>15.96</v>
       </c>
       <c r="M250" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10944,7 +10956,7 @@
         <v>9.83</v>
       </c>
       <c r="M251" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10982,7 +10994,7 @@
         <v>6.63</v>
       </c>
       <c r="M252" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11020,7 +11032,7 @@
         <v>6.15</v>
       </c>
       <c r="M253" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11058,7 +11070,7 @@
         <v>8.66</v>
       </c>
       <c r="M254" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11096,7 +11108,7 @@
         <v>10.09</v>
       </c>
       <c r="M255" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11134,7 +11146,7 @@
         <v>9.73</v>
       </c>
       <c r="M256" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11172,7 +11184,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="M257" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11210,7 +11222,7 @@
         <v>9.25</v>
       </c>
       <c r="M258" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11248,7 +11260,7 @@
         <v>10.64</v>
       </c>
       <c r="M259" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11286,7 +11298,7 @@
         <v>13.53</v>
       </c>
       <c r="M260" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11324,7 +11336,7 @@
         <v>12.66</v>
       </c>
       <c r="M261" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11362,7 +11374,7 @@
         <v>12.04</v>
       </c>
       <c r="M262" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11400,7 +11412,7 @@
         <v>12.75</v>
       </c>
       <c r="M263" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11438,7 +11450,7 @@
         <v>11.91</v>
       </c>
       <c r="M264" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11476,7 +11488,7 @@
         <v>10.03</v>
       </c>
       <c r="M265" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11514,7 +11526,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="M266" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11552,7 +11564,7 @@
         <v>7.36</v>
       </c>
       <c r="M267" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11590,7 +11602,7 @@
         <v>6.97</v>
       </c>
       <c r="M268" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11628,7 +11640,7 @@
         <v>11.24</v>
       </c>
       <c r="M269" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11666,7 +11678,7 @@
         <v>9</v>
       </c>
       <c r="M270" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11704,7 +11716,7 @@
         <v>6.82</v>
       </c>
       <c r="M271" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11742,7 +11754,7 @@
         <v>4.15</v>
       </c>
       <c r="M272" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11780,7 +11792,7 @@
         <v>5.17</v>
       </c>
       <c r="M273" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11818,7 +11830,7 @@
         <v>6.37</v>
       </c>
       <c r="M274" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11856,7 +11868,7 @@
         <v>6.42</v>
       </c>
       <c r="M275" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11894,7 +11906,7 @@
         <v>7.41</v>
       </c>
       <c r="M276" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11932,7 +11944,7 @@
         <v>5.77</v>
       </c>
       <c r="M277" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -11970,7 +11982,7 @@
         <v>5.61</v>
       </c>
       <c r="M278" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -12008,7 +12020,7 @@
         <v>3.76</v>
       </c>
       <c r="M279" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -12049,7 +12061,7 @@
         <v>4.26</v>
       </c>
       <c r="M280" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12087,7 +12099,7 @@
         <v>6.7</v>
       </c>
       <c r="M281" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12125,7 +12137,7 @@
         <v>12.48</v>
       </c>
       <c r="M282" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12163,7 +12175,7 @@
         <v>13.05</v>
       </c>
       <c r="M283" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12201,7 +12213,7 @@
         <v>10.29</v>
       </c>
       <c r="M284" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12239,7 +12251,7 @@
         <v>10.61</v>
       </c>
       <c r="M285" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12277,7 +12289,7 @@
         <v>10.14</v>
       </c>
       <c r="M286" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12315,7 +12327,7 @@
         <v>13.1</v>
       </c>
       <c r="M287" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12353,7 +12365,7 @@
         <v>11.08</v>
       </c>
       <c r="M288" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12391,7 +12403,7 @@
         <v>10.21</v>
       </c>
       <c r="M289" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12429,7 +12441,7 @@
         <v>10.59</v>
       </c>
       <c r="M290" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12467,7 +12479,7 @@
         <v>10.13</v>
       </c>
       <c r="M291" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12505,7 +12517,7 @@
         <v>9.18</v>
       </c>
       <c r="M292" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12543,7 +12555,7 @@
         <v>8.92</v>
       </c>
       <c r="M293" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12581,7 +12593,7 @@
         <v>8.16</v>
       </c>
       <c r="M294" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12619,7 +12631,7 @@
         <v>9.41</v>
       </c>
       <c r="M295" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12657,7 +12669,7 @@
         <v>9.02</v>
       </c>
       <c r="M296" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12695,7 +12707,7 @@
         <v>8.68</v>
       </c>
       <c r="M297" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12733,7 +12745,7 @@
         <v>10.54</v>
       </c>
       <c r="M298" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12771,7 +12783,7 @@
         <v>8.23</v>
       </c>
       <c r="M299" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12809,7 +12821,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M300" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -12847,7 +12859,7 @@
         <v>11.75</v>
       </c>
       <c r="M301" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -12885,7 +12897,7 @@
         <v>8.94</v>
       </c>
       <c r="M302" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -12923,7 +12935,159 @@
         <v>9</v>
       </c>
       <c r="M303" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
         <v>314</v>
+      </c>
+      <c r="C304">
+        <v>11.42</v>
+      </c>
+      <c r="D304">
+        <v>89.7</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>22.14</v>
+      </c>
+      <c r="G304">
+        <v>24.69</v>
+      </c>
+      <c r="H304">
+        <v>853.97</v>
+      </c>
+      <c r="I304">
+        <v>20.36</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>8.24</v>
+      </c>
+      <c r="M304" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>315</v>
+      </c>
+      <c r="C305">
+        <v>11.3</v>
+      </c>
+      <c r="D305">
+        <v>89.94</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>22.13</v>
+      </c>
+      <c r="G305">
+        <v>31</v>
+      </c>
+      <c r="H305">
+        <v>853.96</v>
+      </c>
+      <c r="I305">
+        <v>20.39</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>9.02</v>
+      </c>
+      <c r="M305" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>316</v>
+      </c>
+      <c r="C306">
+        <v>11.42</v>
+      </c>
+      <c r="D306">
+        <v>90.19</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>22.1</v>
+      </c>
+      <c r="G306">
+        <v>357.99</v>
+      </c>
+      <c r="H306">
+        <v>853.96</v>
+      </c>
+      <c r="I306">
+        <v>20.41</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>5.55</v>
+      </c>
+      <c r="M306" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>317</v>
+      </c>
+      <c r="C307">
+        <v>11.43</v>
+      </c>
+      <c r="D307">
+        <v>90.36</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>22.08</v>
+      </c>
+      <c r="G307">
+        <v>24.51</v>
+      </c>
+      <c r="H307">
+        <v>853.97</v>
+      </c>
+      <c r="I307">
+        <v>20.41</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>7.78</v>
+      </c>
+      <c r="M307" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="327">
   <si>
     <t>Fecha</t>
   </si>
@@ -968,6 +968,30 @@
   </si>
   <si>
     <t>11/9/2020 4:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:15:00 AM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1328,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M307"/>
+  <dimension ref="A1:M315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1410,7 +1434,7 @@
         <v>8.77</v>
       </c>
       <c r="M2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1451,7 +1475,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="M3" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1492,7 +1516,7 @@
         <v>7.13</v>
       </c>
       <c r="M4" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1533,7 +1557,7 @@
         <v>4.17</v>
       </c>
       <c r="M5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1574,7 +1598,7 @@
         <v>2.88</v>
       </c>
       <c r="M6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1615,7 +1639,7 @@
         <v>3.58</v>
       </c>
       <c r="M7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1656,7 +1680,7 @@
         <v>2.6</v>
       </c>
       <c r="M8" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1697,7 +1721,7 @@
         <v>3.58</v>
       </c>
       <c r="M9" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1738,7 +1762,7 @@
         <v>4.42</v>
       </c>
       <c r="M10" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1779,7 +1803,7 @@
         <v>2.73</v>
       </c>
       <c r="M11" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1820,7 +1844,7 @@
         <v>3.65</v>
       </c>
       <c r="M12" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1861,7 +1885,7 @@
         <v>2.51</v>
       </c>
       <c r="M13" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1902,7 +1926,7 @@
         <v>4.05</v>
       </c>
       <c r="M14" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1943,7 +1967,7 @@
         <v>3.9</v>
       </c>
       <c r="M15" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1984,7 +2008,7 @@
         <v>2.11</v>
       </c>
       <c r="M16" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2025,7 +2049,7 @@
         <v>2.31</v>
       </c>
       <c r="M17" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2066,7 +2090,7 @@
         <v>4.49</v>
       </c>
       <c r="M18" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2107,7 +2131,7 @@
         <v>4.15</v>
       </c>
       <c r="M19" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2148,7 +2172,7 @@
         <v>2.28</v>
       </c>
       <c r="M20" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2189,7 +2213,7 @@
         <v>3.02</v>
       </c>
       <c r="M21" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2230,7 +2254,7 @@
         <v>2.46</v>
       </c>
       <c r="M22" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2268,7 +2292,7 @@
         <v>1.82</v>
       </c>
       <c r="M23" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2309,7 +2333,7 @@
         <v>5.56</v>
       </c>
       <c r="M24" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2347,7 +2371,7 @@
         <v>6.98</v>
       </c>
       <c r="M25" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2385,7 +2409,7 @@
         <v>9.31</v>
       </c>
       <c r="M26" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2426,7 +2450,7 @@
         <v>5.73</v>
       </c>
       <c r="M27" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2464,7 +2488,7 @@
         <v>3.69</v>
       </c>
       <c r="M28" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2502,7 +2526,7 @@
         <v>3.27</v>
       </c>
       <c r="M29" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2540,7 +2564,7 @@
         <v>5.62</v>
       </c>
       <c r="M30" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2578,7 +2602,7 @@
         <v>7.55</v>
       </c>
       <c r="M31" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2616,7 +2640,7 @@
         <v>9.52</v>
       </c>
       <c r="M32" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2654,7 +2678,7 @@
         <v>7.88</v>
       </c>
       <c r="M33" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2692,7 +2716,7 @@
         <v>8.01</v>
       </c>
       <c r="M34" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2730,7 +2754,7 @@
         <v>8.74</v>
       </c>
       <c r="M35" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2768,7 +2792,7 @@
         <v>9.76</v>
       </c>
       <c r="M36" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2806,7 +2830,7 @@
         <v>15.26</v>
       </c>
       <c r="M37" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2844,7 +2868,7 @@
         <v>17.68</v>
       </c>
       <c r="M38" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2882,7 +2906,7 @@
         <v>15.95</v>
       </c>
       <c r="M39" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2920,7 +2944,7 @@
         <v>17.28</v>
       </c>
       <c r="M40" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2958,7 +2982,7 @@
         <v>17.27</v>
       </c>
       <c r="M41" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2996,7 +3020,7 @@
         <v>15.2</v>
       </c>
       <c r="M42" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3034,7 +3058,7 @@
         <v>16.27</v>
       </c>
       <c r="M43" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3072,7 +3096,7 @@
         <v>17.15</v>
       </c>
       <c r="M44" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3110,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3148,7 +3172,7 @@
         <v>21.18</v>
       </c>
       <c r="M46" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3186,7 +3210,7 @@
         <v>19.03</v>
       </c>
       <c r="M47" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3224,7 +3248,7 @@
         <v>18.57</v>
       </c>
       <c r="M48" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3262,7 +3286,7 @@
         <v>21.15</v>
       </c>
       <c r="M49" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3300,7 +3324,7 @@
         <v>18.54</v>
       </c>
       <c r="M50" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3338,7 +3362,7 @@
         <v>18.7</v>
       </c>
       <c r="M51" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3376,7 +3400,7 @@
         <v>17.39</v>
       </c>
       <c r="M52" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3414,7 +3438,7 @@
         <v>16.37</v>
       </c>
       <c r="M53" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3452,7 +3476,7 @@
         <v>15.89</v>
       </c>
       <c r="M54" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3490,7 +3514,7 @@
         <v>17.35</v>
       </c>
       <c r="M55" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3528,7 +3552,7 @@
         <v>15.33</v>
       </c>
       <c r="M56" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3566,7 +3590,7 @@
         <v>13.97</v>
       </c>
       <c r="M57" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3604,7 +3628,7 @@
         <v>19.23</v>
       </c>
       <c r="M58" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3642,7 +3666,7 @@
         <v>16.43</v>
       </c>
       <c r="M59" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3680,7 +3704,7 @@
         <v>17.54</v>
       </c>
       <c r="M60" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3718,7 +3742,7 @@
         <v>18.1</v>
       </c>
       <c r="M61" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3756,7 +3780,7 @@
         <v>17.67</v>
       </c>
       <c r="M62" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3794,7 +3818,7 @@
         <v>14.99</v>
       </c>
       <c r="M63" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3832,7 +3856,7 @@
         <v>17.31</v>
       </c>
       <c r="M64" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3870,7 +3894,7 @@
         <v>19.12</v>
       </c>
       <c r="M65" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3908,7 +3932,7 @@
         <v>15.23</v>
       </c>
       <c r="M66" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3946,7 +3970,7 @@
         <v>13.71</v>
       </c>
       <c r="M67" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3984,7 +4008,7 @@
         <v>16.9</v>
       </c>
       <c r="M68" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4022,7 +4046,7 @@
         <v>18.84</v>
       </c>
       <c r="M69" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4060,7 +4084,7 @@
         <v>16.48</v>
       </c>
       <c r="M70" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4098,7 +4122,7 @@
         <v>13.14</v>
       </c>
       <c r="M71" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4136,7 +4160,7 @@
         <v>14.3</v>
       </c>
       <c r="M72" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4174,7 +4198,7 @@
         <v>11.4</v>
       </c>
       <c r="M73" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4212,7 +4236,7 @@
         <v>12.74</v>
       </c>
       <c r="M74" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4250,7 +4274,7 @@
         <v>12.52</v>
       </c>
       <c r="M75" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4288,7 +4312,7 @@
         <v>9.6</v>
       </c>
       <c r="M76" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4326,7 +4350,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M77" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4364,7 +4388,7 @@
         <v>6.73</v>
       </c>
       <c r="M78" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4402,7 +4426,7 @@
         <v>6.96</v>
       </c>
       <c r="M79" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4440,7 +4464,7 @@
         <v>7.33</v>
       </c>
       <c r="M80" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4478,7 +4502,7 @@
         <v>6.53</v>
       </c>
       <c r="M81" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4516,7 +4540,7 @@
         <v>7.43</v>
       </c>
       <c r="M82" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4554,7 +4578,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="M83" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4592,7 +4616,7 @@
         <v>11.35</v>
       </c>
       <c r="M84" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4630,7 +4654,7 @@
         <v>11.74</v>
       </c>
       <c r="M85" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4668,7 +4692,7 @@
         <v>11.87</v>
       </c>
       <c r="M86" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4706,7 +4730,7 @@
         <v>8.75</v>
       </c>
       <c r="M87" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4744,7 +4768,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M88" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4782,7 +4806,7 @@
         <v>7.68</v>
       </c>
       <c r="M89" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4820,7 +4844,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="M90" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4858,7 +4882,7 @@
         <v>11.39</v>
       </c>
       <c r="M91" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4896,7 +4920,7 @@
         <v>11.45</v>
       </c>
       <c r="M92" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4934,7 +4958,7 @@
         <v>15.19</v>
       </c>
       <c r="M93" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4972,7 +4996,7 @@
         <v>14.09</v>
       </c>
       <c r="M94" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -5010,7 +5034,7 @@
         <v>11.47</v>
       </c>
       <c r="M95" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5048,7 +5072,7 @@
         <v>10.17</v>
       </c>
       <c r="M96" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5086,7 +5110,7 @@
         <v>10.46</v>
       </c>
       <c r="M97" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5124,7 +5148,7 @@
         <v>9.82</v>
       </c>
       <c r="M98" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5162,7 +5186,7 @@
         <v>9.99</v>
       </c>
       <c r="M99" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5200,7 +5224,7 @@
         <v>11.7</v>
       </c>
       <c r="M100" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5238,7 +5262,7 @@
         <v>11.51</v>
       </c>
       <c r="M101" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5276,7 +5300,7 @@
         <v>11.35</v>
       </c>
       <c r="M102" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5314,7 +5338,7 @@
         <v>11.37</v>
       </c>
       <c r="M103" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5352,7 +5376,7 @@
         <v>12.25</v>
       </c>
       <c r="M104" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5390,7 +5414,7 @@
         <v>12.5</v>
       </c>
       <c r="M105" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5428,7 +5452,7 @@
         <v>10.24</v>
       </c>
       <c r="M106" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5466,7 +5490,7 @@
         <v>12.09</v>
       </c>
       <c r="M107" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5507,7 +5531,7 @@
         <v>12.37</v>
       </c>
       <c r="M108" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5545,7 +5569,7 @@
         <v>11.1</v>
       </c>
       <c r="M109" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5583,7 +5607,7 @@
         <v>11.22</v>
       </c>
       <c r="M110" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5621,7 +5645,7 @@
         <v>11.94</v>
       </c>
       <c r="M111" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5659,7 +5683,7 @@
         <v>11.61</v>
       </c>
       <c r="M112" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5697,7 +5721,7 @@
         <v>11.98</v>
       </c>
       <c r="M113" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5735,7 +5759,7 @@
         <v>11.61</v>
       </c>
       <c r="M114" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5773,7 +5797,7 @@
         <v>13.44</v>
       </c>
       <c r="M115" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5811,7 +5835,7 @@
         <v>12.07</v>
       </c>
       <c r="M116" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5849,7 +5873,7 @@
         <v>12.13</v>
       </c>
       <c r="M117" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5887,7 +5911,7 @@
         <v>13.82</v>
       </c>
       <c r="M118" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5925,7 +5949,7 @@
         <v>15.09</v>
       </c>
       <c r="M119" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5963,7 +5987,7 @@
         <v>14.97</v>
       </c>
       <c r="M120" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -6001,7 +6025,7 @@
         <v>15.22</v>
       </c>
       <c r="M121" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6039,7 +6063,7 @@
         <v>16.21</v>
       </c>
       <c r="M122" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6077,7 +6101,7 @@
         <v>15.85</v>
       </c>
       <c r="M123" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6115,7 +6139,7 @@
         <v>13.56</v>
       </c>
       <c r="M124" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6153,7 +6177,7 @@
         <v>12.19</v>
       </c>
       <c r="M125" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6191,7 +6215,7 @@
         <v>12.7</v>
       </c>
       <c r="M126" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6229,7 +6253,7 @@
         <v>13.54</v>
       </c>
       <c r="M127" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6267,7 +6291,7 @@
         <v>13.51</v>
       </c>
       <c r="M128" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6305,7 +6329,7 @@
         <v>14.09</v>
       </c>
       <c r="M129" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6343,7 +6367,7 @@
         <v>17.15</v>
       </c>
       <c r="M130" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6381,7 +6405,7 @@
         <v>17.77</v>
       </c>
       <c r="M131" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6419,7 +6443,7 @@
         <v>19.98</v>
       </c>
       <c r="M132" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6457,7 +6481,7 @@
         <v>23</v>
       </c>
       <c r="M133" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6495,7 +6519,7 @@
         <v>24.42</v>
       </c>
       <c r="M134" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6533,7 +6557,7 @@
         <v>26.56</v>
       </c>
       <c r="M135" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6571,7 +6595,7 @@
         <v>25.33</v>
       </c>
       <c r="M136" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6609,7 +6633,7 @@
         <v>25.03</v>
       </c>
       <c r="M137" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6647,7 +6671,7 @@
         <v>25.72</v>
       </c>
       <c r="M138" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6685,7 +6709,7 @@
         <v>27.06</v>
       </c>
       <c r="M139" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6723,7 +6747,7 @@
         <v>26.1</v>
       </c>
       <c r="M140" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6761,7 +6785,7 @@
         <v>26.46</v>
       </c>
       <c r="M141" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6799,7 +6823,7 @@
         <v>27.69</v>
       </c>
       <c r="M142" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6837,7 +6861,7 @@
         <v>26.86</v>
       </c>
       <c r="M143" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6875,7 +6899,7 @@
         <v>23.44</v>
       </c>
       <c r="M144" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6913,7 +6937,7 @@
         <v>25.35</v>
       </c>
       <c r="M145" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6951,7 +6975,7 @@
         <v>22.88</v>
       </c>
       <c r="M146" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6989,7 +7013,7 @@
         <v>20.1</v>
       </c>
       <c r="M147" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7027,7 +7051,7 @@
         <v>20.24</v>
       </c>
       <c r="M148" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7065,7 +7089,7 @@
         <v>21.87</v>
       </c>
       <c r="M149" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7103,7 +7127,7 @@
         <v>23.59</v>
       </c>
       <c r="M150" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7141,7 +7165,7 @@
         <v>23.43</v>
       </c>
       <c r="M151" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7179,7 +7203,7 @@
         <v>23.74</v>
       </c>
       <c r="M152" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7217,7 +7241,7 @@
         <v>21.77</v>
       </c>
       <c r="M153" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7255,7 +7279,7 @@
         <v>23.42</v>
       </c>
       <c r="M154" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7293,7 +7317,7 @@
         <v>20.39</v>
       </c>
       <c r="M155" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7331,7 +7355,7 @@
         <v>19.13</v>
       </c>
       <c r="M156" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7369,7 +7393,7 @@
         <v>20.75</v>
       </c>
       <c r="M157" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7407,7 +7431,7 @@
         <v>19.58</v>
       </c>
       <c r="M158" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7445,7 +7469,7 @@
         <v>18.9</v>
       </c>
       <c r="M159" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7483,7 +7507,7 @@
         <v>21</v>
       </c>
       <c r="M160" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7521,7 +7545,7 @@
         <v>19.41</v>
       </c>
       <c r="M161" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7559,7 +7583,7 @@
         <v>20.69</v>
       </c>
       <c r="M162" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7597,7 +7621,7 @@
         <v>21.27</v>
       </c>
       <c r="M163" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7635,7 +7659,7 @@
         <v>19.51</v>
       </c>
       <c r="M164" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7673,7 +7697,7 @@
         <v>20.33</v>
       </c>
       <c r="M165" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7711,7 +7735,7 @@
         <v>17.72</v>
       </c>
       <c r="M166" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7749,7 +7773,7 @@
         <v>12.78</v>
       </c>
       <c r="M167" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7787,7 +7811,7 @@
         <v>13.5</v>
       </c>
       <c r="M168" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7825,7 +7849,7 @@
         <v>13.49</v>
       </c>
       <c r="M169" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7863,7 +7887,7 @@
         <v>14.7</v>
       </c>
       <c r="M170" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7901,7 +7925,7 @@
         <v>14.64</v>
       </c>
       <c r="M171" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7939,7 +7963,7 @@
         <v>15.31</v>
       </c>
       <c r="M172" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7977,7 +8001,7 @@
         <v>16.97</v>
       </c>
       <c r="M173" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8015,7 +8039,7 @@
         <v>15.28</v>
       </c>
       <c r="M174" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8053,7 +8077,7 @@
         <v>13.02</v>
       </c>
       <c r="M175" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8091,7 +8115,7 @@
         <v>14.76</v>
       </c>
       <c r="M176" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8129,7 +8153,7 @@
         <v>14.52</v>
       </c>
       <c r="M177" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8167,7 +8191,7 @@
         <v>17.7</v>
       </c>
       <c r="M178" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8205,7 +8229,7 @@
         <v>16.52</v>
       </c>
       <c r="M179" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8243,7 +8267,7 @@
         <v>15</v>
       </c>
       <c r="M180" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8281,7 +8305,7 @@
         <v>16.97</v>
       </c>
       <c r="M181" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8319,7 +8343,7 @@
         <v>17.58</v>
       </c>
       <c r="M182" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8357,7 +8381,7 @@
         <v>16.69</v>
       </c>
       <c r="M183" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8395,7 +8419,7 @@
         <v>15.06</v>
       </c>
       <c r="M184" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8433,7 +8457,7 @@
         <v>15.19</v>
       </c>
       <c r="M185" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8471,7 +8495,7 @@
         <v>13.82</v>
       </c>
       <c r="M186" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8509,7 +8533,7 @@
         <v>13.7</v>
       </c>
       <c r="M187" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8547,7 +8571,7 @@
         <v>13.59</v>
       </c>
       <c r="M188" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8585,7 +8609,7 @@
         <v>13.54</v>
       </c>
       <c r="M189" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8623,7 +8647,7 @@
         <v>13.04</v>
       </c>
       <c r="M190" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8661,7 +8685,7 @@
         <v>11.36</v>
       </c>
       <c r="M191" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8699,7 +8723,7 @@
         <v>13.98</v>
       </c>
       <c r="M192" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8737,7 +8761,7 @@
         <v>14.01</v>
       </c>
       <c r="M193" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8775,7 +8799,7 @@
         <v>12.03</v>
       </c>
       <c r="M194" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8816,7 +8840,7 @@
         <v>12.94</v>
       </c>
       <c r="M195" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8854,7 +8878,7 @@
         <v>12.34</v>
       </c>
       <c r="M196" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8892,7 +8916,7 @@
         <v>11.72</v>
       </c>
       <c r="M197" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8933,7 +8957,7 @@
         <v>11.59</v>
       </c>
       <c r="M198" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8971,7 +8995,7 @@
         <v>11.57</v>
       </c>
       <c r="M199" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -9009,7 +9033,7 @@
         <v>12.27</v>
       </c>
       <c r="M200" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -9047,7 +9071,7 @@
         <v>12.5</v>
       </c>
       <c r="M201" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9085,7 +9109,7 @@
         <v>12.93</v>
       </c>
       <c r="M202" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9123,7 +9147,7 @@
         <v>12.87</v>
       </c>
       <c r="M203" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9161,7 +9185,7 @@
         <v>12.03</v>
       </c>
       <c r="M204" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9199,7 +9223,7 @@
         <v>10.3</v>
       </c>
       <c r="M205" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9237,7 +9261,7 @@
         <v>12.12</v>
       </c>
       <c r="M206" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9275,7 +9299,7 @@
         <v>12.2</v>
       </c>
       <c r="M207" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9316,7 +9340,7 @@
         <v>11.37</v>
       </c>
       <c r="M208" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9357,7 +9381,7 @@
         <v>11.01</v>
       </c>
       <c r="M209" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9395,7 +9419,7 @@
         <v>10.88</v>
       </c>
       <c r="M210" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9433,7 +9457,7 @@
         <v>10.46</v>
       </c>
       <c r="M211" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9471,7 +9495,7 @@
         <v>10.35</v>
       </c>
       <c r="M212" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9509,7 +9533,7 @@
         <v>10.56</v>
       </c>
       <c r="M213" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9550,7 +9574,7 @@
         <v>11.16</v>
       </c>
       <c r="M214" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9588,7 +9612,7 @@
         <v>12.25</v>
       </c>
       <c r="M215" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9626,7 +9650,7 @@
         <v>11.5</v>
       </c>
       <c r="M216" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9664,7 +9688,7 @@
         <v>10.44</v>
       </c>
       <c r="M217" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9702,7 +9726,7 @@
         <v>9.9</v>
       </c>
       <c r="M218" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9740,7 +9764,7 @@
         <v>10.6</v>
       </c>
       <c r="M219" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9778,7 +9802,7 @@
         <v>11.42</v>
       </c>
       <c r="M220" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9816,7 +9840,7 @@
         <v>10.98</v>
       </c>
       <c r="M221" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9854,7 +9878,7 @@
         <v>12.21</v>
       </c>
       <c r="M222" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9892,7 +9916,7 @@
         <v>11.61</v>
       </c>
       <c r="M223" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9930,7 +9954,7 @@
         <v>12.36</v>
       </c>
       <c r="M224" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9968,7 +9992,7 @@
         <v>15.85</v>
       </c>
       <c r="M225" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -10006,7 +10030,7 @@
         <v>16.77</v>
       </c>
       <c r="M226" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10044,7 +10068,7 @@
         <v>16.58</v>
       </c>
       <c r="M227" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10082,7 +10106,7 @@
         <v>13.55</v>
       </c>
       <c r="M228" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10120,7 +10144,7 @@
         <v>13.84</v>
       </c>
       <c r="M229" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10158,7 +10182,7 @@
         <v>16.53</v>
       </c>
       <c r="M230" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10196,7 +10220,7 @@
         <v>16.39</v>
       </c>
       <c r="M231" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10234,7 +10258,7 @@
         <v>15.24</v>
       </c>
       <c r="M232" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10272,7 +10296,7 @@
         <v>13.89</v>
       </c>
       <c r="M233" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10310,7 +10334,7 @@
         <v>11.87</v>
       </c>
       <c r="M234" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10348,7 +10372,7 @@
         <v>12.06</v>
       </c>
       <c r="M235" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10386,7 +10410,7 @@
         <v>12.7</v>
       </c>
       <c r="M236" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10424,7 +10448,7 @@
         <v>12.69</v>
       </c>
       <c r="M237" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10462,7 +10486,7 @@
         <v>11.23</v>
       </c>
       <c r="M238" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10500,7 +10524,7 @@
         <v>10.31</v>
       </c>
       <c r="M239" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10538,7 +10562,7 @@
         <v>7.02</v>
       </c>
       <c r="M240" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10576,7 +10600,7 @@
         <v>7.15</v>
       </c>
       <c r="M241" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10614,7 +10638,7 @@
         <v>12.57</v>
       </c>
       <c r="M242" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10652,7 +10676,7 @@
         <v>9.27</v>
       </c>
       <c r="M243" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10690,7 +10714,7 @@
         <v>8.19</v>
       </c>
       <c r="M244" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10728,7 +10752,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="M245" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10766,7 +10790,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="M246" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10804,7 +10828,7 @@
         <v>10.35</v>
       </c>
       <c r="M247" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10842,7 +10866,7 @@
         <v>16.13</v>
       </c>
       <c r="M248" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10880,7 +10904,7 @@
         <v>16.43</v>
       </c>
       <c r="M249" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10918,7 +10942,7 @@
         <v>15.96</v>
       </c>
       <c r="M250" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10956,7 +10980,7 @@
         <v>9.83</v>
       </c>
       <c r="M251" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10994,7 +11018,7 @@
         <v>6.63</v>
       </c>
       <c r="M252" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11032,7 +11056,7 @@
         <v>6.15</v>
       </c>
       <c r="M253" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11070,7 +11094,7 @@
         <v>8.66</v>
       </c>
       <c r="M254" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11108,7 +11132,7 @@
         <v>10.09</v>
       </c>
       <c r="M255" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11146,7 +11170,7 @@
         <v>9.73</v>
       </c>
       <c r="M256" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11184,7 +11208,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="M257" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11222,7 +11246,7 @@
         <v>9.25</v>
       </c>
       <c r="M258" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11260,7 +11284,7 @@
         <v>10.64</v>
       </c>
       <c r="M259" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11298,7 +11322,7 @@
         <v>13.53</v>
       </c>
       <c r="M260" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11336,7 +11360,7 @@
         <v>12.66</v>
       </c>
       <c r="M261" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11374,7 +11398,7 @@
         <v>12.04</v>
       </c>
       <c r="M262" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11412,7 +11436,7 @@
         <v>12.75</v>
       </c>
       <c r="M263" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11450,7 +11474,7 @@
         <v>11.91</v>
       </c>
       <c r="M264" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11488,7 +11512,7 @@
         <v>10.03</v>
       </c>
       <c r="M265" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11526,7 +11550,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="M266" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11564,7 +11588,7 @@
         <v>7.36</v>
       </c>
       <c r="M267" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11602,7 +11626,7 @@
         <v>6.97</v>
       </c>
       <c r="M268" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11640,7 +11664,7 @@
         <v>11.24</v>
       </c>
       <c r="M269" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11678,7 +11702,7 @@
         <v>9</v>
       </c>
       <c r="M270" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11716,7 +11740,7 @@
         <v>6.82</v>
       </c>
       <c r="M271" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11754,7 +11778,7 @@
         <v>4.15</v>
       </c>
       <c r="M272" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11792,7 +11816,7 @@
         <v>5.17</v>
       </c>
       <c r="M273" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11830,7 +11854,7 @@
         <v>6.37</v>
       </c>
       <c r="M274" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11868,7 +11892,7 @@
         <v>6.42</v>
       </c>
       <c r="M275" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11906,7 +11930,7 @@
         <v>7.41</v>
       </c>
       <c r="M276" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11944,7 +11968,7 @@
         <v>5.77</v>
       </c>
       <c r="M277" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -11982,7 +12006,7 @@
         <v>5.61</v>
       </c>
       <c r="M278" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -12020,7 +12044,7 @@
         <v>3.76</v>
       </c>
       <c r="M279" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -12061,7 +12085,7 @@
         <v>4.26</v>
       </c>
       <c r="M280" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12099,7 +12123,7 @@
         <v>6.7</v>
       </c>
       <c r="M281" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12137,7 +12161,7 @@
         <v>12.48</v>
       </c>
       <c r="M282" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12175,7 +12199,7 @@
         <v>13.05</v>
       </c>
       <c r="M283" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12213,7 +12237,7 @@
         <v>10.29</v>
       </c>
       <c r="M284" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12251,7 +12275,7 @@
         <v>10.61</v>
       </c>
       <c r="M285" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12289,7 +12313,7 @@
         <v>10.14</v>
       </c>
       <c r="M286" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12327,7 +12351,7 @@
         <v>13.1</v>
       </c>
       <c r="M287" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12365,7 +12389,7 @@
         <v>11.08</v>
       </c>
       <c r="M288" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12403,7 +12427,7 @@
         <v>10.21</v>
       </c>
       <c r="M289" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12441,7 +12465,7 @@
         <v>10.59</v>
       </c>
       <c r="M290" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12479,7 +12503,7 @@
         <v>10.13</v>
       </c>
       <c r="M291" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12517,7 +12541,7 @@
         <v>9.18</v>
       </c>
       <c r="M292" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12555,7 +12579,7 @@
         <v>8.92</v>
       </c>
       <c r="M293" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12593,7 +12617,7 @@
         <v>8.16</v>
       </c>
       <c r="M294" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12631,7 +12655,7 @@
         <v>9.41</v>
       </c>
       <c r="M295" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12669,7 +12693,7 @@
         <v>9.02</v>
       </c>
       <c r="M296" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12707,7 +12731,7 @@
         <v>8.68</v>
       </c>
       <c r="M297" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12745,7 +12769,7 @@
         <v>10.54</v>
       </c>
       <c r="M298" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12783,7 +12807,7 @@
         <v>8.23</v>
       </c>
       <c r="M299" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12821,7 +12845,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M300" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -12859,7 +12883,7 @@
         <v>11.75</v>
       </c>
       <c r="M301" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -12897,7 +12921,7 @@
         <v>8.94</v>
       </c>
       <c r="M302" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -12935,7 +12959,7 @@
         <v>9</v>
       </c>
       <c r="M303" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -12973,7 +12997,7 @@
         <v>8.24</v>
       </c>
       <c r="M304" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -13011,7 +13035,7 @@
         <v>9.02</v>
       </c>
       <c r="M305" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -13049,7 +13073,7 @@
         <v>5.55</v>
       </c>
       <c r="M306" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -13087,7 +13111,317 @@
         <v>7.78</v>
       </c>
       <c r="M307" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
         <v>318</v>
+      </c>
+      <c r="C308">
+        <v>11.38</v>
+      </c>
+      <c r="D308">
+        <v>90.34</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>22.07</v>
+      </c>
+      <c r="G308">
+        <v>48.41</v>
+      </c>
+      <c r="H308">
+        <v>853.97</v>
+      </c>
+      <c r="I308">
+        <v>20.41</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>2000</v>
+      </c>
+      <c r="L308">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="M308" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>319</v>
+      </c>
+      <c r="C309">
+        <v>11.34</v>
+      </c>
+      <c r="D309">
+        <v>89.91</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>22.07</v>
+      </c>
+      <c r="G309">
+        <v>43.87</v>
+      </c>
+      <c r="H309">
+        <v>853.97</v>
+      </c>
+      <c r="I309">
+        <v>20.32</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>2000</v>
+      </c>
+      <c r="L309">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="M309" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>320</v>
+      </c>
+      <c r="C310">
+        <v>11.69</v>
+      </c>
+      <c r="D310">
+        <v>89.64</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>22.08</v>
+      </c>
+      <c r="G310">
+        <v>31.16</v>
+      </c>
+      <c r="H310">
+        <v>854.08</v>
+      </c>
+      <c r="I310">
+        <v>20.29</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="L310">
+        <v>9</v>
+      </c>
+      <c r="M310" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>321</v>
+      </c>
+      <c r="C311">
+        <v>11.48</v>
+      </c>
+      <c r="D311">
+        <v>89.5</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>22.05</v>
+      </c>
+      <c r="G311">
+        <v>14.04</v>
+      </c>
+      <c r="H311">
+        <v>854.1900000000001</v>
+      </c>
+      <c r="I311">
+        <v>20.24</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>10.16</v>
+      </c>
+      <c r="M311" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>322</v>
+      </c>
+      <c r="C312">
+        <v>11.4</v>
+      </c>
+      <c r="D312">
+        <v>89.61</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>22</v>
+      </c>
+      <c r="G312">
+        <v>34.34</v>
+      </c>
+      <c r="H312">
+        <v>854.1900000000001</v>
+      </c>
+      <c r="I312">
+        <v>20.2</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>7.58</v>
+      </c>
+      <c r="M312" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>323</v>
+      </c>
+      <c r="C313">
+        <v>11.72</v>
+      </c>
+      <c r="D313">
+        <v>90.33</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>21.98</v>
+      </c>
+      <c r="G313">
+        <v>40.41</v>
+      </c>
+      <c r="H313">
+        <v>854.37</v>
+      </c>
+      <c r="I313">
+        <v>20.31</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>6.52</v>
+      </c>
+      <c r="M313" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>324</v>
+      </c>
+      <c r="C314">
+        <v>11.72</v>
+      </c>
+      <c r="D314">
+        <v>90.79000000000001</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>21.97</v>
+      </c>
+      <c r="G314">
+        <v>33.22</v>
+      </c>
+      <c r="H314">
+        <v>854.47</v>
+      </c>
+      <c r="I314">
+        <v>20.38</v>
+      </c>
+      <c r="J314">
+        <v>0.54</v>
+      </c>
+      <c r="L314">
+        <v>5.33</v>
+      </c>
+      <c r="M314" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>325</v>
+      </c>
+      <c r="C315">
+        <v>11.43</v>
+      </c>
+      <c r="D315">
+        <v>90.97</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>21.93</v>
+      </c>
+      <c r="G315">
+        <v>20.21</v>
+      </c>
+      <c r="H315">
+        <v>854.5599999999999</v>
+      </c>
+      <c r="I315">
+        <v>20.38</v>
+      </c>
+      <c r="J315">
+        <v>8.57</v>
+      </c>
+      <c r="L315">
+        <v>2.04</v>
+      </c>
+      <c r="M315" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="333">
   <si>
     <t>Fecha</t>
   </si>
@@ -992,6 +992,24 @@
   </si>
   <si>
     <t>11/9/2020 6:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:45:00 AM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1352,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M315"/>
+  <dimension ref="A1:M321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1434,7 +1452,7 @@
         <v>8.77</v>
       </c>
       <c r="M2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1475,7 +1493,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="M3" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1516,7 +1534,7 @@
         <v>7.13</v>
       </c>
       <c r="M4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1557,7 +1575,7 @@
         <v>4.17</v>
       </c>
       <c r="M5" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1598,7 +1616,7 @@
         <v>2.88</v>
       </c>
       <c r="M6" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1639,7 +1657,7 @@
         <v>3.58</v>
       </c>
       <c r="M7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1680,7 +1698,7 @@
         <v>2.6</v>
       </c>
       <c r="M8" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1721,7 +1739,7 @@
         <v>3.58</v>
       </c>
       <c r="M9" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1762,7 +1780,7 @@
         <v>4.42</v>
       </c>
       <c r="M10" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1803,7 +1821,7 @@
         <v>2.73</v>
       </c>
       <c r="M11" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1844,7 +1862,7 @@
         <v>3.65</v>
       </c>
       <c r="M12" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1885,7 +1903,7 @@
         <v>2.51</v>
       </c>
       <c r="M13" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1926,7 +1944,7 @@
         <v>4.05</v>
       </c>
       <c r="M14" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1967,7 +1985,7 @@
         <v>3.9</v>
       </c>
       <c r="M15" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2008,7 +2026,7 @@
         <v>2.11</v>
       </c>
       <c r="M16" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2049,7 +2067,7 @@
         <v>2.31</v>
       </c>
       <c r="M17" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2090,7 +2108,7 @@
         <v>4.49</v>
       </c>
       <c r="M18" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2131,7 +2149,7 @@
         <v>4.15</v>
       </c>
       <c r="M19" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2172,7 +2190,7 @@
         <v>2.28</v>
       </c>
       <c r="M20" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2213,7 +2231,7 @@
         <v>3.02</v>
       </c>
       <c r="M21" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2254,7 +2272,7 @@
         <v>2.46</v>
       </c>
       <c r="M22" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2292,7 +2310,7 @@
         <v>1.82</v>
       </c>
       <c r="M23" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2333,7 +2351,7 @@
         <v>5.56</v>
       </c>
       <c r="M24" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2371,7 +2389,7 @@
         <v>6.98</v>
       </c>
       <c r="M25" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2409,7 +2427,7 @@
         <v>9.31</v>
       </c>
       <c r="M26" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2450,7 +2468,7 @@
         <v>5.73</v>
       </c>
       <c r="M27" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2488,7 +2506,7 @@
         <v>3.69</v>
       </c>
       <c r="M28" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2526,7 +2544,7 @@
         <v>3.27</v>
       </c>
       <c r="M29" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2564,7 +2582,7 @@
         <v>5.62</v>
       </c>
       <c r="M30" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2602,7 +2620,7 @@
         <v>7.55</v>
       </c>
       <c r="M31" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2640,7 +2658,7 @@
         <v>9.52</v>
       </c>
       <c r="M32" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2678,7 +2696,7 @@
         <v>7.88</v>
       </c>
       <c r="M33" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2716,7 +2734,7 @@
         <v>8.01</v>
       </c>
       <c r="M34" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2754,7 +2772,7 @@
         <v>8.74</v>
       </c>
       <c r="M35" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2792,7 +2810,7 @@
         <v>9.76</v>
       </c>
       <c r="M36" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2830,7 +2848,7 @@
         <v>15.26</v>
       </c>
       <c r="M37" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2868,7 +2886,7 @@
         <v>17.68</v>
       </c>
       <c r="M38" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2906,7 +2924,7 @@
         <v>15.95</v>
       </c>
       <c r="M39" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2944,7 +2962,7 @@
         <v>17.28</v>
       </c>
       <c r="M40" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2982,7 +3000,7 @@
         <v>17.27</v>
       </c>
       <c r="M41" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3020,7 +3038,7 @@
         <v>15.2</v>
       </c>
       <c r="M42" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3058,7 +3076,7 @@
         <v>16.27</v>
       </c>
       <c r="M43" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3096,7 +3114,7 @@
         <v>17.15</v>
       </c>
       <c r="M44" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3134,7 +3152,7 @@
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3172,7 +3190,7 @@
         <v>21.18</v>
       </c>
       <c r="M46" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3210,7 +3228,7 @@
         <v>19.03</v>
       </c>
       <c r="M47" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3248,7 +3266,7 @@
         <v>18.57</v>
       </c>
       <c r="M48" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3286,7 +3304,7 @@
         <v>21.15</v>
       </c>
       <c r="M49" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3324,7 +3342,7 @@
         <v>18.54</v>
       </c>
       <c r="M50" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3362,7 +3380,7 @@
         <v>18.7</v>
       </c>
       <c r="M51" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3400,7 +3418,7 @@
         <v>17.39</v>
       </c>
       <c r="M52" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3438,7 +3456,7 @@
         <v>16.37</v>
       </c>
       <c r="M53" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3476,7 +3494,7 @@
         <v>15.89</v>
       </c>
       <c r="M54" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3514,7 +3532,7 @@
         <v>17.35</v>
       </c>
       <c r="M55" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3552,7 +3570,7 @@
         <v>15.33</v>
       </c>
       <c r="M56" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3590,7 +3608,7 @@
         <v>13.97</v>
       </c>
       <c r="M57" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3628,7 +3646,7 @@
         <v>19.23</v>
       </c>
       <c r="M58" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3666,7 +3684,7 @@
         <v>16.43</v>
       </c>
       <c r="M59" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3704,7 +3722,7 @@
         <v>17.54</v>
       </c>
       <c r="M60" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3742,7 +3760,7 @@
         <v>18.1</v>
       </c>
       <c r="M61" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3780,7 +3798,7 @@
         <v>17.67</v>
       </c>
       <c r="M62" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3818,7 +3836,7 @@
         <v>14.99</v>
       </c>
       <c r="M63" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3856,7 +3874,7 @@
         <v>17.31</v>
       </c>
       <c r="M64" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3894,7 +3912,7 @@
         <v>19.12</v>
       </c>
       <c r="M65" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3932,7 +3950,7 @@
         <v>15.23</v>
       </c>
       <c r="M66" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3970,7 +3988,7 @@
         <v>13.71</v>
       </c>
       <c r="M67" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4008,7 +4026,7 @@
         <v>16.9</v>
       </c>
       <c r="M68" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4046,7 +4064,7 @@
         <v>18.84</v>
       </c>
       <c r="M69" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4084,7 +4102,7 @@
         <v>16.48</v>
       </c>
       <c r="M70" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4122,7 +4140,7 @@
         <v>13.14</v>
       </c>
       <c r="M71" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4160,7 +4178,7 @@
         <v>14.3</v>
       </c>
       <c r="M72" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4198,7 +4216,7 @@
         <v>11.4</v>
       </c>
       <c r="M73" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4236,7 +4254,7 @@
         <v>12.74</v>
       </c>
       <c r="M74" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4274,7 +4292,7 @@
         <v>12.52</v>
       </c>
       <c r="M75" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4312,7 +4330,7 @@
         <v>9.6</v>
       </c>
       <c r="M76" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4350,7 +4368,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M77" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4388,7 +4406,7 @@
         <v>6.73</v>
       </c>
       <c r="M78" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4426,7 +4444,7 @@
         <v>6.96</v>
       </c>
       <c r="M79" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4464,7 +4482,7 @@
         <v>7.33</v>
       </c>
       <c r="M80" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4502,7 +4520,7 @@
         <v>6.53</v>
       </c>
       <c r="M81" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4540,7 +4558,7 @@
         <v>7.43</v>
       </c>
       <c r="M82" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4578,7 +4596,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="M83" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4616,7 +4634,7 @@
         <v>11.35</v>
       </c>
       <c r="M84" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4654,7 +4672,7 @@
         <v>11.74</v>
       </c>
       <c r="M85" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4692,7 +4710,7 @@
         <v>11.87</v>
       </c>
       <c r="M86" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4730,7 +4748,7 @@
         <v>8.75</v>
       </c>
       <c r="M87" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4768,7 +4786,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M88" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4806,7 +4824,7 @@
         <v>7.68</v>
       </c>
       <c r="M89" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4844,7 +4862,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="M90" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4882,7 +4900,7 @@
         <v>11.39</v>
       </c>
       <c r="M91" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4920,7 +4938,7 @@
         <v>11.45</v>
       </c>
       <c r="M92" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4958,7 +4976,7 @@
         <v>15.19</v>
       </c>
       <c r="M93" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4996,7 +5014,7 @@
         <v>14.09</v>
       </c>
       <c r="M94" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -5034,7 +5052,7 @@
         <v>11.47</v>
       </c>
       <c r="M95" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5072,7 +5090,7 @@
         <v>10.17</v>
       </c>
       <c r="M96" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5110,7 +5128,7 @@
         <v>10.46</v>
       </c>
       <c r="M97" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5148,7 +5166,7 @@
         <v>9.82</v>
       </c>
       <c r="M98" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5186,7 +5204,7 @@
         <v>9.99</v>
       </c>
       <c r="M99" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5224,7 +5242,7 @@
         <v>11.7</v>
       </c>
       <c r="M100" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5262,7 +5280,7 @@
         <v>11.51</v>
       </c>
       <c r="M101" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5300,7 +5318,7 @@
         <v>11.35</v>
       </c>
       <c r="M102" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5338,7 +5356,7 @@
         <v>11.37</v>
       </c>
       <c r="M103" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5376,7 +5394,7 @@
         <v>12.25</v>
       </c>
       <c r="M104" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5414,7 +5432,7 @@
         <v>12.5</v>
       </c>
       <c r="M105" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5452,7 +5470,7 @@
         <v>10.24</v>
       </c>
       <c r="M106" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5490,7 +5508,7 @@
         <v>12.09</v>
       </c>
       <c r="M107" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5531,7 +5549,7 @@
         <v>12.37</v>
       </c>
       <c r="M108" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5569,7 +5587,7 @@
         <v>11.1</v>
       </c>
       <c r="M109" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5607,7 +5625,7 @@
         <v>11.22</v>
       </c>
       <c r="M110" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5645,7 +5663,7 @@
         <v>11.94</v>
       </c>
       <c r="M111" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5683,7 +5701,7 @@
         <v>11.61</v>
       </c>
       <c r="M112" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5721,7 +5739,7 @@
         <v>11.98</v>
       </c>
       <c r="M113" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5759,7 +5777,7 @@
         <v>11.61</v>
       </c>
       <c r="M114" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5797,7 +5815,7 @@
         <v>13.44</v>
       </c>
       <c r="M115" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5835,7 +5853,7 @@
         <v>12.07</v>
       </c>
       <c r="M116" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5873,7 +5891,7 @@
         <v>12.13</v>
       </c>
       <c r="M117" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5911,7 +5929,7 @@
         <v>13.82</v>
       </c>
       <c r="M118" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5949,7 +5967,7 @@
         <v>15.09</v>
       </c>
       <c r="M119" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5987,7 +6005,7 @@
         <v>14.97</v>
       </c>
       <c r="M120" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -6025,7 +6043,7 @@
         <v>15.22</v>
       </c>
       <c r="M121" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6063,7 +6081,7 @@
         <v>16.21</v>
       </c>
       <c r="M122" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6101,7 +6119,7 @@
         <v>15.85</v>
       </c>
       <c r="M123" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6139,7 +6157,7 @@
         <v>13.56</v>
       </c>
       <c r="M124" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6177,7 +6195,7 @@
         <v>12.19</v>
       </c>
       <c r="M125" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6215,7 +6233,7 @@
         <v>12.7</v>
       </c>
       <c r="M126" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6253,7 +6271,7 @@
         <v>13.54</v>
       </c>
       <c r="M127" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6291,7 +6309,7 @@
         <v>13.51</v>
       </c>
       <c r="M128" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6329,7 +6347,7 @@
         <v>14.09</v>
       </c>
       <c r="M129" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6367,7 +6385,7 @@
         <v>17.15</v>
       </c>
       <c r="M130" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6405,7 +6423,7 @@
         <v>17.77</v>
       </c>
       <c r="M131" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6443,7 +6461,7 @@
         <v>19.98</v>
       </c>
       <c r="M132" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6481,7 +6499,7 @@
         <v>23</v>
       </c>
       <c r="M133" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6519,7 +6537,7 @@
         <v>24.42</v>
       </c>
       <c r="M134" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6557,7 +6575,7 @@
         <v>26.56</v>
       </c>
       <c r="M135" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6595,7 +6613,7 @@
         <v>25.33</v>
       </c>
       <c r="M136" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6633,7 +6651,7 @@
         <v>25.03</v>
       </c>
       <c r="M137" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6671,7 +6689,7 @@
         <v>25.72</v>
       </c>
       <c r="M138" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6709,7 +6727,7 @@
         <v>27.06</v>
       </c>
       <c r="M139" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6747,7 +6765,7 @@
         <v>26.1</v>
       </c>
       <c r="M140" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6785,7 +6803,7 @@
         <v>26.46</v>
       </c>
       <c r="M141" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6823,7 +6841,7 @@
         <v>27.69</v>
       </c>
       <c r="M142" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6861,7 +6879,7 @@
         <v>26.86</v>
       </c>
       <c r="M143" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6899,7 +6917,7 @@
         <v>23.44</v>
       </c>
       <c r="M144" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6937,7 +6955,7 @@
         <v>25.35</v>
       </c>
       <c r="M145" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6975,7 +6993,7 @@
         <v>22.88</v>
       </c>
       <c r="M146" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -7013,7 +7031,7 @@
         <v>20.1</v>
       </c>
       <c r="M147" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7051,7 +7069,7 @@
         <v>20.24</v>
       </c>
       <c r="M148" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7089,7 +7107,7 @@
         <v>21.87</v>
       </c>
       <c r="M149" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7127,7 +7145,7 @@
         <v>23.59</v>
       </c>
       <c r="M150" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7165,7 +7183,7 @@
         <v>23.43</v>
       </c>
       <c r="M151" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7203,7 +7221,7 @@
         <v>23.74</v>
       </c>
       <c r="M152" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7241,7 +7259,7 @@
         <v>21.77</v>
       </c>
       <c r="M153" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7279,7 +7297,7 @@
         <v>23.42</v>
       </c>
       <c r="M154" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7317,7 +7335,7 @@
         <v>20.39</v>
       </c>
       <c r="M155" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7355,7 +7373,7 @@
         <v>19.13</v>
       </c>
       <c r="M156" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7393,7 +7411,7 @@
         <v>20.75</v>
       </c>
       <c r="M157" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7431,7 +7449,7 @@
         <v>19.58</v>
       </c>
       <c r="M158" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7469,7 +7487,7 @@
         <v>18.9</v>
       </c>
       <c r="M159" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7507,7 +7525,7 @@
         <v>21</v>
       </c>
       <c r="M160" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7545,7 +7563,7 @@
         <v>19.41</v>
       </c>
       <c r="M161" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7583,7 +7601,7 @@
         <v>20.69</v>
       </c>
       <c r="M162" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7621,7 +7639,7 @@
         <v>21.27</v>
       </c>
       <c r="M163" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7659,7 +7677,7 @@
         <v>19.51</v>
       </c>
       <c r="M164" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7697,7 +7715,7 @@
         <v>20.33</v>
       </c>
       <c r="M165" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7735,7 +7753,7 @@
         <v>17.72</v>
       </c>
       <c r="M166" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7773,7 +7791,7 @@
         <v>12.78</v>
       </c>
       <c r="M167" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7811,7 +7829,7 @@
         <v>13.5</v>
       </c>
       <c r="M168" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7849,7 +7867,7 @@
         <v>13.49</v>
       </c>
       <c r="M169" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7887,7 +7905,7 @@
         <v>14.7</v>
       </c>
       <c r="M170" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7925,7 +7943,7 @@
         <v>14.64</v>
       </c>
       <c r="M171" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7963,7 +7981,7 @@
         <v>15.31</v>
       </c>
       <c r="M172" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -8001,7 +8019,7 @@
         <v>16.97</v>
       </c>
       <c r="M173" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8039,7 +8057,7 @@
         <v>15.28</v>
       </c>
       <c r="M174" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8077,7 +8095,7 @@
         <v>13.02</v>
       </c>
       <c r="M175" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8115,7 +8133,7 @@
         <v>14.76</v>
       </c>
       <c r="M176" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8153,7 +8171,7 @@
         <v>14.52</v>
       </c>
       <c r="M177" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8191,7 +8209,7 @@
         <v>17.7</v>
       </c>
       <c r="M178" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8229,7 +8247,7 @@
         <v>16.52</v>
       </c>
       <c r="M179" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8267,7 +8285,7 @@
         <v>15</v>
       </c>
       <c r="M180" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8305,7 +8323,7 @@
         <v>16.97</v>
       </c>
       <c r="M181" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8343,7 +8361,7 @@
         <v>17.58</v>
       </c>
       <c r="M182" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8381,7 +8399,7 @@
         <v>16.69</v>
       </c>
       <c r="M183" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8419,7 +8437,7 @@
         <v>15.06</v>
       </c>
       <c r="M184" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8457,7 +8475,7 @@
         <v>15.19</v>
       </c>
       <c r="M185" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8495,7 +8513,7 @@
         <v>13.82</v>
       </c>
       <c r="M186" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8533,7 +8551,7 @@
         <v>13.7</v>
       </c>
       <c r="M187" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8571,7 +8589,7 @@
         <v>13.59</v>
       </c>
       <c r="M188" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8609,7 +8627,7 @@
         <v>13.54</v>
       </c>
       <c r="M189" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8647,7 +8665,7 @@
         <v>13.04</v>
       </c>
       <c r="M190" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8685,7 +8703,7 @@
         <v>11.36</v>
       </c>
       <c r="M191" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8723,7 +8741,7 @@
         <v>13.98</v>
       </c>
       <c r="M192" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8761,7 +8779,7 @@
         <v>14.01</v>
       </c>
       <c r="M193" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8799,7 +8817,7 @@
         <v>12.03</v>
       </c>
       <c r="M194" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8840,7 +8858,7 @@
         <v>12.94</v>
       </c>
       <c r="M195" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8878,7 +8896,7 @@
         <v>12.34</v>
       </c>
       <c r="M196" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8916,7 +8934,7 @@
         <v>11.72</v>
       </c>
       <c r="M197" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8957,7 +8975,7 @@
         <v>11.59</v>
       </c>
       <c r="M198" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8995,7 +9013,7 @@
         <v>11.57</v>
       </c>
       <c r="M199" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -9033,7 +9051,7 @@
         <v>12.27</v>
       </c>
       <c r="M200" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -9071,7 +9089,7 @@
         <v>12.5</v>
       </c>
       <c r="M201" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9109,7 +9127,7 @@
         <v>12.93</v>
       </c>
       <c r="M202" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9147,7 +9165,7 @@
         <v>12.87</v>
       </c>
       <c r="M203" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9185,7 +9203,7 @@
         <v>12.03</v>
       </c>
       <c r="M204" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9223,7 +9241,7 @@
         <v>10.3</v>
       </c>
       <c r="M205" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9261,7 +9279,7 @@
         <v>12.12</v>
       </c>
       <c r="M206" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9299,7 +9317,7 @@
         <v>12.2</v>
       </c>
       <c r="M207" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9340,7 +9358,7 @@
         <v>11.37</v>
       </c>
       <c r="M208" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9381,7 +9399,7 @@
         <v>11.01</v>
       </c>
       <c r="M209" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9419,7 +9437,7 @@
         <v>10.88</v>
       </c>
       <c r="M210" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9457,7 +9475,7 @@
         <v>10.46</v>
       </c>
       <c r="M211" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9495,7 +9513,7 @@
         <v>10.35</v>
       </c>
       <c r="M212" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9533,7 +9551,7 @@
         <v>10.56</v>
       </c>
       <c r="M213" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9574,7 +9592,7 @@
         <v>11.16</v>
       </c>
       <c r="M214" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9612,7 +9630,7 @@
         <v>12.25</v>
       </c>
       <c r="M215" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9650,7 +9668,7 @@
         <v>11.5</v>
       </c>
       <c r="M216" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9688,7 +9706,7 @@
         <v>10.44</v>
       </c>
       <c r="M217" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9726,7 +9744,7 @@
         <v>9.9</v>
       </c>
       <c r="M218" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9764,7 +9782,7 @@
         <v>10.6</v>
       </c>
       <c r="M219" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9802,7 +9820,7 @@
         <v>11.42</v>
       </c>
       <c r="M220" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9840,7 +9858,7 @@
         <v>10.98</v>
       </c>
       <c r="M221" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9878,7 +9896,7 @@
         <v>12.21</v>
       </c>
       <c r="M222" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9916,7 +9934,7 @@
         <v>11.61</v>
       </c>
       <c r="M223" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9954,7 +9972,7 @@
         <v>12.36</v>
       </c>
       <c r="M224" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9992,7 +10010,7 @@
         <v>15.85</v>
       </c>
       <c r="M225" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -10030,7 +10048,7 @@
         <v>16.77</v>
       </c>
       <c r="M226" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10068,7 +10086,7 @@
         <v>16.58</v>
       </c>
       <c r="M227" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10106,7 +10124,7 @@
         <v>13.55</v>
       </c>
       <c r="M228" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10144,7 +10162,7 @@
         <v>13.84</v>
       </c>
       <c r="M229" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10182,7 +10200,7 @@
         <v>16.53</v>
       </c>
       <c r="M230" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10220,7 +10238,7 @@
         <v>16.39</v>
       </c>
       <c r="M231" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10258,7 +10276,7 @@
         <v>15.24</v>
       </c>
       <c r="M232" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10296,7 +10314,7 @@
         <v>13.89</v>
       </c>
       <c r="M233" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10334,7 +10352,7 @@
         <v>11.87</v>
       </c>
       <c r="M234" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10372,7 +10390,7 @@
         <v>12.06</v>
       </c>
       <c r="M235" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10410,7 +10428,7 @@
         <v>12.7</v>
       </c>
       <c r="M236" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10448,7 +10466,7 @@
         <v>12.69</v>
       </c>
       <c r="M237" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10486,7 +10504,7 @@
         <v>11.23</v>
       </c>
       <c r="M238" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10524,7 +10542,7 @@
         <v>10.31</v>
       </c>
       <c r="M239" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10562,7 +10580,7 @@
         <v>7.02</v>
       </c>
       <c r="M240" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10600,7 +10618,7 @@
         <v>7.15</v>
       </c>
       <c r="M241" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10638,7 +10656,7 @@
         <v>12.57</v>
       </c>
       <c r="M242" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10676,7 +10694,7 @@
         <v>9.27</v>
       </c>
       <c r="M243" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10714,7 +10732,7 @@
         <v>8.19</v>
       </c>
       <c r="M244" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10752,7 +10770,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="M245" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10790,7 +10808,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="M246" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10828,7 +10846,7 @@
         <v>10.35</v>
       </c>
       <c r="M247" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10866,7 +10884,7 @@
         <v>16.13</v>
       </c>
       <c r="M248" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10904,7 +10922,7 @@
         <v>16.43</v>
       </c>
       <c r="M249" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10942,7 +10960,7 @@
         <v>15.96</v>
       </c>
       <c r="M250" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10980,7 +10998,7 @@
         <v>9.83</v>
       </c>
       <c r="M251" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -11018,7 +11036,7 @@
         <v>6.63</v>
       </c>
       <c r="M252" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11056,7 +11074,7 @@
         <v>6.15</v>
       </c>
       <c r="M253" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11094,7 +11112,7 @@
         <v>8.66</v>
       </c>
       <c r="M254" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11132,7 +11150,7 @@
         <v>10.09</v>
       </c>
       <c r="M255" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11170,7 +11188,7 @@
         <v>9.73</v>
       </c>
       <c r="M256" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11208,7 +11226,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="M257" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11246,7 +11264,7 @@
         <v>9.25</v>
       </c>
       <c r="M258" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11284,7 +11302,7 @@
         <v>10.64</v>
       </c>
       <c r="M259" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11322,7 +11340,7 @@
         <v>13.53</v>
       </c>
       <c r="M260" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11360,7 +11378,7 @@
         <v>12.66</v>
       </c>
       <c r="M261" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11398,7 +11416,7 @@
         <v>12.04</v>
       </c>
       <c r="M262" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11436,7 +11454,7 @@
         <v>12.75</v>
       </c>
       <c r="M263" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11474,7 +11492,7 @@
         <v>11.91</v>
       </c>
       <c r="M264" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11512,7 +11530,7 @@
         <v>10.03</v>
       </c>
       <c r="M265" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11550,7 +11568,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="M266" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11588,7 +11606,7 @@
         <v>7.36</v>
       </c>
       <c r="M267" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11626,7 +11644,7 @@
         <v>6.97</v>
       </c>
       <c r="M268" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11664,7 +11682,7 @@
         <v>11.24</v>
       </c>
       <c r="M269" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11702,7 +11720,7 @@
         <v>9</v>
       </c>
       <c r="M270" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11740,7 +11758,7 @@
         <v>6.82</v>
       </c>
       <c r="M271" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11778,7 +11796,7 @@
         <v>4.15</v>
       </c>
       <c r="M272" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11816,7 +11834,7 @@
         <v>5.17</v>
       </c>
       <c r="M273" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11854,7 +11872,7 @@
         <v>6.37</v>
       </c>
       <c r="M274" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11892,7 +11910,7 @@
         <v>6.42</v>
       </c>
       <c r="M275" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11930,7 +11948,7 @@
         <v>7.41</v>
       </c>
       <c r="M276" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11968,7 +11986,7 @@
         <v>5.77</v>
       </c>
       <c r="M277" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -12006,7 +12024,7 @@
         <v>5.61</v>
       </c>
       <c r="M278" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -12044,7 +12062,7 @@
         <v>3.76</v>
       </c>
       <c r="M279" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -12085,7 +12103,7 @@
         <v>4.26</v>
       </c>
       <c r="M280" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12123,7 +12141,7 @@
         <v>6.7</v>
       </c>
       <c r="M281" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12161,7 +12179,7 @@
         <v>12.48</v>
       </c>
       <c r="M282" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12199,7 +12217,7 @@
         <v>13.05</v>
       </c>
       <c r="M283" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12237,7 +12255,7 @@
         <v>10.29</v>
       </c>
       <c r="M284" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12275,7 +12293,7 @@
         <v>10.61</v>
       </c>
       <c r="M285" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12313,7 +12331,7 @@
         <v>10.14</v>
       </c>
       <c r="M286" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12351,7 +12369,7 @@
         <v>13.1</v>
       </c>
       <c r="M287" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12389,7 +12407,7 @@
         <v>11.08</v>
       </c>
       <c r="M288" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12427,7 +12445,7 @@
         <v>10.21</v>
       </c>
       <c r="M289" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12465,7 +12483,7 @@
         <v>10.59</v>
       </c>
       <c r="M290" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12503,7 +12521,7 @@
         <v>10.13</v>
       </c>
       <c r="M291" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12541,7 +12559,7 @@
         <v>9.18</v>
       </c>
       <c r="M292" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12579,7 +12597,7 @@
         <v>8.92</v>
       </c>
       <c r="M293" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12617,7 +12635,7 @@
         <v>8.16</v>
       </c>
       <c r="M294" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12655,7 +12673,7 @@
         <v>9.41</v>
       </c>
       <c r="M295" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12693,7 +12711,7 @@
         <v>9.02</v>
       </c>
       <c r="M296" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12731,7 +12749,7 @@
         <v>8.68</v>
       </c>
       <c r="M297" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12769,7 +12787,7 @@
         <v>10.54</v>
       </c>
       <c r="M298" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12807,7 +12825,7 @@
         <v>8.23</v>
       </c>
       <c r="M299" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12845,7 +12863,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M300" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -12883,7 +12901,7 @@
         <v>11.75</v>
       </c>
       <c r="M301" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -12921,7 +12939,7 @@
         <v>8.94</v>
       </c>
       <c r="M302" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -12959,7 +12977,7 @@
         <v>9</v>
       </c>
       <c r="M303" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -12997,7 +13015,7 @@
         <v>8.24</v>
       </c>
       <c r="M304" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -13035,7 +13053,7 @@
         <v>9.02</v>
       </c>
       <c r="M305" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -13073,7 +13091,7 @@
         <v>5.55</v>
       </c>
       <c r="M306" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -13111,7 +13129,7 @@
         <v>7.78</v>
       </c>
       <c r="M307" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -13152,7 +13170,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="M308" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -13193,7 +13211,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="M309" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -13231,7 +13249,7 @@
         <v>9</v>
       </c>
       <c r="M310" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -13269,7 +13287,7 @@
         <v>10.16</v>
       </c>
       <c r="M311" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -13307,7 +13325,7 @@
         <v>7.58</v>
       </c>
       <c r="M312" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -13345,7 +13363,7 @@
         <v>6.52</v>
       </c>
       <c r="M313" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -13383,7 +13401,7 @@
         <v>5.33</v>
       </c>
       <c r="M314" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -13421,7 +13439,235 @@
         <v>2.04</v>
       </c>
       <c r="M315" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
         <v>326</v>
+      </c>
+      <c r="C316">
+        <v>11.29</v>
+      </c>
+      <c r="D316">
+        <v>91.27</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>21.95</v>
+      </c>
+      <c r="G316">
+        <v>87.36</v>
+      </c>
+      <c r="H316">
+        <v>854.72</v>
+      </c>
+      <c r="I316">
+        <v>20.45</v>
+      </c>
+      <c r="J316">
+        <v>24.7</v>
+      </c>
+      <c r="L316">
+        <v>4.8</v>
+      </c>
+      <c r="M316" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>327</v>
+      </c>
+      <c r="C317">
+        <v>11.34</v>
+      </c>
+      <c r="D317">
+        <v>91.44</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>22</v>
+      </c>
+      <c r="G317">
+        <v>63.41</v>
+      </c>
+      <c r="H317">
+        <v>854.92</v>
+      </c>
+      <c r="I317">
+        <v>20.53</v>
+      </c>
+      <c r="J317">
+        <v>65.06999999999999</v>
+      </c>
+      <c r="L317">
+        <v>4.86</v>
+      </c>
+      <c r="M317" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>328</v>
+      </c>
+      <c r="C318">
+        <v>11.57</v>
+      </c>
+      <c r="D318">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>22.17</v>
+      </c>
+      <c r="G318">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="H318">
+        <v>854.97</v>
+      </c>
+      <c r="I318">
+        <v>20.62</v>
+      </c>
+      <c r="J318">
+        <v>139.87</v>
+      </c>
+      <c r="L318">
+        <v>5.8</v>
+      </c>
+      <c r="M318" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>329</v>
+      </c>
+      <c r="C319">
+        <v>11.97</v>
+      </c>
+      <c r="D319">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>22.31</v>
+      </c>
+      <c r="G319">
+        <v>74.04000000000001</v>
+      </c>
+      <c r="H319">
+        <v>855.17</v>
+      </c>
+      <c r="I319">
+        <v>20.58</v>
+      </c>
+      <c r="J319">
+        <v>198.22</v>
+      </c>
+      <c r="L319">
+        <v>5.8</v>
+      </c>
+      <c r="M319" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>330</v>
+      </c>
+      <c r="C320">
+        <v>12.05</v>
+      </c>
+      <c r="D320">
+        <v>88.06</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>22.44</v>
+      </c>
+      <c r="G320">
+        <v>69.33</v>
+      </c>
+      <c r="H320">
+        <v>855.2</v>
+      </c>
+      <c r="I320">
+        <v>20.36</v>
+      </c>
+      <c r="J320">
+        <v>173.55</v>
+      </c>
+      <c r="L320">
+        <v>5.63</v>
+      </c>
+      <c r="M320" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>331</v>
+      </c>
+      <c r="C321">
+        <v>11.9</v>
+      </c>
+      <c r="D321">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>22.4</v>
+      </c>
+      <c r="G321">
+        <v>108.44</v>
+      </c>
+      <c r="H321">
+        <v>855.37</v>
+      </c>
+      <c r="I321">
+        <v>19.99</v>
+      </c>
+      <c r="J321">
+        <v>110.17</v>
+      </c>
+      <c r="L321">
+        <v>5.65</v>
+      </c>
+      <c r="M321" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="340">
   <si>
     <t>Fecha</t>
   </si>
@@ -1010,6 +1010,27 @@
   </si>
   <si>
     <t>11/9/2020 7:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:30:00 AM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1370,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M321"/>
+  <dimension ref="A1:M328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1452,7 +1473,7 @@
         <v>8.77</v>
       </c>
       <c r="M2" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1493,7 +1514,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="M3" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1534,7 +1555,7 @@
         <v>7.13</v>
       </c>
       <c r="M4" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1575,7 +1596,7 @@
         <v>4.17</v>
       </c>
       <c r="M5" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1616,7 +1637,7 @@
         <v>2.88</v>
       </c>
       <c r="M6" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1657,7 +1678,7 @@
         <v>3.58</v>
       </c>
       <c r="M7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1698,7 +1719,7 @@
         <v>2.6</v>
       </c>
       <c r="M8" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1739,7 +1760,7 @@
         <v>3.58</v>
       </c>
       <c r="M9" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1780,7 +1801,7 @@
         <v>4.42</v>
       </c>
       <c r="M10" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1821,7 +1842,7 @@
         <v>2.73</v>
       </c>
       <c r="M11" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1862,7 +1883,7 @@
         <v>3.65</v>
       </c>
       <c r="M12" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1903,7 +1924,7 @@
         <v>2.51</v>
       </c>
       <c r="M13" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1944,7 +1965,7 @@
         <v>4.05</v>
       </c>
       <c r="M14" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1985,7 +2006,7 @@
         <v>3.9</v>
       </c>
       <c r="M15" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2026,7 +2047,7 @@
         <v>2.11</v>
       </c>
       <c r="M16" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2067,7 +2088,7 @@
         <v>2.31</v>
       </c>
       <c r="M17" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2108,7 +2129,7 @@
         <v>4.49</v>
       </c>
       <c r="M18" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2149,7 +2170,7 @@
         <v>4.15</v>
       </c>
       <c r="M19" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2190,7 +2211,7 @@
         <v>2.28</v>
       </c>
       <c r="M20" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2231,7 +2252,7 @@
         <v>3.02</v>
       </c>
       <c r="M21" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2272,7 +2293,7 @@
         <v>2.46</v>
       </c>
       <c r="M22" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2310,7 +2331,7 @@
         <v>1.82</v>
       </c>
       <c r="M23" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2351,7 +2372,7 @@
         <v>5.56</v>
       </c>
       <c r="M24" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2389,7 +2410,7 @@
         <v>6.98</v>
       </c>
       <c r="M25" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2427,7 +2448,7 @@
         <v>9.31</v>
       </c>
       <c r="M26" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2468,7 +2489,7 @@
         <v>5.73</v>
       </c>
       <c r="M27" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2506,7 +2527,7 @@
         <v>3.69</v>
       </c>
       <c r="M28" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2544,7 +2565,7 @@
         <v>3.27</v>
       </c>
       <c r="M29" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2582,7 +2603,7 @@
         <v>5.62</v>
       </c>
       <c r="M30" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2620,7 +2641,7 @@
         <v>7.55</v>
       </c>
       <c r="M31" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2658,7 +2679,7 @@
         <v>9.52</v>
       </c>
       <c r="M32" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2696,7 +2717,7 @@
         <v>7.88</v>
       </c>
       <c r="M33" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2734,7 +2755,7 @@
         <v>8.01</v>
       </c>
       <c r="M34" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2772,7 +2793,7 @@
         <v>8.74</v>
       </c>
       <c r="M35" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2810,7 +2831,7 @@
         <v>9.76</v>
       </c>
       <c r="M36" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2848,7 +2869,7 @@
         <v>15.26</v>
       </c>
       <c r="M37" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2886,7 +2907,7 @@
         <v>17.68</v>
       </c>
       <c r="M38" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2924,7 +2945,7 @@
         <v>15.95</v>
       </c>
       <c r="M39" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2962,7 +2983,7 @@
         <v>17.28</v>
       </c>
       <c r="M40" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3000,7 +3021,7 @@
         <v>17.27</v>
       </c>
       <c r="M41" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3038,7 +3059,7 @@
         <v>15.2</v>
       </c>
       <c r="M42" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3076,7 +3097,7 @@
         <v>16.27</v>
       </c>
       <c r="M43" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3114,7 +3135,7 @@
         <v>17.15</v>
       </c>
       <c r="M44" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3152,7 +3173,7 @@
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3190,7 +3211,7 @@
         <v>21.18</v>
       </c>
       <c r="M46" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3228,7 +3249,7 @@
         <v>19.03</v>
       </c>
       <c r="M47" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3266,7 +3287,7 @@
         <v>18.57</v>
       </c>
       <c r="M48" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3304,7 +3325,7 @@
         <v>21.15</v>
       </c>
       <c r="M49" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3342,7 +3363,7 @@
         <v>18.54</v>
       </c>
       <c r="M50" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3380,7 +3401,7 @@
         <v>18.7</v>
       </c>
       <c r="M51" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3418,7 +3439,7 @@
         <v>17.39</v>
       </c>
       <c r="M52" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3456,7 +3477,7 @@
         <v>16.37</v>
       </c>
       <c r="M53" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3494,7 +3515,7 @@
         <v>15.89</v>
       </c>
       <c r="M54" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3532,7 +3553,7 @@
         <v>17.35</v>
       </c>
       <c r="M55" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3570,7 +3591,7 @@
         <v>15.33</v>
       </c>
       <c r="M56" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3608,7 +3629,7 @@
         <v>13.97</v>
       </c>
       <c r="M57" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3646,7 +3667,7 @@
         <v>19.23</v>
       </c>
       <c r="M58" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3684,7 +3705,7 @@
         <v>16.43</v>
       </c>
       <c r="M59" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3722,7 +3743,7 @@
         <v>17.54</v>
       </c>
       <c r="M60" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3760,7 +3781,7 @@
         <v>18.1</v>
       </c>
       <c r="M61" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3798,7 +3819,7 @@
         <v>17.67</v>
       </c>
       <c r="M62" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3836,7 +3857,7 @@
         <v>14.99</v>
       </c>
       <c r="M63" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3874,7 +3895,7 @@
         <v>17.31</v>
       </c>
       <c r="M64" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3912,7 +3933,7 @@
         <v>19.12</v>
       </c>
       <c r="M65" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3950,7 +3971,7 @@
         <v>15.23</v>
       </c>
       <c r="M66" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3988,7 +4009,7 @@
         <v>13.71</v>
       </c>
       <c r="M67" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4026,7 +4047,7 @@
         <v>16.9</v>
       </c>
       <c r="M68" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4064,7 +4085,7 @@
         <v>18.84</v>
       </c>
       <c r="M69" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4102,7 +4123,7 @@
         <v>16.48</v>
       </c>
       <c r="M70" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4140,7 +4161,7 @@
         <v>13.14</v>
       </c>
       <c r="M71" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4178,7 +4199,7 @@
         <v>14.3</v>
       </c>
       <c r="M72" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4216,7 +4237,7 @@
         <v>11.4</v>
       </c>
       <c r="M73" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4254,7 +4275,7 @@
         <v>12.74</v>
       </c>
       <c r="M74" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4292,7 +4313,7 @@
         <v>12.52</v>
       </c>
       <c r="M75" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4330,7 +4351,7 @@
         <v>9.6</v>
       </c>
       <c r="M76" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4368,7 +4389,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M77" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4406,7 +4427,7 @@
         <v>6.73</v>
       </c>
       <c r="M78" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4444,7 +4465,7 @@
         <v>6.96</v>
       </c>
       <c r="M79" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4482,7 +4503,7 @@
         <v>7.33</v>
       </c>
       <c r="M80" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4520,7 +4541,7 @@
         <v>6.53</v>
       </c>
       <c r="M81" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4558,7 +4579,7 @@
         <v>7.43</v>
       </c>
       <c r="M82" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4596,7 +4617,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="M83" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4634,7 +4655,7 @@
         <v>11.35</v>
       </c>
       <c r="M84" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4672,7 +4693,7 @@
         <v>11.74</v>
       </c>
       <c r="M85" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4710,7 +4731,7 @@
         <v>11.87</v>
       </c>
       <c r="M86" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4748,7 +4769,7 @@
         <v>8.75</v>
       </c>
       <c r="M87" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4786,7 +4807,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M88" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4824,7 +4845,7 @@
         <v>7.68</v>
       </c>
       <c r="M89" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4862,7 +4883,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="M90" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4900,7 +4921,7 @@
         <v>11.39</v>
       </c>
       <c r="M91" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4938,7 +4959,7 @@
         <v>11.45</v>
       </c>
       <c r="M92" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4976,7 +4997,7 @@
         <v>15.19</v>
       </c>
       <c r="M93" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -5014,7 +5035,7 @@
         <v>14.09</v>
       </c>
       <c r="M94" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -5052,7 +5073,7 @@
         <v>11.47</v>
       </c>
       <c r="M95" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5090,7 +5111,7 @@
         <v>10.17</v>
       </c>
       <c r="M96" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5128,7 +5149,7 @@
         <v>10.46</v>
       </c>
       <c r="M97" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5166,7 +5187,7 @@
         <v>9.82</v>
       </c>
       <c r="M98" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5204,7 +5225,7 @@
         <v>9.99</v>
       </c>
       <c r="M99" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5242,7 +5263,7 @@
         <v>11.7</v>
       </c>
       <c r="M100" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5280,7 +5301,7 @@
         <v>11.51</v>
       </c>
       <c r="M101" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5318,7 +5339,7 @@
         <v>11.35</v>
       </c>
       <c r="M102" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5356,7 +5377,7 @@
         <v>11.37</v>
       </c>
       <c r="M103" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5394,7 +5415,7 @@
         <v>12.25</v>
       </c>
       <c r="M104" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5432,7 +5453,7 @@
         <v>12.5</v>
       </c>
       <c r="M105" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5470,7 +5491,7 @@
         <v>10.24</v>
       </c>
       <c r="M106" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5508,7 +5529,7 @@
         <v>12.09</v>
       </c>
       <c r="M107" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5549,7 +5570,7 @@
         <v>12.37</v>
       </c>
       <c r="M108" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5587,7 +5608,7 @@
         <v>11.1</v>
       </c>
       <c r="M109" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5625,7 +5646,7 @@
         <v>11.22</v>
       </c>
       <c r="M110" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5663,7 +5684,7 @@
         <v>11.94</v>
       </c>
       <c r="M111" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5701,7 +5722,7 @@
         <v>11.61</v>
       </c>
       <c r="M112" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5739,7 +5760,7 @@
         <v>11.98</v>
       </c>
       <c r="M113" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5777,7 +5798,7 @@
         <v>11.61</v>
       </c>
       <c r="M114" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5815,7 +5836,7 @@
         <v>13.44</v>
       </c>
       <c r="M115" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5853,7 +5874,7 @@
         <v>12.07</v>
       </c>
       <c r="M116" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5891,7 +5912,7 @@
         <v>12.13</v>
       </c>
       <c r="M117" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5929,7 +5950,7 @@
         <v>13.82</v>
       </c>
       <c r="M118" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5967,7 +5988,7 @@
         <v>15.09</v>
       </c>
       <c r="M119" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -6005,7 +6026,7 @@
         <v>14.97</v>
       </c>
       <c r="M120" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -6043,7 +6064,7 @@
         <v>15.22</v>
       </c>
       <c r="M121" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6081,7 +6102,7 @@
         <v>16.21</v>
       </c>
       <c r="M122" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6119,7 +6140,7 @@
         <v>15.85</v>
       </c>
       <c r="M123" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6157,7 +6178,7 @@
         <v>13.56</v>
       </c>
       <c r="M124" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6195,7 +6216,7 @@
         <v>12.19</v>
       </c>
       <c r="M125" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6233,7 +6254,7 @@
         <v>12.7</v>
       </c>
       <c r="M126" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6271,7 +6292,7 @@
         <v>13.54</v>
       </c>
       <c r="M127" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6309,7 +6330,7 @@
         <v>13.51</v>
       </c>
       <c r="M128" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6347,7 +6368,7 @@
         <v>14.09</v>
       </c>
       <c r="M129" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6385,7 +6406,7 @@
         <v>17.15</v>
       </c>
       <c r="M130" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6423,7 +6444,7 @@
         <v>17.77</v>
       </c>
       <c r="M131" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6461,7 +6482,7 @@
         <v>19.98</v>
       </c>
       <c r="M132" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6499,7 +6520,7 @@
         <v>23</v>
       </c>
       <c r="M133" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6537,7 +6558,7 @@
         <v>24.42</v>
       </c>
       <c r="M134" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6575,7 +6596,7 @@
         <v>26.56</v>
       </c>
       <c r="M135" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6613,7 +6634,7 @@
         <v>25.33</v>
       </c>
       <c r="M136" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6651,7 +6672,7 @@
         <v>25.03</v>
       </c>
       <c r="M137" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6689,7 +6710,7 @@
         <v>25.72</v>
       </c>
       <c r="M138" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6727,7 +6748,7 @@
         <v>27.06</v>
       </c>
       <c r="M139" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6765,7 +6786,7 @@
         <v>26.1</v>
       </c>
       <c r="M140" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6803,7 +6824,7 @@
         <v>26.46</v>
       </c>
       <c r="M141" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6841,7 +6862,7 @@
         <v>27.69</v>
       </c>
       <c r="M142" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6879,7 +6900,7 @@
         <v>26.86</v>
       </c>
       <c r="M143" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6917,7 +6938,7 @@
         <v>23.44</v>
       </c>
       <c r="M144" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6955,7 +6976,7 @@
         <v>25.35</v>
       </c>
       <c r="M145" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6993,7 +7014,7 @@
         <v>22.88</v>
       </c>
       <c r="M146" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -7031,7 +7052,7 @@
         <v>20.1</v>
       </c>
       <c r="M147" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7069,7 +7090,7 @@
         <v>20.24</v>
       </c>
       <c r="M148" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7107,7 +7128,7 @@
         <v>21.87</v>
       </c>
       <c r="M149" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7145,7 +7166,7 @@
         <v>23.59</v>
       </c>
       <c r="M150" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7183,7 +7204,7 @@
         <v>23.43</v>
       </c>
       <c r="M151" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7221,7 +7242,7 @@
         <v>23.74</v>
       </c>
       <c r="M152" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7259,7 +7280,7 @@
         <v>21.77</v>
       </c>
       <c r="M153" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7297,7 +7318,7 @@
         <v>23.42</v>
       </c>
       <c r="M154" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7335,7 +7356,7 @@
         <v>20.39</v>
       </c>
       <c r="M155" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7373,7 +7394,7 @@
         <v>19.13</v>
       </c>
       <c r="M156" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7411,7 +7432,7 @@
         <v>20.75</v>
       </c>
       <c r="M157" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7449,7 +7470,7 @@
         <v>19.58</v>
       </c>
       <c r="M158" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7487,7 +7508,7 @@
         <v>18.9</v>
       </c>
       <c r="M159" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7525,7 +7546,7 @@
         <v>21</v>
       </c>
       <c r="M160" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7563,7 +7584,7 @@
         <v>19.41</v>
       </c>
       <c r="M161" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7601,7 +7622,7 @@
         <v>20.69</v>
       </c>
       <c r="M162" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7639,7 +7660,7 @@
         <v>21.27</v>
       </c>
       <c r="M163" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7677,7 +7698,7 @@
         <v>19.51</v>
       </c>
       <c r="M164" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7715,7 +7736,7 @@
         <v>20.33</v>
       </c>
       <c r="M165" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7753,7 +7774,7 @@
         <v>17.72</v>
       </c>
       <c r="M166" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7791,7 +7812,7 @@
         <v>12.78</v>
       </c>
       <c r="M167" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7829,7 +7850,7 @@
         <v>13.5</v>
       </c>
       <c r="M168" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7867,7 +7888,7 @@
         <v>13.49</v>
       </c>
       <c r="M169" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7905,7 +7926,7 @@
         <v>14.7</v>
       </c>
       <c r="M170" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7943,7 +7964,7 @@
         <v>14.64</v>
       </c>
       <c r="M171" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7981,7 +8002,7 @@
         <v>15.31</v>
       </c>
       <c r="M172" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -8019,7 +8040,7 @@
         <v>16.97</v>
       </c>
       <c r="M173" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8057,7 +8078,7 @@
         <v>15.28</v>
       </c>
       <c r="M174" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8095,7 +8116,7 @@
         <v>13.02</v>
       </c>
       <c r="M175" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8133,7 +8154,7 @@
         <v>14.76</v>
       </c>
       <c r="M176" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8171,7 +8192,7 @@
         <v>14.52</v>
       </c>
       <c r="M177" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8209,7 +8230,7 @@
         <v>17.7</v>
       </c>
       <c r="M178" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8247,7 +8268,7 @@
         <v>16.52</v>
       </c>
       <c r="M179" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8285,7 +8306,7 @@
         <v>15</v>
       </c>
       <c r="M180" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8323,7 +8344,7 @@
         <v>16.97</v>
       </c>
       <c r="M181" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8361,7 +8382,7 @@
         <v>17.58</v>
       </c>
       <c r="M182" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8399,7 +8420,7 @@
         <v>16.69</v>
       </c>
       <c r="M183" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8437,7 +8458,7 @@
         <v>15.06</v>
       </c>
       <c r="M184" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8475,7 +8496,7 @@
         <v>15.19</v>
       </c>
       <c r="M185" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8513,7 +8534,7 @@
         <v>13.82</v>
       </c>
       <c r="M186" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8551,7 +8572,7 @@
         <v>13.7</v>
       </c>
       <c r="M187" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8589,7 +8610,7 @@
         <v>13.59</v>
       </c>
       <c r="M188" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8627,7 +8648,7 @@
         <v>13.54</v>
       </c>
       <c r="M189" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8665,7 +8686,7 @@
         <v>13.04</v>
       </c>
       <c r="M190" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8703,7 +8724,7 @@
         <v>11.36</v>
       </c>
       <c r="M191" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8741,7 +8762,7 @@
         <v>13.98</v>
       </c>
       <c r="M192" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8779,7 +8800,7 @@
         <v>14.01</v>
       </c>
       <c r="M193" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8817,7 +8838,7 @@
         <v>12.03</v>
       </c>
       <c r="M194" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8858,7 +8879,7 @@
         <v>12.94</v>
       </c>
       <c r="M195" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8896,7 +8917,7 @@
         <v>12.34</v>
       </c>
       <c r="M196" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8934,7 +8955,7 @@
         <v>11.72</v>
       </c>
       <c r="M197" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8975,7 +8996,7 @@
         <v>11.59</v>
       </c>
       <c r="M198" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -9013,7 +9034,7 @@
         <v>11.57</v>
       </c>
       <c r="M199" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -9051,7 +9072,7 @@
         <v>12.27</v>
       </c>
       <c r="M200" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -9089,7 +9110,7 @@
         <v>12.5</v>
       </c>
       <c r="M201" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9127,7 +9148,7 @@
         <v>12.93</v>
       </c>
       <c r="M202" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9165,7 +9186,7 @@
         <v>12.87</v>
       </c>
       <c r="M203" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9203,7 +9224,7 @@
         <v>12.03</v>
       </c>
       <c r="M204" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9241,7 +9262,7 @@
         <v>10.3</v>
       </c>
       <c r="M205" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9279,7 +9300,7 @@
         <v>12.12</v>
       </c>
       <c r="M206" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9317,7 +9338,7 @@
         <v>12.2</v>
       </c>
       <c r="M207" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9358,7 +9379,7 @@
         <v>11.37</v>
       </c>
       <c r="M208" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9399,7 +9420,7 @@
         <v>11.01</v>
       </c>
       <c r="M209" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9437,7 +9458,7 @@
         <v>10.88</v>
       </c>
       <c r="M210" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9475,7 +9496,7 @@
         <v>10.46</v>
       </c>
       <c r="M211" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9513,7 +9534,7 @@
         <v>10.35</v>
       </c>
       <c r="M212" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9551,7 +9572,7 @@
         <v>10.56</v>
       </c>
       <c r="M213" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9592,7 +9613,7 @@
         <v>11.16</v>
       </c>
       <c r="M214" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9630,7 +9651,7 @@
         <v>12.25</v>
       </c>
       <c r="M215" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9668,7 +9689,7 @@
         <v>11.5</v>
       </c>
       <c r="M216" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9706,7 +9727,7 @@
         <v>10.44</v>
       </c>
       <c r="M217" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9744,7 +9765,7 @@
         <v>9.9</v>
       </c>
       <c r="M218" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9782,7 +9803,7 @@
         <v>10.6</v>
       </c>
       <c r="M219" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9820,7 +9841,7 @@
         <v>11.42</v>
       </c>
       <c r="M220" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9858,7 +9879,7 @@
         <v>10.98</v>
       </c>
       <c r="M221" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9896,7 +9917,7 @@
         <v>12.21</v>
       </c>
       <c r="M222" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9934,7 +9955,7 @@
         <v>11.61</v>
       </c>
       <c r="M223" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9972,7 +9993,7 @@
         <v>12.36</v>
       </c>
       <c r="M224" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -10010,7 +10031,7 @@
         <v>15.85</v>
       </c>
       <c r="M225" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -10048,7 +10069,7 @@
         <v>16.77</v>
       </c>
       <c r="M226" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10086,7 +10107,7 @@
         <v>16.58</v>
       </c>
       <c r="M227" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10124,7 +10145,7 @@
         <v>13.55</v>
       </c>
       <c r="M228" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10162,7 +10183,7 @@
         <v>13.84</v>
       </c>
       <c r="M229" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10200,7 +10221,7 @@
         <v>16.53</v>
       </c>
       <c r="M230" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10238,7 +10259,7 @@
         <v>16.39</v>
       </c>
       <c r="M231" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10276,7 +10297,7 @@
         <v>15.24</v>
       </c>
       <c r="M232" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10314,7 +10335,7 @@
         <v>13.89</v>
       </c>
       <c r="M233" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10352,7 +10373,7 @@
         <v>11.87</v>
       </c>
       <c r="M234" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10390,7 +10411,7 @@
         <v>12.06</v>
       </c>
       <c r="M235" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10428,7 +10449,7 @@
         <v>12.7</v>
       </c>
       <c r="M236" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10466,7 +10487,7 @@
         <v>12.69</v>
       </c>
       <c r="M237" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10504,7 +10525,7 @@
         <v>11.23</v>
       </c>
       <c r="M238" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10542,7 +10563,7 @@
         <v>10.31</v>
       </c>
       <c r="M239" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10580,7 +10601,7 @@
         <v>7.02</v>
       </c>
       <c r="M240" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10618,7 +10639,7 @@
         <v>7.15</v>
       </c>
       <c r="M241" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10656,7 +10677,7 @@
         <v>12.57</v>
       </c>
       <c r="M242" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10694,7 +10715,7 @@
         <v>9.27</v>
       </c>
       <c r="M243" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10732,7 +10753,7 @@
         <v>8.19</v>
       </c>
       <c r="M244" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10770,7 +10791,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="M245" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10808,7 +10829,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="M246" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10846,7 +10867,7 @@
         <v>10.35</v>
       </c>
       <c r="M247" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10884,7 +10905,7 @@
         <v>16.13</v>
       </c>
       <c r="M248" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10922,7 +10943,7 @@
         <v>16.43</v>
       </c>
       <c r="M249" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10960,7 +10981,7 @@
         <v>15.96</v>
       </c>
       <c r="M250" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10998,7 +11019,7 @@
         <v>9.83</v>
       </c>
       <c r="M251" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -11036,7 +11057,7 @@
         <v>6.63</v>
       </c>
       <c r="M252" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11074,7 +11095,7 @@
         <v>6.15</v>
       </c>
       <c r="M253" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11112,7 +11133,7 @@
         <v>8.66</v>
       </c>
       <c r="M254" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11150,7 +11171,7 @@
         <v>10.09</v>
       </c>
       <c r="M255" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11188,7 +11209,7 @@
         <v>9.73</v>
       </c>
       <c r="M256" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11226,7 +11247,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="M257" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11264,7 +11285,7 @@
         <v>9.25</v>
       </c>
       <c r="M258" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11302,7 +11323,7 @@
         <v>10.64</v>
       </c>
       <c r="M259" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11340,7 +11361,7 @@
         <v>13.53</v>
       </c>
       <c r="M260" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11378,7 +11399,7 @@
         <v>12.66</v>
       </c>
       <c r="M261" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11416,7 +11437,7 @@
         <v>12.04</v>
       </c>
       <c r="M262" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11454,7 +11475,7 @@
         <v>12.75</v>
       </c>
       <c r="M263" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11492,7 +11513,7 @@
         <v>11.91</v>
       </c>
       <c r="M264" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11530,7 +11551,7 @@
         <v>10.03</v>
       </c>
       <c r="M265" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11568,7 +11589,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="M266" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11606,7 +11627,7 @@
         <v>7.36</v>
       </c>
       <c r="M267" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11644,7 +11665,7 @@
         <v>6.97</v>
       </c>
       <c r="M268" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11682,7 +11703,7 @@
         <v>11.24</v>
       </c>
       <c r="M269" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11720,7 +11741,7 @@
         <v>9</v>
       </c>
       <c r="M270" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11758,7 +11779,7 @@
         <v>6.82</v>
       </c>
       <c r="M271" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11796,7 +11817,7 @@
         <v>4.15</v>
       </c>
       <c r="M272" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11834,7 +11855,7 @@
         <v>5.17</v>
       </c>
       <c r="M273" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11872,7 +11893,7 @@
         <v>6.37</v>
       </c>
       <c r="M274" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11910,7 +11931,7 @@
         <v>6.42</v>
       </c>
       <c r="M275" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11948,7 +11969,7 @@
         <v>7.41</v>
       </c>
       <c r="M276" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11986,7 +12007,7 @@
         <v>5.77</v>
       </c>
       <c r="M277" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -12024,7 +12045,7 @@
         <v>5.61</v>
       </c>
       <c r="M278" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -12062,7 +12083,7 @@
         <v>3.76</v>
       </c>
       <c r="M279" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -12103,7 +12124,7 @@
         <v>4.26</v>
       </c>
       <c r="M280" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12141,7 +12162,7 @@
         <v>6.7</v>
       </c>
       <c r="M281" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12179,7 +12200,7 @@
         <v>12.48</v>
       </c>
       <c r="M282" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12217,7 +12238,7 @@
         <v>13.05</v>
       </c>
       <c r="M283" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12255,7 +12276,7 @@
         <v>10.29</v>
       </c>
       <c r="M284" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12293,7 +12314,7 @@
         <v>10.61</v>
       </c>
       <c r="M285" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12331,7 +12352,7 @@
         <v>10.14</v>
       </c>
       <c r="M286" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12369,7 +12390,7 @@
         <v>13.1</v>
       </c>
       <c r="M287" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12407,7 +12428,7 @@
         <v>11.08</v>
       </c>
       <c r="M288" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12445,7 +12466,7 @@
         <v>10.21</v>
       </c>
       <c r="M289" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12483,7 +12504,7 @@
         <v>10.59</v>
       </c>
       <c r="M290" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12521,7 +12542,7 @@
         <v>10.13</v>
       </c>
       <c r="M291" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12559,7 +12580,7 @@
         <v>9.18</v>
       </c>
       <c r="M292" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12597,7 +12618,7 @@
         <v>8.92</v>
       </c>
       <c r="M293" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12635,7 +12656,7 @@
         <v>8.16</v>
       </c>
       <c r="M294" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12673,7 +12694,7 @@
         <v>9.41</v>
       </c>
       <c r="M295" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12711,7 +12732,7 @@
         <v>9.02</v>
       </c>
       <c r="M296" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12749,7 +12770,7 @@
         <v>8.68</v>
       </c>
       <c r="M297" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12787,7 +12808,7 @@
         <v>10.54</v>
       </c>
       <c r="M298" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12825,7 +12846,7 @@
         <v>8.23</v>
       </c>
       <c r="M299" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12863,7 +12884,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M300" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -12901,7 +12922,7 @@
         <v>11.75</v>
       </c>
       <c r="M301" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -12939,7 +12960,7 @@
         <v>8.94</v>
       </c>
       <c r="M302" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -12977,7 +12998,7 @@
         <v>9</v>
       </c>
       <c r="M303" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -13015,7 +13036,7 @@
         <v>8.24</v>
       </c>
       <c r="M304" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -13053,7 +13074,7 @@
         <v>9.02</v>
       </c>
       <c r="M305" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -13091,7 +13112,7 @@
         <v>5.55</v>
       </c>
       <c r="M306" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -13129,7 +13150,7 @@
         <v>7.78</v>
       </c>
       <c r="M307" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -13170,7 +13191,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="M308" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -13211,7 +13232,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="M309" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -13249,7 +13270,7 @@
         <v>9</v>
       </c>
       <c r="M310" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -13287,7 +13308,7 @@
         <v>10.16</v>
       </c>
       <c r="M311" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -13325,7 +13346,7 @@
         <v>7.58</v>
       </c>
       <c r="M312" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -13363,7 +13384,7 @@
         <v>6.52</v>
       </c>
       <c r="M313" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -13401,7 +13422,7 @@
         <v>5.33</v>
       </c>
       <c r="M314" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -13439,7 +13460,7 @@
         <v>2.04</v>
       </c>
       <c r="M315" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -13477,7 +13498,7 @@
         <v>4.8</v>
       </c>
       <c r="M316" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -13515,7 +13536,7 @@
         <v>4.86</v>
       </c>
       <c r="M317" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -13553,7 +13574,7 @@
         <v>5.8</v>
       </c>
       <c r="M318" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -13591,7 +13612,7 @@
         <v>5.8</v>
       </c>
       <c r="M319" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -13629,7 +13650,7 @@
         <v>5.63</v>
       </c>
       <c r="M320" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="321" spans="1:13">
@@ -13667,7 +13688,270 @@
         <v>5.65</v>
       </c>
       <c r="M321" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
         <v>332</v>
+      </c>
+      <c r="C322">
+        <v>11.94</v>
+      </c>
+      <c r="D322">
+        <v>84.45999999999999</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>22.48</v>
+      </c>
+      <c r="G322">
+        <v>75.27</v>
+      </c>
+      <c r="H322">
+        <v>855.61</v>
+      </c>
+      <c r="I322">
+        <v>19.71</v>
+      </c>
+      <c r="J322">
+        <v>128.81</v>
+      </c>
+      <c r="L322">
+        <v>3.93</v>
+      </c>
+      <c r="M322" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>333</v>
+      </c>
+      <c r="C323">
+        <v>12.22</v>
+      </c>
+      <c r="D323">
+        <v>82.33</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>22.74</v>
+      </c>
+      <c r="G323">
+        <v>314.36</v>
+      </c>
+      <c r="H323">
+        <v>855.62</v>
+      </c>
+      <c r="I323">
+        <v>19.55</v>
+      </c>
+      <c r="J323">
+        <v>196.11</v>
+      </c>
+      <c r="L323">
+        <v>2.23</v>
+      </c>
+      <c r="M323" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>334</v>
+      </c>
+      <c r="C324">
+        <v>12.33</v>
+      </c>
+      <c r="D324">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>22.97</v>
+      </c>
+      <c r="G324">
+        <v>51.98</v>
+      </c>
+      <c r="H324">
+        <v>855.64</v>
+      </c>
+      <c r="I324">
+        <v>19.32</v>
+      </c>
+      <c r="J324">
+        <v>250.14</v>
+      </c>
+      <c r="L324">
+        <v>1.59</v>
+      </c>
+      <c r="M324" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>335</v>
+      </c>
+      <c r="C325">
+        <v>13.42</v>
+      </c>
+      <c r="D325">
+        <v>74.73</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>23.75</v>
+      </c>
+      <c r="G325">
+        <v>136.75</v>
+      </c>
+      <c r="H325">
+        <v>855.88</v>
+      </c>
+      <c r="I325">
+        <v>18.97</v>
+      </c>
+      <c r="J325">
+        <v>511.43</v>
+      </c>
+      <c r="L325">
+        <v>3.18</v>
+      </c>
+      <c r="M325" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>336</v>
+      </c>
+      <c r="C326">
+        <v>13.28</v>
+      </c>
+      <c r="D326">
+        <v>71.09</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>23.94</v>
+      </c>
+      <c r="G326">
+        <v>141.85</v>
+      </c>
+      <c r="H326">
+        <v>855.9299999999999</v>
+      </c>
+      <c r="I326">
+        <v>18.36</v>
+      </c>
+      <c r="J326">
+        <v>530.72</v>
+      </c>
+      <c r="L326">
+        <v>4.58</v>
+      </c>
+      <c r="M326" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>337</v>
+      </c>
+      <c r="C327">
+        <v>12.96</v>
+      </c>
+      <c r="D327">
+        <v>69.11</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>24.06</v>
+      </c>
+      <c r="G327">
+        <v>117.17</v>
+      </c>
+      <c r="H327">
+        <v>855.95</v>
+      </c>
+      <c r="I327">
+        <v>18.02</v>
+      </c>
+      <c r="J327">
+        <v>485.42</v>
+      </c>
+      <c r="L327">
+        <v>4.46</v>
+      </c>
+      <c r="M327" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>338</v>
+      </c>
+      <c r="D328">
+        <v>71.01000000000001</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>23.98</v>
+      </c>
+      <c r="G328">
+        <v>160.84</v>
+      </c>
+      <c r="H328">
+        <v>855.98</v>
+      </c>
+      <c r="I328">
+        <v>18.37</v>
+      </c>
+      <c r="J328">
+        <v>445.66</v>
+      </c>
+      <c r="L328">
+        <v>5.73</v>
+      </c>
+      <c r="M328" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="373">
   <si>
     <t>Fecha</t>
   </si>
@@ -1124,6 +1124,12 @@
   </si>
   <si>
     <t>11/13/2020 5:15:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:45:00 PM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1484,7 +1490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M359"/>
+  <dimension ref="A1:M361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1563,7 +1569,7 @@
         <v>13.53</v>
       </c>
       <c r="M2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1601,7 +1607,7 @@
         <v>15.41</v>
       </c>
       <c r="M3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1639,7 +1645,7 @@
         <v>13.52</v>
       </c>
       <c r="M4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1677,7 +1683,7 @@
         <v>13.02</v>
       </c>
       <c r="M5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1715,7 +1721,7 @@
         <v>13.23</v>
       </c>
       <c r="M6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1753,7 +1759,7 @@
         <v>12.19</v>
       </c>
       <c r="M7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1791,7 +1797,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="M8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1829,7 +1835,7 @@
         <v>6.79</v>
       </c>
       <c r="M9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1867,7 +1873,7 @@
         <v>10.57</v>
       </c>
       <c r="M10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1905,7 +1911,7 @@
         <v>12.59</v>
       </c>
       <c r="M11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1943,7 +1949,7 @@
         <v>11.46</v>
       </c>
       <c r="M12" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1981,7 +1987,7 @@
         <v>9.94</v>
       </c>
       <c r="M13" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2019,7 +2025,7 @@
         <v>8.84</v>
       </c>
       <c r="M14" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2057,7 +2063,7 @@
         <v>11.66</v>
       </c>
       <c r="M15" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2095,7 +2101,7 @@
         <v>12.31</v>
       </c>
       <c r="M16" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2133,7 +2139,7 @@
         <v>14.99</v>
       </c>
       <c r="M17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2171,7 +2177,7 @@
         <v>14.92</v>
       </c>
       <c r="M18" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2209,7 +2215,7 @@
         <v>12.83</v>
       </c>
       <c r="M19" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2247,7 +2253,7 @@
         <v>16.05</v>
       </c>
       <c r="M20" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2285,7 +2291,7 @@
         <v>10.99</v>
       </c>
       <c r="M21" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2323,7 +2329,7 @@
         <v>11.62</v>
       </c>
       <c r="M22" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2361,7 +2367,7 @@
         <v>13.54</v>
       </c>
       <c r="M23" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2399,7 +2405,7 @@
         <v>11.83</v>
       </c>
       <c r="M24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2437,7 +2443,7 @@
         <v>11.51</v>
       </c>
       <c r="M25" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2475,7 +2481,7 @@
         <v>10.98</v>
       </c>
       <c r="M26" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2513,7 +2519,7 @@
         <v>9.24</v>
       </c>
       <c r="M27" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2551,7 +2557,7 @@
         <v>10.19</v>
       </c>
       <c r="M28" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2592,7 +2598,7 @@
         <v>9.57</v>
       </c>
       <c r="M29" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2630,7 +2636,7 @@
         <v>12.22</v>
       </c>
       <c r="M30" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2668,7 +2674,7 @@
         <v>13.96</v>
       </c>
       <c r="M31" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2706,7 +2712,7 @@
         <v>13.47</v>
       </c>
       <c r="M32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2744,7 +2750,7 @@
         <v>12.07</v>
       </c>
       <c r="M33" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2782,7 +2788,7 @@
         <v>15.06</v>
       </c>
       <c r="M34" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2820,7 +2826,7 @@
         <v>11.79</v>
       </c>
       <c r="M35" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2858,7 +2864,7 @@
         <v>15.2</v>
       </c>
       <c r="M36" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2896,7 +2902,7 @@
         <v>17.48</v>
       </c>
       <c r="M37" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2934,7 +2940,7 @@
         <v>16.74</v>
       </c>
       <c r="M38" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2972,7 +2978,7 @@
         <v>16.64</v>
       </c>
       <c r="M39" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3010,7 +3016,7 @@
         <v>15.16</v>
       </c>
       <c r="M40" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3048,7 +3054,7 @@
         <v>15.72</v>
       </c>
       <c r="M41" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3086,7 +3092,7 @@
         <v>13.35</v>
       </c>
       <c r="M42" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3124,7 +3130,7 @@
         <v>15.79</v>
       </c>
       <c r="M43" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3162,7 +3168,7 @@
         <v>15</v>
       </c>
       <c r="M44" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3200,7 +3206,7 @@
         <v>17.59</v>
       </c>
       <c r="M45" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3238,7 +3244,7 @@
         <v>16.37</v>
       </c>
       <c r="M46" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3276,7 +3282,7 @@
         <v>17.81</v>
       </c>
       <c r="M47" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3314,7 +3320,7 @@
         <v>18.39</v>
       </c>
       <c r="M48" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3352,7 +3358,7 @@
         <v>18.19</v>
       </c>
       <c r="M49" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3390,7 +3396,7 @@
         <v>19.57</v>
       </c>
       <c r="M50" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3428,7 +3434,7 @@
         <v>21.27</v>
       </c>
       <c r="M51" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3466,7 +3472,7 @@
         <v>21.26</v>
       </c>
       <c r="M52" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3504,7 +3510,7 @@
         <v>23.11</v>
       </c>
       <c r="M53" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3542,7 +3548,7 @@
         <v>21.87</v>
       </c>
       <c r="M54" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3580,7 +3586,7 @@
         <v>24.97</v>
       </c>
       <c r="M55" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3618,7 +3624,7 @@
         <v>23.84</v>
       </c>
       <c r="M56" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3656,7 +3662,7 @@
         <v>18.51</v>
       </c>
       <c r="M57" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3694,7 +3700,7 @@
         <v>24.83</v>
       </c>
       <c r="M58" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3732,7 +3738,7 @@
         <v>27.08</v>
       </c>
       <c r="M59" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3770,7 +3776,7 @@
         <v>27.84</v>
       </c>
       <c r="M60" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3808,7 +3814,7 @@
         <v>30.03</v>
       </c>
       <c r="M61" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3846,7 +3852,7 @@
         <v>26.38</v>
       </c>
       <c r="M62" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3884,7 +3890,7 @@
         <v>25.63</v>
       </c>
       <c r="M63" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3922,7 +3928,7 @@
         <v>27.56</v>
       </c>
       <c r="M64" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3960,7 +3966,7 @@
         <v>24.31</v>
       </c>
       <c r="M65" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3998,7 +4004,7 @@
         <v>23.03</v>
       </c>
       <c r="M66" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4036,7 +4042,7 @@
         <v>20.57</v>
       </c>
       <c r="M67" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4074,7 +4080,7 @@
         <v>17.1</v>
       </c>
       <c r="M68" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4112,7 +4118,7 @@
         <v>18.18</v>
       </c>
       <c r="M69" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4150,7 +4156,7 @@
         <v>19.71</v>
       </c>
       <c r="M70" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4188,7 +4194,7 @@
         <v>19.28</v>
       </c>
       <c r="M71" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4226,7 +4232,7 @@
         <v>16.27</v>
       </c>
       <c r="M72" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4264,7 +4270,7 @@
         <v>14.27</v>
       </c>
       <c r="M73" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4302,7 +4308,7 @@
         <v>16.12</v>
       </c>
       <c r="M74" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4340,7 +4346,7 @@
         <v>14.94</v>
       </c>
       <c r="M75" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4378,7 +4384,7 @@
         <v>16.99</v>
       </c>
       <c r="M76" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4416,7 +4422,7 @@
         <v>17.64</v>
       </c>
       <c r="M77" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4454,7 +4460,7 @@
         <v>18.11</v>
       </c>
       <c r="M78" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4492,7 +4498,7 @@
         <v>18.67</v>
       </c>
       <c r="M79" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4530,7 +4536,7 @@
         <v>16.52</v>
       </c>
       <c r="M80" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4568,7 +4574,7 @@
         <v>12.31</v>
       </c>
       <c r="M81" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4606,7 +4612,7 @@
         <v>14.96</v>
       </c>
       <c r="M82" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4644,7 +4650,7 @@
         <v>16.69</v>
       </c>
       <c r="M83" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4682,7 +4688,7 @@
         <v>15.56</v>
       </c>
       <c r="M84" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4720,7 +4726,7 @@
         <v>13.36</v>
       </c>
       <c r="M85" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4758,7 +4764,7 @@
         <v>11.34</v>
       </c>
       <c r="M86" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4796,7 +4802,7 @@
         <v>10.13</v>
       </c>
       <c r="M87" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4834,7 +4840,7 @@
         <v>9.48</v>
       </c>
       <c r="M88" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4872,7 +4878,7 @@
         <v>8.26</v>
       </c>
       <c r="M89" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4910,7 +4916,7 @@
         <v>11</v>
       </c>
       <c r="M90" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4948,7 +4954,7 @@
         <v>10.44</v>
       </c>
       <c r="M91" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4986,7 +4992,7 @@
         <v>9.74</v>
       </c>
       <c r="M92" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -5024,7 +5030,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="M93" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -5062,7 +5068,7 @@
         <v>10.83</v>
       </c>
       <c r="M94" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -5100,7 +5106,7 @@
         <v>12.34</v>
       </c>
       <c r="M95" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5138,7 +5144,7 @@
         <v>11.77</v>
       </c>
       <c r="M96" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5176,7 +5182,7 @@
         <v>14.3</v>
       </c>
       <c r="M97" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5214,7 +5220,7 @@
         <v>12.57</v>
       </c>
       <c r="M98" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5252,7 +5258,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M99" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5290,7 +5296,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="M100" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5328,7 +5334,7 @@
         <v>12.98</v>
       </c>
       <c r="M101" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5366,7 +5372,7 @@
         <v>12.52</v>
       </c>
       <c r="M102" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5404,7 +5410,7 @@
         <v>8.779999999999999</v>
       </c>
       <c r="M103" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5442,7 +5448,7 @@
         <v>7.69</v>
       </c>
       <c r="M104" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5480,7 +5486,7 @@
         <v>9.06</v>
       </c>
       <c r="M105" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5518,7 +5524,7 @@
         <v>7.64</v>
       </c>
       <c r="M106" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5556,7 +5562,7 @@
         <v>7.41</v>
       </c>
       <c r="M107" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5594,7 +5600,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="M108" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5632,7 +5638,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="M109" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5670,7 +5676,7 @@
         <v>11.2</v>
       </c>
       <c r="M110" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5708,7 +5714,7 @@
         <v>13.5</v>
       </c>
       <c r="M111" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5746,7 +5752,7 @@
         <v>13.17</v>
       </c>
       <c r="M112" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5784,7 +5790,7 @@
         <v>11.85</v>
       </c>
       <c r="M113" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5822,7 +5828,7 @@
         <v>7.22</v>
       </c>
       <c r="M114" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5860,7 +5866,7 @@
         <v>7.57</v>
       </c>
       <c r="M115" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5898,7 +5904,7 @@
         <v>7.45</v>
       </c>
       <c r="M116" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5936,7 +5942,7 @@
         <v>16.73</v>
       </c>
       <c r="M117" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5974,7 +5980,7 @@
         <v>14.31</v>
       </c>
       <c r="M118" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -6012,7 +6018,7 @@
         <v>11.58</v>
       </c>
       <c r="M119" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -6050,7 +6056,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="M120" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -6088,7 +6094,7 @@
         <v>9.08</v>
       </c>
       <c r="M121" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6126,7 +6132,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="M122" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6164,7 +6170,7 @@
         <v>6.78</v>
       </c>
       <c r="M123" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6202,7 +6208,7 @@
         <v>4.83</v>
       </c>
       <c r="M124" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6240,7 +6246,7 @@
         <v>2.21</v>
       </c>
       <c r="M125" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6278,7 +6284,7 @@
         <v>4.16</v>
       </c>
       <c r="M126" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6316,7 +6322,7 @@
         <v>3.72</v>
       </c>
       <c r="M127" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6354,7 +6360,7 @@
         <v>2.82</v>
       </c>
       <c r="M128" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6392,7 +6398,7 @@
         <v>3.77</v>
       </c>
       <c r="M129" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6430,7 +6436,7 @@
         <v>4.7</v>
       </c>
       <c r="M130" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6468,7 +6474,7 @@
         <v>6.21</v>
       </c>
       <c r="M131" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6506,7 +6512,7 @@
         <v>6.22</v>
       </c>
       <c r="M132" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6544,7 +6550,7 @@
         <v>7.69</v>
       </c>
       <c r="M133" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6582,7 +6588,7 @@
         <v>5.47</v>
       </c>
       <c r="M134" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6620,7 +6626,7 @@
         <v>4.67</v>
       </c>
       <c r="M135" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6658,7 +6664,7 @@
         <v>4.83</v>
       </c>
       <c r="M136" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6696,7 +6702,7 @@
         <v>6.76</v>
       </c>
       <c r="M137" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6734,7 +6740,7 @@
         <v>7.32</v>
       </c>
       <c r="M138" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6772,7 +6778,7 @@
         <v>9.66</v>
       </c>
       <c r="M139" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6810,7 +6816,7 @@
         <v>6.96</v>
       </c>
       <c r="M140" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6848,7 +6854,7 @@
         <v>9.859999999999999</v>
       </c>
       <c r="M141" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6886,7 +6892,7 @@
         <v>12.45</v>
       </c>
       <c r="M142" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6924,7 +6930,7 @@
         <v>12.34</v>
       </c>
       <c r="M143" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6962,7 +6968,7 @@
         <v>14.92</v>
       </c>
       <c r="M144" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -7000,7 +7006,7 @@
         <v>16.76</v>
       </c>
       <c r="M145" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -7038,7 +7044,7 @@
         <v>16.39</v>
       </c>
       <c r="M146" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -7076,7 +7082,7 @@
         <v>16.71</v>
       </c>
       <c r="M147" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7114,7 +7120,7 @@
         <v>15.45</v>
       </c>
       <c r="M148" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7152,7 +7158,7 @@
         <v>17.07</v>
       </c>
       <c r="M149" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7190,7 +7196,7 @@
         <v>16.75</v>
       </c>
       <c r="M150" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7228,7 +7234,7 @@
         <v>17.11</v>
       </c>
       <c r="M151" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7266,7 +7272,7 @@
         <v>17.84</v>
       </c>
       <c r="M152" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7304,7 +7310,7 @@
         <v>18.19</v>
       </c>
       <c r="M153" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7342,7 +7348,7 @@
         <v>18.95</v>
       </c>
       <c r="M154" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7380,7 +7386,7 @@
         <v>16.99</v>
       </c>
       <c r="M155" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7418,7 +7424,7 @@
         <v>19.37</v>
       </c>
       <c r="M156" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7456,7 +7462,7 @@
         <v>17.96</v>
       </c>
       <c r="M157" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7494,7 +7500,7 @@
         <v>13.55</v>
       </c>
       <c r="M158" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7532,7 +7538,7 @@
         <v>14.62</v>
       </c>
       <c r="M159" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7570,7 +7576,7 @@
         <v>17.08</v>
       </c>
       <c r="M160" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7608,7 +7614,7 @@
         <v>15.11</v>
       </c>
       <c r="M161" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7646,7 +7652,7 @@
         <v>11.24</v>
       </c>
       <c r="M162" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7684,7 +7690,7 @@
         <v>10.17</v>
       </c>
       <c r="M163" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7722,7 +7728,7 @@
         <v>9.85</v>
       </c>
       <c r="M164" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7763,7 +7769,7 @@
         <v>10.11</v>
       </c>
       <c r="M165" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7801,7 +7807,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="M166" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7842,7 +7848,7 @@
         <v>11.2</v>
       </c>
       <c r="M167" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7880,7 +7886,7 @@
         <v>7.84</v>
       </c>
       <c r="M168" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7918,7 +7924,7 @@
         <v>7.34</v>
       </c>
       <c r="M169" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7956,7 +7962,7 @@
         <v>5.93</v>
       </c>
       <c r="M170" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7994,7 +8000,7 @@
         <v>6.24</v>
       </c>
       <c r="M171" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -8032,7 +8038,7 @@
         <v>4.49</v>
       </c>
       <c r="M172" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -8070,7 +8076,7 @@
         <v>3.61</v>
       </c>
       <c r="M173" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8108,7 +8114,7 @@
         <v>4.43</v>
       </c>
       <c r="M174" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8146,7 +8152,7 @@
         <v>3.59</v>
       </c>
       <c r="M175" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8184,7 +8190,7 @@
         <v>3.44</v>
       </c>
       <c r="M176" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8225,7 +8231,7 @@
         <v>3.74</v>
       </c>
       <c r="M177" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8263,7 +8269,7 @@
         <v>4.49</v>
       </c>
       <c r="M178" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8301,7 +8307,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M179" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8339,7 +8345,7 @@
         <v>5.98</v>
       </c>
       <c r="M180" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8377,7 +8383,7 @@
         <v>3.83</v>
       </c>
       <c r="M181" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8415,7 +8421,7 @@
         <v>1.49</v>
       </c>
       <c r="M182" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8456,7 +8462,7 @@
         <v>2.73</v>
       </c>
       <c r="M183" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8494,7 +8500,7 @@
         <v>2.17</v>
       </c>
       <c r="M184" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8532,7 +8538,7 @@
         <v>3.88</v>
       </c>
       <c r="M185" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8570,7 +8576,7 @@
         <v>3.59</v>
       </c>
       <c r="M186" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8608,7 +8614,7 @@
         <v>4.64</v>
       </c>
       <c r="M187" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8649,7 +8655,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="M188" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8687,7 +8693,7 @@
         <v>12.55</v>
       </c>
       <c r="M189" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8728,7 +8734,7 @@
         <v>13.48</v>
       </c>
       <c r="M190" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8766,7 +8772,7 @@
         <v>14.34</v>
       </c>
       <c r="M191" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8804,7 +8810,7 @@
         <v>16.07</v>
       </c>
       <c r="M192" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8842,7 +8848,7 @@
         <v>15.51</v>
       </c>
       <c r="M193" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8880,7 +8886,7 @@
         <v>18.34</v>
       </c>
       <c r="M194" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8921,7 +8927,7 @@
         <v>16.32</v>
       </c>
       <c r="M195" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8959,7 +8965,7 @@
         <v>16.54</v>
       </c>
       <c r="M196" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8997,7 +9003,7 @@
         <v>16.49</v>
       </c>
       <c r="M197" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -9035,7 +9041,7 @@
         <v>13.71</v>
       </c>
       <c r="M198" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -9073,7 +9079,7 @@
         <v>14.63</v>
       </c>
       <c r="M199" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -9111,7 +9117,7 @@
         <v>17.28</v>
       </c>
       <c r="M200" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -9149,7 +9155,7 @@
         <v>13.18</v>
       </c>
       <c r="M201" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9187,7 +9193,7 @@
         <v>13.46</v>
       </c>
       <c r="M202" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9225,7 +9231,7 @@
         <v>16.95</v>
       </c>
       <c r="M203" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9263,7 +9269,7 @@
         <v>15.95</v>
       </c>
       <c r="M204" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9301,7 +9307,7 @@
         <v>16.77</v>
       </c>
       <c r="M205" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9339,7 +9345,7 @@
         <v>13.48</v>
       </c>
       <c r="M206" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9377,7 +9383,7 @@
         <v>13.18</v>
       </c>
       <c r="M207" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9415,7 +9421,7 @@
         <v>11.8</v>
       </c>
       <c r="M208" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9453,7 +9459,7 @@
         <v>12.1</v>
       </c>
       <c r="M209" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9491,7 +9497,7 @@
         <v>10.37</v>
       </c>
       <c r="M210" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9529,7 +9535,7 @@
         <v>12.11</v>
       </c>
       <c r="M211" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9567,7 +9573,7 @@
         <v>14.04</v>
       </c>
       <c r="M212" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9605,7 +9611,7 @@
         <v>10.59</v>
       </c>
       <c r="M213" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9643,7 +9649,7 @@
         <v>11.86</v>
       </c>
       <c r="M214" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9681,7 +9687,7 @@
         <v>13.78</v>
       </c>
       <c r="M215" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9719,7 +9725,7 @@
         <v>15.41</v>
       </c>
       <c r="M216" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9757,7 +9763,7 @@
         <v>17.31</v>
       </c>
       <c r="M217" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9795,7 +9801,7 @@
         <v>15.28</v>
       </c>
       <c r="M218" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9833,7 +9839,7 @@
         <v>13.41</v>
       </c>
       <c r="M219" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9871,7 +9877,7 @@
         <v>14.08</v>
       </c>
       <c r="M220" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9909,7 +9915,7 @@
         <v>12.44</v>
       </c>
       <c r="M221" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9947,7 +9953,7 @@
         <v>11.42</v>
       </c>
       <c r="M222" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9985,7 +9991,7 @@
         <v>11</v>
       </c>
       <c r="M223" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -10023,7 +10029,7 @@
         <v>10.26</v>
       </c>
       <c r="M224" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -10061,7 +10067,7 @@
         <v>11.48</v>
       </c>
       <c r="M225" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -10099,7 +10105,7 @@
         <v>14.31</v>
       </c>
       <c r="M226" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10137,7 +10143,7 @@
         <v>13.75</v>
       </c>
       <c r="M227" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10175,7 +10181,7 @@
         <v>15.17</v>
       </c>
       <c r="M228" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10213,7 +10219,7 @@
         <v>15.54</v>
       </c>
       <c r="M229" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10251,7 +10257,7 @@
         <v>18.02</v>
       </c>
       <c r="M230" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10289,7 +10295,7 @@
         <v>18.98</v>
       </c>
       <c r="M231" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10327,7 +10333,7 @@
         <v>19.01</v>
       </c>
       <c r="M232" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10365,7 +10371,7 @@
         <v>16.02</v>
       </c>
       <c r="M233" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10403,7 +10409,7 @@
         <v>17.37</v>
       </c>
       <c r="M234" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10441,7 +10447,7 @@
         <v>18.97</v>
       </c>
       <c r="M235" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10479,7 +10485,7 @@
         <v>18.55</v>
       </c>
       <c r="M236" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10517,7 +10523,7 @@
         <v>17.97</v>
       </c>
       <c r="M237" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10555,7 +10561,7 @@
         <v>18.45</v>
       </c>
       <c r="M238" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10593,7 +10599,7 @@
         <v>17.7</v>
       </c>
       <c r="M239" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10631,7 +10637,7 @@
         <v>15.95</v>
       </c>
       <c r="M240" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10669,7 +10675,7 @@
         <v>17.37</v>
       </c>
       <c r="M241" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10707,7 +10713,7 @@
         <v>18.35</v>
       </c>
       <c r="M242" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10745,7 +10751,7 @@
         <v>17.94</v>
       </c>
       <c r="M243" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10783,7 +10789,7 @@
         <v>14.04</v>
       </c>
       <c r="M244" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10821,7 +10827,7 @@
         <v>16.84</v>
       </c>
       <c r="M245" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10859,7 +10865,7 @@
         <v>14.04</v>
       </c>
       <c r="M246" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10897,7 +10903,7 @@
         <v>13.6</v>
       </c>
       <c r="M247" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10935,7 +10941,7 @@
         <v>14.16</v>
       </c>
       <c r="M248" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10973,7 +10979,7 @@
         <v>16.82</v>
       </c>
       <c r="M249" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -11011,7 +11017,7 @@
         <v>14.12</v>
       </c>
       <c r="M250" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -11049,7 +11055,7 @@
         <v>17.94</v>
       </c>
       <c r="M251" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -11087,7 +11093,7 @@
         <v>18.66</v>
       </c>
       <c r="M252" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11125,7 +11131,7 @@
         <v>17.86</v>
       </c>
       <c r="M253" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11163,7 +11169,7 @@
         <v>18.21</v>
       </c>
       <c r="M254" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11201,7 +11207,7 @@
         <v>18.57</v>
       </c>
       <c r="M255" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11239,7 +11245,7 @@
         <v>20.11</v>
       </c>
       <c r="M256" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11277,7 +11283,7 @@
         <v>20.11</v>
       </c>
       <c r="M257" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11315,7 +11321,7 @@
         <v>17.91</v>
       </c>
       <c r="M258" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11353,7 +11359,7 @@
         <v>18.77</v>
       </c>
       <c r="M259" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11391,7 +11397,7 @@
         <v>17.13</v>
       </c>
       <c r="M260" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11429,7 +11435,7 @@
         <v>19.46</v>
       </c>
       <c r="M261" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11467,7 +11473,7 @@
         <v>17.68</v>
       </c>
       <c r="M262" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11505,7 +11511,7 @@
         <v>16.53</v>
       </c>
       <c r="M263" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11546,7 +11552,7 @@
         <v>16.92</v>
       </c>
       <c r="M264" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11584,7 +11590,7 @@
         <v>14.55</v>
       </c>
       <c r="M265" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11622,7 +11628,7 @@
         <v>14.32</v>
       </c>
       <c r="M266" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11663,7 +11669,7 @@
         <v>14.98</v>
       </c>
       <c r="M267" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11701,7 +11707,7 @@
         <v>17.81</v>
       </c>
       <c r="M268" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11739,7 +11745,7 @@
         <v>17.56</v>
       </c>
       <c r="M269" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11777,7 +11783,7 @@
         <v>17.96</v>
       </c>
       <c r="M270" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11815,7 +11821,7 @@
         <v>18.19</v>
       </c>
       <c r="M271" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11853,7 +11859,7 @@
         <v>18.44</v>
       </c>
       <c r="M272" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11891,7 +11897,7 @@
         <v>17.51</v>
       </c>
       <c r="M273" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11929,7 +11935,7 @@
         <v>18.39</v>
       </c>
       <c r="M274" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11967,7 +11973,7 @@
         <v>18.63</v>
       </c>
       <c r="M275" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -12005,7 +12011,7 @@
         <v>18.63</v>
       </c>
       <c r="M276" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -12043,7 +12049,7 @@
         <v>17.56</v>
       </c>
       <c r="M277" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -12081,7 +12087,7 @@
         <v>16.64</v>
       </c>
       <c r="M278" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -12119,7 +12125,7 @@
         <v>15.32</v>
       </c>
       <c r="M279" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -12157,7 +12163,7 @@
         <v>16.75</v>
       </c>
       <c r="M280" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12195,7 +12201,7 @@
         <v>16.98</v>
       </c>
       <c r="M281" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12233,7 +12239,7 @@
         <v>17.42</v>
       </c>
       <c r="M282" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12271,7 +12277,7 @@
         <v>18.14</v>
       </c>
       <c r="M283" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12309,7 +12315,7 @@
         <v>17.7</v>
       </c>
       <c r="M284" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12347,7 +12353,7 @@
         <v>15.26</v>
       </c>
       <c r="M285" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12385,7 +12391,7 @@
         <v>16.98</v>
       </c>
       <c r="M286" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12426,7 +12432,7 @@
         <v>18.32</v>
       </c>
       <c r="M287" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12467,7 +12473,7 @@
         <v>15.86</v>
       </c>
       <c r="M288" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12505,7 +12511,7 @@
         <v>15.07</v>
       </c>
       <c r="M289" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12543,7 +12549,7 @@
         <v>14.7</v>
       </c>
       <c r="M290" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12581,7 +12587,7 @@
         <v>13.9</v>
       </c>
       <c r="M291" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12619,7 +12625,7 @@
         <v>13.81</v>
       </c>
       <c r="M292" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12657,7 +12663,7 @@
         <v>14.21</v>
       </c>
       <c r="M293" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12695,7 +12701,7 @@
         <v>15.34</v>
       </c>
       <c r="M294" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12733,7 +12739,7 @@
         <v>18.96</v>
       </c>
       <c r="M295" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12771,7 +12777,7 @@
         <v>18.54</v>
       </c>
       <c r="M296" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12812,7 +12818,7 @@
         <v>17.66</v>
       </c>
       <c r="M297" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12850,7 +12856,7 @@
         <v>17.54</v>
       </c>
       <c r="M298" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12888,7 +12894,7 @@
         <v>14.78</v>
       </c>
       <c r="M299" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12926,7 +12932,7 @@
         <v>17.87</v>
       </c>
       <c r="M300" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -12964,7 +12970,7 @@
         <v>17.1</v>
       </c>
       <c r="M301" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -13002,7 +13008,7 @@
         <v>16.07</v>
       </c>
       <c r="M302" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -13040,7 +13046,7 @@
         <v>17.18</v>
       </c>
       <c r="M303" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -13078,7 +13084,7 @@
         <v>15.96</v>
       </c>
       <c r="M304" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -13116,7 +13122,7 @@
         <v>14.88</v>
       </c>
       <c r="M305" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -13154,7 +13160,7 @@
         <v>14.65</v>
       </c>
       <c r="M306" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -13192,7 +13198,7 @@
         <v>15.19</v>
       </c>
       <c r="M307" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -13230,7 +13236,7 @@
         <v>14.49</v>
       </c>
       <c r="M308" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -13268,7 +13274,7 @@
         <v>12.86</v>
       </c>
       <c r="M309" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -13306,7 +13312,7 @@
         <v>12.68</v>
       </c>
       <c r="M310" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -13344,7 +13350,7 @@
         <v>10.82</v>
       </c>
       <c r="M311" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -13382,7 +13388,7 @@
         <v>11.52</v>
       </c>
       <c r="M312" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -13420,7 +13426,7 @@
         <v>10.87</v>
       </c>
       <c r="M313" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -13458,7 +13464,7 @@
         <v>10.99</v>
       </c>
       <c r="M314" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -13496,7 +13502,7 @@
         <v>9.75</v>
       </c>
       <c r="M315" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -13534,7 +13540,7 @@
         <v>10.09</v>
       </c>
       <c r="M316" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -13572,7 +13578,7 @@
         <v>11.81</v>
       </c>
       <c r="M317" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -13610,7 +13616,7 @@
         <v>12.05</v>
       </c>
       <c r="M318" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -13648,7 +13654,7 @@
         <v>12.21</v>
       </c>
       <c r="M319" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -13686,7 +13692,7 @@
         <v>10.92</v>
       </c>
       <c r="M320" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="321" spans="1:13">
@@ -13724,7 +13730,7 @@
         <v>13.82</v>
       </c>
       <c r="M321" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -13762,7 +13768,7 @@
         <v>13.89</v>
       </c>
       <c r="M322" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="323" spans="1:13">
@@ -13800,7 +13806,7 @@
         <v>14.33</v>
       </c>
       <c r="M323" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -13838,7 +13844,7 @@
         <v>16.3</v>
       </c>
       <c r="M324" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="325" spans="1:13">
@@ -13876,7 +13882,7 @@
         <v>16.58</v>
       </c>
       <c r="M325" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="326" spans="1:13">
@@ -13914,7 +13920,7 @@
         <v>20.33</v>
       </c>
       <c r="M326" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="327" spans="1:13">
@@ -13952,7 +13958,7 @@
         <v>20.1</v>
       </c>
       <c r="M327" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -13990,7 +13996,7 @@
         <v>21.27</v>
       </c>
       <c r="M328" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -14028,7 +14034,7 @@
         <v>18.92</v>
       </c>
       <c r="M329" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -14066,7 +14072,7 @@
         <v>18.45</v>
       </c>
       <c r="M330" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="331" spans="1:13">
@@ -14104,7 +14110,7 @@
         <v>17.78</v>
       </c>
       <c r="M331" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="332" spans="1:13">
@@ -14142,7 +14148,7 @@
         <v>19.28</v>
       </c>
       <c r="M332" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -14180,7 +14186,7 @@
         <v>17.41</v>
       </c>
       <c r="M333" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -14218,7 +14224,7 @@
         <v>16.84</v>
       </c>
       <c r="M334" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="335" spans="1:13">
@@ -14256,7 +14262,7 @@
         <v>16.92</v>
       </c>
       <c r="M335" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="336" spans="1:13">
@@ -14294,7 +14300,7 @@
         <v>15.99</v>
       </c>
       <c r="M336" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="337" spans="1:13">
@@ -14332,7 +14338,7 @@
         <v>17.84</v>
       </c>
       <c r="M337" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -14370,7 +14376,7 @@
         <v>19.93</v>
       </c>
       <c r="M338" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -14408,7 +14414,7 @@
         <v>17.63</v>
       </c>
       <c r="M339" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="340" spans="1:13">
@@ -14446,7 +14452,7 @@
         <v>20.42</v>
       </c>
       <c r="M340" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="341" spans="1:13">
@@ -14484,7 +14490,7 @@
         <v>18.37</v>
       </c>
       <c r="M341" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="342" spans="1:13">
@@ -14522,7 +14528,7 @@
         <v>15.91</v>
       </c>
       <c r="M342" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="343" spans="1:13">
@@ -14560,7 +14566,7 @@
         <v>18.58</v>
       </c>
       <c r="M343" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="344" spans="1:13">
@@ -14598,7 +14604,7 @@
         <v>16.17</v>
       </c>
       <c r="M344" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="345" spans="1:13">
@@ -14636,7 +14642,7 @@
         <v>14.78</v>
       </c>
       <c r="M345" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="346" spans="1:13">
@@ -14674,7 +14680,7 @@
         <v>13.25</v>
       </c>
       <c r="M346" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="347" spans="1:13">
@@ -14712,7 +14718,7 @@
         <v>17.63</v>
       </c>
       <c r="M347" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="348" spans="1:13">
@@ -14750,7 +14756,7 @@
         <v>16.5</v>
       </c>
       <c r="M348" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="349" spans="1:13">
@@ -14788,7 +14794,7 @@
         <v>16.88</v>
       </c>
       <c r="M349" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="350" spans="1:13">
@@ -14826,7 +14832,7 @@
         <v>16.83</v>
       </c>
       <c r="M350" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="351" spans="1:13">
@@ -14864,7 +14870,7 @@
         <v>18.76</v>
       </c>
       <c r="M351" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="352" spans="1:13">
@@ -14902,7 +14908,7 @@
         <v>17.63</v>
       </c>
       <c r="M352" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="353" spans="1:13">
@@ -14940,7 +14946,7 @@
         <v>18.61</v>
       </c>
       <c r="M353" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="354" spans="1:13">
@@ -14978,7 +14984,7 @@
         <v>16.53</v>
       </c>
       <c r="M354" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="355" spans="1:13">
@@ -15016,7 +15022,7 @@
         <v>16.58</v>
       </c>
       <c r="M355" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="356" spans="1:13">
@@ -15054,7 +15060,7 @@
         <v>15.48</v>
       </c>
       <c r="M356" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="357" spans="1:13">
@@ -15092,7 +15098,7 @@
         <v>17.83</v>
       </c>
       <c r="M357" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="358" spans="1:13">
@@ -15130,7 +15136,7 @@
         <v>17.73</v>
       </c>
       <c r="M358" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="359" spans="1:13">
@@ -15168,7 +15174,83 @@
         <v>16.94</v>
       </c>
       <c r="M359" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
         <v>370</v>
+      </c>
+      <c r="C360">
+        <v>11.79</v>
+      </c>
+      <c r="D360">
+        <v>63.36</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>23.82</v>
+      </c>
+      <c r="G360">
+        <v>55.82</v>
+      </c>
+      <c r="H360">
+        <v>855.27</v>
+      </c>
+      <c r="I360">
+        <v>16.41</v>
+      </c>
+      <c r="J360">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="L360">
+        <v>15.35</v>
+      </c>
+      <c r="M360" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>371</v>
+      </c>
+      <c r="C361">
+        <v>11.65</v>
+      </c>
+      <c r="D361">
+        <v>63.93</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>23.62</v>
+      </c>
+      <c r="G361">
+        <v>37.99</v>
+      </c>
+      <c r="H361">
+        <v>855.27</v>
+      </c>
+      <c r="I361">
+        <v>16.37</v>
+      </c>
+      <c r="J361">
+        <v>1.43</v>
+      </c>
+      <c r="L361">
+        <v>13.03</v>
+      </c>
+      <c r="M361" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="375">
   <si>
     <t>Fecha</t>
   </si>
@@ -1130,6 +1130,12 @@
   </si>
   <si>
     <t>11/13/2020 5:45:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:15:00 PM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1490,7 +1496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M361"/>
+  <dimension ref="A1:M363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1569,7 +1575,7 @@
         <v>13.53</v>
       </c>
       <c r="M2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1607,7 +1613,7 @@
         <v>15.41</v>
       </c>
       <c r="M3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1645,7 +1651,7 @@
         <v>13.52</v>
       </c>
       <c r="M4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1683,7 +1689,7 @@
         <v>13.02</v>
       </c>
       <c r="M5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1721,7 +1727,7 @@
         <v>13.23</v>
       </c>
       <c r="M6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1759,7 +1765,7 @@
         <v>12.19</v>
       </c>
       <c r="M7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1797,7 +1803,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="M8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1835,7 +1841,7 @@
         <v>6.79</v>
       </c>
       <c r="M9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1873,7 +1879,7 @@
         <v>10.57</v>
       </c>
       <c r="M10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1911,7 +1917,7 @@
         <v>12.59</v>
       </c>
       <c r="M11" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1949,7 +1955,7 @@
         <v>11.46</v>
       </c>
       <c r="M12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1987,7 +1993,7 @@
         <v>9.94</v>
       </c>
       <c r="M13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2025,7 +2031,7 @@
         <v>8.84</v>
       </c>
       <c r="M14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2063,7 +2069,7 @@
         <v>11.66</v>
       </c>
       <c r="M15" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2101,7 +2107,7 @@
         <v>12.31</v>
       </c>
       <c r="M16" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2139,7 +2145,7 @@
         <v>14.99</v>
       </c>
       <c r="M17" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2177,7 +2183,7 @@
         <v>14.92</v>
       </c>
       <c r="M18" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2215,7 +2221,7 @@
         <v>12.83</v>
       </c>
       <c r="M19" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2253,7 +2259,7 @@
         <v>16.05</v>
       </c>
       <c r="M20" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2291,7 +2297,7 @@
         <v>10.99</v>
       </c>
       <c r="M21" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2329,7 +2335,7 @@
         <v>11.62</v>
       </c>
       <c r="M22" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2367,7 +2373,7 @@
         <v>13.54</v>
       </c>
       <c r="M23" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2405,7 +2411,7 @@
         <v>11.83</v>
       </c>
       <c r="M24" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2443,7 +2449,7 @@
         <v>11.51</v>
       </c>
       <c r="M25" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2481,7 +2487,7 @@
         <v>10.98</v>
       </c>
       <c r="M26" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2519,7 +2525,7 @@
         <v>9.24</v>
       </c>
       <c r="M27" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2557,7 +2563,7 @@
         <v>10.19</v>
       </c>
       <c r="M28" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2598,7 +2604,7 @@
         <v>9.57</v>
       </c>
       <c r="M29" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2636,7 +2642,7 @@
         <v>12.22</v>
       </c>
       <c r="M30" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2674,7 +2680,7 @@
         <v>13.96</v>
       </c>
       <c r="M31" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2712,7 +2718,7 @@
         <v>13.47</v>
       </c>
       <c r="M32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2750,7 +2756,7 @@
         <v>12.07</v>
       </c>
       <c r="M33" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2788,7 +2794,7 @@
         <v>15.06</v>
       </c>
       <c r="M34" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2826,7 +2832,7 @@
         <v>11.79</v>
       </c>
       <c r="M35" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2864,7 +2870,7 @@
         <v>15.2</v>
       </c>
       <c r="M36" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2902,7 +2908,7 @@
         <v>17.48</v>
       </c>
       <c r="M37" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2940,7 +2946,7 @@
         <v>16.74</v>
       </c>
       <c r="M38" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2978,7 +2984,7 @@
         <v>16.64</v>
       </c>
       <c r="M39" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3016,7 +3022,7 @@
         <v>15.16</v>
       </c>
       <c r="M40" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3054,7 +3060,7 @@
         <v>15.72</v>
       </c>
       <c r="M41" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3092,7 +3098,7 @@
         <v>13.35</v>
       </c>
       <c r="M42" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3130,7 +3136,7 @@
         <v>15.79</v>
       </c>
       <c r="M43" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3168,7 +3174,7 @@
         <v>15</v>
       </c>
       <c r="M44" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3206,7 +3212,7 @@
         <v>17.59</v>
       </c>
       <c r="M45" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3244,7 +3250,7 @@
         <v>16.37</v>
       </c>
       <c r="M46" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3282,7 +3288,7 @@
         <v>17.81</v>
       </c>
       <c r="M47" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3320,7 +3326,7 @@
         <v>18.39</v>
       </c>
       <c r="M48" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3358,7 +3364,7 @@
         <v>18.19</v>
       </c>
       <c r="M49" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3396,7 +3402,7 @@
         <v>19.57</v>
       </c>
       <c r="M50" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3434,7 +3440,7 @@
         <v>21.27</v>
       </c>
       <c r="M51" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3472,7 +3478,7 @@
         <v>21.26</v>
       </c>
       <c r="M52" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3510,7 +3516,7 @@
         <v>23.11</v>
       </c>
       <c r="M53" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3548,7 +3554,7 @@
         <v>21.87</v>
       </c>
       <c r="M54" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3586,7 +3592,7 @@
         <v>24.97</v>
       </c>
       <c r="M55" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3624,7 +3630,7 @@
         <v>23.84</v>
       </c>
       <c r="M56" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3662,7 +3668,7 @@
         <v>18.51</v>
       </c>
       <c r="M57" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3700,7 +3706,7 @@
         <v>24.83</v>
       </c>
       <c r="M58" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3738,7 +3744,7 @@
         <v>27.08</v>
       </c>
       <c r="M59" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3776,7 +3782,7 @@
         <v>27.84</v>
       </c>
       <c r="M60" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3814,7 +3820,7 @@
         <v>30.03</v>
       </c>
       <c r="M61" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3852,7 +3858,7 @@
         <v>26.38</v>
       </c>
       <c r="M62" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3890,7 +3896,7 @@
         <v>25.63</v>
       </c>
       <c r="M63" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3928,7 +3934,7 @@
         <v>27.56</v>
       </c>
       <c r="M64" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3966,7 +3972,7 @@
         <v>24.31</v>
       </c>
       <c r="M65" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4004,7 +4010,7 @@
         <v>23.03</v>
       </c>
       <c r="M66" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4042,7 +4048,7 @@
         <v>20.57</v>
       </c>
       <c r="M67" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4080,7 +4086,7 @@
         <v>17.1</v>
       </c>
       <c r="M68" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4118,7 +4124,7 @@
         <v>18.18</v>
       </c>
       <c r="M69" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4156,7 +4162,7 @@
         <v>19.71</v>
       </c>
       <c r="M70" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4194,7 +4200,7 @@
         <v>19.28</v>
       </c>
       <c r="M71" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4232,7 +4238,7 @@
         <v>16.27</v>
       </c>
       <c r="M72" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4270,7 +4276,7 @@
         <v>14.27</v>
       </c>
       <c r="M73" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4308,7 +4314,7 @@
         <v>16.12</v>
       </c>
       <c r="M74" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4346,7 +4352,7 @@
         <v>14.94</v>
       </c>
       <c r="M75" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4384,7 +4390,7 @@
         <v>16.99</v>
       </c>
       <c r="M76" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4422,7 +4428,7 @@
         <v>17.64</v>
       </c>
       <c r="M77" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4460,7 +4466,7 @@
         <v>18.11</v>
       </c>
       <c r="M78" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4498,7 +4504,7 @@
         <v>18.67</v>
       </c>
       <c r="M79" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4536,7 +4542,7 @@
         <v>16.52</v>
       </c>
       <c r="M80" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4574,7 +4580,7 @@
         <v>12.31</v>
       </c>
       <c r="M81" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4612,7 +4618,7 @@
         <v>14.96</v>
       </c>
       <c r="M82" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4650,7 +4656,7 @@
         <v>16.69</v>
       </c>
       <c r="M83" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4688,7 +4694,7 @@
         <v>15.56</v>
       </c>
       <c r="M84" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4726,7 +4732,7 @@
         <v>13.36</v>
       </c>
       <c r="M85" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4764,7 +4770,7 @@
         <v>11.34</v>
       </c>
       <c r="M86" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4802,7 +4808,7 @@
         <v>10.13</v>
       </c>
       <c r="M87" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4840,7 +4846,7 @@
         <v>9.48</v>
       </c>
       <c r="M88" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4878,7 +4884,7 @@
         <v>8.26</v>
       </c>
       <c r="M89" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4916,7 +4922,7 @@
         <v>11</v>
       </c>
       <c r="M90" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4954,7 +4960,7 @@
         <v>10.44</v>
       </c>
       <c r="M91" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4992,7 +4998,7 @@
         <v>9.74</v>
       </c>
       <c r="M92" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -5030,7 +5036,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="M93" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -5068,7 +5074,7 @@
         <v>10.83</v>
       </c>
       <c r="M94" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -5106,7 +5112,7 @@
         <v>12.34</v>
       </c>
       <c r="M95" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5144,7 +5150,7 @@
         <v>11.77</v>
       </c>
       <c r="M96" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5182,7 +5188,7 @@
         <v>14.3</v>
       </c>
       <c r="M97" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5220,7 +5226,7 @@
         <v>12.57</v>
       </c>
       <c r="M98" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5258,7 +5264,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M99" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5296,7 +5302,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="M100" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5334,7 +5340,7 @@
         <v>12.98</v>
       </c>
       <c r="M101" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5372,7 +5378,7 @@
         <v>12.52</v>
       </c>
       <c r="M102" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5410,7 +5416,7 @@
         <v>8.779999999999999</v>
       </c>
       <c r="M103" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5448,7 +5454,7 @@
         <v>7.69</v>
       </c>
       <c r="M104" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5486,7 +5492,7 @@
         <v>9.06</v>
       </c>
       <c r="M105" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5524,7 +5530,7 @@
         <v>7.64</v>
       </c>
       <c r="M106" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5562,7 +5568,7 @@
         <v>7.41</v>
       </c>
       <c r="M107" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5600,7 +5606,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="M108" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5638,7 +5644,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="M109" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5676,7 +5682,7 @@
         <v>11.2</v>
       </c>
       <c r="M110" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5714,7 +5720,7 @@
         <v>13.5</v>
       </c>
       <c r="M111" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5752,7 +5758,7 @@
         <v>13.17</v>
       </c>
       <c r="M112" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5790,7 +5796,7 @@
         <v>11.85</v>
       </c>
       <c r="M113" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5828,7 +5834,7 @@
         <v>7.22</v>
       </c>
       <c r="M114" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5866,7 +5872,7 @@
         <v>7.57</v>
       </c>
       <c r="M115" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5904,7 +5910,7 @@
         <v>7.45</v>
       </c>
       <c r="M116" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5942,7 +5948,7 @@
         <v>16.73</v>
       </c>
       <c r="M117" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5980,7 +5986,7 @@
         <v>14.31</v>
       </c>
       <c r="M118" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -6018,7 +6024,7 @@
         <v>11.58</v>
       </c>
       <c r="M119" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -6056,7 +6062,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="M120" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -6094,7 +6100,7 @@
         <v>9.08</v>
       </c>
       <c r="M121" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6132,7 +6138,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="M122" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6170,7 +6176,7 @@
         <v>6.78</v>
       </c>
       <c r="M123" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6208,7 +6214,7 @@
         <v>4.83</v>
       </c>
       <c r="M124" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6246,7 +6252,7 @@
         <v>2.21</v>
       </c>
       <c r="M125" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6284,7 +6290,7 @@
         <v>4.16</v>
       </c>
       <c r="M126" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6322,7 +6328,7 @@
         <v>3.72</v>
       </c>
       <c r="M127" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6360,7 +6366,7 @@
         <v>2.82</v>
       </c>
       <c r="M128" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6398,7 +6404,7 @@
         <v>3.77</v>
       </c>
       <c r="M129" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6436,7 +6442,7 @@
         <v>4.7</v>
       </c>
       <c r="M130" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6474,7 +6480,7 @@
         <v>6.21</v>
       </c>
       <c r="M131" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6512,7 +6518,7 @@
         <v>6.22</v>
       </c>
       <c r="M132" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6550,7 +6556,7 @@
         <v>7.69</v>
       </c>
       <c r="M133" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6588,7 +6594,7 @@
         <v>5.47</v>
       </c>
       <c r="M134" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6626,7 +6632,7 @@
         <v>4.67</v>
       </c>
       <c r="M135" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6664,7 +6670,7 @@
         <v>4.83</v>
       </c>
       <c r="M136" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6702,7 +6708,7 @@
         <v>6.76</v>
       </c>
       <c r="M137" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6740,7 +6746,7 @@
         <v>7.32</v>
       </c>
       <c r="M138" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6778,7 +6784,7 @@
         <v>9.66</v>
       </c>
       <c r="M139" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6816,7 +6822,7 @@
         <v>6.96</v>
       </c>
       <c r="M140" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6854,7 +6860,7 @@
         <v>9.859999999999999</v>
       </c>
       <c r="M141" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6892,7 +6898,7 @@
         <v>12.45</v>
       </c>
       <c r="M142" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6930,7 +6936,7 @@
         <v>12.34</v>
       </c>
       <c r="M143" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6968,7 +6974,7 @@
         <v>14.92</v>
       </c>
       <c r="M144" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -7006,7 +7012,7 @@
         <v>16.76</v>
       </c>
       <c r="M145" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -7044,7 +7050,7 @@
         <v>16.39</v>
       </c>
       <c r="M146" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -7082,7 +7088,7 @@
         <v>16.71</v>
       </c>
       <c r="M147" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7120,7 +7126,7 @@
         <v>15.45</v>
       </c>
       <c r="M148" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7158,7 +7164,7 @@
         <v>17.07</v>
       </c>
       <c r="M149" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7196,7 +7202,7 @@
         <v>16.75</v>
       </c>
       <c r="M150" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7234,7 +7240,7 @@
         <v>17.11</v>
       </c>
       <c r="M151" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7272,7 +7278,7 @@
         <v>17.84</v>
       </c>
       <c r="M152" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7310,7 +7316,7 @@
         <v>18.19</v>
       </c>
       <c r="M153" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7348,7 +7354,7 @@
         <v>18.95</v>
       </c>
       <c r="M154" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7386,7 +7392,7 @@
         <v>16.99</v>
       </c>
       <c r="M155" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7424,7 +7430,7 @@
         <v>19.37</v>
       </c>
       <c r="M156" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7462,7 +7468,7 @@
         <v>17.96</v>
       </c>
       <c r="M157" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7500,7 +7506,7 @@
         <v>13.55</v>
       </c>
       <c r="M158" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7538,7 +7544,7 @@
         <v>14.62</v>
       </c>
       <c r="M159" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7576,7 +7582,7 @@
         <v>17.08</v>
       </c>
       <c r="M160" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7614,7 +7620,7 @@
         <v>15.11</v>
       </c>
       <c r="M161" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7652,7 +7658,7 @@
         <v>11.24</v>
       </c>
       <c r="M162" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7690,7 +7696,7 @@
         <v>10.17</v>
       </c>
       <c r="M163" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7728,7 +7734,7 @@
         <v>9.85</v>
       </c>
       <c r="M164" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7769,7 +7775,7 @@
         <v>10.11</v>
       </c>
       <c r="M165" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7807,7 +7813,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="M166" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7848,7 +7854,7 @@
         <v>11.2</v>
       </c>
       <c r="M167" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7886,7 +7892,7 @@
         <v>7.84</v>
       </c>
       <c r="M168" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7924,7 +7930,7 @@
         <v>7.34</v>
       </c>
       <c r="M169" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7962,7 +7968,7 @@
         <v>5.93</v>
       </c>
       <c r="M170" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -8000,7 +8006,7 @@
         <v>6.24</v>
       </c>
       <c r="M171" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -8038,7 +8044,7 @@
         <v>4.49</v>
       </c>
       <c r="M172" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -8076,7 +8082,7 @@
         <v>3.61</v>
       </c>
       <c r="M173" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8114,7 +8120,7 @@
         <v>4.43</v>
       </c>
       <c r="M174" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8152,7 +8158,7 @@
         <v>3.59</v>
       </c>
       <c r="M175" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8190,7 +8196,7 @@
         <v>3.44</v>
       </c>
       <c r="M176" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8231,7 +8237,7 @@
         <v>3.74</v>
       </c>
       <c r="M177" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8269,7 +8275,7 @@
         <v>4.49</v>
       </c>
       <c r="M178" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8307,7 +8313,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M179" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8345,7 +8351,7 @@
         <v>5.98</v>
       </c>
       <c r="M180" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8383,7 +8389,7 @@
         <v>3.83</v>
       </c>
       <c r="M181" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8421,7 +8427,7 @@
         <v>1.49</v>
       </c>
       <c r="M182" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8462,7 +8468,7 @@
         <v>2.73</v>
       </c>
       <c r="M183" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8500,7 +8506,7 @@
         <v>2.17</v>
       </c>
       <c r="M184" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8538,7 +8544,7 @@
         <v>3.88</v>
       </c>
       <c r="M185" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8576,7 +8582,7 @@
         <v>3.59</v>
       </c>
       <c r="M186" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8614,7 +8620,7 @@
         <v>4.64</v>
       </c>
       <c r="M187" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8655,7 +8661,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="M188" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8693,7 +8699,7 @@
         <v>12.55</v>
       </c>
       <c r="M189" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8734,7 +8740,7 @@
         <v>13.48</v>
       </c>
       <c r="M190" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8772,7 +8778,7 @@
         <v>14.34</v>
       </c>
       <c r="M191" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8810,7 +8816,7 @@
         <v>16.07</v>
       </c>
       <c r="M192" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8848,7 +8854,7 @@
         <v>15.51</v>
       </c>
       <c r="M193" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8886,7 +8892,7 @@
         <v>18.34</v>
       </c>
       <c r="M194" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8927,7 +8933,7 @@
         <v>16.32</v>
       </c>
       <c r="M195" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8965,7 +8971,7 @@
         <v>16.54</v>
       </c>
       <c r="M196" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -9003,7 +9009,7 @@
         <v>16.49</v>
       </c>
       <c r="M197" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -9041,7 +9047,7 @@
         <v>13.71</v>
       </c>
       <c r="M198" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -9079,7 +9085,7 @@
         <v>14.63</v>
       </c>
       <c r="M199" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -9117,7 +9123,7 @@
         <v>17.28</v>
       </c>
       <c r="M200" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -9155,7 +9161,7 @@
         <v>13.18</v>
       </c>
       <c r="M201" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9193,7 +9199,7 @@
         <v>13.46</v>
       </c>
       <c r="M202" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9231,7 +9237,7 @@
         <v>16.95</v>
       </c>
       <c r="M203" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9269,7 +9275,7 @@
         <v>15.95</v>
       </c>
       <c r="M204" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9307,7 +9313,7 @@
         <v>16.77</v>
       </c>
       <c r="M205" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9345,7 +9351,7 @@
         <v>13.48</v>
       </c>
       <c r="M206" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9383,7 +9389,7 @@
         <v>13.18</v>
       </c>
       <c r="M207" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9421,7 +9427,7 @@
         <v>11.8</v>
       </c>
       <c r="M208" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9459,7 +9465,7 @@
         <v>12.1</v>
       </c>
       <c r="M209" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9497,7 +9503,7 @@
         <v>10.37</v>
       </c>
       <c r="M210" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9535,7 +9541,7 @@
         <v>12.11</v>
       </c>
       <c r="M211" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9573,7 +9579,7 @@
         <v>14.04</v>
       </c>
       <c r="M212" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9611,7 +9617,7 @@
         <v>10.59</v>
       </c>
       <c r="M213" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9649,7 +9655,7 @@
         <v>11.86</v>
       </c>
       <c r="M214" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9687,7 +9693,7 @@
         <v>13.78</v>
       </c>
       <c r="M215" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9725,7 +9731,7 @@
         <v>15.41</v>
       </c>
       <c r="M216" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9763,7 +9769,7 @@
         <v>17.31</v>
       </c>
       <c r="M217" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9801,7 +9807,7 @@
         <v>15.28</v>
       </c>
       <c r="M218" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9839,7 +9845,7 @@
         <v>13.41</v>
       </c>
       <c r="M219" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9877,7 +9883,7 @@
         <v>14.08</v>
       </c>
       <c r="M220" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9915,7 +9921,7 @@
         <v>12.44</v>
       </c>
       <c r="M221" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9953,7 +9959,7 @@
         <v>11.42</v>
       </c>
       <c r="M222" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9991,7 +9997,7 @@
         <v>11</v>
       </c>
       <c r="M223" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -10029,7 +10035,7 @@
         <v>10.26</v>
       </c>
       <c r="M224" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -10067,7 +10073,7 @@
         <v>11.48</v>
       </c>
       <c r="M225" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -10105,7 +10111,7 @@
         <v>14.31</v>
       </c>
       <c r="M226" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10143,7 +10149,7 @@
         <v>13.75</v>
       </c>
       <c r="M227" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10181,7 +10187,7 @@
         <v>15.17</v>
       </c>
       <c r="M228" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10219,7 +10225,7 @@
         <v>15.54</v>
       </c>
       <c r="M229" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10257,7 +10263,7 @@
         <v>18.02</v>
       </c>
       <c r="M230" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10295,7 +10301,7 @@
         <v>18.98</v>
       </c>
       <c r="M231" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10333,7 +10339,7 @@
         <v>19.01</v>
       </c>
       <c r="M232" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10371,7 +10377,7 @@
         <v>16.02</v>
       </c>
       <c r="M233" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10409,7 +10415,7 @@
         <v>17.37</v>
       </c>
       <c r="M234" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10447,7 +10453,7 @@
         <v>18.97</v>
       </c>
       <c r="M235" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10485,7 +10491,7 @@
         <v>18.55</v>
       </c>
       <c r="M236" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10523,7 +10529,7 @@
         <v>17.97</v>
       </c>
       <c r="M237" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10561,7 +10567,7 @@
         <v>18.45</v>
       </c>
       <c r="M238" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10599,7 +10605,7 @@
         <v>17.7</v>
       </c>
       <c r="M239" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10637,7 +10643,7 @@
         <v>15.95</v>
       </c>
       <c r="M240" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10675,7 +10681,7 @@
         <v>17.37</v>
       </c>
       <c r="M241" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10713,7 +10719,7 @@
         <v>18.35</v>
       </c>
       <c r="M242" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10751,7 +10757,7 @@
         <v>17.94</v>
       </c>
       <c r="M243" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10789,7 +10795,7 @@
         <v>14.04</v>
       </c>
       <c r="M244" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10827,7 +10833,7 @@
         <v>16.84</v>
       </c>
       <c r="M245" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10865,7 +10871,7 @@
         <v>14.04</v>
       </c>
       <c r="M246" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10903,7 +10909,7 @@
         <v>13.6</v>
       </c>
       <c r="M247" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10941,7 +10947,7 @@
         <v>14.16</v>
       </c>
       <c r="M248" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10979,7 +10985,7 @@
         <v>16.82</v>
       </c>
       <c r="M249" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -11017,7 +11023,7 @@
         <v>14.12</v>
       </c>
       <c r="M250" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -11055,7 +11061,7 @@
         <v>17.94</v>
       </c>
       <c r="M251" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -11093,7 +11099,7 @@
         <v>18.66</v>
       </c>
       <c r="M252" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11131,7 +11137,7 @@
         <v>17.86</v>
       </c>
       <c r="M253" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11169,7 +11175,7 @@
         <v>18.21</v>
       </c>
       <c r="M254" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11207,7 +11213,7 @@
         <v>18.57</v>
       </c>
       <c r="M255" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11245,7 +11251,7 @@
         <v>20.11</v>
       </c>
       <c r="M256" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11283,7 +11289,7 @@
         <v>20.11</v>
       </c>
       <c r="M257" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11321,7 +11327,7 @@
         <v>17.91</v>
       </c>
       <c r="M258" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11359,7 +11365,7 @@
         <v>18.77</v>
       </c>
       <c r="M259" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11397,7 +11403,7 @@
         <v>17.13</v>
       </c>
       <c r="M260" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11435,7 +11441,7 @@
         <v>19.46</v>
       </c>
       <c r="M261" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11473,7 +11479,7 @@
         <v>17.68</v>
       </c>
       <c r="M262" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11511,7 +11517,7 @@
         <v>16.53</v>
       </c>
       <c r="M263" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11552,7 +11558,7 @@
         <v>16.92</v>
       </c>
       <c r="M264" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11590,7 +11596,7 @@
         <v>14.55</v>
       </c>
       <c r="M265" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11628,7 +11634,7 @@
         <v>14.32</v>
       </c>
       <c r="M266" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11669,7 +11675,7 @@
         <v>14.98</v>
       </c>
       <c r="M267" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11707,7 +11713,7 @@
         <v>17.81</v>
       </c>
       <c r="M268" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11745,7 +11751,7 @@
         <v>17.56</v>
       </c>
       <c r="M269" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11783,7 +11789,7 @@
         <v>17.96</v>
       </c>
       <c r="M270" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11821,7 +11827,7 @@
         <v>18.19</v>
       </c>
       <c r="M271" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11859,7 +11865,7 @@
         <v>18.44</v>
       </c>
       <c r="M272" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11897,7 +11903,7 @@
         <v>17.51</v>
       </c>
       <c r="M273" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11935,7 +11941,7 @@
         <v>18.39</v>
       </c>
       <c r="M274" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11973,7 +11979,7 @@
         <v>18.63</v>
       </c>
       <c r="M275" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -12011,7 +12017,7 @@
         <v>18.63</v>
       </c>
       <c r="M276" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -12049,7 +12055,7 @@
         <v>17.56</v>
       </c>
       <c r="M277" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -12087,7 +12093,7 @@
         <v>16.64</v>
       </c>
       <c r="M278" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -12125,7 +12131,7 @@
         <v>15.32</v>
       </c>
       <c r="M279" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -12163,7 +12169,7 @@
         <v>16.75</v>
       </c>
       <c r="M280" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12201,7 +12207,7 @@
         <v>16.98</v>
       </c>
       <c r="M281" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12239,7 +12245,7 @@
         <v>17.42</v>
       </c>
       <c r="M282" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12277,7 +12283,7 @@
         <v>18.14</v>
       </c>
       <c r="M283" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12315,7 +12321,7 @@
         <v>17.7</v>
       </c>
       <c r="M284" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12353,7 +12359,7 @@
         <v>15.26</v>
       </c>
       <c r="M285" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12391,7 +12397,7 @@
         <v>16.98</v>
       </c>
       <c r="M286" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12432,7 +12438,7 @@
         <v>18.32</v>
       </c>
       <c r="M287" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12473,7 +12479,7 @@
         <v>15.86</v>
       </c>
       <c r="M288" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12511,7 +12517,7 @@
         <v>15.07</v>
       </c>
       <c r="M289" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12549,7 +12555,7 @@
         <v>14.7</v>
       </c>
       <c r="M290" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12587,7 +12593,7 @@
         <v>13.9</v>
       </c>
       <c r="M291" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12625,7 +12631,7 @@
         <v>13.81</v>
       </c>
       <c r="M292" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12663,7 +12669,7 @@
         <v>14.21</v>
       </c>
       <c r="M293" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12701,7 +12707,7 @@
         <v>15.34</v>
       </c>
       <c r="M294" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12739,7 +12745,7 @@
         <v>18.96</v>
       </c>
       <c r="M295" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12777,7 +12783,7 @@
         <v>18.54</v>
       </c>
       <c r="M296" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12818,7 +12824,7 @@
         <v>17.66</v>
       </c>
       <c r="M297" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12856,7 +12862,7 @@
         <v>17.54</v>
       </c>
       <c r="M298" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12894,7 +12900,7 @@
         <v>14.78</v>
       </c>
       <c r="M299" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12932,7 +12938,7 @@
         <v>17.87</v>
       </c>
       <c r="M300" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -12970,7 +12976,7 @@
         <v>17.1</v>
       </c>
       <c r="M301" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -13008,7 +13014,7 @@
         <v>16.07</v>
       </c>
       <c r="M302" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -13046,7 +13052,7 @@
         <v>17.18</v>
       </c>
       <c r="M303" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -13084,7 +13090,7 @@
         <v>15.96</v>
       </c>
       <c r="M304" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -13122,7 +13128,7 @@
         <v>14.88</v>
       </c>
       <c r="M305" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -13160,7 +13166,7 @@
         <v>14.65</v>
       </c>
       <c r="M306" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -13198,7 +13204,7 @@
         <v>15.19</v>
       </c>
       <c r="M307" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -13236,7 +13242,7 @@
         <v>14.49</v>
       </c>
       <c r="M308" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -13274,7 +13280,7 @@
         <v>12.86</v>
       </c>
       <c r="M309" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -13312,7 +13318,7 @@
         <v>12.68</v>
       </c>
       <c r="M310" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -13350,7 +13356,7 @@
         <v>10.82</v>
       </c>
       <c r="M311" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -13388,7 +13394,7 @@
         <v>11.52</v>
       </c>
       <c r="M312" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -13426,7 +13432,7 @@
         <v>10.87</v>
       </c>
       <c r="M313" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -13464,7 +13470,7 @@
         <v>10.99</v>
       </c>
       <c r="M314" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -13502,7 +13508,7 @@
         <v>9.75</v>
       </c>
       <c r="M315" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -13540,7 +13546,7 @@
         <v>10.09</v>
       </c>
       <c r="M316" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -13578,7 +13584,7 @@
         <v>11.81</v>
       </c>
       <c r="M317" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -13616,7 +13622,7 @@
         <v>12.05</v>
       </c>
       <c r="M318" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -13654,7 +13660,7 @@
         <v>12.21</v>
       </c>
       <c r="M319" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -13692,7 +13698,7 @@
         <v>10.92</v>
       </c>
       <c r="M320" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="321" spans="1:13">
@@ -13730,7 +13736,7 @@
         <v>13.82</v>
       </c>
       <c r="M321" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -13768,7 +13774,7 @@
         <v>13.89</v>
       </c>
       <c r="M322" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="323" spans="1:13">
@@ -13806,7 +13812,7 @@
         <v>14.33</v>
       </c>
       <c r="M323" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -13844,7 +13850,7 @@
         <v>16.3</v>
       </c>
       <c r="M324" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="325" spans="1:13">
@@ -13882,7 +13888,7 @@
         <v>16.58</v>
       </c>
       <c r="M325" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="326" spans="1:13">
@@ -13920,7 +13926,7 @@
         <v>20.33</v>
       </c>
       <c r="M326" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="327" spans="1:13">
@@ -13958,7 +13964,7 @@
         <v>20.1</v>
       </c>
       <c r="M327" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -13996,7 +14002,7 @@
         <v>21.27</v>
       </c>
       <c r="M328" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -14034,7 +14040,7 @@
         <v>18.92</v>
       </c>
       <c r="M329" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -14072,7 +14078,7 @@
         <v>18.45</v>
       </c>
       <c r="M330" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="331" spans="1:13">
@@ -14110,7 +14116,7 @@
         <v>17.78</v>
       </c>
       <c r="M331" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="332" spans="1:13">
@@ -14148,7 +14154,7 @@
         <v>19.28</v>
       </c>
       <c r="M332" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -14186,7 +14192,7 @@
         <v>17.41</v>
       </c>
       <c r="M333" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -14224,7 +14230,7 @@
         <v>16.84</v>
       </c>
       <c r="M334" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="335" spans="1:13">
@@ -14262,7 +14268,7 @@
         <v>16.92</v>
       </c>
       <c r="M335" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="336" spans="1:13">
@@ -14300,7 +14306,7 @@
         <v>15.99</v>
       </c>
       <c r="M336" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="337" spans="1:13">
@@ -14338,7 +14344,7 @@
         <v>17.84</v>
       </c>
       <c r="M337" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -14376,7 +14382,7 @@
         <v>19.93</v>
       </c>
       <c r="M338" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -14414,7 +14420,7 @@
         <v>17.63</v>
       </c>
       <c r="M339" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="340" spans="1:13">
@@ -14452,7 +14458,7 @@
         <v>20.42</v>
       </c>
       <c r="M340" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="341" spans="1:13">
@@ -14490,7 +14496,7 @@
         <v>18.37</v>
       </c>
       <c r="M341" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="342" spans="1:13">
@@ -14528,7 +14534,7 @@
         <v>15.91</v>
       </c>
       <c r="M342" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="343" spans="1:13">
@@ -14566,7 +14572,7 @@
         <v>18.58</v>
       </c>
       <c r="M343" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="344" spans="1:13">
@@ -14604,7 +14610,7 @@
         <v>16.17</v>
       </c>
       <c r="M344" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="345" spans="1:13">
@@ -14642,7 +14648,7 @@
         <v>14.78</v>
       </c>
       <c r="M345" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="346" spans="1:13">
@@ -14680,7 +14686,7 @@
         <v>13.25</v>
       </c>
       <c r="M346" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="347" spans="1:13">
@@ -14718,7 +14724,7 @@
         <v>17.63</v>
       </c>
       <c r="M347" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="348" spans="1:13">
@@ -14756,7 +14762,7 @@
         <v>16.5</v>
       </c>
       <c r="M348" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="349" spans="1:13">
@@ -14794,7 +14800,7 @@
         <v>16.88</v>
       </c>
       <c r="M349" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="350" spans="1:13">
@@ -14832,7 +14838,7 @@
         <v>16.83</v>
       </c>
       <c r="M350" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="351" spans="1:13">
@@ -14870,7 +14876,7 @@
         <v>18.76</v>
       </c>
       <c r="M351" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="352" spans="1:13">
@@ -14908,7 +14914,7 @@
         <v>17.63</v>
       </c>
       <c r="M352" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="353" spans="1:13">
@@ -14946,7 +14952,7 @@
         <v>18.61</v>
       </c>
       <c r="M353" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="354" spans="1:13">
@@ -14984,7 +14990,7 @@
         <v>16.53</v>
       </c>
       <c r="M354" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="355" spans="1:13">
@@ -15022,7 +15028,7 @@
         <v>16.58</v>
       </c>
       <c r="M355" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="356" spans="1:13">
@@ -15060,7 +15066,7 @@
         <v>15.48</v>
       </c>
       <c r="M356" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="357" spans="1:13">
@@ -15098,7 +15104,7 @@
         <v>17.83</v>
       </c>
       <c r="M357" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="358" spans="1:13">
@@ -15136,7 +15142,7 @@
         <v>17.73</v>
       </c>
       <c r="M358" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="359" spans="1:13">
@@ -15174,7 +15180,7 @@
         <v>16.94</v>
       </c>
       <c r="M359" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="360" spans="1:13">
@@ -15212,7 +15218,7 @@
         <v>15.35</v>
       </c>
       <c r="M360" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="361" spans="1:13">
@@ -15250,7 +15256,86 @@
         <v>13.03</v>
       </c>
       <c r="M361" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
         <v>372</v>
+      </c>
+      <c r="C362">
+        <v>11.84</v>
+      </c>
+      <c r="D362">
+        <v>66.7</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <v>23.46</v>
+      </c>
+      <c r="G362">
+        <v>33.05</v>
+      </c>
+      <c r="H362">
+        <v>855.27</v>
+      </c>
+      <c r="I362">
+        <v>16.88</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <v>15.77</v>
+      </c>
+      <c r="M362" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>373</v>
+      </c>
+      <c r="C363">
+        <v>11.84</v>
+      </c>
+      <c r="D363">
+        <v>73.70999999999999</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>23.12</v>
+      </c>
+      <c r="G363">
+        <v>38.62</v>
+      </c>
+      <c r="H363">
+        <v>855.47</v>
+      </c>
+      <c r="I363">
+        <v>18.14</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>2000</v>
+      </c>
+      <c r="L363">
+        <v>17.15</v>
+      </c>
+      <c r="M363" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="310">
   <si>
     <t>Fecha</t>
   </si>
@@ -923,6 +923,24 @@
   </si>
   <si>
     <t>11/17/2020 12:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:00:00 AM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1283,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M292"/>
+  <dimension ref="A1:M298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1365,7 +1383,7 @@
         <v>15.45</v>
       </c>
       <c r="M2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1403,7 +1421,7 @@
         <v>13.64</v>
       </c>
       <c r="M3" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1441,7 +1459,7 @@
         <v>13.92</v>
       </c>
       <c r="M4" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1479,7 +1497,7 @@
         <v>13.81</v>
       </c>
       <c r="M5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1517,7 +1535,7 @@
         <v>14.92</v>
       </c>
       <c r="M6" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1555,7 +1573,7 @@
         <v>16.89</v>
       </c>
       <c r="M7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1596,7 +1614,7 @@
         <v>12.69</v>
       </c>
       <c r="M8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1634,7 +1652,7 @@
         <v>11.24</v>
       </c>
       <c r="M9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1672,7 +1690,7 @@
         <v>11.77</v>
       </c>
       <c r="M10" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1710,7 +1728,7 @@
         <v>12.32</v>
       </c>
       <c r="M11" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1751,7 +1769,7 @@
         <v>11.18</v>
       </c>
       <c r="M12" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1792,7 +1810,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M13" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1830,7 +1848,7 @@
         <v>10.04</v>
       </c>
       <c r="M14" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1868,7 +1886,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="M15" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1906,7 +1924,7 @@
         <v>9.23</v>
       </c>
       <c r="M16" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1944,7 +1962,7 @@
         <v>7.91</v>
       </c>
       <c r="M17" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1982,7 +2000,7 @@
         <v>8.9</v>
       </c>
       <c r="M18" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2020,7 +2038,7 @@
         <v>9.16</v>
       </c>
       <c r="M19" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2058,7 +2076,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M20" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2096,7 +2114,7 @@
         <v>9.02</v>
       </c>
       <c r="M21" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2134,7 +2152,7 @@
         <v>9.26</v>
       </c>
       <c r="M22" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2172,7 +2190,7 @@
         <v>10.77</v>
       </c>
       <c r="M23" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2210,7 +2228,7 @@
         <v>10.04</v>
       </c>
       <c r="M24" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2248,7 +2266,7 @@
         <v>8.41</v>
       </c>
       <c r="M25" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2289,7 +2307,7 @@
         <v>7.21</v>
       </c>
       <c r="M26" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2327,7 +2345,7 @@
         <v>7.51</v>
       </c>
       <c r="M27" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2365,7 +2383,7 @@
         <v>6.91</v>
       </c>
       <c r="M28" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2403,7 +2421,7 @@
         <v>10.25</v>
       </c>
       <c r="M29" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2441,7 +2459,7 @@
         <v>11.27</v>
       </c>
       <c r="M30" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2479,7 +2497,7 @@
         <v>10.37</v>
       </c>
       <c r="M31" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2517,7 +2535,7 @@
         <v>9.74</v>
       </c>
       <c r="M32" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2555,7 +2573,7 @@
         <v>10.45</v>
       </c>
       <c r="M33" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2593,7 +2611,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="M34" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2631,7 +2649,7 @@
         <v>8.67</v>
       </c>
       <c r="M35" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2669,7 +2687,7 @@
         <v>7.78</v>
       </c>
       <c r="M36" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2707,7 +2725,7 @@
         <v>8.58</v>
       </c>
       <c r="M37" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2745,7 +2763,7 @@
         <v>12.49</v>
       </c>
       <c r="M38" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2783,7 +2801,7 @@
         <v>11.68</v>
       </c>
       <c r="M39" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2821,7 +2839,7 @@
         <v>10.03</v>
       </c>
       <c r="M40" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2859,7 +2877,7 @@
         <v>9.01</v>
       </c>
       <c r="M41" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2897,7 +2915,7 @@
         <v>10.46</v>
       </c>
       <c r="M42" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2935,7 +2953,7 @@
         <v>6.94</v>
       </c>
       <c r="M43" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2973,7 +2991,7 @@
         <v>7.29</v>
       </c>
       <c r="M44" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3011,7 +3029,7 @@
         <v>4.38</v>
       </c>
       <c r="M45" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3049,7 +3067,7 @@
         <v>7.58</v>
       </c>
       <c r="M46" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3087,7 +3105,7 @@
         <v>7.12</v>
       </c>
       <c r="M47" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3125,7 +3143,7 @@
         <v>10.59</v>
       </c>
       <c r="M48" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3163,7 +3181,7 @@
         <v>11.23</v>
       </c>
       <c r="M49" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3201,7 +3219,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="M50" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3239,7 +3257,7 @@
         <v>16.97</v>
       </c>
       <c r="M51" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3277,7 +3295,7 @@
         <v>14.3</v>
       </c>
       <c r="M52" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3315,7 +3333,7 @@
         <v>14.94</v>
       </c>
       <c r="M53" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3353,7 +3371,7 @@
         <v>14.8</v>
       </c>
       <c r="M54" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3391,7 +3409,7 @@
         <v>15.63</v>
       </c>
       <c r="M55" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3429,7 +3447,7 @@
         <v>16.21</v>
       </c>
       <c r="M56" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3467,7 +3485,7 @@
         <v>16.18</v>
       </c>
       <c r="M57" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3505,7 +3523,7 @@
         <v>15.54</v>
       </c>
       <c r="M58" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3543,7 +3561,7 @@
         <v>15.37</v>
       </c>
       <c r="M59" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3581,7 +3599,7 @@
         <v>14.7</v>
       </c>
       <c r="M60" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3619,7 +3637,7 @@
         <v>14.27</v>
       </c>
       <c r="M61" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3657,7 +3675,7 @@
         <v>12.96</v>
       </c>
       <c r="M62" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3695,7 +3713,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="M63" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3733,7 +3751,7 @@
         <v>11.39</v>
       </c>
       <c r="M64" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3771,7 +3789,7 @@
         <v>13.85</v>
       </c>
       <c r="M65" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3809,7 +3827,7 @@
         <v>10.31</v>
       </c>
       <c r="M66" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3847,7 +3865,7 @@
         <v>11.3</v>
       </c>
       <c r="M67" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3885,7 +3903,7 @@
         <v>12.67</v>
       </c>
       <c r="M68" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3923,7 +3941,7 @@
         <v>7.24</v>
       </c>
       <c r="M69" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3961,7 +3979,7 @@
         <v>6.5</v>
       </c>
       <c r="M70" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3999,7 +4017,7 @@
         <v>3.92</v>
       </c>
       <c r="M71" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4037,7 +4055,7 @@
         <v>5.48</v>
       </c>
       <c r="M72" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4075,7 +4093,7 @@
         <v>7.08</v>
       </c>
       <c r="M73" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4113,7 +4131,7 @@
         <v>7.57</v>
       </c>
       <c r="M74" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4151,7 +4169,7 @@
         <v>5.16</v>
       </c>
       <c r="M75" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4189,7 +4207,7 @@
         <v>3.36</v>
       </c>
       <c r="M76" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4227,7 +4245,7 @@
         <v>5.21</v>
       </c>
       <c r="M77" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4265,7 +4283,7 @@
         <v>7.26</v>
       </c>
       <c r="M78" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4303,7 +4321,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="M79" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4341,7 +4359,7 @@
         <v>11.39</v>
       </c>
       <c r="M80" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4379,7 +4397,7 @@
         <v>12.97</v>
       </c>
       <c r="M81" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4417,7 +4435,7 @@
         <v>13.48</v>
       </c>
       <c r="M82" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4455,7 +4473,7 @@
         <v>11.77</v>
       </c>
       <c r="M83" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4493,7 +4511,7 @@
         <v>11.04</v>
       </c>
       <c r="M84" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4531,7 +4549,7 @@
         <v>11.27</v>
       </c>
       <c r="M85" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4569,7 +4587,7 @@
         <v>13.32</v>
       </c>
       <c r="M86" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4607,7 +4625,7 @@
         <v>12.78</v>
       </c>
       <c r="M87" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4645,7 +4663,7 @@
         <v>13.57</v>
       </c>
       <c r="M88" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4683,7 +4701,7 @@
         <v>11.48</v>
       </c>
       <c r="M89" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4721,7 +4739,7 @@
         <v>13.18</v>
       </c>
       <c r="M90" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4759,7 +4777,7 @@
         <v>13.51</v>
       </c>
       <c r="M91" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4797,7 +4815,7 @@
         <v>14.56</v>
       </c>
       <c r="M92" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4835,7 +4853,7 @@
         <v>13.24</v>
       </c>
       <c r="M93" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4873,7 +4891,7 @@
         <v>12.07</v>
       </c>
       <c r="M94" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4911,7 +4929,7 @@
         <v>13.24</v>
       </c>
       <c r="M95" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4949,7 +4967,7 @@
         <v>13.17</v>
       </c>
       <c r="M96" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4987,7 +5005,7 @@
         <v>11.82</v>
       </c>
       <c r="M97" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5025,7 +5043,7 @@
         <v>11.22</v>
       </c>
       <c r="M98" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5066,7 +5084,7 @@
         <v>10.99</v>
       </c>
       <c r="M99" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5104,7 +5122,7 @@
         <v>10.84</v>
       </c>
       <c r="M100" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5142,7 +5160,7 @@
         <v>10.76</v>
       </c>
       <c r="M101" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5180,7 +5198,7 @@
         <v>9.35</v>
       </c>
       <c r="M102" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5218,7 +5236,7 @@
         <v>11.16</v>
       </c>
       <c r="M103" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5259,7 +5277,7 @@
         <v>11.56</v>
       </c>
       <c r="M104" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5297,7 +5315,7 @@
         <v>11.03</v>
       </c>
       <c r="M105" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5335,7 +5353,7 @@
         <v>10.92</v>
       </c>
       <c r="M106" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5373,7 +5391,7 @@
         <v>10.15</v>
       </c>
       <c r="M107" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5411,7 +5429,7 @@
         <v>11.06</v>
       </c>
       <c r="M108" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5449,7 +5467,7 @@
         <v>11.89</v>
       </c>
       <c r="M109" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5487,7 +5505,7 @@
         <v>13.29</v>
       </c>
       <c r="M110" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5525,7 +5543,7 @@
         <v>12.32</v>
       </c>
       <c r="M111" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5563,7 +5581,7 @@
         <v>11.48</v>
       </c>
       <c r="M112" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5601,7 +5619,7 @@
         <v>10.9</v>
       </c>
       <c r="M113" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5639,7 +5657,7 @@
         <v>9.82</v>
       </c>
       <c r="M114" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5677,7 +5695,7 @@
         <v>12.44</v>
       </c>
       <c r="M115" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5715,7 +5733,7 @@
         <v>9.34</v>
       </c>
       <c r="M116" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5753,7 +5771,7 @@
         <v>11.16</v>
       </c>
       <c r="M117" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5791,7 +5809,7 @@
         <v>10.92</v>
       </c>
       <c r="M118" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5829,7 +5847,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="M119" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5867,7 +5885,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="M120" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5905,7 +5923,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="M121" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5943,7 +5961,7 @@
         <v>9.67</v>
       </c>
       <c r="M122" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5981,7 +5999,7 @@
         <v>9.85</v>
       </c>
       <c r="M123" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6019,7 +6037,7 @@
         <v>10.34</v>
       </c>
       <c r="M124" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6057,7 +6075,7 @@
         <v>8.57</v>
       </c>
       <c r="M125" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6098,7 +6116,7 @@
         <v>10.87</v>
       </c>
       <c r="M126" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6139,7 +6157,7 @@
         <v>12.06</v>
       </c>
       <c r="M127" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6180,7 +6198,7 @@
         <v>12.68</v>
       </c>
       <c r="M128" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6218,7 +6236,7 @@
         <v>13.3</v>
       </c>
       <c r="M129" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6259,7 +6277,7 @@
         <v>14.4</v>
       </c>
       <c r="M130" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6297,7 +6315,7 @@
         <v>14.21</v>
       </c>
       <c r="M131" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6335,7 +6353,7 @@
         <v>14.11</v>
       </c>
       <c r="M132" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6373,7 +6391,7 @@
         <v>14.86</v>
       </c>
       <c r="M133" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6411,7 +6429,7 @@
         <v>13.75</v>
       </c>
       <c r="M134" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6449,7 +6467,7 @@
         <v>13.27</v>
       </c>
       <c r="M135" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6487,7 +6505,7 @@
         <v>16.19</v>
       </c>
       <c r="M136" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6525,7 +6543,7 @@
         <v>13.45</v>
       </c>
       <c r="M137" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6563,7 +6581,7 @@
         <v>13.81</v>
       </c>
       <c r="M138" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6601,7 +6619,7 @@
         <v>12.35</v>
       </c>
       <c r="M139" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6639,7 +6657,7 @@
         <v>14.65</v>
       </c>
       <c r="M140" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6677,7 +6695,7 @@
         <v>14.26</v>
       </c>
       <c r="M141" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6715,7 +6733,7 @@
         <v>15.06</v>
       </c>
       <c r="M142" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6753,7 +6771,7 @@
         <v>16.64</v>
       </c>
       <c r="M143" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6791,7 +6809,7 @@
         <v>14.62</v>
       </c>
       <c r="M144" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6829,7 +6847,7 @@
         <v>16.65</v>
       </c>
       <c r="M145" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6867,7 +6885,7 @@
         <v>15.81</v>
       </c>
       <c r="M146" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6905,7 +6923,7 @@
         <v>17.19</v>
       </c>
       <c r="M147" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6943,7 +6961,7 @@
         <v>17.52</v>
       </c>
       <c r="M148" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6981,7 +6999,7 @@
         <v>17.55</v>
       </c>
       <c r="M149" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7019,7 +7037,7 @@
         <v>19.89</v>
       </c>
       <c r="M150" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7057,7 +7075,7 @@
         <v>19.65</v>
       </c>
       <c r="M151" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7095,7 +7113,7 @@
         <v>19.57</v>
       </c>
       <c r="M152" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7133,7 +7151,7 @@
         <v>20.87</v>
       </c>
       <c r="M153" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7171,7 +7189,7 @@
         <v>18.27</v>
       </c>
       <c r="M154" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7209,7 +7227,7 @@
         <v>20.18</v>
       </c>
       <c r="M155" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7247,7 +7265,7 @@
         <v>21.17</v>
       </c>
       <c r="M156" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7285,7 +7303,7 @@
         <v>20.35</v>
       </c>
       <c r="M157" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7323,7 +7341,7 @@
         <v>20.14</v>
       </c>
       <c r="M158" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7361,7 +7379,7 @@
         <v>18.49</v>
       </c>
       <c r="M159" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7399,7 +7417,7 @@
         <v>17.3</v>
       </c>
       <c r="M160" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7437,7 +7455,7 @@
         <v>18.38</v>
       </c>
       <c r="M161" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7475,7 +7493,7 @@
         <v>18.37</v>
       </c>
       <c r="M162" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7513,7 +7531,7 @@
         <v>16.89</v>
       </c>
       <c r="M163" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7551,7 +7569,7 @@
         <v>18.91</v>
       </c>
       <c r="M164" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7589,7 +7607,7 @@
         <v>18.13</v>
       </c>
       <c r="M165" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7627,7 +7645,7 @@
         <v>17.87</v>
       </c>
       <c r="M166" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7665,7 +7683,7 @@
         <v>17.07</v>
       </c>
       <c r="M167" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7703,7 +7721,7 @@
         <v>16.31</v>
       </c>
       <c r="M168" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7741,7 +7759,7 @@
         <v>16.49</v>
       </c>
       <c r="M169" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7779,7 +7797,7 @@
         <v>18.86</v>
       </c>
       <c r="M170" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7817,7 +7835,7 @@
         <v>19.1</v>
       </c>
       <c r="M171" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7855,7 +7873,7 @@
         <v>21.04</v>
       </c>
       <c r="M172" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7893,7 +7911,7 @@
         <v>21.64</v>
       </c>
       <c r="M173" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7931,7 +7949,7 @@
         <v>21.35</v>
       </c>
       <c r="M174" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7969,7 +7987,7 @@
         <v>19.61</v>
       </c>
       <c r="M175" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8007,7 +8025,7 @@
         <v>15.91</v>
       </c>
       <c r="M176" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8045,7 +8063,7 @@
         <v>16.85</v>
       </c>
       <c r="M177" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8083,7 +8101,7 @@
         <v>17.81</v>
       </c>
       <c r="M178" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8124,7 +8142,7 @@
         <v>17.23</v>
       </c>
       <c r="M179" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8162,7 +8180,7 @@
         <v>18.89</v>
       </c>
       <c r="M180" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8200,7 +8218,7 @@
         <v>16.37</v>
       </c>
       <c r="M181" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8241,7 +8259,7 @@
         <v>20.51</v>
       </c>
       <c r="M182" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8279,7 +8297,7 @@
         <v>19.71</v>
       </c>
       <c r="M183" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8320,7 +8338,7 @@
         <v>20.14</v>
       </c>
       <c r="M184" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8358,7 +8376,7 @@
         <v>18.24</v>
       </c>
       <c r="M185" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8399,7 +8417,7 @@
         <v>19.69</v>
       </c>
       <c r="M186" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8440,7 +8458,7 @@
         <v>17.77</v>
       </c>
       <c r="M187" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8478,7 +8496,7 @@
         <v>18.93</v>
       </c>
       <c r="M188" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8516,7 +8534,7 @@
         <v>16.22</v>
       </c>
       <c r="M189" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8554,7 +8572,7 @@
         <v>17.54</v>
       </c>
       <c r="M190" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8592,7 +8610,7 @@
         <v>20.29</v>
       </c>
       <c r="M191" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8630,7 +8648,7 @@
         <v>18.59</v>
       </c>
       <c r="M192" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8671,7 +8689,7 @@
         <v>17.18</v>
       </c>
       <c r="M193" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8709,7 +8727,7 @@
         <v>18.08</v>
       </c>
       <c r="M194" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8747,7 +8765,7 @@
         <v>17.43</v>
       </c>
       <c r="M195" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8785,7 +8803,7 @@
         <v>15.45</v>
       </c>
       <c r="M196" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8823,7 +8841,7 @@
         <v>16.3</v>
       </c>
       <c r="M197" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8861,7 +8879,7 @@
         <v>17.87</v>
       </c>
       <c r="M198" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8899,7 +8917,7 @@
         <v>16.96</v>
       </c>
       <c r="M199" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8937,7 +8955,7 @@
         <v>17.71</v>
       </c>
       <c r="M200" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8975,7 +8993,7 @@
         <v>18.12</v>
       </c>
       <c r="M201" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9013,7 +9031,7 @@
         <v>18.09</v>
       </c>
       <c r="M202" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9051,7 +9069,7 @@
         <v>18.91</v>
       </c>
       <c r="M203" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9089,7 +9107,7 @@
         <v>20.05</v>
       </c>
       <c r="M204" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9127,7 +9145,7 @@
         <v>17.47</v>
       </c>
       <c r="M205" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9165,7 +9183,7 @@
         <v>18.33</v>
       </c>
       <c r="M206" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9203,7 +9221,7 @@
         <v>18.66</v>
       </c>
       <c r="M207" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9241,7 +9259,7 @@
         <v>18.23</v>
       </c>
       <c r="M208" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9279,7 +9297,7 @@
         <v>19.93</v>
       </c>
       <c r="M209" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9317,7 +9335,7 @@
         <v>18.84</v>
       </c>
       <c r="M210" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9355,7 +9373,7 @@
         <v>18.94</v>
       </c>
       <c r="M211" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9393,7 +9411,7 @@
         <v>19.56</v>
       </c>
       <c r="M212" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9431,7 +9449,7 @@
         <v>20.59</v>
       </c>
       <c r="M213" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9469,7 +9487,7 @@
         <v>20.72</v>
       </c>
       <c r="M214" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9507,7 +9525,7 @@
         <v>20.4</v>
       </c>
       <c r="M215" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9545,7 +9563,7 @@
         <v>19.37</v>
       </c>
       <c r="M216" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9583,7 +9601,7 @@
         <v>18.57</v>
       </c>
       <c r="M217" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9621,7 +9639,7 @@
         <v>17.78</v>
       </c>
       <c r="M218" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9659,7 +9677,7 @@
         <v>17.8</v>
       </c>
       <c r="M219" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9697,7 +9715,7 @@
         <v>19.09</v>
       </c>
       <c r="M220" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9735,7 +9753,7 @@
         <v>21.59</v>
       </c>
       <c r="M221" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9773,7 +9791,7 @@
         <v>22.81</v>
       </c>
       <c r="M222" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9811,7 +9829,7 @@
         <v>21.86</v>
       </c>
       <c r="M223" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9852,7 +9870,7 @@
         <v>21.52</v>
       </c>
       <c r="M224" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9890,7 +9908,7 @@
         <v>21.82</v>
       </c>
       <c r="M225" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9928,7 +9946,7 @@
         <v>25.78</v>
       </c>
       <c r="M226" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9966,7 +9984,7 @@
         <v>26.03</v>
       </c>
       <c r="M227" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10004,7 +10022,7 @@
         <v>27.64</v>
       </c>
       <c r="M228" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10042,7 +10060,7 @@
         <v>30.36</v>
       </c>
       <c r="M229" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10080,7 +10098,7 @@
         <v>29.21</v>
       </c>
       <c r="M230" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10118,7 +10136,7 @@
         <v>30.19</v>
       </c>
       <c r="M231" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10156,7 +10174,7 @@
         <v>30.52</v>
       </c>
       <c r="M232" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10194,7 +10212,7 @@
         <v>33.96</v>
       </c>
       <c r="M233" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10232,7 +10250,7 @@
         <v>36.6</v>
       </c>
       <c r="M234" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10270,7 +10288,7 @@
         <v>35.52</v>
       </c>
       <c r="M235" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10308,7 +10326,7 @@
         <v>35.63</v>
       </c>
       <c r="M236" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10346,7 +10364,7 @@
         <v>35.76</v>
       </c>
       <c r="M237" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10384,7 +10402,7 @@
         <v>36.51</v>
       </c>
       <c r="M238" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10422,7 +10440,7 @@
         <v>36.35</v>
       </c>
       <c r="M239" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10460,7 +10478,7 @@
         <v>31.64</v>
       </c>
       <c r="M240" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10498,7 +10516,7 @@
         <v>31.94</v>
       </c>
       <c r="M241" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10536,7 +10554,7 @@
         <v>30.43</v>
       </c>
       <c r="M242" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10574,7 +10592,7 @@
         <v>27.87</v>
       </c>
       <c r="M243" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10612,7 +10630,7 @@
         <v>28.3</v>
       </c>
       <c r="M244" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10650,7 +10668,7 @@
         <v>27.77</v>
       </c>
       <c r="M245" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10688,7 +10706,7 @@
         <v>27.98</v>
       </c>
       <c r="M246" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10726,7 +10744,7 @@
         <v>28.63</v>
       </c>
       <c r="M247" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10764,7 +10782,7 @@
         <v>30.23</v>
       </c>
       <c r="M248" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10802,7 +10820,7 @@
         <v>31.67</v>
       </c>
       <c r="M249" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10840,7 +10858,7 @@
         <v>29.64</v>
       </c>
       <c r="M250" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10878,7 +10896,7 @@
         <v>28.48</v>
       </c>
       <c r="M251" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10916,7 +10934,7 @@
         <v>28.47</v>
       </c>
       <c r="M252" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -10954,7 +10972,7 @@
         <v>29.68</v>
       </c>
       <c r="M253" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -10992,7 +11010,7 @@
         <v>29.35</v>
       </c>
       <c r="M254" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11030,7 +11048,7 @@
         <v>29.2</v>
       </c>
       <c r="M255" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11068,7 +11086,7 @@
         <v>28.61</v>
       </c>
       <c r="M256" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11106,7 +11124,7 @@
         <v>29.5</v>
       </c>
       <c r="M257" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11144,7 +11162,7 @@
         <v>29.08</v>
       </c>
       <c r="M258" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11182,7 +11200,7 @@
         <v>28.93</v>
       </c>
       <c r="M259" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11220,7 +11238,7 @@
         <v>27.66</v>
       </c>
       <c r="M260" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11258,7 +11276,7 @@
         <v>26.16</v>
       </c>
       <c r="M261" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11296,7 +11314,7 @@
         <v>27.91</v>
       </c>
       <c r="M262" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11334,7 +11352,7 @@
         <v>29.85</v>
       </c>
       <c r="M263" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11372,7 +11390,7 @@
         <v>25.83</v>
       </c>
       <c r="M264" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11410,7 +11428,7 @@
         <v>25.27</v>
       </c>
       <c r="M265" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11448,7 +11466,7 @@
         <v>28.01</v>
       </c>
       <c r="M266" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11486,7 +11504,7 @@
         <v>31.43</v>
       </c>
       <c r="M267" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11524,7 +11542,7 @@
         <v>27.68</v>
       </c>
       <c r="M268" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11562,7 +11580,7 @@
         <v>27.99</v>
       </c>
       <c r="M269" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11603,7 +11621,7 @@
         <v>26.04</v>
       </c>
       <c r="M270" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11641,7 +11659,7 @@
         <v>26.02</v>
       </c>
       <c r="M271" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11679,7 +11697,7 @@
         <v>24.91</v>
       </c>
       <c r="M272" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11717,7 +11735,7 @@
         <v>26.45</v>
       </c>
       <c r="M273" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11755,7 +11773,7 @@
         <v>24.93</v>
       </c>
       <c r="M274" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11793,7 +11811,7 @@
         <v>25.35</v>
       </c>
       <c r="M275" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11831,7 +11849,7 @@
         <v>26.26</v>
       </c>
       <c r="M276" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11869,7 +11887,7 @@
         <v>25.15</v>
       </c>
       <c r="M277" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -11907,7 +11925,7 @@
         <v>24.85</v>
       </c>
       <c r="M278" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -11945,7 +11963,7 @@
         <v>23.99</v>
       </c>
       <c r="M279" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -11983,7 +12001,7 @@
         <v>26.25</v>
       </c>
       <c r="M280" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12021,7 +12039,7 @@
         <v>25.39</v>
       </c>
       <c r="M281" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12059,7 +12077,7 @@
         <v>27.51</v>
       </c>
       <c r="M282" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12097,7 +12115,7 @@
         <v>29.2</v>
       </c>
       <c r="M283" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12135,7 +12153,7 @@
         <v>32.29</v>
       </c>
       <c r="M284" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12173,7 +12191,7 @@
         <v>27.93</v>
       </c>
       <c r="M285" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12211,7 +12229,7 @@
         <v>25.3</v>
       </c>
       <c r="M286" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12249,7 +12267,7 @@
         <v>27.19</v>
       </c>
       <c r="M287" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12287,7 +12305,7 @@
         <v>26.44</v>
       </c>
       <c r="M288" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12325,7 +12343,7 @@
         <v>23.44</v>
       </c>
       <c r="M289" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12363,7 +12381,7 @@
         <v>24.99</v>
       </c>
       <c r="M290" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12401,7 +12419,7 @@
         <v>23.2</v>
       </c>
       <c r="M291" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12439,7 +12457,235 @@
         <v>22.54</v>
       </c>
       <c r="M292" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
         <v>303</v>
+      </c>
+      <c r="C293">
+        <v>11.53</v>
+      </c>
+      <c r="D293">
+        <v>90.47</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>20.98</v>
+      </c>
+      <c r="G293">
+        <v>14.77</v>
+      </c>
+      <c r="H293">
+        <v>855.38</v>
+      </c>
+      <c r="I293">
+        <v>19.35</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>22.89</v>
+      </c>
+      <c r="M293" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>304</v>
+      </c>
+      <c r="C294">
+        <v>11.55</v>
+      </c>
+      <c r="D294">
+        <v>90.18000000000001</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>21.03</v>
+      </c>
+      <c r="G294">
+        <v>11.94</v>
+      </c>
+      <c r="H294">
+        <v>855.24</v>
+      </c>
+      <c r="I294">
+        <v>19.35</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>22.96</v>
+      </c>
+      <c r="M294" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>305</v>
+      </c>
+      <c r="C295">
+        <v>11.53</v>
+      </c>
+      <c r="D295">
+        <v>89.72</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>20.96</v>
+      </c>
+      <c r="G295">
+        <v>10.13</v>
+      </c>
+      <c r="H295">
+        <v>855.03</v>
+      </c>
+      <c r="I295">
+        <v>19.19</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>20.49</v>
+      </c>
+      <c r="M295" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>306</v>
+      </c>
+      <c r="C296">
+        <v>11.5</v>
+      </c>
+      <c r="D296">
+        <v>89.25</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>20.91</v>
+      </c>
+      <c r="G296">
+        <v>12.6</v>
+      </c>
+      <c r="H296">
+        <v>854.84</v>
+      </c>
+      <c r="I296">
+        <v>19.06</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>23.29</v>
+      </c>
+      <c r="M296" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>307</v>
+      </c>
+      <c r="C297">
+        <v>11.73</v>
+      </c>
+      <c r="D297">
+        <v>87.22</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>20.99</v>
+      </c>
+      <c r="G297">
+        <v>10.99</v>
+      </c>
+      <c r="H297">
+        <v>854.72</v>
+      </c>
+      <c r="I297">
+        <v>18.77</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>23.82</v>
+      </c>
+      <c r="M297" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>308</v>
+      </c>
+      <c r="C298">
+        <v>11.52</v>
+      </c>
+      <c r="D298">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>21.04</v>
+      </c>
+      <c r="G298">
+        <v>10.08</v>
+      </c>
+      <c r="H298">
+        <v>854.5700000000001</v>
+      </c>
+      <c r="I298">
+        <v>18.47</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>19.8</v>
+      </c>
+      <c r="M298" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="317">
   <si>
     <t>Fecha</t>
   </si>
@@ -941,6 +941,27 @@
   </si>
   <si>
     <t>11/17/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:45:00 AM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1301,7 +1322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M298"/>
+  <dimension ref="A1:M305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1383,7 +1404,7 @@
         <v>15.45</v>
       </c>
       <c r="M2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1421,7 +1442,7 @@
         <v>13.64</v>
       </c>
       <c r="M3" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1459,7 +1480,7 @@
         <v>13.92</v>
       </c>
       <c r="M4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1497,7 +1518,7 @@
         <v>13.81</v>
       </c>
       <c r="M5" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1535,7 +1556,7 @@
         <v>14.92</v>
       </c>
       <c r="M6" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1573,7 +1594,7 @@
         <v>16.89</v>
       </c>
       <c r="M7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1614,7 +1635,7 @@
         <v>12.69</v>
       </c>
       <c r="M8" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1652,7 +1673,7 @@
         <v>11.24</v>
       </c>
       <c r="M9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1690,7 +1711,7 @@
         <v>11.77</v>
       </c>
       <c r="M10" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1728,7 +1749,7 @@
         <v>12.32</v>
       </c>
       <c r="M11" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1769,7 +1790,7 @@
         <v>11.18</v>
       </c>
       <c r="M12" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1810,7 +1831,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M13" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1848,7 +1869,7 @@
         <v>10.04</v>
       </c>
       <c r="M14" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1886,7 +1907,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="M15" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1924,7 +1945,7 @@
         <v>9.23</v>
       </c>
       <c r="M16" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1962,7 +1983,7 @@
         <v>7.91</v>
       </c>
       <c r="M17" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2000,7 +2021,7 @@
         <v>8.9</v>
       </c>
       <c r="M18" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2038,7 +2059,7 @@
         <v>9.16</v>
       </c>
       <c r="M19" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2076,7 +2097,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M20" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2114,7 +2135,7 @@
         <v>9.02</v>
       </c>
       <c r="M21" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2152,7 +2173,7 @@
         <v>9.26</v>
       </c>
       <c r="M22" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2190,7 +2211,7 @@
         <v>10.77</v>
       </c>
       <c r="M23" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2228,7 +2249,7 @@
         <v>10.04</v>
       </c>
       <c r="M24" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2266,7 +2287,7 @@
         <v>8.41</v>
       </c>
       <c r="M25" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2307,7 +2328,7 @@
         <v>7.21</v>
       </c>
       <c r="M26" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2345,7 +2366,7 @@
         <v>7.51</v>
       </c>
       <c r="M27" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2383,7 +2404,7 @@
         <v>6.91</v>
       </c>
       <c r="M28" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2421,7 +2442,7 @@
         <v>10.25</v>
       </c>
       <c r="M29" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2459,7 +2480,7 @@
         <v>11.27</v>
       </c>
       <c r="M30" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2497,7 +2518,7 @@
         <v>10.37</v>
       </c>
       <c r="M31" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2535,7 +2556,7 @@
         <v>9.74</v>
       </c>
       <c r="M32" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2573,7 +2594,7 @@
         <v>10.45</v>
       </c>
       <c r="M33" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2611,7 +2632,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="M34" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2649,7 +2670,7 @@
         <v>8.67</v>
       </c>
       <c r="M35" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2687,7 +2708,7 @@
         <v>7.78</v>
       </c>
       <c r="M36" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2725,7 +2746,7 @@
         <v>8.58</v>
       </c>
       <c r="M37" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2763,7 +2784,7 @@
         <v>12.49</v>
       </c>
       <c r="M38" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2801,7 +2822,7 @@
         <v>11.68</v>
       </c>
       <c r="M39" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2839,7 +2860,7 @@
         <v>10.03</v>
       </c>
       <c r="M40" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2877,7 +2898,7 @@
         <v>9.01</v>
       </c>
       <c r="M41" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2915,7 +2936,7 @@
         <v>10.46</v>
       </c>
       <c r="M42" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2953,7 +2974,7 @@
         <v>6.94</v>
       </c>
       <c r="M43" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2991,7 +3012,7 @@
         <v>7.29</v>
       </c>
       <c r="M44" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3029,7 +3050,7 @@
         <v>4.38</v>
       </c>
       <c r="M45" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3067,7 +3088,7 @@
         <v>7.58</v>
       </c>
       <c r="M46" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3105,7 +3126,7 @@
         <v>7.12</v>
       </c>
       <c r="M47" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3143,7 +3164,7 @@
         <v>10.59</v>
       </c>
       <c r="M48" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3181,7 +3202,7 @@
         <v>11.23</v>
       </c>
       <c r="M49" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3219,7 +3240,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="M50" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3257,7 +3278,7 @@
         <v>16.97</v>
       </c>
       <c r="M51" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3295,7 +3316,7 @@
         <v>14.3</v>
       </c>
       <c r="M52" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3333,7 +3354,7 @@
         <v>14.94</v>
       </c>
       <c r="M53" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3371,7 +3392,7 @@
         <v>14.8</v>
       </c>
       <c r="M54" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3409,7 +3430,7 @@
         <v>15.63</v>
       </c>
       <c r="M55" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3447,7 +3468,7 @@
         <v>16.21</v>
       </c>
       <c r="M56" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3485,7 +3506,7 @@
         <v>16.18</v>
       </c>
       <c r="M57" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3523,7 +3544,7 @@
         <v>15.54</v>
       </c>
       <c r="M58" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3561,7 +3582,7 @@
         <v>15.37</v>
       </c>
       <c r="M59" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3599,7 +3620,7 @@
         <v>14.7</v>
       </c>
       <c r="M60" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3637,7 +3658,7 @@
         <v>14.27</v>
       </c>
       <c r="M61" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3675,7 +3696,7 @@
         <v>12.96</v>
       </c>
       <c r="M62" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3713,7 +3734,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="M63" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3751,7 +3772,7 @@
         <v>11.39</v>
       </c>
       <c r="M64" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3789,7 +3810,7 @@
         <v>13.85</v>
       </c>
       <c r="M65" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3827,7 +3848,7 @@
         <v>10.31</v>
       </c>
       <c r="M66" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3865,7 +3886,7 @@
         <v>11.3</v>
       </c>
       <c r="M67" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3903,7 +3924,7 @@
         <v>12.67</v>
       </c>
       <c r="M68" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3941,7 +3962,7 @@
         <v>7.24</v>
       </c>
       <c r="M69" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3979,7 +4000,7 @@
         <v>6.5</v>
       </c>
       <c r="M70" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4017,7 +4038,7 @@
         <v>3.92</v>
       </c>
       <c r="M71" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4055,7 +4076,7 @@
         <v>5.48</v>
       </c>
       <c r="M72" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4093,7 +4114,7 @@
         <v>7.08</v>
       </c>
       <c r="M73" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4131,7 +4152,7 @@
         <v>7.57</v>
       </c>
       <c r="M74" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4169,7 +4190,7 @@
         <v>5.16</v>
       </c>
       <c r="M75" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4207,7 +4228,7 @@
         <v>3.36</v>
       </c>
       <c r="M76" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4245,7 +4266,7 @@
         <v>5.21</v>
       </c>
       <c r="M77" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4283,7 +4304,7 @@
         <v>7.26</v>
       </c>
       <c r="M78" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4321,7 +4342,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="M79" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4359,7 +4380,7 @@
         <v>11.39</v>
       </c>
       <c r="M80" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4397,7 +4418,7 @@
         <v>12.97</v>
       </c>
       <c r="M81" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4435,7 +4456,7 @@
         <v>13.48</v>
       </c>
       <c r="M82" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4473,7 +4494,7 @@
         <v>11.77</v>
       </c>
       <c r="M83" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4511,7 +4532,7 @@
         <v>11.04</v>
       </c>
       <c r="M84" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4549,7 +4570,7 @@
         <v>11.27</v>
       </c>
       <c r="M85" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4587,7 +4608,7 @@
         <v>13.32</v>
       </c>
       <c r="M86" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4625,7 +4646,7 @@
         <v>12.78</v>
       </c>
       <c r="M87" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4663,7 +4684,7 @@
         <v>13.57</v>
       </c>
       <c r="M88" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4701,7 +4722,7 @@
         <v>11.48</v>
       </c>
       <c r="M89" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4739,7 +4760,7 @@
         <v>13.18</v>
       </c>
       <c r="M90" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4777,7 +4798,7 @@
         <v>13.51</v>
       </c>
       <c r="M91" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4815,7 +4836,7 @@
         <v>14.56</v>
       </c>
       <c r="M92" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4853,7 +4874,7 @@
         <v>13.24</v>
       </c>
       <c r="M93" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4891,7 +4912,7 @@
         <v>12.07</v>
       </c>
       <c r="M94" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4929,7 +4950,7 @@
         <v>13.24</v>
       </c>
       <c r="M95" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4967,7 +4988,7 @@
         <v>13.17</v>
       </c>
       <c r="M96" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5005,7 +5026,7 @@
         <v>11.82</v>
       </c>
       <c r="M97" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5043,7 +5064,7 @@
         <v>11.22</v>
       </c>
       <c r="M98" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5084,7 +5105,7 @@
         <v>10.99</v>
       </c>
       <c r="M99" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5122,7 +5143,7 @@
         <v>10.84</v>
       </c>
       <c r="M100" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5160,7 +5181,7 @@
         <v>10.76</v>
       </c>
       <c r="M101" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5198,7 +5219,7 @@
         <v>9.35</v>
       </c>
       <c r="M102" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5236,7 +5257,7 @@
         <v>11.16</v>
       </c>
       <c r="M103" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5277,7 +5298,7 @@
         <v>11.56</v>
       </c>
       <c r="M104" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5315,7 +5336,7 @@
         <v>11.03</v>
       </c>
       <c r="M105" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5353,7 +5374,7 @@
         <v>10.92</v>
       </c>
       <c r="M106" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5391,7 +5412,7 @@
         <v>10.15</v>
       </c>
       <c r="M107" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5429,7 +5450,7 @@
         <v>11.06</v>
       </c>
       <c r="M108" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5467,7 +5488,7 @@
         <v>11.89</v>
       </c>
       <c r="M109" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5505,7 +5526,7 @@
         <v>13.29</v>
       </c>
       <c r="M110" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5543,7 +5564,7 @@
         <v>12.32</v>
       </c>
       <c r="M111" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5581,7 +5602,7 @@
         <v>11.48</v>
       </c>
       <c r="M112" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5619,7 +5640,7 @@
         <v>10.9</v>
       </c>
       <c r="M113" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5657,7 +5678,7 @@
         <v>9.82</v>
       </c>
       <c r="M114" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5695,7 +5716,7 @@
         <v>12.44</v>
       </c>
       <c r="M115" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5733,7 +5754,7 @@
         <v>9.34</v>
       </c>
       <c r="M116" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5771,7 +5792,7 @@
         <v>11.16</v>
       </c>
       <c r="M117" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5809,7 +5830,7 @@
         <v>10.92</v>
       </c>
       <c r="M118" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5847,7 +5868,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="M119" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5885,7 +5906,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="M120" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5923,7 +5944,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="M121" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5961,7 +5982,7 @@
         <v>9.67</v>
       </c>
       <c r="M122" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5999,7 +6020,7 @@
         <v>9.85</v>
       </c>
       <c r="M123" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6037,7 +6058,7 @@
         <v>10.34</v>
       </c>
       <c r="M124" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6075,7 +6096,7 @@
         <v>8.57</v>
       </c>
       <c r="M125" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6116,7 +6137,7 @@
         <v>10.87</v>
       </c>
       <c r="M126" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6157,7 +6178,7 @@
         <v>12.06</v>
       </c>
       <c r="M127" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6198,7 +6219,7 @@
         <v>12.68</v>
       </c>
       <c r="M128" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6236,7 +6257,7 @@
         <v>13.3</v>
       </c>
       <c r="M129" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6277,7 +6298,7 @@
         <v>14.4</v>
       </c>
       <c r="M130" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6315,7 +6336,7 @@
         <v>14.21</v>
       </c>
       <c r="M131" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6353,7 +6374,7 @@
         <v>14.11</v>
       </c>
       <c r="M132" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6391,7 +6412,7 @@
         <v>14.86</v>
       </c>
       <c r="M133" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6429,7 +6450,7 @@
         <v>13.75</v>
       </c>
       <c r="M134" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6467,7 +6488,7 @@
         <v>13.27</v>
       </c>
       <c r="M135" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6505,7 +6526,7 @@
         <v>16.19</v>
       </c>
       <c r="M136" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6543,7 +6564,7 @@
         <v>13.45</v>
       </c>
       <c r="M137" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6581,7 +6602,7 @@
         <v>13.81</v>
       </c>
       <c r="M138" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6619,7 +6640,7 @@
         <v>12.35</v>
       </c>
       <c r="M139" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6657,7 +6678,7 @@
         <v>14.65</v>
       </c>
       <c r="M140" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6695,7 +6716,7 @@
         <v>14.26</v>
       </c>
       <c r="M141" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6733,7 +6754,7 @@
         <v>15.06</v>
       </c>
       <c r="M142" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6771,7 +6792,7 @@
         <v>16.64</v>
       </c>
       <c r="M143" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6809,7 +6830,7 @@
         <v>14.62</v>
       </c>
       <c r="M144" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6847,7 +6868,7 @@
         <v>16.65</v>
       </c>
       <c r="M145" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6885,7 +6906,7 @@
         <v>15.81</v>
       </c>
       <c r="M146" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6923,7 +6944,7 @@
         <v>17.19</v>
       </c>
       <c r="M147" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6961,7 +6982,7 @@
         <v>17.52</v>
       </c>
       <c r="M148" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6999,7 +7020,7 @@
         <v>17.55</v>
       </c>
       <c r="M149" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7037,7 +7058,7 @@
         <v>19.89</v>
       </c>
       <c r="M150" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7075,7 +7096,7 @@
         <v>19.65</v>
       </c>
       <c r="M151" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7113,7 +7134,7 @@
         <v>19.57</v>
       </c>
       <c r="M152" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7151,7 +7172,7 @@
         <v>20.87</v>
       </c>
       <c r="M153" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7189,7 +7210,7 @@
         <v>18.27</v>
       </c>
       <c r="M154" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7227,7 +7248,7 @@
         <v>20.18</v>
       </c>
       <c r="M155" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7265,7 +7286,7 @@
         <v>21.17</v>
       </c>
       <c r="M156" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7303,7 +7324,7 @@
         <v>20.35</v>
       </c>
       <c r="M157" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7341,7 +7362,7 @@
         <v>20.14</v>
       </c>
       <c r="M158" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7379,7 +7400,7 @@
         <v>18.49</v>
       </c>
       <c r="M159" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7417,7 +7438,7 @@
         <v>17.3</v>
       </c>
       <c r="M160" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7455,7 +7476,7 @@
         <v>18.38</v>
       </c>
       <c r="M161" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7493,7 +7514,7 @@
         <v>18.37</v>
       </c>
       <c r="M162" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7531,7 +7552,7 @@
         <v>16.89</v>
       </c>
       <c r="M163" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7569,7 +7590,7 @@
         <v>18.91</v>
       </c>
       <c r="M164" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7607,7 +7628,7 @@
         <v>18.13</v>
       </c>
       <c r="M165" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7645,7 +7666,7 @@
         <v>17.87</v>
       </c>
       <c r="M166" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7683,7 +7704,7 @@
         <v>17.07</v>
       </c>
       <c r="M167" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7721,7 +7742,7 @@
         <v>16.31</v>
       </c>
       <c r="M168" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7759,7 +7780,7 @@
         <v>16.49</v>
       </c>
       <c r="M169" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7797,7 +7818,7 @@
         <v>18.86</v>
       </c>
       <c r="M170" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7835,7 +7856,7 @@
         <v>19.1</v>
       </c>
       <c r="M171" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7873,7 +7894,7 @@
         <v>21.04</v>
       </c>
       <c r="M172" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7911,7 +7932,7 @@
         <v>21.64</v>
       </c>
       <c r="M173" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7949,7 +7970,7 @@
         <v>21.35</v>
       </c>
       <c r="M174" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7987,7 +8008,7 @@
         <v>19.61</v>
       </c>
       <c r="M175" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8025,7 +8046,7 @@
         <v>15.91</v>
       </c>
       <c r="M176" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8063,7 +8084,7 @@
         <v>16.85</v>
       </c>
       <c r="M177" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8101,7 +8122,7 @@
         <v>17.81</v>
       </c>
       <c r="M178" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8142,7 +8163,7 @@
         <v>17.23</v>
       </c>
       <c r="M179" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8180,7 +8201,7 @@
         <v>18.89</v>
       </c>
       <c r="M180" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8218,7 +8239,7 @@
         <v>16.37</v>
       </c>
       <c r="M181" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8259,7 +8280,7 @@
         <v>20.51</v>
       </c>
       <c r="M182" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8297,7 +8318,7 @@
         <v>19.71</v>
       </c>
       <c r="M183" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8338,7 +8359,7 @@
         <v>20.14</v>
       </c>
       <c r="M184" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8376,7 +8397,7 @@
         <v>18.24</v>
       </c>
       <c r="M185" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8417,7 +8438,7 @@
         <v>19.69</v>
       </c>
       <c r="M186" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8458,7 +8479,7 @@
         <v>17.77</v>
       </c>
       <c r="M187" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8496,7 +8517,7 @@
         <v>18.93</v>
       </c>
       <c r="M188" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8534,7 +8555,7 @@
         <v>16.22</v>
       </c>
       <c r="M189" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8572,7 +8593,7 @@
         <v>17.54</v>
       </c>
       <c r="M190" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8610,7 +8631,7 @@
         <v>20.29</v>
       </c>
       <c r="M191" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8648,7 +8669,7 @@
         <v>18.59</v>
       </c>
       <c r="M192" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8689,7 +8710,7 @@
         <v>17.18</v>
       </c>
       <c r="M193" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8727,7 +8748,7 @@
         <v>18.08</v>
       </c>
       <c r="M194" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8765,7 +8786,7 @@
         <v>17.43</v>
       </c>
       <c r="M195" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8803,7 +8824,7 @@
         <v>15.45</v>
       </c>
       <c r="M196" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8841,7 +8862,7 @@
         <v>16.3</v>
       </c>
       <c r="M197" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8879,7 +8900,7 @@
         <v>17.87</v>
       </c>
       <c r="M198" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8917,7 +8938,7 @@
         <v>16.96</v>
       </c>
       <c r="M199" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8955,7 +8976,7 @@
         <v>17.71</v>
       </c>
       <c r="M200" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8993,7 +9014,7 @@
         <v>18.12</v>
       </c>
       <c r="M201" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9031,7 +9052,7 @@
         <v>18.09</v>
       </c>
       <c r="M202" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9069,7 +9090,7 @@
         <v>18.91</v>
       </c>
       <c r="M203" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9107,7 +9128,7 @@
         <v>20.05</v>
       </c>
       <c r="M204" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9145,7 +9166,7 @@
         <v>17.47</v>
       </c>
       <c r="M205" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9183,7 +9204,7 @@
         <v>18.33</v>
       </c>
       <c r="M206" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9221,7 +9242,7 @@
         <v>18.66</v>
       </c>
       <c r="M207" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9259,7 +9280,7 @@
         <v>18.23</v>
       </c>
       <c r="M208" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9297,7 +9318,7 @@
         <v>19.93</v>
       </c>
       <c r="M209" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9335,7 +9356,7 @@
         <v>18.84</v>
       </c>
       <c r="M210" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9373,7 +9394,7 @@
         <v>18.94</v>
       </c>
       <c r="M211" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9411,7 +9432,7 @@
         <v>19.56</v>
       </c>
       <c r="M212" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9449,7 +9470,7 @@
         <v>20.59</v>
       </c>
       <c r="M213" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9487,7 +9508,7 @@
         <v>20.72</v>
       </c>
       <c r="M214" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9525,7 +9546,7 @@
         <v>20.4</v>
       </c>
       <c r="M215" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9563,7 +9584,7 @@
         <v>19.37</v>
       </c>
       <c r="M216" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9601,7 +9622,7 @@
         <v>18.57</v>
       </c>
       <c r="M217" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9639,7 +9660,7 @@
         <v>17.78</v>
       </c>
       <c r="M218" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9677,7 +9698,7 @@
         <v>17.8</v>
       </c>
       <c r="M219" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9715,7 +9736,7 @@
         <v>19.09</v>
       </c>
       <c r="M220" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9753,7 +9774,7 @@
         <v>21.59</v>
       </c>
       <c r="M221" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9791,7 +9812,7 @@
         <v>22.81</v>
       </c>
       <c r="M222" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9829,7 +9850,7 @@
         <v>21.86</v>
       </c>
       <c r="M223" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9870,7 +9891,7 @@
         <v>21.52</v>
       </c>
       <c r="M224" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9908,7 +9929,7 @@
         <v>21.82</v>
       </c>
       <c r="M225" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9946,7 +9967,7 @@
         <v>25.78</v>
       </c>
       <c r="M226" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9984,7 +10005,7 @@
         <v>26.03</v>
       </c>
       <c r="M227" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10022,7 +10043,7 @@
         <v>27.64</v>
       </c>
       <c r="M228" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10060,7 +10081,7 @@
         <v>30.36</v>
       </c>
       <c r="M229" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10098,7 +10119,7 @@
         <v>29.21</v>
       </c>
       <c r="M230" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10136,7 +10157,7 @@
         <v>30.19</v>
       </c>
       <c r="M231" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10174,7 +10195,7 @@
         <v>30.52</v>
       </c>
       <c r="M232" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10212,7 +10233,7 @@
         <v>33.96</v>
       </c>
       <c r="M233" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10250,7 +10271,7 @@
         <v>36.6</v>
       </c>
       <c r="M234" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10288,7 +10309,7 @@
         <v>35.52</v>
       </c>
       <c r="M235" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10326,7 +10347,7 @@
         <v>35.63</v>
       </c>
       <c r="M236" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10364,7 +10385,7 @@
         <v>35.76</v>
       </c>
       <c r="M237" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10402,7 +10423,7 @@
         <v>36.51</v>
       </c>
       <c r="M238" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10440,7 +10461,7 @@
         <v>36.35</v>
       </c>
       <c r="M239" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10478,7 +10499,7 @@
         <v>31.64</v>
       </c>
       <c r="M240" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10516,7 +10537,7 @@
         <v>31.94</v>
       </c>
       <c r="M241" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10554,7 +10575,7 @@
         <v>30.43</v>
       </c>
       <c r="M242" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10592,7 +10613,7 @@
         <v>27.87</v>
       </c>
       <c r="M243" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10630,7 +10651,7 @@
         <v>28.3</v>
       </c>
       <c r="M244" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10668,7 +10689,7 @@
         <v>27.77</v>
       </c>
       <c r="M245" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10706,7 +10727,7 @@
         <v>27.98</v>
       </c>
       <c r="M246" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10744,7 +10765,7 @@
         <v>28.63</v>
       </c>
       <c r="M247" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10782,7 +10803,7 @@
         <v>30.23</v>
       </c>
       <c r="M248" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10820,7 +10841,7 @@
         <v>31.67</v>
       </c>
       <c r="M249" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10858,7 +10879,7 @@
         <v>29.64</v>
       </c>
       <c r="M250" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10896,7 +10917,7 @@
         <v>28.48</v>
       </c>
       <c r="M251" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10934,7 +10955,7 @@
         <v>28.47</v>
       </c>
       <c r="M252" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -10972,7 +10993,7 @@
         <v>29.68</v>
       </c>
       <c r="M253" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11010,7 +11031,7 @@
         <v>29.35</v>
       </c>
       <c r="M254" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11048,7 +11069,7 @@
         <v>29.2</v>
       </c>
       <c r="M255" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11086,7 +11107,7 @@
         <v>28.61</v>
       </c>
       <c r="M256" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11124,7 +11145,7 @@
         <v>29.5</v>
       </c>
       <c r="M257" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11162,7 +11183,7 @@
         <v>29.08</v>
       </c>
       <c r="M258" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11200,7 +11221,7 @@
         <v>28.93</v>
       </c>
       <c r="M259" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11238,7 +11259,7 @@
         <v>27.66</v>
       </c>
       <c r="M260" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11276,7 +11297,7 @@
         <v>26.16</v>
       </c>
       <c r="M261" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11314,7 +11335,7 @@
         <v>27.91</v>
       </c>
       <c r="M262" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11352,7 +11373,7 @@
         <v>29.85</v>
       </c>
       <c r="M263" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11390,7 +11411,7 @@
         <v>25.83</v>
       </c>
       <c r="M264" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11428,7 +11449,7 @@
         <v>25.27</v>
       </c>
       <c r="M265" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11466,7 +11487,7 @@
         <v>28.01</v>
       </c>
       <c r="M266" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11504,7 +11525,7 @@
         <v>31.43</v>
       </c>
       <c r="M267" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11542,7 +11563,7 @@
         <v>27.68</v>
       </c>
       <c r="M268" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11580,7 +11601,7 @@
         <v>27.99</v>
       </c>
       <c r="M269" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11621,7 +11642,7 @@
         <v>26.04</v>
       </c>
       <c r="M270" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11659,7 +11680,7 @@
         <v>26.02</v>
       </c>
       <c r="M271" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11697,7 +11718,7 @@
         <v>24.91</v>
       </c>
       <c r="M272" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11735,7 +11756,7 @@
         <v>26.45</v>
       </c>
       <c r="M273" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11773,7 +11794,7 @@
         <v>24.93</v>
       </c>
       <c r="M274" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11811,7 +11832,7 @@
         <v>25.35</v>
       </c>
       <c r="M275" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11849,7 +11870,7 @@
         <v>26.26</v>
       </c>
       <c r="M276" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11887,7 +11908,7 @@
         <v>25.15</v>
       </c>
       <c r="M277" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -11925,7 +11946,7 @@
         <v>24.85</v>
       </c>
       <c r="M278" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -11963,7 +11984,7 @@
         <v>23.99</v>
       </c>
       <c r="M279" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -12001,7 +12022,7 @@
         <v>26.25</v>
       </c>
       <c r="M280" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12039,7 +12060,7 @@
         <v>25.39</v>
       </c>
       <c r="M281" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12077,7 +12098,7 @@
         <v>27.51</v>
       </c>
       <c r="M282" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12115,7 +12136,7 @@
         <v>29.2</v>
       </c>
       <c r="M283" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12153,7 +12174,7 @@
         <v>32.29</v>
       </c>
       <c r="M284" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12191,7 +12212,7 @@
         <v>27.93</v>
       </c>
       <c r="M285" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12229,7 +12250,7 @@
         <v>25.3</v>
       </c>
       <c r="M286" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12267,7 +12288,7 @@
         <v>27.19</v>
       </c>
       <c r="M287" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12305,7 +12326,7 @@
         <v>26.44</v>
       </c>
       <c r="M288" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12343,7 +12364,7 @@
         <v>23.44</v>
       </c>
       <c r="M289" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12381,7 +12402,7 @@
         <v>24.99</v>
       </c>
       <c r="M290" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12419,7 +12440,7 @@
         <v>23.2</v>
       </c>
       <c r="M291" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12457,7 +12478,7 @@
         <v>22.54</v>
       </c>
       <c r="M292" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12495,7 +12516,7 @@
         <v>22.89</v>
       </c>
       <c r="M293" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12533,7 +12554,7 @@
         <v>22.96</v>
       </c>
       <c r="M294" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12571,7 +12592,7 @@
         <v>20.49</v>
       </c>
       <c r="M295" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12609,7 +12630,7 @@
         <v>23.29</v>
       </c>
       <c r="M296" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12647,7 +12668,7 @@
         <v>23.82</v>
       </c>
       <c r="M297" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12685,7 +12706,273 @@
         <v>19.8</v>
       </c>
       <c r="M298" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
         <v>309</v>
+      </c>
+      <c r="C299">
+        <v>11.52</v>
+      </c>
+      <c r="D299">
+        <v>85.97</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>20.94</v>
+      </c>
+      <c r="G299">
+        <v>18.73</v>
+      </c>
+      <c r="H299">
+        <v>854.49</v>
+      </c>
+      <c r="I299">
+        <v>18.49</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>19.87</v>
+      </c>
+      <c r="M299" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>310</v>
+      </c>
+      <c r="C300">
+        <v>11.51</v>
+      </c>
+      <c r="D300">
+        <v>87.23999999999999</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>20.86</v>
+      </c>
+      <c r="G300">
+        <v>22.2</v>
+      </c>
+      <c r="H300">
+        <v>854.49</v>
+      </c>
+      <c r="I300">
+        <v>18.65</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>20.56</v>
+      </c>
+      <c r="M300" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>311</v>
+      </c>
+      <c r="C301">
+        <v>11.55</v>
+      </c>
+      <c r="D301">
+        <v>87.14</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>20.93</v>
+      </c>
+      <c r="G301">
+        <v>13.19</v>
+      </c>
+      <c r="H301">
+        <v>854.41</v>
+      </c>
+      <c r="I301">
+        <v>18.7</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>22.25</v>
+      </c>
+      <c r="M301" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>312</v>
+      </c>
+      <c r="C302">
+        <v>11.54</v>
+      </c>
+      <c r="D302">
+        <v>85.91</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>21.05</v>
+      </c>
+      <c r="G302">
+        <v>20.09</v>
+      </c>
+      <c r="H302">
+        <v>854.47</v>
+      </c>
+      <c r="I302">
+        <v>18.59</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>24.57</v>
+      </c>
+      <c r="M302" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>313</v>
+      </c>
+      <c r="C303">
+        <v>11.48</v>
+      </c>
+      <c r="D303">
+        <v>85.18000000000001</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>21.11</v>
+      </c>
+      <c r="G303">
+        <v>18.19</v>
+      </c>
+      <c r="H303">
+        <v>854.25</v>
+      </c>
+      <c r="I303">
+        <v>18.51</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>20.89</v>
+      </c>
+      <c r="M303" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>314</v>
+      </c>
+      <c r="C304">
+        <v>11.52</v>
+      </c>
+      <c r="D304">
+        <v>84.59</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>21.14</v>
+      </c>
+      <c r="G304">
+        <v>23.29</v>
+      </c>
+      <c r="H304">
+        <v>854.11</v>
+      </c>
+      <c r="I304">
+        <v>18.43</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>22.73</v>
+      </c>
+      <c r="M304" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>315</v>
+      </c>
+      <c r="C305">
+        <v>11.49</v>
+      </c>
+      <c r="D305">
+        <v>84.31</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>21.15</v>
+      </c>
+      <c r="G305">
+        <v>23.27</v>
+      </c>
+      <c r="H305">
+        <v>854.26</v>
+      </c>
+      <c r="I305">
+        <v>18.39</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>21.09</v>
+      </c>
+      <c r="M305" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="323">
   <si>
     <t>Fecha</t>
   </si>
@@ -962,6 +962,24 @@
   </si>
   <si>
     <t>11/17/2020 3:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:15:00 AM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1322,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M305"/>
+  <dimension ref="A1:M311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1404,7 +1422,7 @@
         <v>15.45</v>
       </c>
       <c r="M2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1442,7 +1460,7 @@
         <v>13.64</v>
       </c>
       <c r="M3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1480,7 +1498,7 @@
         <v>13.92</v>
       </c>
       <c r="M4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1518,7 +1536,7 @@
         <v>13.81</v>
       </c>
       <c r="M5" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1556,7 +1574,7 @@
         <v>14.92</v>
       </c>
       <c r="M6" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1594,7 +1612,7 @@
         <v>16.89</v>
       </c>
       <c r="M7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1635,7 +1653,7 @@
         <v>12.69</v>
       </c>
       <c r="M8" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1673,7 +1691,7 @@
         <v>11.24</v>
       </c>
       <c r="M9" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1711,7 +1729,7 @@
         <v>11.77</v>
       </c>
       <c r="M10" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1749,7 +1767,7 @@
         <v>12.32</v>
       </c>
       <c r="M11" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1790,7 +1808,7 @@
         <v>11.18</v>
       </c>
       <c r="M12" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1831,7 +1849,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M13" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1869,7 +1887,7 @@
         <v>10.04</v>
       </c>
       <c r="M14" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1907,7 +1925,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="M15" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1945,7 +1963,7 @@
         <v>9.23</v>
       </c>
       <c r="M16" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1983,7 +2001,7 @@
         <v>7.91</v>
       </c>
       <c r="M17" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2021,7 +2039,7 @@
         <v>8.9</v>
       </c>
       <c r="M18" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2059,7 +2077,7 @@
         <v>9.16</v>
       </c>
       <c r="M19" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2097,7 +2115,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M20" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2135,7 +2153,7 @@
         <v>9.02</v>
       </c>
       <c r="M21" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2173,7 +2191,7 @@
         <v>9.26</v>
       </c>
       <c r="M22" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2211,7 +2229,7 @@
         <v>10.77</v>
       </c>
       <c r="M23" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2249,7 +2267,7 @@
         <v>10.04</v>
       </c>
       <c r="M24" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2287,7 +2305,7 @@
         <v>8.41</v>
       </c>
       <c r="M25" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2328,7 +2346,7 @@
         <v>7.21</v>
       </c>
       <c r="M26" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2366,7 +2384,7 @@
         <v>7.51</v>
       </c>
       <c r="M27" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2404,7 +2422,7 @@
         <v>6.91</v>
       </c>
       <c r="M28" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2442,7 +2460,7 @@
         <v>10.25</v>
       </c>
       <c r="M29" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2480,7 +2498,7 @@
         <v>11.27</v>
       </c>
       <c r="M30" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2518,7 +2536,7 @@
         <v>10.37</v>
       </c>
       <c r="M31" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2556,7 +2574,7 @@
         <v>9.74</v>
       </c>
       <c r="M32" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2594,7 +2612,7 @@
         <v>10.45</v>
       </c>
       <c r="M33" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2632,7 +2650,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="M34" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2670,7 +2688,7 @@
         <v>8.67</v>
       </c>
       <c r="M35" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2708,7 +2726,7 @@
         <v>7.78</v>
       </c>
       <c r="M36" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2746,7 +2764,7 @@
         <v>8.58</v>
       </c>
       <c r="M37" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2784,7 +2802,7 @@
         <v>12.49</v>
       </c>
       <c r="M38" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2822,7 +2840,7 @@
         <v>11.68</v>
       </c>
       <c r="M39" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2860,7 +2878,7 @@
         <v>10.03</v>
       </c>
       <c r="M40" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2898,7 +2916,7 @@
         <v>9.01</v>
       </c>
       <c r="M41" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2936,7 +2954,7 @@
         <v>10.46</v>
       </c>
       <c r="M42" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2974,7 +2992,7 @@
         <v>6.94</v>
       </c>
       <c r="M43" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3012,7 +3030,7 @@
         <v>7.29</v>
       </c>
       <c r="M44" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3050,7 +3068,7 @@
         <v>4.38</v>
       </c>
       <c r="M45" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3088,7 +3106,7 @@
         <v>7.58</v>
       </c>
       <c r="M46" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3126,7 +3144,7 @@
         <v>7.12</v>
       </c>
       <c r="M47" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3164,7 +3182,7 @@
         <v>10.59</v>
       </c>
       <c r="M48" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3202,7 +3220,7 @@
         <v>11.23</v>
       </c>
       <c r="M49" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3240,7 +3258,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="M50" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3278,7 +3296,7 @@
         <v>16.97</v>
       </c>
       <c r="M51" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3316,7 +3334,7 @@
         <v>14.3</v>
       </c>
       <c r="M52" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3354,7 +3372,7 @@
         <v>14.94</v>
       </c>
       <c r="M53" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3392,7 +3410,7 @@
         <v>14.8</v>
       </c>
       <c r="M54" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3430,7 +3448,7 @@
         <v>15.63</v>
       </c>
       <c r="M55" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3468,7 +3486,7 @@
         <v>16.21</v>
       </c>
       <c r="M56" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3506,7 +3524,7 @@
         <v>16.18</v>
       </c>
       <c r="M57" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3544,7 +3562,7 @@
         <v>15.54</v>
       </c>
       <c r="M58" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3582,7 +3600,7 @@
         <v>15.37</v>
       </c>
       <c r="M59" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3620,7 +3638,7 @@
         <v>14.7</v>
       </c>
       <c r="M60" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3658,7 +3676,7 @@
         <v>14.27</v>
       </c>
       <c r="M61" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3696,7 +3714,7 @@
         <v>12.96</v>
       </c>
       <c r="M62" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3734,7 +3752,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="M63" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3772,7 +3790,7 @@
         <v>11.39</v>
       </c>
       <c r="M64" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3810,7 +3828,7 @@
         <v>13.85</v>
       </c>
       <c r="M65" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3848,7 +3866,7 @@
         <v>10.31</v>
       </c>
       <c r="M66" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3886,7 +3904,7 @@
         <v>11.3</v>
       </c>
       <c r="M67" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3924,7 +3942,7 @@
         <v>12.67</v>
       </c>
       <c r="M68" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3962,7 +3980,7 @@
         <v>7.24</v>
       </c>
       <c r="M69" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4000,7 +4018,7 @@
         <v>6.5</v>
       </c>
       <c r="M70" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4038,7 +4056,7 @@
         <v>3.92</v>
       </c>
       <c r="M71" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4076,7 +4094,7 @@
         <v>5.48</v>
       </c>
       <c r="M72" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4114,7 +4132,7 @@
         <v>7.08</v>
       </c>
       <c r="M73" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4152,7 +4170,7 @@
         <v>7.57</v>
       </c>
       <c r="M74" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4190,7 +4208,7 @@
         <v>5.16</v>
       </c>
       <c r="M75" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4228,7 +4246,7 @@
         <v>3.36</v>
       </c>
       <c r="M76" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4266,7 +4284,7 @@
         <v>5.21</v>
       </c>
       <c r="M77" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4304,7 +4322,7 @@
         <v>7.26</v>
       </c>
       <c r="M78" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4342,7 +4360,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="M79" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4380,7 +4398,7 @@
         <v>11.39</v>
       </c>
       <c r="M80" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4418,7 +4436,7 @@
         <v>12.97</v>
       </c>
       <c r="M81" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4456,7 +4474,7 @@
         <v>13.48</v>
       </c>
       <c r="M82" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4494,7 +4512,7 @@
         <v>11.77</v>
       </c>
       <c r="M83" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4532,7 +4550,7 @@
         <v>11.04</v>
       </c>
       <c r="M84" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4570,7 +4588,7 @@
         <v>11.27</v>
       </c>
       <c r="M85" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4608,7 +4626,7 @@
         <v>13.32</v>
       </c>
       <c r="M86" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4646,7 +4664,7 @@
         <v>12.78</v>
       </c>
       <c r="M87" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4684,7 +4702,7 @@
         <v>13.57</v>
       </c>
       <c r="M88" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4722,7 +4740,7 @@
         <v>11.48</v>
       </c>
       <c r="M89" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4760,7 +4778,7 @@
         <v>13.18</v>
       </c>
       <c r="M90" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4798,7 +4816,7 @@
         <v>13.51</v>
       </c>
       <c r="M91" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4836,7 +4854,7 @@
         <v>14.56</v>
       </c>
       <c r="M92" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4874,7 +4892,7 @@
         <v>13.24</v>
       </c>
       <c r="M93" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4912,7 +4930,7 @@
         <v>12.07</v>
       </c>
       <c r="M94" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4950,7 +4968,7 @@
         <v>13.24</v>
       </c>
       <c r="M95" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4988,7 +5006,7 @@
         <v>13.17</v>
       </c>
       <c r="M96" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5026,7 +5044,7 @@
         <v>11.82</v>
       </c>
       <c r="M97" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5064,7 +5082,7 @@
         <v>11.22</v>
       </c>
       <c r="M98" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5105,7 +5123,7 @@
         <v>10.99</v>
       </c>
       <c r="M99" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5143,7 +5161,7 @@
         <v>10.84</v>
       </c>
       <c r="M100" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5181,7 +5199,7 @@
         <v>10.76</v>
       </c>
       <c r="M101" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5219,7 +5237,7 @@
         <v>9.35</v>
       </c>
       <c r="M102" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5257,7 +5275,7 @@
         <v>11.16</v>
       </c>
       <c r="M103" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5298,7 +5316,7 @@
         <v>11.56</v>
       </c>
       <c r="M104" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5336,7 +5354,7 @@
         <v>11.03</v>
       </c>
       <c r="M105" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5374,7 +5392,7 @@
         <v>10.92</v>
       </c>
       <c r="M106" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5412,7 +5430,7 @@
         <v>10.15</v>
       </c>
       <c r="M107" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5450,7 +5468,7 @@
         <v>11.06</v>
       </c>
       <c r="M108" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5488,7 +5506,7 @@
         <v>11.89</v>
       </c>
       <c r="M109" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5526,7 +5544,7 @@
         <v>13.29</v>
       </c>
       <c r="M110" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5564,7 +5582,7 @@
         <v>12.32</v>
       </c>
       <c r="M111" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5602,7 +5620,7 @@
         <v>11.48</v>
       </c>
       <c r="M112" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5640,7 +5658,7 @@
         <v>10.9</v>
       </c>
       <c r="M113" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5678,7 +5696,7 @@
         <v>9.82</v>
       </c>
       <c r="M114" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5716,7 +5734,7 @@
         <v>12.44</v>
       </c>
       <c r="M115" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5754,7 +5772,7 @@
         <v>9.34</v>
       </c>
       <c r="M116" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5792,7 +5810,7 @@
         <v>11.16</v>
       </c>
       <c r="M117" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5830,7 +5848,7 @@
         <v>10.92</v>
       </c>
       <c r="M118" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5868,7 +5886,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="M119" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5906,7 +5924,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="M120" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5944,7 +5962,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="M121" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5982,7 +6000,7 @@
         <v>9.67</v>
       </c>
       <c r="M122" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6020,7 +6038,7 @@
         <v>9.85</v>
       </c>
       <c r="M123" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6058,7 +6076,7 @@
         <v>10.34</v>
       </c>
       <c r="M124" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6096,7 +6114,7 @@
         <v>8.57</v>
       </c>
       <c r="M125" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6137,7 +6155,7 @@
         <v>10.87</v>
       </c>
       <c r="M126" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6178,7 +6196,7 @@
         <v>12.06</v>
       </c>
       <c r="M127" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6219,7 +6237,7 @@
         <v>12.68</v>
       </c>
       <c r="M128" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6257,7 +6275,7 @@
         <v>13.3</v>
       </c>
       <c r="M129" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6298,7 +6316,7 @@
         <v>14.4</v>
       </c>
       <c r="M130" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6336,7 +6354,7 @@
         <v>14.21</v>
       </c>
       <c r="M131" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6374,7 +6392,7 @@
         <v>14.11</v>
       </c>
       <c r="M132" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6412,7 +6430,7 @@
         <v>14.86</v>
       </c>
       <c r="M133" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6450,7 +6468,7 @@
         <v>13.75</v>
       </c>
       <c r="M134" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6488,7 +6506,7 @@
         <v>13.27</v>
       </c>
       <c r="M135" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6526,7 +6544,7 @@
         <v>16.19</v>
       </c>
       <c r="M136" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6564,7 +6582,7 @@
         <v>13.45</v>
       </c>
       <c r="M137" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6602,7 +6620,7 @@
         <v>13.81</v>
       </c>
       <c r="M138" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6640,7 +6658,7 @@
         <v>12.35</v>
       </c>
       <c r="M139" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6678,7 +6696,7 @@
         <v>14.65</v>
       </c>
       <c r="M140" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6716,7 +6734,7 @@
         <v>14.26</v>
       </c>
       <c r="M141" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6754,7 +6772,7 @@
         <v>15.06</v>
       </c>
       <c r="M142" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6792,7 +6810,7 @@
         <v>16.64</v>
       </c>
       <c r="M143" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6830,7 +6848,7 @@
         <v>14.62</v>
       </c>
       <c r="M144" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6868,7 +6886,7 @@
         <v>16.65</v>
       </c>
       <c r="M145" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6906,7 +6924,7 @@
         <v>15.81</v>
       </c>
       <c r="M146" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6944,7 +6962,7 @@
         <v>17.19</v>
       </c>
       <c r="M147" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6982,7 +7000,7 @@
         <v>17.52</v>
       </c>
       <c r="M148" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7020,7 +7038,7 @@
         <v>17.55</v>
       </c>
       <c r="M149" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7058,7 +7076,7 @@
         <v>19.89</v>
       </c>
       <c r="M150" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7096,7 +7114,7 @@
         <v>19.65</v>
       </c>
       <c r="M151" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7134,7 +7152,7 @@
         <v>19.57</v>
       </c>
       <c r="M152" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7172,7 +7190,7 @@
         <v>20.87</v>
       </c>
       <c r="M153" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7210,7 +7228,7 @@
         <v>18.27</v>
       </c>
       <c r="M154" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7248,7 +7266,7 @@
         <v>20.18</v>
       </c>
       <c r="M155" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7286,7 +7304,7 @@
         <v>21.17</v>
       </c>
       <c r="M156" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7324,7 +7342,7 @@
         <v>20.35</v>
       </c>
       <c r="M157" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7362,7 +7380,7 @@
         <v>20.14</v>
       </c>
       <c r="M158" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7400,7 +7418,7 @@
         <v>18.49</v>
       </c>
       <c r="M159" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7438,7 +7456,7 @@
         <v>17.3</v>
       </c>
       <c r="M160" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7476,7 +7494,7 @@
         <v>18.38</v>
       </c>
       <c r="M161" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7514,7 +7532,7 @@
         <v>18.37</v>
       </c>
       <c r="M162" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7552,7 +7570,7 @@
         <v>16.89</v>
       </c>
       <c r="M163" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7590,7 +7608,7 @@
         <v>18.91</v>
       </c>
       <c r="M164" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7628,7 +7646,7 @@
         <v>18.13</v>
       </c>
       <c r="M165" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7666,7 +7684,7 @@
         <v>17.87</v>
       </c>
       <c r="M166" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7704,7 +7722,7 @@
         <v>17.07</v>
       </c>
       <c r="M167" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7742,7 +7760,7 @@
         <v>16.31</v>
       </c>
       <c r="M168" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7780,7 +7798,7 @@
         <v>16.49</v>
       </c>
       <c r="M169" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7818,7 +7836,7 @@
         <v>18.86</v>
       </c>
       <c r="M170" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7856,7 +7874,7 @@
         <v>19.1</v>
       </c>
       <c r="M171" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7894,7 +7912,7 @@
         <v>21.04</v>
       </c>
       <c r="M172" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7932,7 +7950,7 @@
         <v>21.64</v>
       </c>
       <c r="M173" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7970,7 +7988,7 @@
         <v>21.35</v>
       </c>
       <c r="M174" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8008,7 +8026,7 @@
         <v>19.61</v>
       </c>
       <c r="M175" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8046,7 +8064,7 @@
         <v>15.91</v>
       </c>
       <c r="M176" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8084,7 +8102,7 @@
         <v>16.85</v>
       </c>
       <c r="M177" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8122,7 +8140,7 @@
         <v>17.81</v>
       </c>
       <c r="M178" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8163,7 +8181,7 @@
         <v>17.23</v>
       </c>
       <c r="M179" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8201,7 +8219,7 @@
         <v>18.89</v>
       </c>
       <c r="M180" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8239,7 +8257,7 @@
         <v>16.37</v>
       </c>
       <c r="M181" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8280,7 +8298,7 @@
         <v>20.51</v>
       </c>
       <c r="M182" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8318,7 +8336,7 @@
         <v>19.71</v>
       </c>
       <c r="M183" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8359,7 +8377,7 @@
         <v>20.14</v>
       </c>
       <c r="M184" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8397,7 +8415,7 @@
         <v>18.24</v>
       </c>
       <c r="M185" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8438,7 +8456,7 @@
         <v>19.69</v>
       </c>
       <c r="M186" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8479,7 +8497,7 @@
         <v>17.77</v>
       </c>
       <c r="M187" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8517,7 +8535,7 @@
         <v>18.93</v>
       </c>
       <c r="M188" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8555,7 +8573,7 @@
         <v>16.22</v>
       </c>
       <c r="M189" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8593,7 +8611,7 @@
         <v>17.54</v>
       </c>
       <c r="M190" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8631,7 +8649,7 @@
         <v>20.29</v>
       </c>
       <c r="M191" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8669,7 +8687,7 @@
         <v>18.59</v>
       </c>
       <c r="M192" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8710,7 +8728,7 @@
         <v>17.18</v>
       </c>
       <c r="M193" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8748,7 +8766,7 @@
         <v>18.08</v>
       </c>
       <c r="M194" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8786,7 +8804,7 @@
         <v>17.43</v>
       </c>
       <c r="M195" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8824,7 +8842,7 @@
         <v>15.45</v>
       </c>
       <c r="M196" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8862,7 +8880,7 @@
         <v>16.3</v>
       </c>
       <c r="M197" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8900,7 +8918,7 @@
         <v>17.87</v>
       </c>
       <c r="M198" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8938,7 +8956,7 @@
         <v>16.96</v>
       </c>
       <c r="M199" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8976,7 +8994,7 @@
         <v>17.71</v>
       </c>
       <c r="M200" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -9014,7 +9032,7 @@
         <v>18.12</v>
       </c>
       <c r="M201" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9052,7 +9070,7 @@
         <v>18.09</v>
       </c>
       <c r="M202" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9090,7 +9108,7 @@
         <v>18.91</v>
       </c>
       <c r="M203" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9128,7 +9146,7 @@
         <v>20.05</v>
       </c>
       <c r="M204" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9166,7 +9184,7 @@
         <v>17.47</v>
       </c>
       <c r="M205" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9204,7 +9222,7 @@
         <v>18.33</v>
       </c>
       <c r="M206" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9242,7 +9260,7 @@
         <v>18.66</v>
       </c>
       <c r="M207" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9280,7 +9298,7 @@
         <v>18.23</v>
       </c>
       <c r="M208" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9318,7 +9336,7 @@
         <v>19.93</v>
       </c>
       <c r="M209" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9356,7 +9374,7 @@
         <v>18.84</v>
       </c>
       <c r="M210" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9394,7 +9412,7 @@
         <v>18.94</v>
       </c>
       <c r="M211" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9432,7 +9450,7 @@
         <v>19.56</v>
       </c>
       <c r="M212" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9470,7 +9488,7 @@
         <v>20.59</v>
       </c>
       <c r="M213" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9508,7 +9526,7 @@
         <v>20.72</v>
       </c>
       <c r="M214" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9546,7 +9564,7 @@
         <v>20.4</v>
       </c>
       <c r="M215" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9584,7 +9602,7 @@
         <v>19.37</v>
       </c>
       <c r="M216" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9622,7 +9640,7 @@
         <v>18.57</v>
       </c>
       <c r="M217" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9660,7 +9678,7 @@
         <v>17.78</v>
       </c>
       <c r="M218" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9698,7 +9716,7 @@
         <v>17.8</v>
       </c>
       <c r="M219" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9736,7 +9754,7 @@
         <v>19.09</v>
       </c>
       <c r="M220" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9774,7 +9792,7 @@
         <v>21.59</v>
       </c>
       <c r="M221" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9812,7 +9830,7 @@
         <v>22.81</v>
       </c>
       <c r="M222" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9850,7 +9868,7 @@
         <v>21.86</v>
       </c>
       <c r="M223" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9891,7 +9909,7 @@
         <v>21.52</v>
       </c>
       <c r="M224" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9929,7 +9947,7 @@
         <v>21.82</v>
       </c>
       <c r="M225" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9967,7 +9985,7 @@
         <v>25.78</v>
       </c>
       <c r="M226" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10005,7 +10023,7 @@
         <v>26.03</v>
       </c>
       <c r="M227" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10043,7 +10061,7 @@
         <v>27.64</v>
       </c>
       <c r="M228" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10081,7 +10099,7 @@
         <v>30.36</v>
       </c>
       <c r="M229" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10119,7 +10137,7 @@
         <v>29.21</v>
       </c>
       <c r="M230" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10157,7 +10175,7 @@
         <v>30.19</v>
       </c>
       <c r="M231" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10195,7 +10213,7 @@
         <v>30.52</v>
       </c>
       <c r="M232" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10233,7 +10251,7 @@
         <v>33.96</v>
       </c>
       <c r="M233" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10271,7 +10289,7 @@
         <v>36.6</v>
       </c>
       <c r="M234" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10309,7 +10327,7 @@
         <v>35.52</v>
       </c>
       <c r="M235" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10347,7 +10365,7 @@
         <v>35.63</v>
       </c>
       <c r="M236" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10385,7 +10403,7 @@
         <v>35.76</v>
       </c>
       <c r="M237" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10423,7 +10441,7 @@
         <v>36.51</v>
       </c>
       <c r="M238" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10461,7 +10479,7 @@
         <v>36.35</v>
       </c>
       <c r="M239" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10499,7 +10517,7 @@
         <v>31.64</v>
       </c>
       <c r="M240" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10537,7 +10555,7 @@
         <v>31.94</v>
       </c>
       <c r="M241" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10575,7 +10593,7 @@
         <v>30.43</v>
       </c>
       <c r="M242" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10613,7 +10631,7 @@
         <v>27.87</v>
       </c>
       <c r="M243" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10651,7 +10669,7 @@
         <v>28.3</v>
       </c>
       <c r="M244" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10689,7 +10707,7 @@
         <v>27.77</v>
       </c>
       <c r="M245" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10727,7 +10745,7 @@
         <v>27.98</v>
       </c>
       <c r="M246" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10765,7 +10783,7 @@
         <v>28.63</v>
       </c>
       <c r="M247" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10803,7 +10821,7 @@
         <v>30.23</v>
       </c>
       <c r="M248" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10841,7 +10859,7 @@
         <v>31.67</v>
       </c>
       <c r="M249" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10879,7 +10897,7 @@
         <v>29.64</v>
       </c>
       <c r="M250" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10917,7 +10935,7 @@
         <v>28.48</v>
       </c>
       <c r="M251" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10955,7 +10973,7 @@
         <v>28.47</v>
       </c>
       <c r="M252" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -10993,7 +11011,7 @@
         <v>29.68</v>
       </c>
       <c r="M253" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11031,7 +11049,7 @@
         <v>29.35</v>
       </c>
       <c r="M254" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11069,7 +11087,7 @@
         <v>29.2</v>
       </c>
       <c r="M255" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11107,7 +11125,7 @@
         <v>28.61</v>
       </c>
       <c r="M256" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11145,7 +11163,7 @@
         <v>29.5</v>
       </c>
       <c r="M257" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11183,7 +11201,7 @@
         <v>29.08</v>
       </c>
       <c r="M258" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11221,7 +11239,7 @@
         <v>28.93</v>
       </c>
       <c r="M259" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11259,7 +11277,7 @@
         <v>27.66</v>
       </c>
       <c r="M260" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11297,7 +11315,7 @@
         <v>26.16</v>
       </c>
       <c r="M261" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11335,7 +11353,7 @@
         <v>27.91</v>
       </c>
       <c r="M262" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11373,7 +11391,7 @@
         <v>29.85</v>
       </c>
       <c r="M263" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11411,7 +11429,7 @@
         <v>25.83</v>
       </c>
       <c r="M264" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11449,7 +11467,7 @@
         <v>25.27</v>
       </c>
       <c r="M265" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11487,7 +11505,7 @@
         <v>28.01</v>
       </c>
       <c r="M266" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11525,7 +11543,7 @@
         <v>31.43</v>
       </c>
       <c r="M267" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11563,7 +11581,7 @@
         <v>27.68</v>
       </c>
       <c r="M268" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11601,7 +11619,7 @@
         <v>27.99</v>
       </c>
       <c r="M269" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11642,7 +11660,7 @@
         <v>26.04</v>
       </c>
       <c r="M270" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11680,7 +11698,7 @@
         <v>26.02</v>
       </c>
       <c r="M271" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11718,7 +11736,7 @@
         <v>24.91</v>
       </c>
       <c r="M272" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11756,7 +11774,7 @@
         <v>26.45</v>
       </c>
       <c r="M273" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11794,7 +11812,7 @@
         <v>24.93</v>
       </c>
       <c r="M274" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11832,7 +11850,7 @@
         <v>25.35</v>
       </c>
       <c r="M275" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11870,7 +11888,7 @@
         <v>26.26</v>
       </c>
       <c r="M276" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11908,7 +11926,7 @@
         <v>25.15</v>
       </c>
       <c r="M277" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -11946,7 +11964,7 @@
         <v>24.85</v>
       </c>
       <c r="M278" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -11984,7 +12002,7 @@
         <v>23.99</v>
       </c>
       <c r="M279" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -12022,7 +12040,7 @@
         <v>26.25</v>
       </c>
       <c r="M280" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12060,7 +12078,7 @@
         <v>25.39</v>
       </c>
       <c r="M281" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12098,7 +12116,7 @@
         <v>27.51</v>
       </c>
       <c r="M282" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12136,7 +12154,7 @@
         <v>29.2</v>
       </c>
       <c r="M283" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12174,7 +12192,7 @@
         <v>32.29</v>
       </c>
       <c r="M284" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12212,7 +12230,7 @@
         <v>27.93</v>
       </c>
       <c r="M285" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12250,7 +12268,7 @@
         <v>25.3</v>
       </c>
       <c r="M286" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12288,7 +12306,7 @@
         <v>27.19</v>
       </c>
       <c r="M287" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12326,7 +12344,7 @@
         <v>26.44</v>
       </c>
       <c r="M288" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12364,7 +12382,7 @@
         <v>23.44</v>
       </c>
       <c r="M289" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12402,7 +12420,7 @@
         <v>24.99</v>
       </c>
       <c r="M290" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12440,7 +12458,7 @@
         <v>23.2</v>
       </c>
       <c r="M291" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12478,7 +12496,7 @@
         <v>22.54</v>
       </c>
       <c r="M292" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12516,7 +12534,7 @@
         <v>22.89</v>
       </c>
       <c r="M293" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12554,7 +12572,7 @@
         <v>22.96</v>
       </c>
       <c r="M294" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12592,7 +12610,7 @@
         <v>20.49</v>
       </c>
       <c r="M295" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12630,7 +12648,7 @@
         <v>23.29</v>
       </c>
       <c r="M296" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12668,7 +12686,7 @@
         <v>23.82</v>
       </c>
       <c r="M297" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12706,7 +12724,7 @@
         <v>19.8</v>
       </c>
       <c r="M298" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12744,7 +12762,7 @@
         <v>19.87</v>
       </c>
       <c r="M299" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12782,7 +12800,7 @@
         <v>20.56</v>
       </c>
       <c r="M300" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -12820,7 +12838,7 @@
         <v>22.25</v>
       </c>
       <c r="M301" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -12858,7 +12876,7 @@
         <v>24.57</v>
       </c>
       <c r="M302" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -12896,7 +12914,7 @@
         <v>20.89</v>
       </c>
       <c r="M303" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -12934,7 +12952,7 @@
         <v>22.73</v>
       </c>
       <c r="M304" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -12972,7 +12990,235 @@
         <v>21.09</v>
       </c>
       <c r="M305" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
         <v>316</v>
+      </c>
+      <c r="C306">
+        <v>11.45</v>
+      </c>
+      <c r="D306">
+        <v>83.56999999999999</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>21.2</v>
+      </c>
+      <c r="G306">
+        <v>29.76</v>
+      </c>
+      <c r="H306">
+        <v>854.3</v>
+      </c>
+      <c r="I306">
+        <v>18.29</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>20.99</v>
+      </c>
+      <c r="M306" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>317</v>
+      </c>
+      <c r="C307">
+        <v>11.44</v>
+      </c>
+      <c r="D307">
+        <v>82.83</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>21.25</v>
+      </c>
+      <c r="G307">
+        <v>25.24</v>
+      </c>
+      <c r="H307">
+        <v>854.27</v>
+      </c>
+      <c r="I307">
+        <v>18.2</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>24.13</v>
+      </c>
+      <c r="M307" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>318</v>
+      </c>
+      <c r="C308">
+        <v>11.71</v>
+      </c>
+      <c r="D308">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>21.19</v>
+      </c>
+      <c r="G308">
+        <v>12.23</v>
+      </c>
+      <c r="H308">
+        <v>854.14</v>
+      </c>
+      <c r="I308">
+        <v>18.13</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>23.89</v>
+      </c>
+      <c r="M308" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>319</v>
+      </c>
+      <c r="C309">
+        <v>11.72</v>
+      </c>
+      <c r="D309">
+        <v>82.16</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>21.22</v>
+      </c>
+      <c r="G309">
+        <v>9.42</v>
+      </c>
+      <c r="H309">
+        <v>854.3099999999999</v>
+      </c>
+      <c r="I309">
+        <v>18.03</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>25.15</v>
+      </c>
+      <c r="M309" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>320</v>
+      </c>
+      <c r="C310">
+        <v>11.7</v>
+      </c>
+      <c r="D310">
+        <v>84.17</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>21.06</v>
+      </c>
+      <c r="G310">
+        <v>10.12</v>
+      </c>
+      <c r="H310">
+        <v>854.2</v>
+      </c>
+      <c r="I310">
+        <v>18.27</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="L310">
+        <v>25.27</v>
+      </c>
+      <c r="M310" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>321</v>
+      </c>
+      <c r="C311">
+        <v>11.73</v>
+      </c>
+      <c r="D311">
+        <v>83.56</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>21.08</v>
+      </c>
+      <c r="G311">
+        <v>12.71</v>
+      </c>
+      <c r="H311">
+        <v>854.29</v>
+      </c>
+      <c r="I311">
+        <v>18.17</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>23.6</v>
+      </c>
+      <c r="M311" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="329">
   <si>
     <t>Fecha</t>
   </si>
@@ -980,6 +980,24 @@
   </si>
   <si>
     <t>11/17/2020 5:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:45:00 AM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1340,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M311"/>
+  <dimension ref="A1:M317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1422,7 +1440,7 @@
         <v>15.45</v>
       </c>
       <c r="M2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1460,7 +1478,7 @@
         <v>13.64</v>
       </c>
       <c r="M3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1498,7 +1516,7 @@
         <v>13.92</v>
       </c>
       <c r="M4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1536,7 +1554,7 @@
         <v>13.81</v>
       </c>
       <c r="M5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1574,7 +1592,7 @@
         <v>14.92</v>
       </c>
       <c r="M6" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1612,7 +1630,7 @@
         <v>16.89</v>
       </c>
       <c r="M7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1653,7 +1671,7 @@
         <v>12.69</v>
       </c>
       <c r="M8" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1691,7 +1709,7 @@
         <v>11.24</v>
       </c>
       <c r="M9" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1729,7 +1747,7 @@
         <v>11.77</v>
       </c>
       <c r="M10" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1767,7 +1785,7 @@
         <v>12.32</v>
       </c>
       <c r="M11" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1808,7 +1826,7 @@
         <v>11.18</v>
       </c>
       <c r="M12" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1849,7 +1867,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M13" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1887,7 +1905,7 @@
         <v>10.04</v>
       </c>
       <c r="M14" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1925,7 +1943,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="M15" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1963,7 +1981,7 @@
         <v>9.23</v>
       </c>
       <c r="M16" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2001,7 +2019,7 @@
         <v>7.91</v>
       </c>
       <c r="M17" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2039,7 +2057,7 @@
         <v>8.9</v>
       </c>
       <c r="M18" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2077,7 +2095,7 @@
         <v>9.16</v>
       </c>
       <c r="M19" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2115,7 +2133,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M20" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2153,7 +2171,7 @@
         <v>9.02</v>
       </c>
       <c r="M21" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2191,7 +2209,7 @@
         <v>9.26</v>
       </c>
       <c r="M22" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2229,7 +2247,7 @@
         <v>10.77</v>
       </c>
       <c r="M23" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2267,7 +2285,7 @@
         <v>10.04</v>
       </c>
       <c r="M24" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2305,7 +2323,7 @@
         <v>8.41</v>
       </c>
       <c r="M25" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2346,7 +2364,7 @@
         <v>7.21</v>
       </c>
       <c r="M26" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2384,7 +2402,7 @@
         <v>7.51</v>
       </c>
       <c r="M27" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2422,7 +2440,7 @@
         <v>6.91</v>
       </c>
       <c r="M28" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2460,7 +2478,7 @@
         <v>10.25</v>
       </c>
       <c r="M29" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2498,7 +2516,7 @@
         <v>11.27</v>
       </c>
       <c r="M30" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2536,7 +2554,7 @@
         <v>10.37</v>
       </c>
       <c r="M31" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2574,7 +2592,7 @@
         <v>9.74</v>
       </c>
       <c r="M32" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2612,7 +2630,7 @@
         <v>10.45</v>
       </c>
       <c r="M33" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2650,7 +2668,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="M34" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2688,7 +2706,7 @@
         <v>8.67</v>
       </c>
       <c r="M35" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2726,7 +2744,7 @@
         <v>7.78</v>
       </c>
       <c r="M36" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2764,7 +2782,7 @@
         <v>8.58</v>
       </c>
       <c r="M37" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2802,7 +2820,7 @@
         <v>12.49</v>
       </c>
       <c r="M38" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2840,7 +2858,7 @@
         <v>11.68</v>
       </c>
       <c r="M39" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2878,7 +2896,7 @@
         <v>10.03</v>
       </c>
       <c r="M40" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2916,7 +2934,7 @@
         <v>9.01</v>
       </c>
       <c r="M41" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2954,7 +2972,7 @@
         <v>10.46</v>
       </c>
       <c r="M42" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2992,7 +3010,7 @@
         <v>6.94</v>
       </c>
       <c r="M43" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3030,7 +3048,7 @@
         <v>7.29</v>
       </c>
       <c r="M44" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3068,7 +3086,7 @@
         <v>4.38</v>
       </c>
       <c r="M45" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3106,7 +3124,7 @@
         <v>7.58</v>
       </c>
       <c r="M46" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3144,7 +3162,7 @@
         <v>7.12</v>
       </c>
       <c r="M47" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3182,7 +3200,7 @@
         <v>10.59</v>
       </c>
       <c r="M48" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3220,7 +3238,7 @@
         <v>11.23</v>
       </c>
       <c r="M49" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3258,7 +3276,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="M50" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3296,7 +3314,7 @@
         <v>16.97</v>
       </c>
       <c r="M51" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3334,7 +3352,7 @@
         <v>14.3</v>
       </c>
       <c r="M52" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3372,7 +3390,7 @@
         <v>14.94</v>
       </c>
       <c r="M53" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3410,7 +3428,7 @@
         <v>14.8</v>
       </c>
       <c r="M54" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3448,7 +3466,7 @@
         <v>15.63</v>
       </c>
       <c r="M55" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3486,7 +3504,7 @@
         <v>16.21</v>
       </c>
       <c r="M56" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3524,7 +3542,7 @@
         <v>16.18</v>
       </c>
       <c r="M57" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3562,7 +3580,7 @@
         <v>15.54</v>
       </c>
       <c r="M58" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3600,7 +3618,7 @@
         <v>15.37</v>
       </c>
       <c r="M59" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3638,7 +3656,7 @@
         <v>14.7</v>
       </c>
       <c r="M60" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3676,7 +3694,7 @@
         <v>14.27</v>
       </c>
       <c r="M61" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3714,7 +3732,7 @@
         <v>12.96</v>
       </c>
       <c r="M62" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3752,7 +3770,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="M63" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3790,7 +3808,7 @@
         <v>11.39</v>
       </c>
       <c r="M64" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3828,7 +3846,7 @@
         <v>13.85</v>
       </c>
       <c r="M65" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3866,7 +3884,7 @@
         <v>10.31</v>
       </c>
       <c r="M66" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3904,7 +3922,7 @@
         <v>11.3</v>
       </c>
       <c r="M67" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3942,7 +3960,7 @@
         <v>12.67</v>
       </c>
       <c r="M68" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3980,7 +3998,7 @@
         <v>7.24</v>
       </c>
       <c r="M69" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4018,7 +4036,7 @@
         <v>6.5</v>
       </c>
       <c r="M70" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4056,7 +4074,7 @@
         <v>3.92</v>
       </c>
       <c r="M71" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4094,7 +4112,7 @@
         <v>5.48</v>
       </c>
       <c r="M72" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4132,7 +4150,7 @@
         <v>7.08</v>
       </c>
       <c r="M73" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4170,7 +4188,7 @@
         <v>7.57</v>
       </c>
       <c r="M74" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4208,7 +4226,7 @@
         <v>5.16</v>
       </c>
       <c r="M75" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4246,7 +4264,7 @@
         <v>3.36</v>
       </c>
       <c r="M76" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4284,7 +4302,7 @@
         <v>5.21</v>
       </c>
       <c r="M77" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4322,7 +4340,7 @@
         <v>7.26</v>
       </c>
       <c r="M78" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4360,7 +4378,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="M79" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4398,7 +4416,7 @@
         <v>11.39</v>
       </c>
       <c r="M80" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4436,7 +4454,7 @@
         <v>12.97</v>
       </c>
       <c r="M81" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4474,7 +4492,7 @@
         <v>13.48</v>
       </c>
       <c r="M82" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4512,7 +4530,7 @@
         <v>11.77</v>
       </c>
       <c r="M83" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4550,7 +4568,7 @@
         <v>11.04</v>
       </c>
       <c r="M84" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4588,7 +4606,7 @@
         <v>11.27</v>
       </c>
       <c r="M85" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4626,7 +4644,7 @@
         <v>13.32</v>
       </c>
       <c r="M86" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4664,7 +4682,7 @@
         <v>12.78</v>
       </c>
       <c r="M87" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4702,7 +4720,7 @@
         <v>13.57</v>
       </c>
       <c r="M88" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4740,7 +4758,7 @@
         <v>11.48</v>
       </c>
       <c r="M89" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4778,7 +4796,7 @@
         <v>13.18</v>
       </c>
       <c r="M90" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4816,7 +4834,7 @@
         <v>13.51</v>
       </c>
       <c r="M91" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4854,7 +4872,7 @@
         <v>14.56</v>
       </c>
       <c r="M92" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4892,7 +4910,7 @@
         <v>13.24</v>
       </c>
       <c r="M93" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4930,7 +4948,7 @@
         <v>12.07</v>
       </c>
       <c r="M94" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4968,7 +4986,7 @@
         <v>13.24</v>
       </c>
       <c r="M95" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5006,7 +5024,7 @@
         <v>13.17</v>
       </c>
       <c r="M96" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5044,7 +5062,7 @@
         <v>11.82</v>
       </c>
       <c r="M97" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5082,7 +5100,7 @@
         <v>11.22</v>
       </c>
       <c r="M98" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5123,7 +5141,7 @@
         <v>10.99</v>
       </c>
       <c r="M99" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5161,7 +5179,7 @@
         <v>10.84</v>
       </c>
       <c r="M100" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5199,7 +5217,7 @@
         <v>10.76</v>
       </c>
       <c r="M101" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5237,7 +5255,7 @@
         <v>9.35</v>
       </c>
       <c r="M102" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5275,7 +5293,7 @@
         <v>11.16</v>
       </c>
       <c r="M103" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5316,7 +5334,7 @@
         <v>11.56</v>
       </c>
       <c r="M104" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5354,7 +5372,7 @@
         <v>11.03</v>
       </c>
       <c r="M105" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5392,7 +5410,7 @@
         <v>10.92</v>
       </c>
       <c r="M106" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5430,7 +5448,7 @@
         <v>10.15</v>
       </c>
       <c r="M107" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5468,7 +5486,7 @@
         <v>11.06</v>
       </c>
       <c r="M108" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5506,7 +5524,7 @@
         <v>11.89</v>
       </c>
       <c r="M109" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5544,7 +5562,7 @@
         <v>13.29</v>
       </c>
       <c r="M110" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5582,7 +5600,7 @@
         <v>12.32</v>
       </c>
       <c r="M111" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5620,7 +5638,7 @@
         <v>11.48</v>
       </c>
       <c r="M112" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5658,7 +5676,7 @@
         <v>10.9</v>
       </c>
       <c r="M113" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5696,7 +5714,7 @@
         <v>9.82</v>
       </c>
       <c r="M114" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5734,7 +5752,7 @@
         <v>12.44</v>
       </c>
       <c r="M115" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5772,7 +5790,7 @@
         <v>9.34</v>
       </c>
       <c r="M116" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5810,7 +5828,7 @@
         <v>11.16</v>
       </c>
       <c r="M117" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5848,7 +5866,7 @@
         <v>10.92</v>
       </c>
       <c r="M118" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5886,7 +5904,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="M119" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5924,7 +5942,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="M120" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5962,7 +5980,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="M121" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6000,7 +6018,7 @@
         <v>9.67</v>
       </c>
       <c r="M122" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6038,7 +6056,7 @@
         <v>9.85</v>
       </c>
       <c r="M123" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6076,7 +6094,7 @@
         <v>10.34</v>
       </c>
       <c r="M124" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6114,7 +6132,7 @@
         <v>8.57</v>
       </c>
       <c r="M125" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6155,7 +6173,7 @@
         <v>10.87</v>
       </c>
       <c r="M126" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6196,7 +6214,7 @@
         <v>12.06</v>
       </c>
       <c r="M127" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6237,7 +6255,7 @@
         <v>12.68</v>
       </c>
       <c r="M128" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6275,7 +6293,7 @@
         <v>13.3</v>
       </c>
       <c r="M129" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6316,7 +6334,7 @@
         <v>14.4</v>
       </c>
       <c r="M130" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6354,7 +6372,7 @@
         <v>14.21</v>
       </c>
       <c r="M131" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6392,7 +6410,7 @@
         <v>14.11</v>
       </c>
       <c r="M132" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6430,7 +6448,7 @@
         <v>14.86</v>
       </c>
       <c r="M133" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6468,7 +6486,7 @@
         <v>13.75</v>
       </c>
       <c r="M134" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6506,7 +6524,7 @@
         <v>13.27</v>
       </c>
       <c r="M135" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6544,7 +6562,7 @@
         <v>16.19</v>
       </c>
       <c r="M136" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6582,7 +6600,7 @@
         <v>13.45</v>
       </c>
       <c r="M137" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6620,7 +6638,7 @@
         <v>13.81</v>
       </c>
       <c r="M138" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6658,7 +6676,7 @@
         <v>12.35</v>
       </c>
       <c r="M139" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6696,7 +6714,7 @@
         <v>14.65</v>
       </c>
       <c r="M140" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6734,7 +6752,7 @@
         <v>14.26</v>
       </c>
       <c r="M141" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6772,7 +6790,7 @@
         <v>15.06</v>
       </c>
       <c r="M142" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6810,7 +6828,7 @@
         <v>16.64</v>
       </c>
       <c r="M143" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6848,7 +6866,7 @@
         <v>14.62</v>
       </c>
       <c r="M144" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6886,7 +6904,7 @@
         <v>16.65</v>
       </c>
       <c r="M145" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6924,7 +6942,7 @@
         <v>15.81</v>
       </c>
       <c r="M146" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6962,7 +6980,7 @@
         <v>17.19</v>
       </c>
       <c r="M147" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7000,7 +7018,7 @@
         <v>17.52</v>
       </c>
       <c r="M148" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7038,7 +7056,7 @@
         <v>17.55</v>
       </c>
       <c r="M149" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7076,7 +7094,7 @@
         <v>19.89</v>
       </c>
       <c r="M150" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7114,7 +7132,7 @@
         <v>19.65</v>
       </c>
       <c r="M151" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7152,7 +7170,7 @@
         <v>19.57</v>
       </c>
       <c r="M152" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7190,7 +7208,7 @@
         <v>20.87</v>
       </c>
       <c r="M153" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7228,7 +7246,7 @@
         <v>18.27</v>
       </c>
       <c r="M154" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7266,7 +7284,7 @@
         <v>20.18</v>
       </c>
       <c r="M155" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7304,7 +7322,7 @@
         <v>21.17</v>
       </c>
       <c r="M156" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7342,7 +7360,7 @@
         <v>20.35</v>
       </c>
       <c r="M157" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7380,7 +7398,7 @@
         <v>20.14</v>
       </c>
       <c r="M158" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7418,7 +7436,7 @@
         <v>18.49</v>
       </c>
       <c r="M159" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7456,7 +7474,7 @@
         <v>17.3</v>
       </c>
       <c r="M160" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7494,7 +7512,7 @@
         <v>18.38</v>
       </c>
       <c r="M161" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7532,7 +7550,7 @@
         <v>18.37</v>
       </c>
       <c r="M162" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7570,7 +7588,7 @@
         <v>16.89</v>
       </c>
       <c r="M163" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7608,7 +7626,7 @@
         <v>18.91</v>
       </c>
       <c r="M164" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7646,7 +7664,7 @@
         <v>18.13</v>
       </c>
       <c r="M165" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7684,7 +7702,7 @@
         <v>17.87</v>
       </c>
       <c r="M166" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7722,7 +7740,7 @@
         <v>17.07</v>
       </c>
       <c r="M167" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7760,7 +7778,7 @@
         <v>16.31</v>
       </c>
       <c r="M168" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7798,7 +7816,7 @@
         <v>16.49</v>
       </c>
       <c r="M169" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7836,7 +7854,7 @@
         <v>18.86</v>
       </c>
       <c r="M170" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7874,7 +7892,7 @@
         <v>19.1</v>
       </c>
       <c r="M171" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7912,7 +7930,7 @@
         <v>21.04</v>
       </c>
       <c r="M172" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7950,7 +7968,7 @@
         <v>21.64</v>
       </c>
       <c r="M173" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7988,7 +8006,7 @@
         <v>21.35</v>
       </c>
       <c r="M174" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8026,7 +8044,7 @@
         <v>19.61</v>
       </c>
       <c r="M175" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8064,7 +8082,7 @@
         <v>15.91</v>
       </c>
       <c r="M176" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8102,7 +8120,7 @@
         <v>16.85</v>
       </c>
       <c r="M177" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8140,7 +8158,7 @@
         <v>17.81</v>
       </c>
       <c r="M178" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8181,7 +8199,7 @@
         <v>17.23</v>
       </c>
       <c r="M179" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8219,7 +8237,7 @@
         <v>18.89</v>
       </c>
       <c r="M180" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8257,7 +8275,7 @@
         <v>16.37</v>
       </c>
       <c r="M181" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8298,7 +8316,7 @@
         <v>20.51</v>
       </c>
       <c r="M182" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8336,7 +8354,7 @@
         <v>19.71</v>
       </c>
       <c r="M183" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8377,7 +8395,7 @@
         <v>20.14</v>
       </c>
       <c r="M184" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8415,7 +8433,7 @@
         <v>18.24</v>
       </c>
       <c r="M185" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8456,7 +8474,7 @@
         <v>19.69</v>
       </c>
       <c r="M186" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8497,7 +8515,7 @@
         <v>17.77</v>
       </c>
       <c r="M187" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8535,7 +8553,7 @@
         <v>18.93</v>
       </c>
       <c r="M188" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8573,7 +8591,7 @@
         <v>16.22</v>
       </c>
       <c r="M189" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8611,7 +8629,7 @@
         <v>17.54</v>
       </c>
       <c r="M190" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8649,7 +8667,7 @@
         <v>20.29</v>
       </c>
       <c r="M191" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8687,7 +8705,7 @@
         <v>18.59</v>
       </c>
       <c r="M192" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8728,7 +8746,7 @@
         <v>17.18</v>
       </c>
       <c r="M193" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8766,7 +8784,7 @@
         <v>18.08</v>
       </c>
       <c r="M194" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8804,7 +8822,7 @@
         <v>17.43</v>
       </c>
       <c r="M195" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8842,7 +8860,7 @@
         <v>15.45</v>
       </c>
       <c r="M196" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8880,7 +8898,7 @@
         <v>16.3</v>
       </c>
       <c r="M197" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8918,7 +8936,7 @@
         <v>17.87</v>
       </c>
       <c r="M198" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8956,7 +8974,7 @@
         <v>16.96</v>
       </c>
       <c r="M199" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8994,7 +9012,7 @@
         <v>17.71</v>
       </c>
       <c r="M200" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -9032,7 +9050,7 @@
         <v>18.12</v>
       </c>
       <c r="M201" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9070,7 +9088,7 @@
         <v>18.09</v>
       </c>
       <c r="M202" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9108,7 +9126,7 @@
         <v>18.91</v>
       </c>
       <c r="M203" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9146,7 +9164,7 @@
         <v>20.05</v>
       </c>
       <c r="M204" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9184,7 +9202,7 @@
         <v>17.47</v>
       </c>
       <c r="M205" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9222,7 +9240,7 @@
         <v>18.33</v>
       </c>
       <c r="M206" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9260,7 +9278,7 @@
         <v>18.66</v>
       </c>
       <c r="M207" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9298,7 +9316,7 @@
         <v>18.23</v>
       </c>
       <c r="M208" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9336,7 +9354,7 @@
         <v>19.93</v>
       </c>
       <c r="M209" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9374,7 +9392,7 @@
         <v>18.84</v>
       </c>
       <c r="M210" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9412,7 +9430,7 @@
         <v>18.94</v>
       </c>
       <c r="M211" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9450,7 +9468,7 @@
         <v>19.56</v>
       </c>
       <c r="M212" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9488,7 +9506,7 @@
         <v>20.59</v>
       </c>
       <c r="M213" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9526,7 +9544,7 @@
         <v>20.72</v>
       </c>
       <c r="M214" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9564,7 +9582,7 @@
         <v>20.4</v>
       </c>
       <c r="M215" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9602,7 +9620,7 @@
         <v>19.37</v>
       </c>
       <c r="M216" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9640,7 +9658,7 @@
         <v>18.57</v>
       </c>
       <c r="M217" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9678,7 +9696,7 @@
         <v>17.78</v>
       </c>
       <c r="M218" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9716,7 +9734,7 @@
         <v>17.8</v>
       </c>
       <c r="M219" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9754,7 +9772,7 @@
         <v>19.09</v>
       </c>
       <c r="M220" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9792,7 +9810,7 @@
         <v>21.59</v>
       </c>
       <c r="M221" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9830,7 +9848,7 @@
         <v>22.81</v>
       </c>
       <c r="M222" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9868,7 +9886,7 @@
         <v>21.86</v>
       </c>
       <c r="M223" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9909,7 +9927,7 @@
         <v>21.52</v>
       </c>
       <c r="M224" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9947,7 +9965,7 @@
         <v>21.82</v>
       </c>
       <c r="M225" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9985,7 +10003,7 @@
         <v>25.78</v>
       </c>
       <c r="M226" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10023,7 +10041,7 @@
         <v>26.03</v>
       </c>
       <c r="M227" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10061,7 +10079,7 @@
         <v>27.64</v>
       </c>
       <c r="M228" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10099,7 +10117,7 @@
         <v>30.36</v>
       </c>
       <c r="M229" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10137,7 +10155,7 @@
         <v>29.21</v>
       </c>
       <c r="M230" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10175,7 +10193,7 @@
         <v>30.19</v>
       </c>
       <c r="M231" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10213,7 +10231,7 @@
         <v>30.52</v>
       </c>
       <c r="M232" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10251,7 +10269,7 @@
         <v>33.96</v>
       </c>
       <c r="M233" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10289,7 +10307,7 @@
         <v>36.6</v>
       </c>
       <c r="M234" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10327,7 +10345,7 @@
         <v>35.52</v>
       </c>
       <c r="M235" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10365,7 +10383,7 @@
         <v>35.63</v>
       </c>
       <c r="M236" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10403,7 +10421,7 @@
         <v>35.76</v>
       </c>
       <c r="M237" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10441,7 +10459,7 @@
         <v>36.51</v>
       </c>
       <c r="M238" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10479,7 +10497,7 @@
         <v>36.35</v>
       </c>
       <c r="M239" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10517,7 +10535,7 @@
         <v>31.64</v>
       </c>
       <c r="M240" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10555,7 +10573,7 @@
         <v>31.94</v>
       </c>
       <c r="M241" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10593,7 +10611,7 @@
         <v>30.43</v>
       </c>
       <c r="M242" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10631,7 +10649,7 @@
         <v>27.87</v>
       </c>
       <c r="M243" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10669,7 +10687,7 @@
         <v>28.3</v>
       </c>
       <c r="M244" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10707,7 +10725,7 @@
         <v>27.77</v>
       </c>
       <c r="M245" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10745,7 +10763,7 @@
         <v>27.98</v>
       </c>
       <c r="M246" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10783,7 +10801,7 @@
         <v>28.63</v>
       </c>
       <c r="M247" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10821,7 +10839,7 @@
         <v>30.23</v>
       </c>
       <c r="M248" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10859,7 +10877,7 @@
         <v>31.67</v>
       </c>
       <c r="M249" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10897,7 +10915,7 @@
         <v>29.64</v>
       </c>
       <c r="M250" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10935,7 +10953,7 @@
         <v>28.48</v>
       </c>
       <c r="M251" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10973,7 +10991,7 @@
         <v>28.47</v>
       </c>
       <c r="M252" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11011,7 +11029,7 @@
         <v>29.68</v>
       </c>
       <c r="M253" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11049,7 +11067,7 @@
         <v>29.35</v>
       </c>
       <c r="M254" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11087,7 +11105,7 @@
         <v>29.2</v>
       </c>
       <c r="M255" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11125,7 +11143,7 @@
         <v>28.61</v>
       </c>
       <c r="M256" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11163,7 +11181,7 @@
         <v>29.5</v>
       </c>
       <c r="M257" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11201,7 +11219,7 @@
         <v>29.08</v>
       </c>
       <c r="M258" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11239,7 +11257,7 @@
         <v>28.93</v>
       </c>
       <c r="M259" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11277,7 +11295,7 @@
         <v>27.66</v>
       </c>
       <c r="M260" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11315,7 +11333,7 @@
         <v>26.16</v>
       </c>
       <c r="M261" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11353,7 +11371,7 @@
         <v>27.91</v>
       </c>
       <c r="M262" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11391,7 +11409,7 @@
         <v>29.85</v>
       </c>
       <c r="M263" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11429,7 +11447,7 @@
         <v>25.83</v>
       </c>
       <c r="M264" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11467,7 +11485,7 @@
         <v>25.27</v>
       </c>
       <c r="M265" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11505,7 +11523,7 @@
         <v>28.01</v>
       </c>
       <c r="M266" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11543,7 +11561,7 @@
         <v>31.43</v>
       </c>
       <c r="M267" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11581,7 +11599,7 @@
         <v>27.68</v>
       </c>
       <c r="M268" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11619,7 +11637,7 @@
         <v>27.99</v>
       </c>
       <c r="M269" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11660,7 +11678,7 @@
         <v>26.04</v>
       </c>
       <c r="M270" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11698,7 +11716,7 @@
         <v>26.02</v>
       </c>
       <c r="M271" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11736,7 +11754,7 @@
         <v>24.91</v>
       </c>
       <c r="M272" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11774,7 +11792,7 @@
         <v>26.45</v>
       </c>
       <c r="M273" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11812,7 +11830,7 @@
         <v>24.93</v>
       </c>
       <c r="M274" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11850,7 +11868,7 @@
         <v>25.35</v>
       </c>
       <c r="M275" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11888,7 +11906,7 @@
         <v>26.26</v>
       </c>
       <c r="M276" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11926,7 +11944,7 @@
         <v>25.15</v>
       </c>
       <c r="M277" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -11964,7 +11982,7 @@
         <v>24.85</v>
       </c>
       <c r="M278" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -12002,7 +12020,7 @@
         <v>23.99</v>
       </c>
       <c r="M279" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -12040,7 +12058,7 @@
         <v>26.25</v>
       </c>
       <c r="M280" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12078,7 +12096,7 @@
         <v>25.39</v>
       </c>
       <c r="M281" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12116,7 +12134,7 @@
         <v>27.51</v>
       </c>
       <c r="M282" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12154,7 +12172,7 @@
         <v>29.2</v>
       </c>
       <c r="M283" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12192,7 +12210,7 @@
         <v>32.29</v>
       </c>
       <c r="M284" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12230,7 +12248,7 @@
         <v>27.93</v>
       </c>
       <c r="M285" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12268,7 +12286,7 @@
         <v>25.3</v>
       </c>
       <c r="M286" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12306,7 +12324,7 @@
         <v>27.19</v>
       </c>
       <c r="M287" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12344,7 +12362,7 @@
         <v>26.44</v>
       </c>
       <c r="M288" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12382,7 +12400,7 @@
         <v>23.44</v>
       </c>
       <c r="M289" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12420,7 +12438,7 @@
         <v>24.99</v>
       </c>
       <c r="M290" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12458,7 +12476,7 @@
         <v>23.2</v>
       </c>
       <c r="M291" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12496,7 +12514,7 @@
         <v>22.54</v>
       </c>
       <c r="M292" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12534,7 +12552,7 @@
         <v>22.89</v>
       </c>
       <c r="M293" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12572,7 +12590,7 @@
         <v>22.96</v>
       </c>
       <c r="M294" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12610,7 +12628,7 @@
         <v>20.49</v>
       </c>
       <c r="M295" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12648,7 +12666,7 @@
         <v>23.29</v>
       </c>
       <c r="M296" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12686,7 +12704,7 @@
         <v>23.82</v>
       </c>
       <c r="M297" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12724,7 +12742,7 @@
         <v>19.8</v>
       </c>
       <c r="M298" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12762,7 +12780,7 @@
         <v>19.87</v>
       </c>
       <c r="M299" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12800,7 +12818,7 @@
         <v>20.56</v>
       </c>
       <c r="M300" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -12838,7 +12856,7 @@
         <v>22.25</v>
       </c>
       <c r="M301" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -12876,7 +12894,7 @@
         <v>24.57</v>
       </c>
       <c r="M302" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -12914,7 +12932,7 @@
         <v>20.89</v>
       </c>
       <c r="M303" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -12952,7 +12970,7 @@
         <v>22.73</v>
       </c>
       <c r="M304" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -12990,7 +13008,7 @@
         <v>21.09</v>
       </c>
       <c r="M305" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -13028,7 +13046,7 @@
         <v>20.99</v>
       </c>
       <c r="M306" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -13066,7 +13084,7 @@
         <v>24.13</v>
       </c>
       <c r="M307" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -13104,7 +13122,7 @@
         <v>23.89</v>
       </c>
       <c r="M308" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -13142,7 +13160,7 @@
         <v>25.15</v>
       </c>
       <c r="M309" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -13180,7 +13198,7 @@
         <v>25.27</v>
       </c>
       <c r="M310" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -13218,7 +13236,235 @@
         <v>23.6</v>
       </c>
       <c r="M311" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
         <v>322</v>
+      </c>
+      <c r="C312">
+        <v>11.73</v>
+      </c>
+      <c r="D312">
+        <v>82.83</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>21.11</v>
+      </c>
+      <c r="G312">
+        <v>12.35</v>
+      </c>
+      <c r="H312">
+        <v>854.3099999999999</v>
+      </c>
+      <c r="I312">
+        <v>18.06</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>24.88</v>
+      </c>
+      <c r="M312" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>323</v>
+      </c>
+      <c r="C313">
+        <v>11.72</v>
+      </c>
+      <c r="D313">
+        <v>81.45999999999999</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>21.18</v>
+      </c>
+      <c r="G313">
+        <v>14</v>
+      </c>
+      <c r="H313">
+        <v>854.3099999999999</v>
+      </c>
+      <c r="I313">
+        <v>17.86</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>26.72</v>
+      </c>
+      <c r="M313" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>324</v>
+      </c>
+      <c r="C314">
+        <v>11.72</v>
+      </c>
+      <c r="D314">
+        <v>81.89</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>21.1</v>
+      </c>
+      <c r="G314">
+        <v>24.28</v>
+      </c>
+      <c r="H314">
+        <v>854.3</v>
+      </c>
+      <c r="I314">
+        <v>17.86</v>
+      </c>
+      <c r="J314">
+        <v>0.14</v>
+      </c>
+      <c r="L314">
+        <v>26.76</v>
+      </c>
+      <c r="M314" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>325</v>
+      </c>
+      <c r="C315">
+        <v>11.75</v>
+      </c>
+      <c r="D315">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>21.12</v>
+      </c>
+      <c r="G315">
+        <v>19.96</v>
+      </c>
+      <c r="H315">
+        <v>854.38</v>
+      </c>
+      <c r="I315">
+        <v>17.85</v>
+      </c>
+      <c r="J315">
+        <v>4</v>
+      </c>
+      <c r="L315">
+        <v>25.86</v>
+      </c>
+      <c r="M315" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>326</v>
+      </c>
+      <c r="C316">
+        <v>11.69</v>
+      </c>
+      <c r="D316">
+        <v>81.52</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>21.19</v>
+      </c>
+      <c r="G316">
+        <v>18.32</v>
+      </c>
+      <c r="H316">
+        <v>854.5</v>
+      </c>
+      <c r="I316">
+        <v>17.88</v>
+      </c>
+      <c r="J316">
+        <v>18.96</v>
+      </c>
+      <c r="L316">
+        <v>26.28</v>
+      </c>
+      <c r="M316" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>327</v>
+      </c>
+      <c r="C317">
+        <v>11.52</v>
+      </c>
+      <c r="D317">
+        <v>79.81999999999999</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>21.31</v>
+      </c>
+      <c r="G317">
+        <v>25.98</v>
+      </c>
+      <c r="H317">
+        <v>854.6799999999999</v>
+      </c>
+      <c r="I317">
+        <v>17.66</v>
+      </c>
+      <c r="J317">
+        <v>32.42</v>
+      </c>
+      <c r="L317">
+        <v>25.64</v>
+      </c>
+      <c r="M317" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="336">
   <si>
     <t>Fecha</t>
   </si>
@@ -998,6 +998,27 @@
   </si>
   <si>
     <t>11/17/2020 6:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:30:00 AM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1358,7 +1379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M317"/>
+  <dimension ref="A1:M324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1440,7 +1461,7 @@
         <v>15.45</v>
       </c>
       <c r="M2" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1478,7 +1499,7 @@
         <v>13.64</v>
       </c>
       <c r="M3" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1516,7 +1537,7 @@
         <v>13.92</v>
       </c>
       <c r="M4" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1554,7 +1575,7 @@
         <v>13.81</v>
       </c>
       <c r="M5" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1592,7 +1613,7 @@
         <v>14.92</v>
       </c>
       <c r="M6" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1630,7 +1651,7 @@
         <v>16.89</v>
       </c>
       <c r="M7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1671,7 +1692,7 @@
         <v>12.69</v>
       </c>
       <c r="M8" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1709,7 +1730,7 @@
         <v>11.24</v>
       </c>
       <c r="M9" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1747,7 +1768,7 @@
         <v>11.77</v>
       </c>
       <c r="M10" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1785,7 +1806,7 @@
         <v>12.32</v>
       </c>
       <c r="M11" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1826,7 +1847,7 @@
         <v>11.18</v>
       </c>
       <c r="M12" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1867,7 +1888,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M13" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1905,7 +1926,7 @@
         <v>10.04</v>
       </c>
       <c r="M14" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1943,7 +1964,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="M15" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1981,7 +2002,7 @@
         <v>9.23</v>
       </c>
       <c r="M16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2019,7 +2040,7 @@
         <v>7.91</v>
       </c>
       <c r="M17" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2057,7 +2078,7 @@
         <v>8.9</v>
       </c>
       <c r="M18" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2095,7 +2116,7 @@
         <v>9.16</v>
       </c>
       <c r="M19" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2133,7 +2154,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M20" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2171,7 +2192,7 @@
         <v>9.02</v>
       </c>
       <c r="M21" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2209,7 +2230,7 @@
         <v>9.26</v>
       </c>
       <c r="M22" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2247,7 +2268,7 @@
         <v>10.77</v>
       </c>
       <c r="M23" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2285,7 +2306,7 @@
         <v>10.04</v>
       </c>
       <c r="M24" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2323,7 +2344,7 @@
         <v>8.41</v>
       </c>
       <c r="M25" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2364,7 +2385,7 @@
         <v>7.21</v>
       </c>
       <c r="M26" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2402,7 +2423,7 @@
         <v>7.51</v>
       </c>
       <c r="M27" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2440,7 +2461,7 @@
         <v>6.91</v>
       </c>
       <c r="M28" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2478,7 +2499,7 @@
         <v>10.25</v>
       </c>
       <c r="M29" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2516,7 +2537,7 @@
         <v>11.27</v>
       </c>
       <c r="M30" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2554,7 +2575,7 @@
         <v>10.37</v>
       </c>
       <c r="M31" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2592,7 +2613,7 @@
         <v>9.74</v>
       </c>
       <c r="M32" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2630,7 +2651,7 @@
         <v>10.45</v>
       </c>
       <c r="M33" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2668,7 +2689,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="M34" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2706,7 +2727,7 @@
         <v>8.67</v>
       </c>
       <c r="M35" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2744,7 +2765,7 @@
         <v>7.78</v>
       </c>
       <c r="M36" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2782,7 +2803,7 @@
         <v>8.58</v>
       </c>
       <c r="M37" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2820,7 +2841,7 @@
         <v>12.49</v>
       </c>
       <c r="M38" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2858,7 +2879,7 @@
         <v>11.68</v>
       </c>
       <c r="M39" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2896,7 +2917,7 @@
         <v>10.03</v>
       </c>
       <c r="M40" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2934,7 +2955,7 @@
         <v>9.01</v>
       </c>
       <c r="M41" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2972,7 +2993,7 @@
         <v>10.46</v>
       </c>
       <c r="M42" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3010,7 +3031,7 @@
         <v>6.94</v>
       </c>
       <c r="M43" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3048,7 +3069,7 @@
         <v>7.29</v>
       </c>
       <c r="M44" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3086,7 +3107,7 @@
         <v>4.38</v>
       </c>
       <c r="M45" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3124,7 +3145,7 @@
         <v>7.58</v>
       </c>
       <c r="M46" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3162,7 +3183,7 @@
         <v>7.12</v>
       </c>
       <c r="M47" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3200,7 +3221,7 @@
         <v>10.59</v>
       </c>
       <c r="M48" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3238,7 +3259,7 @@
         <v>11.23</v>
       </c>
       <c r="M49" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3276,7 +3297,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="M50" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3314,7 +3335,7 @@
         <v>16.97</v>
       </c>
       <c r="M51" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3352,7 +3373,7 @@
         <v>14.3</v>
       </c>
       <c r="M52" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3390,7 +3411,7 @@
         <v>14.94</v>
       </c>
       <c r="M53" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3428,7 +3449,7 @@
         <v>14.8</v>
       </c>
       <c r="M54" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3466,7 +3487,7 @@
         <v>15.63</v>
       </c>
       <c r="M55" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3504,7 +3525,7 @@
         <v>16.21</v>
       </c>
       <c r="M56" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3542,7 +3563,7 @@
         <v>16.18</v>
       </c>
       <c r="M57" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3580,7 +3601,7 @@
         <v>15.54</v>
       </c>
       <c r="M58" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3618,7 +3639,7 @@
         <v>15.37</v>
       </c>
       <c r="M59" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3656,7 +3677,7 @@
         <v>14.7</v>
       </c>
       <c r="M60" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3694,7 +3715,7 @@
         <v>14.27</v>
       </c>
       <c r="M61" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3732,7 +3753,7 @@
         <v>12.96</v>
       </c>
       <c r="M62" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3770,7 +3791,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="M63" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3808,7 +3829,7 @@
         <v>11.39</v>
       </c>
       <c r="M64" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3846,7 +3867,7 @@
         <v>13.85</v>
       </c>
       <c r="M65" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3884,7 +3905,7 @@
         <v>10.31</v>
       </c>
       <c r="M66" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3922,7 +3943,7 @@
         <v>11.3</v>
       </c>
       <c r="M67" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3960,7 +3981,7 @@
         <v>12.67</v>
       </c>
       <c r="M68" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3998,7 +4019,7 @@
         <v>7.24</v>
       </c>
       <c r="M69" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4036,7 +4057,7 @@
         <v>6.5</v>
       </c>
       <c r="M70" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4074,7 +4095,7 @@
         <v>3.92</v>
       </c>
       <c r="M71" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4112,7 +4133,7 @@
         <v>5.48</v>
       </c>
       <c r="M72" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4150,7 +4171,7 @@
         <v>7.08</v>
       </c>
       <c r="M73" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4188,7 +4209,7 @@
         <v>7.57</v>
       </c>
       <c r="M74" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4226,7 +4247,7 @@
         <v>5.16</v>
       </c>
       <c r="M75" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4264,7 +4285,7 @@
         <v>3.36</v>
       </c>
       <c r="M76" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4302,7 +4323,7 @@
         <v>5.21</v>
       </c>
       <c r="M77" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4340,7 +4361,7 @@
         <v>7.26</v>
       </c>
       <c r="M78" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4378,7 +4399,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="M79" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4416,7 +4437,7 @@
         <v>11.39</v>
       </c>
       <c r="M80" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4454,7 +4475,7 @@
         <v>12.97</v>
       </c>
       <c r="M81" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4492,7 +4513,7 @@
         <v>13.48</v>
       </c>
       <c r="M82" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4530,7 +4551,7 @@
         <v>11.77</v>
       </c>
       <c r="M83" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4568,7 +4589,7 @@
         <v>11.04</v>
       </c>
       <c r="M84" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4606,7 +4627,7 @@
         <v>11.27</v>
       </c>
       <c r="M85" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4644,7 +4665,7 @@
         <v>13.32</v>
       </c>
       <c r="M86" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4682,7 +4703,7 @@
         <v>12.78</v>
       </c>
       <c r="M87" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4720,7 +4741,7 @@
         <v>13.57</v>
       </c>
       <c r="M88" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4758,7 +4779,7 @@
         <v>11.48</v>
       </c>
       <c r="M89" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4796,7 +4817,7 @@
         <v>13.18</v>
       </c>
       <c r="M90" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4834,7 +4855,7 @@
         <v>13.51</v>
       </c>
       <c r="M91" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4872,7 +4893,7 @@
         <v>14.56</v>
       </c>
       <c r="M92" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4910,7 +4931,7 @@
         <v>13.24</v>
       </c>
       <c r="M93" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4948,7 +4969,7 @@
         <v>12.07</v>
       </c>
       <c r="M94" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4986,7 +5007,7 @@
         <v>13.24</v>
       </c>
       <c r="M95" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5024,7 +5045,7 @@
         <v>13.17</v>
       </c>
       <c r="M96" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5062,7 +5083,7 @@
         <v>11.82</v>
       </c>
       <c r="M97" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5100,7 +5121,7 @@
         <v>11.22</v>
       </c>
       <c r="M98" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5141,7 +5162,7 @@
         <v>10.99</v>
       </c>
       <c r="M99" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5179,7 +5200,7 @@
         <v>10.84</v>
       </c>
       <c r="M100" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5217,7 +5238,7 @@
         <v>10.76</v>
       </c>
       <c r="M101" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5255,7 +5276,7 @@
         <v>9.35</v>
       </c>
       <c r="M102" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5293,7 +5314,7 @@
         <v>11.16</v>
       </c>
       <c r="M103" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5334,7 +5355,7 @@
         <v>11.56</v>
       </c>
       <c r="M104" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5372,7 +5393,7 @@
         <v>11.03</v>
       </c>
       <c r="M105" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5410,7 +5431,7 @@
         <v>10.92</v>
       </c>
       <c r="M106" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5448,7 +5469,7 @@
         <v>10.15</v>
       </c>
       <c r="M107" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5486,7 +5507,7 @@
         <v>11.06</v>
       </c>
       <c r="M108" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5524,7 +5545,7 @@
         <v>11.89</v>
       </c>
       <c r="M109" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5562,7 +5583,7 @@
         <v>13.29</v>
       </c>
       <c r="M110" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5600,7 +5621,7 @@
         <v>12.32</v>
       </c>
       <c r="M111" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5638,7 +5659,7 @@
         <v>11.48</v>
       </c>
       <c r="M112" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5676,7 +5697,7 @@
         <v>10.9</v>
       </c>
       <c r="M113" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5714,7 +5735,7 @@
         <v>9.82</v>
       </c>
       <c r="M114" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5752,7 +5773,7 @@
         <v>12.44</v>
       </c>
       <c r="M115" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5790,7 +5811,7 @@
         <v>9.34</v>
       </c>
       <c r="M116" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5828,7 +5849,7 @@
         <v>11.16</v>
       </c>
       <c r="M117" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5866,7 +5887,7 @@
         <v>10.92</v>
       </c>
       <c r="M118" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5904,7 +5925,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="M119" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5942,7 +5963,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="M120" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5980,7 +6001,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="M121" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6018,7 +6039,7 @@
         <v>9.67</v>
       </c>
       <c r="M122" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6056,7 +6077,7 @@
         <v>9.85</v>
       </c>
       <c r="M123" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6094,7 +6115,7 @@
         <v>10.34</v>
       </c>
       <c r="M124" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6132,7 +6153,7 @@
         <v>8.57</v>
       </c>
       <c r="M125" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6173,7 +6194,7 @@
         <v>10.87</v>
       </c>
       <c r="M126" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6214,7 +6235,7 @@
         <v>12.06</v>
       </c>
       <c r="M127" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6255,7 +6276,7 @@
         <v>12.68</v>
       </c>
       <c r="M128" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6293,7 +6314,7 @@
         <v>13.3</v>
       </c>
       <c r="M129" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6334,7 +6355,7 @@
         <v>14.4</v>
       </c>
       <c r="M130" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6372,7 +6393,7 @@
         <v>14.21</v>
       </c>
       <c r="M131" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6410,7 +6431,7 @@
         <v>14.11</v>
       </c>
       <c r="M132" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6448,7 +6469,7 @@
         <v>14.86</v>
       </c>
       <c r="M133" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6486,7 +6507,7 @@
         <v>13.75</v>
       </c>
       <c r="M134" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6524,7 +6545,7 @@
         <v>13.27</v>
       </c>
       <c r="M135" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6562,7 +6583,7 @@
         <v>16.19</v>
       </c>
       <c r="M136" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6600,7 +6621,7 @@
         <v>13.45</v>
       </c>
       <c r="M137" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6638,7 +6659,7 @@
         <v>13.81</v>
       </c>
       <c r="M138" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6676,7 +6697,7 @@
         <v>12.35</v>
       </c>
       <c r="M139" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6714,7 +6735,7 @@
         <v>14.65</v>
       </c>
       <c r="M140" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6752,7 +6773,7 @@
         <v>14.26</v>
       </c>
       <c r="M141" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6790,7 +6811,7 @@
         <v>15.06</v>
       </c>
       <c r="M142" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6828,7 +6849,7 @@
         <v>16.64</v>
       </c>
       <c r="M143" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6866,7 +6887,7 @@
         <v>14.62</v>
       </c>
       <c r="M144" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6904,7 +6925,7 @@
         <v>16.65</v>
       </c>
       <c r="M145" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6942,7 +6963,7 @@
         <v>15.81</v>
       </c>
       <c r="M146" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6980,7 +7001,7 @@
         <v>17.19</v>
       </c>
       <c r="M147" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7018,7 +7039,7 @@
         <v>17.52</v>
       </c>
       <c r="M148" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7056,7 +7077,7 @@
         <v>17.55</v>
       </c>
       <c r="M149" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7094,7 +7115,7 @@
         <v>19.89</v>
       </c>
       <c r="M150" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7132,7 +7153,7 @@
         <v>19.65</v>
       </c>
       <c r="M151" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7170,7 +7191,7 @@
         <v>19.57</v>
       </c>
       <c r="M152" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7208,7 +7229,7 @@
         <v>20.87</v>
       </c>
       <c r="M153" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7246,7 +7267,7 @@
         <v>18.27</v>
       </c>
       <c r="M154" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7284,7 +7305,7 @@
         <v>20.18</v>
       </c>
       <c r="M155" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7322,7 +7343,7 @@
         <v>21.17</v>
       </c>
       <c r="M156" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7360,7 +7381,7 @@
         <v>20.35</v>
       </c>
       <c r="M157" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7398,7 +7419,7 @@
         <v>20.14</v>
       </c>
       <c r="M158" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7436,7 +7457,7 @@
         <v>18.49</v>
       </c>
       <c r="M159" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7474,7 +7495,7 @@
         <v>17.3</v>
       </c>
       <c r="M160" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7512,7 +7533,7 @@
         <v>18.38</v>
       </c>
       <c r="M161" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7550,7 +7571,7 @@
         <v>18.37</v>
       </c>
       <c r="M162" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7588,7 +7609,7 @@
         <v>16.89</v>
       </c>
       <c r="M163" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7626,7 +7647,7 @@
         <v>18.91</v>
       </c>
       <c r="M164" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7664,7 +7685,7 @@
         <v>18.13</v>
       </c>
       <c r="M165" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7702,7 +7723,7 @@
         <v>17.87</v>
       </c>
       <c r="M166" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7740,7 +7761,7 @@
         <v>17.07</v>
       </c>
       <c r="M167" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7778,7 +7799,7 @@
         <v>16.31</v>
       </c>
       <c r="M168" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7816,7 +7837,7 @@
         <v>16.49</v>
       </c>
       <c r="M169" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7854,7 +7875,7 @@
         <v>18.86</v>
       </c>
       <c r="M170" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7892,7 +7913,7 @@
         <v>19.1</v>
       </c>
       <c r="M171" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7930,7 +7951,7 @@
         <v>21.04</v>
       </c>
       <c r="M172" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7968,7 +7989,7 @@
         <v>21.64</v>
       </c>
       <c r="M173" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8006,7 +8027,7 @@
         <v>21.35</v>
       </c>
       <c r="M174" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8044,7 +8065,7 @@
         <v>19.61</v>
       </c>
       <c r="M175" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8082,7 +8103,7 @@
         <v>15.91</v>
       </c>
       <c r="M176" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8120,7 +8141,7 @@
         <v>16.85</v>
       </c>
       <c r="M177" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8158,7 +8179,7 @@
         <v>17.81</v>
       </c>
       <c r="M178" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8199,7 +8220,7 @@
         <v>17.23</v>
       </c>
       <c r="M179" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8237,7 +8258,7 @@
         <v>18.89</v>
       </c>
       <c r="M180" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8275,7 +8296,7 @@
         <v>16.37</v>
       </c>
       <c r="M181" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8316,7 +8337,7 @@
         <v>20.51</v>
       </c>
       <c r="M182" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8354,7 +8375,7 @@
         <v>19.71</v>
       </c>
       <c r="M183" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8395,7 +8416,7 @@
         <v>20.14</v>
       </c>
       <c r="M184" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8433,7 +8454,7 @@
         <v>18.24</v>
       </c>
       <c r="M185" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8474,7 +8495,7 @@
         <v>19.69</v>
       </c>
       <c r="M186" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8515,7 +8536,7 @@
         <v>17.77</v>
       </c>
       <c r="M187" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8553,7 +8574,7 @@
         <v>18.93</v>
       </c>
       <c r="M188" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8591,7 +8612,7 @@
         <v>16.22</v>
       </c>
       <c r="M189" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8629,7 +8650,7 @@
         <v>17.54</v>
       </c>
       <c r="M190" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8667,7 +8688,7 @@
         <v>20.29</v>
       </c>
       <c r="M191" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8705,7 +8726,7 @@
         <v>18.59</v>
       </c>
       <c r="M192" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8746,7 +8767,7 @@
         <v>17.18</v>
       </c>
       <c r="M193" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8784,7 +8805,7 @@
         <v>18.08</v>
       </c>
       <c r="M194" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8822,7 +8843,7 @@
         <v>17.43</v>
       </c>
       <c r="M195" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8860,7 +8881,7 @@
         <v>15.45</v>
       </c>
       <c r="M196" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8898,7 +8919,7 @@
         <v>16.3</v>
       </c>
       <c r="M197" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8936,7 +8957,7 @@
         <v>17.87</v>
       </c>
       <c r="M198" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8974,7 +8995,7 @@
         <v>16.96</v>
       </c>
       <c r="M199" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -9012,7 +9033,7 @@
         <v>17.71</v>
       </c>
       <c r="M200" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -9050,7 +9071,7 @@
         <v>18.12</v>
       </c>
       <c r="M201" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9088,7 +9109,7 @@
         <v>18.09</v>
       </c>
       <c r="M202" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9126,7 +9147,7 @@
         <v>18.91</v>
       </c>
       <c r="M203" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9164,7 +9185,7 @@
         <v>20.05</v>
       </c>
       <c r="M204" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9202,7 +9223,7 @@
         <v>17.47</v>
       </c>
       <c r="M205" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9240,7 +9261,7 @@
         <v>18.33</v>
       </c>
       <c r="M206" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9278,7 +9299,7 @@
         <v>18.66</v>
       </c>
       <c r="M207" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9316,7 +9337,7 @@
         <v>18.23</v>
       </c>
       <c r="M208" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9354,7 +9375,7 @@
         <v>19.93</v>
       </c>
       <c r="M209" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9392,7 +9413,7 @@
         <v>18.84</v>
       </c>
       <c r="M210" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9430,7 +9451,7 @@
         <v>18.94</v>
       </c>
       <c r="M211" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9468,7 +9489,7 @@
         <v>19.56</v>
       </c>
       <c r="M212" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9506,7 +9527,7 @@
         <v>20.59</v>
       </c>
       <c r="M213" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9544,7 +9565,7 @@
         <v>20.72</v>
       </c>
       <c r="M214" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9582,7 +9603,7 @@
         <v>20.4</v>
       </c>
       <c r="M215" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9620,7 +9641,7 @@
         <v>19.37</v>
       </c>
       <c r="M216" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9658,7 +9679,7 @@
         <v>18.57</v>
       </c>
       <c r="M217" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9696,7 +9717,7 @@
         <v>17.78</v>
       </c>
       <c r="M218" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9734,7 +9755,7 @@
         <v>17.8</v>
       </c>
       <c r="M219" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9772,7 +9793,7 @@
         <v>19.09</v>
       </c>
       <c r="M220" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9810,7 +9831,7 @@
         <v>21.59</v>
       </c>
       <c r="M221" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9848,7 +9869,7 @@
         <v>22.81</v>
       </c>
       <c r="M222" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9886,7 +9907,7 @@
         <v>21.86</v>
       </c>
       <c r="M223" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9927,7 +9948,7 @@
         <v>21.52</v>
       </c>
       <c r="M224" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9965,7 +9986,7 @@
         <v>21.82</v>
       </c>
       <c r="M225" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -10003,7 +10024,7 @@
         <v>25.78</v>
       </c>
       <c r="M226" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10041,7 +10062,7 @@
         <v>26.03</v>
       </c>
       <c r="M227" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10079,7 +10100,7 @@
         <v>27.64</v>
       </c>
       <c r="M228" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10117,7 +10138,7 @@
         <v>30.36</v>
       </c>
       <c r="M229" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10155,7 +10176,7 @@
         <v>29.21</v>
       </c>
       <c r="M230" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10193,7 +10214,7 @@
         <v>30.19</v>
       </c>
       <c r="M231" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10231,7 +10252,7 @@
         <v>30.52</v>
       </c>
       <c r="M232" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10269,7 +10290,7 @@
         <v>33.96</v>
       </c>
       <c r="M233" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10307,7 +10328,7 @@
         <v>36.6</v>
       </c>
       <c r="M234" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10345,7 +10366,7 @@
         <v>35.52</v>
       </c>
       <c r="M235" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10383,7 +10404,7 @@
         <v>35.63</v>
       </c>
       <c r="M236" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10421,7 +10442,7 @@
         <v>35.76</v>
       </c>
       <c r="M237" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10459,7 +10480,7 @@
         <v>36.51</v>
       </c>
       <c r="M238" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10497,7 +10518,7 @@
         <v>36.35</v>
       </c>
       <c r="M239" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10535,7 +10556,7 @@
         <v>31.64</v>
       </c>
       <c r="M240" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10573,7 +10594,7 @@
         <v>31.94</v>
       </c>
       <c r="M241" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10611,7 +10632,7 @@
         <v>30.43</v>
       </c>
       <c r="M242" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10649,7 +10670,7 @@
         <v>27.87</v>
       </c>
       <c r="M243" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10687,7 +10708,7 @@
         <v>28.3</v>
       </c>
       <c r="M244" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10725,7 +10746,7 @@
         <v>27.77</v>
       </c>
       <c r="M245" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10763,7 +10784,7 @@
         <v>27.98</v>
       </c>
       <c r="M246" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10801,7 +10822,7 @@
         <v>28.63</v>
       </c>
       <c r="M247" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10839,7 +10860,7 @@
         <v>30.23</v>
       </c>
       <c r="M248" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10877,7 +10898,7 @@
         <v>31.67</v>
       </c>
       <c r="M249" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10915,7 +10936,7 @@
         <v>29.64</v>
       </c>
       <c r="M250" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10953,7 +10974,7 @@
         <v>28.48</v>
       </c>
       <c r="M251" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10991,7 +11012,7 @@
         <v>28.47</v>
       </c>
       <c r="M252" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11029,7 +11050,7 @@
         <v>29.68</v>
       </c>
       <c r="M253" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11067,7 +11088,7 @@
         <v>29.35</v>
       </c>
       <c r="M254" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11105,7 +11126,7 @@
         <v>29.2</v>
       </c>
       <c r="M255" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11143,7 +11164,7 @@
         <v>28.61</v>
       </c>
       <c r="M256" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11181,7 +11202,7 @@
         <v>29.5</v>
       </c>
       <c r="M257" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11219,7 +11240,7 @@
         <v>29.08</v>
       </c>
       <c r="M258" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11257,7 +11278,7 @@
         <v>28.93</v>
       </c>
       <c r="M259" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11295,7 +11316,7 @@
         <v>27.66</v>
       </c>
       <c r="M260" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11333,7 +11354,7 @@
         <v>26.16</v>
       </c>
       <c r="M261" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11371,7 +11392,7 @@
         <v>27.91</v>
       </c>
       <c r="M262" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11409,7 +11430,7 @@
         <v>29.85</v>
       </c>
       <c r="M263" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11447,7 +11468,7 @@
         <v>25.83</v>
       </c>
       <c r="M264" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11485,7 +11506,7 @@
         <v>25.27</v>
       </c>
       <c r="M265" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11523,7 +11544,7 @@
         <v>28.01</v>
       </c>
       <c r="M266" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11561,7 +11582,7 @@
         <v>31.43</v>
       </c>
       <c r="M267" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11599,7 +11620,7 @@
         <v>27.68</v>
       </c>
       <c r="M268" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11637,7 +11658,7 @@
         <v>27.99</v>
       </c>
       <c r="M269" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11678,7 +11699,7 @@
         <v>26.04</v>
       </c>
       <c r="M270" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11716,7 +11737,7 @@
         <v>26.02</v>
       </c>
       <c r="M271" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11754,7 +11775,7 @@
         <v>24.91</v>
       </c>
       <c r="M272" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11792,7 +11813,7 @@
         <v>26.45</v>
       </c>
       <c r="M273" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11830,7 +11851,7 @@
         <v>24.93</v>
       </c>
       <c r="M274" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11868,7 +11889,7 @@
         <v>25.35</v>
       </c>
       <c r="M275" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11906,7 +11927,7 @@
         <v>26.26</v>
       </c>
       <c r="M276" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11944,7 +11965,7 @@
         <v>25.15</v>
       </c>
       <c r="M277" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -11982,7 +12003,7 @@
         <v>24.85</v>
       </c>
       <c r="M278" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -12020,7 +12041,7 @@
         <v>23.99</v>
       </c>
       <c r="M279" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -12058,7 +12079,7 @@
         <v>26.25</v>
       </c>
       <c r="M280" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12096,7 +12117,7 @@
         <v>25.39</v>
       </c>
       <c r="M281" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12134,7 +12155,7 @@
         <v>27.51</v>
       </c>
       <c r="M282" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12172,7 +12193,7 @@
         <v>29.2</v>
       </c>
       <c r="M283" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12210,7 +12231,7 @@
         <v>32.29</v>
       </c>
       <c r="M284" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12248,7 +12269,7 @@
         <v>27.93</v>
       </c>
       <c r="M285" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12286,7 +12307,7 @@
         <v>25.3</v>
       </c>
       <c r="M286" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12324,7 +12345,7 @@
         <v>27.19</v>
       </c>
       <c r="M287" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12362,7 +12383,7 @@
         <v>26.44</v>
       </c>
       <c r="M288" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12400,7 +12421,7 @@
         <v>23.44</v>
       </c>
       <c r="M289" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12438,7 +12459,7 @@
         <v>24.99</v>
       </c>
       <c r="M290" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12476,7 +12497,7 @@
         <v>23.2</v>
       </c>
       <c r="M291" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12514,7 +12535,7 @@
         <v>22.54</v>
       </c>
       <c r="M292" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12552,7 +12573,7 @@
         <v>22.89</v>
       </c>
       <c r="M293" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12590,7 +12611,7 @@
         <v>22.96</v>
       </c>
       <c r="M294" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12628,7 +12649,7 @@
         <v>20.49</v>
       </c>
       <c r="M295" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12666,7 +12687,7 @@
         <v>23.29</v>
       </c>
       <c r="M296" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12704,7 +12725,7 @@
         <v>23.82</v>
       </c>
       <c r="M297" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12742,7 +12763,7 @@
         <v>19.8</v>
       </c>
       <c r="M298" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12780,7 +12801,7 @@
         <v>19.87</v>
       </c>
       <c r="M299" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12818,7 +12839,7 @@
         <v>20.56</v>
       </c>
       <c r="M300" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -12856,7 +12877,7 @@
         <v>22.25</v>
       </c>
       <c r="M301" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -12894,7 +12915,7 @@
         <v>24.57</v>
       </c>
       <c r="M302" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -12932,7 +12953,7 @@
         <v>20.89</v>
       </c>
       <c r="M303" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -12970,7 +12991,7 @@
         <v>22.73</v>
       </c>
       <c r="M304" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -13008,7 +13029,7 @@
         <v>21.09</v>
       </c>
       <c r="M305" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -13046,7 +13067,7 @@
         <v>20.99</v>
       </c>
       <c r="M306" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -13084,7 +13105,7 @@
         <v>24.13</v>
       </c>
       <c r="M307" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -13122,7 +13143,7 @@
         <v>23.89</v>
       </c>
       <c r="M308" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -13160,7 +13181,7 @@
         <v>25.15</v>
       </c>
       <c r="M309" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -13198,7 +13219,7 @@
         <v>25.27</v>
       </c>
       <c r="M310" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -13236,7 +13257,7 @@
         <v>23.6</v>
       </c>
       <c r="M311" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -13274,7 +13295,7 @@
         <v>24.88</v>
       </c>
       <c r="M312" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -13312,7 +13333,7 @@
         <v>26.72</v>
       </c>
       <c r="M313" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -13350,7 +13371,7 @@
         <v>26.76</v>
       </c>
       <c r="M314" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -13388,7 +13409,7 @@
         <v>25.86</v>
       </c>
       <c r="M315" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -13426,7 +13447,7 @@
         <v>26.28</v>
       </c>
       <c r="M316" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -13464,7 +13485,276 @@
         <v>25.64</v>
       </c>
       <c r="M317" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
         <v>328</v>
+      </c>
+      <c r="C318">
+        <v>11.47</v>
+      </c>
+      <c r="D318">
+        <v>78.13</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>21.41</v>
+      </c>
+      <c r="G318">
+        <v>16.07</v>
+      </c>
+      <c r="H318">
+        <v>855.04</v>
+      </c>
+      <c r="I318">
+        <v>17.42</v>
+      </c>
+      <c r="J318">
+        <v>28.83</v>
+      </c>
+      <c r="K318">
+        <v>2000</v>
+      </c>
+      <c r="L318">
+        <v>25.61</v>
+      </c>
+      <c r="M318" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>329</v>
+      </c>
+      <c r="C319">
+        <v>11.58</v>
+      </c>
+      <c r="D319">
+        <v>78.15000000000001</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>21.4</v>
+      </c>
+      <c r="G319">
+        <v>12.32</v>
+      </c>
+      <c r="H319">
+        <v>855.16</v>
+      </c>
+      <c r="I319">
+        <v>17.41</v>
+      </c>
+      <c r="J319">
+        <v>61.96</v>
+      </c>
+      <c r="L319">
+        <v>26.3</v>
+      </c>
+      <c r="M319" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>330</v>
+      </c>
+      <c r="C320">
+        <v>11.4</v>
+      </c>
+      <c r="D320">
+        <v>78.7</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>21.33</v>
+      </c>
+      <c r="G320">
+        <v>14.09</v>
+      </c>
+      <c r="H320">
+        <v>855.3</v>
+      </c>
+      <c r="I320">
+        <v>17.46</v>
+      </c>
+      <c r="J320">
+        <v>47.84</v>
+      </c>
+      <c r="L320">
+        <v>22.55</v>
+      </c>
+      <c r="M320" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>331</v>
+      </c>
+      <c r="C321">
+        <v>11.74</v>
+      </c>
+      <c r="D321">
+        <v>78.56</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>21.35</v>
+      </c>
+      <c r="G321">
+        <v>19.46</v>
+      </c>
+      <c r="H321">
+        <v>855.3099999999999</v>
+      </c>
+      <c r="I321">
+        <v>17.45</v>
+      </c>
+      <c r="J321">
+        <v>38.08</v>
+      </c>
+      <c r="L321">
+        <v>25.41</v>
+      </c>
+      <c r="M321" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>332</v>
+      </c>
+      <c r="C322">
+        <v>11.45</v>
+      </c>
+      <c r="D322">
+        <v>77.81999999999999</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>21.49</v>
+      </c>
+      <c r="G322">
+        <v>19.85</v>
+      </c>
+      <c r="H322">
+        <v>855.45</v>
+      </c>
+      <c r="I322">
+        <v>17.44</v>
+      </c>
+      <c r="J322">
+        <v>80.3</v>
+      </c>
+      <c r="L322">
+        <v>26.96</v>
+      </c>
+      <c r="M322" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>333</v>
+      </c>
+      <c r="C323">
+        <v>11.42</v>
+      </c>
+      <c r="D323">
+        <v>77.19</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>21.61</v>
+      </c>
+      <c r="G323">
+        <v>14.25</v>
+      </c>
+      <c r="H323">
+        <v>855.63</v>
+      </c>
+      <c r="I323">
+        <v>17.42</v>
+      </c>
+      <c r="J323">
+        <v>87.04000000000001</v>
+      </c>
+      <c r="L323">
+        <v>25.39</v>
+      </c>
+      <c r="M323" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>334</v>
+      </c>
+      <c r="C324">
+        <v>11.45</v>
+      </c>
+      <c r="D324">
+        <v>76.89</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>21.59</v>
+      </c>
+      <c r="G324">
+        <v>7.95</v>
+      </c>
+      <c r="H324">
+        <v>855.9</v>
+      </c>
+      <c r="I324">
+        <v>17.34</v>
+      </c>
+      <c r="J324">
+        <v>58.87</v>
+      </c>
+      <c r="L324">
+        <v>26.23</v>
+      </c>
+      <c r="M324" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LA AURORA.xlsx
+++ b/tablas_insivumeh/LA AURORA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="342">
   <si>
     <t>Fecha</t>
   </si>
@@ -1019,6 +1019,24 @@
   </si>
   <si>
     <t>11/17/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:15:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:45:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 10:00:00 AM</t>
   </si>
   <si>
     <t>LA AURORA</t>
@@ -1379,7 +1397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M324"/>
+  <dimension ref="A1:M330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1461,7 +1479,7 @@
         <v>15.45</v>
       </c>
       <c r="M2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1499,7 +1517,7 @@
         <v>13.64</v>
       </c>
       <c r="M3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1537,7 +1555,7 @@
         <v>13.92</v>
       </c>
       <c r="M4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1575,7 +1593,7 @@
         <v>13.81</v>
       </c>
       <c r="M5" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1613,7 +1631,7 @@
         <v>14.92</v>
       </c>
       <c r="M6" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1651,7 +1669,7 @@
         <v>16.89</v>
       </c>
       <c r="M7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1692,7 +1710,7 @@
         <v>12.69</v>
       </c>
       <c r="M8" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1730,7 +1748,7 @@
         <v>11.24</v>
       </c>
       <c r="M9" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1768,7 +1786,7 @@
         <v>11.77</v>
       </c>
       <c r="M10" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1806,7 +1824,7 @@
         <v>12.32</v>
       </c>
       <c r="M11" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1847,7 +1865,7 @@
         <v>11.18</v>
       </c>
       <c r="M12" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1888,7 +1906,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M13" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1926,7 +1944,7 @@
         <v>10.04</v>
       </c>
       <c r="M14" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1964,7 +1982,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="M15" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2002,7 +2020,7 @@
         <v>9.23</v>
       </c>
       <c r="M16" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2040,7 +2058,7 @@
         <v>7.91</v>
       </c>
       <c r="M17" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2078,7 +2096,7 @@
         <v>8.9</v>
       </c>
       <c r="M18" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2116,7 +2134,7 @@
         <v>9.16</v>
       </c>
       <c r="M19" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2154,7 +2172,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M20" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2192,7 +2210,7 @@
         <v>9.02</v>
       </c>
       <c r="M21" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2230,7 +2248,7 @@
         <v>9.26</v>
       </c>
       <c r="M22" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2268,7 +2286,7 @@
         <v>10.77</v>
       </c>
       <c r="M23" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2306,7 +2324,7 @@
         <v>10.04</v>
       </c>
       <c r="M24" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2344,7 +2362,7 @@
         <v>8.41</v>
       </c>
       <c r="M25" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2385,7 +2403,7 @@
         <v>7.21</v>
       </c>
       <c r="M26" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2423,7 +2441,7 @@
         <v>7.51</v>
       </c>
       <c r="M27" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2461,7 +2479,7 @@
         <v>6.91</v>
       </c>
       <c r="M28" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2499,7 +2517,7 @@
         <v>10.25</v>
       </c>
       <c r="M29" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2537,7 +2555,7 @@
         <v>11.27</v>
       </c>
       <c r="M30" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2575,7 +2593,7 @@
         <v>10.37</v>
       </c>
       <c r="M31" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2613,7 +2631,7 @@
         <v>9.74</v>
       </c>
       <c r="M32" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2651,7 +2669,7 @@
         <v>10.45</v>
       </c>
       <c r="M33" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2689,7 +2707,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="M34" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2727,7 +2745,7 @@
         <v>8.67</v>
       </c>
       <c r="M35" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2765,7 +2783,7 @@
         <v>7.78</v>
       </c>
       <c r="M36" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2803,7 +2821,7 @@
         <v>8.58</v>
       </c>
       <c r="M37" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2841,7 +2859,7 @@
         <v>12.49</v>
       </c>
       <c r="M38" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2879,7 +2897,7 @@
         <v>11.68</v>
       </c>
       <c r="M39" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2917,7 +2935,7 @@
         <v>10.03</v>
       </c>
       <c r="M40" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2955,7 +2973,7 @@
         <v>9.01</v>
       </c>
       <c r="M41" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2993,7 +3011,7 @@
         <v>10.46</v>
       </c>
       <c r="M42" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3031,7 +3049,7 @@
         <v>6.94</v>
       </c>
       <c r="M43" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3069,7 +3087,7 @@
         <v>7.29</v>
       </c>
       <c r="M44" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3107,7 +3125,7 @@
         <v>4.38</v>
       </c>
       <c r="M45" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3145,7 +3163,7 @@
         <v>7.58</v>
       </c>
       <c r="M46" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3183,7 +3201,7 @@
         <v>7.12</v>
       </c>
       <c r="M47" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3221,7 +3239,7 @@
         <v>10.59</v>
       </c>
       <c r="M48" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3259,7 +3277,7 @@
         <v>11.23</v>
       </c>
       <c r="M49" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3297,7 +3315,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="M50" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3335,7 +3353,7 @@
         <v>16.97</v>
       </c>
       <c r="M51" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3373,7 +3391,7 @@
         <v>14.3</v>
       </c>
       <c r="M52" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3411,7 +3429,7 @@
         <v>14.94</v>
       </c>
       <c r="M53" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3449,7 +3467,7 @@
         <v>14.8</v>
       </c>
       <c r="M54" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3487,7 +3505,7 @@
         <v>15.63</v>
       </c>
       <c r="M55" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3525,7 +3543,7 @@
         <v>16.21</v>
       </c>
       <c r="M56" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3563,7 +3581,7 @@
         <v>16.18</v>
       </c>
       <c r="M57" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3601,7 +3619,7 @@
         <v>15.54</v>
       </c>
       <c r="M58" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3639,7 +3657,7 @@
         <v>15.37</v>
       </c>
       <c r="M59" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3677,7 +3695,7 @@
         <v>14.7</v>
       </c>
       <c r="M60" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3715,7 +3733,7 @@
         <v>14.27</v>
       </c>
       <c r="M61" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3753,7 +3771,7 @@
         <v>12.96</v>
       </c>
       <c r="M62" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3791,7 +3809,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="M63" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3829,7 +3847,7 @@
         <v>11.39</v>
       </c>
       <c r="M64" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3867,7 +3885,7 @@
         <v>13.85</v>
       </c>
       <c r="M65" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3905,7 +3923,7 @@
         <v>10.31</v>
       </c>
       <c r="M66" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3943,7 +3961,7 @@
         <v>11.3</v>
       </c>
       <c r="M67" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3981,7 +3999,7 @@
         <v>12.67</v>
       </c>
       <c r="M68" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4019,7 +4037,7 @@
         <v>7.24</v>
       </c>
       <c r="M69" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4057,7 +4075,7 @@
         <v>6.5</v>
       </c>
       <c r="M70" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4095,7 +4113,7 @@
         <v>3.92</v>
       </c>
       <c r="M71" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4133,7 +4151,7 @@
         <v>5.48</v>
       </c>
       <c r="M72" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4171,7 +4189,7 @@
         <v>7.08</v>
       </c>
       <c r="M73" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4209,7 +4227,7 @@
         <v>7.57</v>
       </c>
       <c r="M74" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4247,7 +4265,7 @@
         <v>5.16</v>
       </c>
       <c r="M75" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4285,7 +4303,7 @@
         <v>3.36</v>
       </c>
       <c r="M76" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4323,7 +4341,7 @@
         <v>5.21</v>
       </c>
       <c r="M77" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4361,7 +4379,7 @@
         <v>7.26</v>
       </c>
       <c r="M78" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4399,7 +4417,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="M79" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4437,7 +4455,7 @@
         <v>11.39</v>
       </c>
       <c r="M80" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4475,7 +4493,7 @@
         <v>12.97</v>
       </c>
       <c r="M81" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4513,7 +4531,7 @@
         <v>13.48</v>
       </c>
       <c r="M82" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4551,7 +4569,7 @@
         <v>11.77</v>
       </c>
       <c r="M83" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4589,7 +4607,7 @@
         <v>11.04</v>
       </c>
       <c r="M84" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4627,7 +4645,7 @@
         <v>11.27</v>
       </c>
       <c r="M85" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4665,7 +4683,7 @@
         <v>13.32</v>
       </c>
       <c r="M86" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4703,7 +4721,7 @@
         <v>12.78</v>
       </c>
       <c r="M87" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4741,7 +4759,7 @@
         <v>13.57</v>
       </c>
       <c r="M88" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4779,7 +4797,7 @@
         <v>11.48</v>
       </c>
       <c r="M89" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4817,7 +4835,7 @@
         <v>13.18</v>
       </c>
       <c r="M90" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4855,7 +4873,7 @@
         <v>13.51</v>
       </c>
       <c r="M91" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4893,7 +4911,7 @@
         <v>14.56</v>
       </c>
       <c r="M92" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4931,7 +4949,7 @@
         <v>13.24</v>
       </c>
       <c r="M93" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4969,7 +4987,7 @@
         <v>12.07</v>
       </c>
       <c r="M94" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -5007,7 +5025,7 @@
         <v>13.24</v>
       </c>
       <c r="M95" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5045,7 +5063,7 @@
         <v>13.17</v>
       </c>
       <c r="M96" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5083,7 +5101,7 @@
         <v>11.82</v>
       </c>
       <c r="M97" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5121,7 +5139,7 @@
         <v>11.22</v>
       </c>
       <c r="M98" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5162,7 +5180,7 @@
         <v>10.99</v>
       </c>
       <c r="M99" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5200,7 +5218,7 @@
         <v>10.84</v>
       </c>
       <c r="M100" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5238,7 +5256,7 @@
         <v>10.76</v>
       </c>
       <c r="M101" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5276,7 +5294,7 @@
         <v>9.35</v>
       </c>
       <c r="M102" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5314,7 +5332,7 @@
         <v>11.16</v>
       </c>
       <c r="M103" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5355,7 +5373,7 @@
         <v>11.56</v>
       </c>
       <c r="M104" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5393,7 +5411,7 @@
         <v>11.03</v>
       </c>
       <c r="M105" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5431,7 +5449,7 @@
         <v>10.92</v>
       </c>
       <c r="M106" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5469,7 +5487,7 @@
         <v>10.15</v>
       </c>
       <c r="M107" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5507,7 +5525,7 @@
         <v>11.06</v>
       </c>
       <c r="M108" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5545,7 +5563,7 @@
         <v>11.89</v>
       </c>
       <c r="M109" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5583,7 +5601,7 @@
         <v>13.29</v>
       </c>
       <c r="M110" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5621,7 +5639,7 @@
         <v>12.32</v>
       </c>
       <c r="M111" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5659,7 +5677,7 @@
         <v>11.48</v>
       </c>
       <c r="M112" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5697,7 +5715,7 @@
         <v>10.9</v>
       </c>
       <c r="M113" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5735,7 +5753,7 @@
         <v>9.82</v>
       </c>
       <c r="M114" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5773,7 +5791,7 @@
         <v>12.44</v>
       </c>
       <c r="M115" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5811,7 +5829,7 @@
         <v>9.34</v>
       </c>
       <c r="M116" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5849,7 +5867,7 @@
         <v>11.16</v>
       </c>
       <c r="M117" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5887,7 +5905,7 @@
         <v>10.92</v>
       </c>
       <c r="M118" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5925,7 +5943,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="M119" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5963,7 +5981,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="M120" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -6001,7 +6019,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="M121" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6039,7 +6057,7 @@
         <v>9.67</v>
       </c>
       <c r="M122" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6077,7 +6095,7 @@
         <v>9.85</v>
       </c>
       <c r="M123" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6115,7 +6133,7 @@
         <v>10.34</v>
       </c>
       <c r="M124" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6153,7 +6171,7 @@
         <v>8.57</v>
       </c>
       <c r="M125" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6194,7 +6212,7 @@
         <v>10.87</v>
       </c>
       <c r="M126" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6235,7 +6253,7 @@
         <v>12.06</v>
       </c>
       <c r="M127" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6276,7 +6294,7 @@
         <v>12.68</v>
       </c>
       <c r="M128" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6314,7 +6332,7 @@
         <v>13.3</v>
       </c>
       <c r="M129" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6355,7 +6373,7 @@
         <v>14.4</v>
       </c>
       <c r="M130" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6393,7 +6411,7 @@
         <v>14.21</v>
       </c>
       <c r="M131" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6431,7 +6449,7 @@
         <v>14.11</v>
       </c>
       <c r="M132" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6469,7 +6487,7 @@
         <v>14.86</v>
       </c>
       <c r="M133" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6507,7 +6525,7 @@
         <v>13.75</v>
       </c>
       <c r="M134" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6545,7 +6563,7 @@
         <v>13.27</v>
       </c>
       <c r="M135" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6583,7 +6601,7 @@
         <v>16.19</v>
       </c>
       <c r="M136" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6621,7 +6639,7 @@
         <v>13.45</v>
       </c>
       <c r="M137" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6659,7 +6677,7 @@
         <v>13.81</v>
       </c>
       <c r="M138" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6697,7 +6715,7 @@
         <v>12.35</v>
       </c>
       <c r="M139" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6735,7 +6753,7 @@
         <v>14.65</v>
       </c>
       <c r="M140" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6773,7 +6791,7 @@
         <v>14.26</v>
       </c>
       <c r="M141" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6811,7 +6829,7 @@
         <v>15.06</v>
       </c>
       <c r="M142" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6849,7 +6867,7 @@
         <v>16.64</v>
       </c>
       <c r="M143" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6887,7 +6905,7 @@
         <v>14.62</v>
       </c>
       <c r="M144" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6925,7 +6943,7 @@
         <v>16.65</v>
       </c>
       <c r="M145" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6963,7 +6981,7 @@
         <v>15.81</v>
       </c>
       <c r="M146" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -7001,7 +7019,7 @@
         <v>17.19</v>
       </c>
       <c r="M147" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7039,7 +7057,7 @@
         <v>17.52</v>
       </c>
       <c r="M148" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7077,7 +7095,7 @@
         <v>17.55</v>
       </c>
       <c r="M149" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7115,7 +7133,7 @@
         <v>19.89</v>
       </c>
       <c r="M150" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7153,7 +7171,7 @@
         <v>19.65</v>
       </c>
       <c r="M151" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7191,7 +7209,7 @@
         <v>19.57</v>
       </c>
       <c r="M152" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7229,7 +7247,7 @@
         <v>20.87</v>
       </c>
       <c r="M153" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7267,7 +7285,7 @@
         <v>18.27</v>
       </c>
       <c r="M154" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7305,7 +7323,7 @@
         <v>20.18</v>
       </c>
       <c r="M155" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7343,7 +7361,7 @@
         <v>21.17</v>
       </c>
       <c r="M156" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7381,7 +7399,7 @@
         <v>20.35</v>
       </c>
       <c r="M157" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7419,7 +7437,7 @@
         <v>20.14</v>
       </c>
       <c r="M158" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7457,7 +7475,7 @@
         <v>18.49</v>
       </c>
       <c r="M159" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7495,7 +7513,7 @@
         <v>17.3</v>
       </c>
       <c r="M160" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7533,7 +7551,7 @@
         <v>18.38</v>
       </c>
       <c r="M161" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7571,7 +7589,7 @@
         <v>18.37</v>
       </c>
       <c r="M162" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7609,7 +7627,7 @@
         <v>16.89</v>
       </c>
       <c r="M163" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7647,7 +7665,7 @@
         <v>18.91</v>
       </c>
       <c r="M164" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7685,7 +7703,7 @@
         <v>18.13</v>
       </c>
       <c r="M165" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7723,7 +7741,7 @@
         <v>17.87</v>
       </c>
       <c r="M166" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7761,7 +7779,7 @@
         <v>17.07</v>
       </c>
       <c r="M167" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7799,7 +7817,7 @@
         <v>16.31</v>
       </c>
       <c r="M168" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7837,7 +7855,7 @@
         <v>16.49</v>
       </c>
       <c r="M169" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7875,7 +7893,7 @@
         <v>18.86</v>
       </c>
       <c r="M170" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7913,7 +7931,7 @@
         <v>19.1</v>
       </c>
       <c r="M171" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7951,7 +7969,7 @@
         <v>21.04</v>
       </c>
       <c r="M172" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7989,7 +8007,7 @@
         <v>21.64</v>
       </c>
       <c r="M173" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8027,7 +8045,7 @@
         <v>21.35</v>
       </c>
       <c r="M174" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8065,7 +8083,7 @@
         <v>19.61</v>
       </c>
       <c r="M175" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8103,7 +8121,7 @@
         <v>15.91</v>
       </c>
       <c r="M176" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8141,7 +8159,7 @@
         <v>16.85</v>
       </c>
       <c r="M177" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8179,7 +8197,7 @@
         <v>17.81</v>
       </c>
       <c r="M178" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8220,7 +8238,7 @@
         <v>17.23</v>
       </c>
       <c r="M179" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8258,7 +8276,7 @@
         <v>18.89</v>
       </c>
       <c r="M180" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8296,7 +8314,7 @@
         <v>16.37</v>
       </c>
       <c r="M181" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8337,7 +8355,7 @@
         <v>20.51</v>
       </c>
       <c r="M182" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8375,7 +8393,7 @@
         <v>19.71</v>
       </c>
       <c r="M183" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8416,7 +8434,7 @@
         <v>20.14</v>
       </c>
       <c r="M184" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8454,7 +8472,7 @@
         <v>18.24</v>
       </c>
       <c r="M185" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8495,7 +8513,7 @@
         <v>19.69</v>
       </c>
       <c r="M186" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8536,7 +8554,7 @@
         <v>17.77</v>
       </c>
       <c r="M187" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8574,7 +8592,7 @@
         <v>18.93</v>
       </c>
       <c r="M188" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8612,7 +8630,7 @@
         <v>16.22</v>
       </c>
       <c r="M189" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8650,7 +8668,7 @@
         <v>17.54</v>
       </c>
       <c r="M190" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8688,7 +8706,7 @@
         <v>20.29</v>
       </c>
       <c r="M191" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8726,7 +8744,7 @@
         <v>18.59</v>
       </c>
       <c r="M192" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8767,7 +8785,7 @@
         <v>17.18</v>
       </c>
       <c r="M193" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8805,7 +8823,7 @@
         <v>18.08</v>
       </c>
       <c r="M194" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8843,7 +8861,7 @@
         <v>17.43</v>
       </c>
       <c r="M195" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8881,7 +8899,7 @@
         <v>15.45</v>
       </c>
       <c r="M196" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8919,7 +8937,7 @@
         <v>16.3</v>
       </c>
       <c r="M197" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8957,7 +8975,7 @@
         <v>17.87</v>
       </c>
       <c r="M198" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8995,7 +9013,7 @@
         <v>16.96</v>
       </c>
       <c r="M199" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -9033,7 +9051,7 @@
         <v>17.71</v>
       </c>
       <c r="M200" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -9071,7 +9089,7 @@
         <v>18.12</v>
       </c>
       <c r="M201" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9109,7 +9127,7 @@
         <v>18.09</v>
       </c>
       <c r="M202" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9147,7 +9165,7 @@
         <v>18.91</v>
       </c>
       <c r="M203" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9185,7 +9203,7 @@
         <v>20.05</v>
       </c>
       <c r="M204" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9223,7 +9241,7 @@
         <v>17.47</v>
       </c>
       <c r="M205" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9261,7 +9279,7 @@
         <v>18.33</v>
       </c>
       <c r="M206" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -9299,7 +9317,7 @@
         <v>18.66</v>
       </c>
       <c r="M207" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -9337,7 +9355,7 @@
         <v>18.23</v>
       </c>
       <c r="M208" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9375,7 +9393,7 @@
         <v>19.93</v>
       </c>
       <c r="M209" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -9413,7 +9431,7 @@
         <v>18.84</v>
       </c>
       <c r="M210" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9451,7 +9469,7 @@
         <v>18.94</v>
       </c>
       <c r="M211" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9489,7 +9507,7 @@
         <v>19.56</v>
       </c>
       <c r="M212" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9527,7 +9545,7 @@
         <v>20.59</v>
       </c>
       <c r="M213" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9565,7 +9583,7 @@
         <v>20.72</v>
       </c>
       <c r="M214" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9603,7 +9621,7 @@
         <v>20.4</v>
       </c>
       <c r="M215" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9641,7 +9659,7 @@
         <v>19.37</v>
       </c>
       <c r="M216" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9679,7 +9697,7 @@
         <v>18.57</v>
       </c>
       <c r="M217" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9717,7 +9735,7 @@
         <v>17.78</v>
       </c>
       <c r="M218" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9755,7 +9773,7 @@
         <v>17.8</v>
       </c>
       <c r="M219" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9793,7 +9811,7 @@
         <v>19.09</v>
       </c>
       <c r="M220" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9831,7 +9849,7 @@
         <v>21.59</v>
       </c>
       <c r="M221" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9869,7 +9887,7 @@
         <v>22.81</v>
       </c>
       <c r="M222" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9907,7 +9925,7 @@
         <v>21.86</v>
       </c>
       <c r="M223" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9948,7 +9966,7 @@
         <v>21.52</v>
       </c>
       <c r="M224" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9986,7 +10004,7 @@
         <v>21.82</v>
       </c>
       <c r="M225" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -10024,7 +10042,7 @@
         <v>25.78</v>
       </c>
       <c r="M226" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10062,7 +10080,7 @@
         <v>26.03</v>
       </c>
       <c r="M227" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10100,7 +10118,7 @@
         <v>27.64</v>
       </c>
       <c r="M228" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10138,7 +10156,7 @@
         <v>30.36</v>
       </c>
       <c r="M229" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10176,7 +10194,7 @@
         <v>29.21</v>
       </c>
       <c r="M230" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10214,7 +10232,7 @@
         <v>30.19</v>
       </c>
       <c r="M231" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10252,7 +10270,7 @@
         <v>30.52</v>
       </c>
       <c r="M232" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10290,7 +10308,7 @@
         <v>33.96</v>
       </c>
       <c r="M233" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10328,7 +10346,7 @@
         <v>36.6</v>
       </c>
       <c r="M234" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10366,7 +10384,7 @@
         <v>35.52</v>
       </c>
       <c r="M235" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10404,7 +10422,7 @@
         <v>35.63</v>
       </c>
       <c r="M236" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10442,7 +10460,7 @@
         <v>35.76</v>
       </c>
       <c r="M237" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10480,7 +10498,7 @@
         <v>36.51</v>
       </c>
       <c r="M238" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10518,7 +10536,7 @@
         <v>36.35</v>
       </c>
       <c r="M239" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10556,7 +10574,7 @@
         <v>31.64</v>
       </c>
       <c r="M240" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10594,7 +10612,7 @@
         <v>31.94</v>
       </c>
       <c r="M241" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10632,7 +10650,7 @@
         <v>30.43</v>
       </c>
       <c r="M242" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10670,7 +10688,7 @@
         <v>27.87</v>
       </c>
       <c r="M243" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10708,7 +10726,7 @@
         <v>28.3</v>
       </c>
       <c r="M244" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10746,7 +10764,7 @@
         <v>27.77</v>
       </c>
       <c r="M245" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10784,7 +10802,7 @@
         <v>27.98</v>
       </c>
       <c r="M246" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10822,7 +10840,7 @@
         <v>28.63</v>
       </c>
       <c r="M247" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10860,7 +10878,7 @@
         <v>30.23</v>
       </c>
       <c r="M248" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10898,7 +10916,7 @@
         <v>31.67</v>
       </c>
       <c r="M249" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10936,7 +10954,7 @@
         <v>29.64</v>
       </c>
       <c r="M250" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10974,7 +10992,7 @@
         <v>28.48</v>
       </c>
       <c r="M251" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -11012,7 +11030,7 @@
         <v>28.47</v>
       </c>
       <c r="M252" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11050,7 +11068,7 @@
         <v>29.68</v>
       </c>
       <c r="M253" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11088,7 +11106,7 @@
         <v>29.35</v>
       </c>
       <c r="M254" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11126,7 +11144,7 @@
         <v>29.2</v>
       </c>
       <c r="M255" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11164,7 +11182,7 @@
         <v>28.61</v>
       </c>
       <c r="M256" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11202,7 +11220,7 @@
         <v>29.5</v>
       </c>
       <c r="M257" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -11240,7 +11258,7 @@
         <v>29.08</v>
       </c>
       <c r="M258" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -11278,7 +11296,7 @@
         <v>28.93</v>
       </c>
       <c r="M259" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11316,7 +11334,7 @@
         <v>27.66</v>
       </c>
       <c r="M260" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11354,7 +11372,7 @@
         <v>26.16</v>
       </c>
       <c r="M261" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11392,7 +11410,7 @@
         <v>27.91</v>
       </c>
       <c r="M262" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11430,7 +11448,7 @@
         <v>29.85</v>
       </c>
       <c r="M263" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11468,7 +11486,7 @@
         <v>25.83</v>
       </c>
       <c r="M264" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11506,7 +11524,7 @@
         <v>25.27</v>
       </c>
       <c r="M265" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11544,7 +11562,7 @@
         <v>28.01</v>
       </c>
       <c r="M266" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11582,7 +11600,7 @@
         <v>31.43</v>
       </c>
       <c r="M267" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11620,7 +11638,7 @@
         <v>27.68</v>
       </c>
       <c r="M268" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11658,7 +11676,7 @@
         <v>27.99</v>
       </c>
       <c r="M269" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11699,7 +11717,7 @@
         <v>26.04</v>
       </c>
       <c r="M270" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11737,7 +11755,7 @@
         <v>26.02</v>
       </c>
       <c r="M271" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11775,7 +11793,7 @@
         <v>24.91</v>
       </c>
       <c r="M272" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11813,7 +11831,7 @@
         <v>26.45</v>
       </c>
       <c r="M273" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11851,7 +11869,7 @@
         <v>24.93</v>
       </c>
       <c r="M274" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11889,7 +11907,7 @@
         <v>25.35</v>
       </c>
       <c r="M275" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11927,7 +11945,7 @@
         <v>26.26</v>
       </c>
       <c r="M276" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11965,7 +11983,7 @@
         <v>25.15</v>
       </c>
       <c r="M277" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -12003,7 +12021,7 @@
         <v>24.85</v>
       </c>
       <c r="M278" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -12041,7 +12059,7 @@
         <v>23.99</v>
       </c>
       <c r="M279" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -12079,7 +12097,7 @@
         <v>26.25</v>
       </c>
       <c r="M280" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -12117,7 +12135,7 @@
         <v>25.39</v>
       </c>
       <c r="M281" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -12155,7 +12173,7 @@
         <v>27.51</v>
       </c>
       <c r="M282" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -12193,7 +12211,7 @@
         <v>29.2</v>
       </c>
       <c r="M283" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -12231,7 +12249,7 @@
         <v>32.29</v>
       </c>
       <c r="M284" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12269,7 +12287,7 @@
         <v>27.93</v>
       </c>
       <c r="M285" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12307,7 +12325,7 @@
         <v>25.3</v>
       </c>
       <c r="M286" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12345,7 +12363,7 @@
         <v>27.19</v>
       </c>
       <c r="M287" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12383,7 +12401,7 @@
         <v>26.44</v>
       </c>
       <c r="M288" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12421,7 +12439,7 @@
         <v>23.44</v>
       </c>
       <c r="M289" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12459,7 +12477,7 @@
         <v>24.99</v>
       </c>
       <c r="M290" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12497,7 +12515,7 @@
         <v>23.2</v>
       </c>
       <c r="M291" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12535,7 +12553,7 @@
         <v>22.54</v>
       </c>
       <c r="M292" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12573,7 +12591,7 @@
         <v>22.89</v>
       </c>
       <c r="M293" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12611,7 +12629,7 @@
         <v>22.96</v>
       </c>
       <c r="M294" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12649,7 +12667,7 @@
         <v>20.49</v>
       </c>
       <c r="M295" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12687,7 +12705,7 @@
         <v>23.29</v>
       </c>
       <c r="M296" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12725,7 +12743,7 @@
         <v>23.82</v>
       </c>
       <c r="M297" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12763,7 +12781,7 @@
         <v>19.8</v>
       </c>
       <c r="M298" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12801,7 +12819,7 @@
         <v>19.87</v>
       </c>
       <c r="M299" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12839,7 +12857,7 @@
         <v>20.56</v>
       </c>
       <c r="M300" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -12877,7 +12895,7 @@
         <v>22.25</v>
       </c>
       <c r="M301" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -12915,7 +12933,7 @@
         <v>24.57</v>
       </c>
       <c r="M302" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -12953,7 +12971,7 @@
         <v>20.89</v>
       </c>
       <c r="M303" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -12991,7 +13009,7 @@
         <v>22.73</v>
       </c>
       <c r="M304" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -13029,7 +13047,7 @@
         <v>21.09</v>
       </c>
       <c r="M305" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -13067,7 +13085,7 @@
         <v>20.99</v>
       </c>
       <c r="M306" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -13105,7 +13123,7 @@
         <v>24.13</v>
       </c>
       <c r="M307" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -13143,7 +13161,7 @@
         <v>23.89</v>
       </c>
       <c r="M308" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -13181,7 +13199,7 @@
         <v>25.15</v>
       </c>
       <c r="M309" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -13219,7 +13237,7 @@
         <v>25.27</v>
       </c>
       <c r="M310" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -13257,7 +13275,7 @@
         <v>23.6</v>
       </c>
       <c r="M311" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -13295,7 +13313,7 @@
         <v>24.88</v>
       </c>
       <c r="M312" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -13333,7 +13351,7 @@
         <v>26.72</v>
       </c>
       <c r="M313" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -13371,7 +13389,7 @@
         <v>26.76</v>
       </c>
       <c r="M314" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -13409,7 +13427,7 @@
         <v>25.86</v>
       </c>
       <c r="M315" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -13447,7 +13465,7 @@
         <v>26.28</v>
       </c>
       <c r="M316" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -13485,7 +13503,7 @@
         <v>25.64</v>
       </c>
       <c r="M317" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -13526,7 +13544,7 @@
         <v>25.61</v>
       </c>
       <c r="M318" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -13564,7 +13582,7 @@
         <v>26.3</v>
       </c>
       <c r="M319" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -13602,7 +13620,7 @@
         <v>22.55</v>
       </c>
       <c r="M320" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="321" spans="1:13">
@@ -13640,7 +13658,7 @@
         <v>25.41</v>
       </c>
       <c r="M321" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -13678,7 +13696,7 @@
         <v>26.96</v>
       </c>
       <c r="M322" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="323" spans="1:13">
@@ -13716,7 +13734,7 @@
         <v>25.39</v>
       </c>
       <c r="M323" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -13754,7 +13772,235 @@
         <v>26.23</v>
       </c>
       <c r="M324" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
         <v>335</v>
+      </c>
+      <c r="C325">
+        <v>11.45</v>
+      </c>
+      <c r="D325">
+        <v>76.86</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>21.7</v>
+      </c>
+      <c r="G325">
+        <v>3.5</v>
+      </c>
+      <c r="H325">
+        <v>856.01</v>
+      </c>
+      <c r="I325">
+        <v>17.44</v>
+      </c>
+      <c r="J325">
+        <v>135.7</v>
+      </c>
+      <c r="L325">
+        <v>28.36</v>
+      </c>
+      <c r="M325" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>336</v>
+      </c>
+      <c r="C326">
+        <v>11.68</v>
+      </c>
+      <c r="D326">
+        <v>76.48999999999999</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>21.82</v>
+      </c>
+      <c r="G326">
+        <v>1.72</v>
+      </c>
+      <c r="H326">
+        <v>856.0700000000001</v>
+      </c>
+      <c r="I326">
+        <v>17.48</v>
+      </c>
+      <c r="J326">
+        <v>164.4</v>
+      </c>
+      <c r="L326">
+        <v>27.49</v>
+      </c>
+      <c r="M326" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>337</v>
+      </c>
+      <c r="C327">
+        <v>12.05</v>
+      </c>
+      <c r="D327">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>22.01</v>
+      </c>
+      <c r="G327">
+        <v>355.7</v>
+      </c>
+      <c r="H327">
+        <v>856.16</v>
+      </c>
+      <c r="I327">
+        <v>17.37</v>
+      </c>
+      <c r="J327">
+        <v>284.54</v>
+      </c>
+      <c r="L327">
+        <v>29.85</v>
+      </c>
+      <c r="M327" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>338</v>
+      </c>
+      <c r="C328">
+        <v>12.31</v>
+      </c>
+      <c r="D328">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>22.53</v>
+      </c>
+      <c r="G328">
+        <v>349.84</v>
+      </c>
+      <c r="H328">
+        <v>856.35</v>
+      </c>
+      <c r="I328">
+        <v>17.16</v>
+      </c>
+      <c r="J328">
+        <v>422.93</v>
+      </c>
+      <c r="L328">
+        <v>27.69</v>
+      </c>
+      <c r="M328" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>339</v>
+      </c>
+      <c r="C329">
+        <v>11.88</v>
+      </c>
+      <c r="D329">
+        <v>70.06</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>22.42</v>
+      </c>
+      <c r="G329">
+        <v>349.41</v>
+      </c>
+      <c r="H329">
+        <v>856.28</v>
+      </c>
+      <c r="I329">
+        <v>16.66</v>
+      </c>
+      <c r="J329">
+        <v>194.11</v>
+      </c>
+      <c r="L329">
+        <v>29.12</v>
+      </c>
+      <c r="M329" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>340</v>
+      </c>
+      <c r="C330">
+        <v>11.75</v>
+      </c>
+      <c r="D330">
+        <v>68.11</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>22.54</v>
+      </c>
+      <c r="G330">
+        <v>0.73</v>
+      </c>
+      <c r="H330">
+        <v>856.26</v>
+      </c>
+      <c r="I330">
+        <v>16.33</v>
+      </c>
+      <c r="J330">
+        <v>193.87</v>
+      </c>
+      <c r="L330">
+        <v>29</v>
+      </c>
+      <c r="M330" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
